--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 60881-2025</t>
+          <t>A 6040-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45999</v>
+        <v>45695.66266203704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,13 +588,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -622,208 +622,208 @@
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 6040-2025 artfynd.xlsx", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 6040-2025 karta.png", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 6040-2025 FSC-klagomål.docx", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 6040-2025 FSC-klagomål mail.docx", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 6040-2025 tillsynsbegäran.docx", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 6040-2025 tillsynsbegäran mail.docx", "A 6040-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 60881-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
           <t>Rostfläck</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 60881-2025 artfynd.xlsx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 60881-2025 karta.png", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 60881-2025 FSC-klagomål.docx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 60881-2025 FSC-klagomål mail.docx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 60881-2025 tillsynsbegäran.docx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 60881-2025 tillsynsbegäran mail.docx", "A 60881-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A 51277-2025</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>45950.23784722222</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>4.1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Gulsparv</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 51277-2025 artfynd.xlsx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 51277-2025 karta.png", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 51277-2025 FSC-klagomål.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 51277-2025 FSC-klagomål mail.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 51277-2025 tillsynsbegäran.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 51277-2025 tillsynsbegäran mail.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/fåglar/A 51277-2025 prioriterade fågelarter.docx", "A 51277-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 6040-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45695.66266203704</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 6040-2025 artfynd.xlsx", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 6040-2025 karta.png", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 6040-2025 FSC-klagomål.docx", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 6040-2025 FSC-klagomål mail.docx", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 6040-2025 tillsynsbegäran.docx", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 6040-2025 tillsynsbegäran mail.docx", "A 6040-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44264</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44600.48700231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1003,14 +1003,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 40536-2021</t>
+          <t>A 32481-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44420.38428240741</v>
+        <v>44782.61696759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1060,14 +1060,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 32481-2022</t>
+          <t>A 40536-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44782.61696759259</v>
+        <v>44420.38428240741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>44356.42327546296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44305.59869212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>44796.56913194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>44620</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44432</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44314.54328703704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1516,14 +1516,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 47901-2021</t>
+          <t>A 51421-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44448.8524537037</v>
+        <v>44461</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1573,14 +1573,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 51421-2021</t>
+          <t>A 47901-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44461</v>
+        <v>44448.8524537037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1630,14 +1630,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 10831-2022</t>
+          <t>A 62540-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44627.56489583333</v>
+        <v>44503.61056712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1687,14 +1687,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 62540-2021</t>
+          <t>A 10831-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44503.61056712963</v>
+        <v>44627.56489583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>44378</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,14 +1801,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 42438-2022</t>
+          <t>A 46713-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44831.4771412037</v>
+        <v>44851.3972337963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.3</v>
+        <v>15.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 50987-2022</t>
+          <t>A 42438-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44867.89589120371</v>
+        <v>44831.4771412037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>5.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1915,14 +1915,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 46713-2022</t>
+          <t>A 50987-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44851.3972337963</v>
+        <v>44867.89589120371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>15.7</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>44851.74130787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44378.41319444445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44504</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44267</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44746.7121412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44851.74324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44851.74546296296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>44376.6027662037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44886.56302083333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44704.53608796297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2889,14 +2889,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 33836-2021</t>
+          <t>A 17742-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44378</v>
+        <v>44299</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2946,14 +2946,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 49047-2022</t>
+          <t>A 50699-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44858</v>
+        <v>44460.36069444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3003,14 +3003,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 17742-2021</t>
+          <t>A 50702-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44299</v>
+        <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3060,14 +3060,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 50699-2021</t>
+          <t>A 33836-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44460.36069444445</v>
+        <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>6.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3117,14 +3117,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 50702-2021</t>
+          <t>A 49047-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44460</v>
+        <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         <v>44270.36637731481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44867</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44431.35026620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44441</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>44343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>44594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44785.60559027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3630,14 +3630,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6974-2025</t>
+          <t>A 10503-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45701.54447916667</v>
+        <v>44623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3687,14 +3687,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 36630-2025</t>
+          <t>A 12173-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45870</v>
+        <v>44636.73104166667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3744,14 +3744,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 36632-2025</t>
+          <t>A 12175-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45870</v>
+        <v>44636.73430555555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3801,14 +3801,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 10503-2022</t>
+          <t>A 21085-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44623</v>
+        <v>44704.53440972222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3858,14 +3858,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 12173-2022</t>
+          <t>A 9212-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44636.73104166667</v>
+        <v>44616.30952546297</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3915,14 +3915,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 12175-2022</t>
+          <t>A 4624-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44636.73430555555</v>
+        <v>45687.62030092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.4</v>
+        <v>11.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3972,14 +3972,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 9215-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>45358</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>12.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4029,14 +4029,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 21085-2022</t>
+          <t>A 20443-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44704.53440972222</v>
+        <v>45435.62212962963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4086,14 +4086,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 9212-2022</t>
+          <t>A 40224-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44616.30952546297</v>
+        <v>45554.59815972222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4105,8 +4105,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4143,14 +4148,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 37398-2025</t>
+          <t>A 56856-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45877</v>
+        <v>45628.54497685185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4163,7 +4168,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4200,14 +4205,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 10449-2025</t>
+          <t>A 31967-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45720</v>
+        <v>45510</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4220,7 +4225,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4257,14 +4262,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 41690-2023</t>
+          <t>A 60543-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45176.36280092593</v>
+        <v>45643.79293981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4277,7 +4282,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4314,14 +4319,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 11983-2025</t>
+          <t>A 9000-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45728</v>
+        <v>44979.5653125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4334,7 +4339,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4371,14 +4376,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9058-2025</t>
+          <t>A 9012-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45713.64200231482</v>
+        <v>44979.59778935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4391,7 +4396,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4428,14 +4433,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 35588-2023</t>
+          <t>A 21303-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45146</v>
+        <v>45440.6750462963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4448,7 +4453,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4485,14 +4490,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4289-2025</t>
+          <t>A 58514-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45685.65704861111</v>
+        <v>45635.42575231481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4505,7 +4510,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4542,14 +4547,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 19259-2025</t>
+          <t>A 13235-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45769.50775462963</v>
+        <v>45386</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4562,7 +4567,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4599,14 +4604,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17542-2025</t>
+          <t>A 7851-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45757.60574074074</v>
+        <v>44973.52238425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4619,7 +4624,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4656,14 +4661,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59335-2023</t>
+          <t>A 61687-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45253.64171296296</v>
+        <v>45264</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4676,7 +4681,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4713,14 +4718,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 5847-2024</t>
+          <t>A 10449-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45335.61695601852</v>
+        <v>45720</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4733,7 +4738,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4770,14 +4775,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 54293-2023</t>
+          <t>A 59259-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45232.72627314815</v>
+        <v>45253.54922453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4790,7 +4795,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4827,14 +4832,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 579-2024</t>
+          <t>A 59335-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45299</v>
+        <v>45253.64171296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4847,7 +4852,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4884,14 +4889,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27845-2023</t>
+          <t>A 12021-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45098.55438657408</v>
+        <v>45377.3702662037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4904,7 +4909,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4941,14 +4946,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 62313-2023</t>
+          <t>A 43615-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45267</v>
+        <v>45569.47056712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4960,8 +4965,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4998,14 +5008,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62775-2023</t>
+          <t>A 9413-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45271</v>
+        <v>45359.44399305555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5018,7 +5028,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5055,14 +5065,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 18224-2022</t>
+          <t>A 9450-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44685</v>
+        <v>45358</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5075,7 +5085,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5112,14 +5122,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 18244-2022</t>
+          <t>A 1152-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44685</v>
+        <v>44935.64951388889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5132,7 +5142,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5169,14 +5179,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 59786-2022</t>
+          <t>A 54201-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44900</v>
+        <v>45232.55328703704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5189,7 +5199,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>7.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5226,14 +5236,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 17911-2025</t>
+          <t>A 73168-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45758.74115740741</v>
+        <v>44550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5246,7 +5256,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5283,14 +5293,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42486-2021</t>
+          <t>A 57266-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44427</v>
+        <v>45629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5303,7 +5313,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5340,14 +5350,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 37726-2024</t>
+          <t>A 14593-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45541.65391203704</v>
+        <v>44655.57246527778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5360,7 +5370,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5397,14 +5407,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39371-2025</t>
+          <t>A 22901-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45889.58263888889</v>
+        <v>45448.70333333333</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5416,13 +5426,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5459,14 +5464,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39374-2025</t>
+          <t>A 20465-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45889.58648148148</v>
+        <v>45435.66646990741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5478,13 +5483,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5521,14 +5521,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 9411-2024</t>
+          <t>A 24609-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45359.44168981481</v>
+        <v>45798.58065972223</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5578,14 +5578,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6454-2024</t>
+          <t>A 15737-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45338.68309027778</v>
+        <v>45748.54488425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5597,13 +5597,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5640,14 +5635,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14116-2025</t>
+          <t>A 54293-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45740</v>
+        <v>45232.72627314815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5655,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5697,14 +5692,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 50702-2022</t>
+          <t>A 9058-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44867.32679398148</v>
+        <v>45713.64200231482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5712,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5754,14 +5749,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 59259-2023</t>
+          <t>A 25128-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45253.54922453704</v>
+        <v>45800.37969907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5769,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.5</v>
+        <v>6.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5811,14 +5806,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 52778-2022</t>
+          <t>A 25359-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44875</v>
+        <v>45800.61756944445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5826,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8.4</v>
+        <v>3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5868,14 +5863,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41281-2025</t>
+          <t>A 57255-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45898.63497685185</v>
+        <v>44895.78674768518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5883,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5925,14 +5920,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 9410-2024</t>
+          <t>A 31260-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45359.4405787037</v>
+        <v>44771.57344907407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5982,14 +5977,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50709-2021</t>
+          <t>A 14116-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44460.36636574074</v>
+        <v>45740</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +5997,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6039,14 +6034,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41278-2025</t>
+          <t>A 35056-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45898.62895833333</v>
+        <v>45142</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6054,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6096,14 +6091,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 49041-2022</t>
+          <t>A 35588-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44858</v>
+        <v>45146</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6111,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.3</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6153,14 +6148,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 41286-2025</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45898.63819444444</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6168,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6210,14 +6205,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57260-2025</t>
+          <t>A 27856-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45979.6544212963</v>
+        <v>45475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6225,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6267,14 +6262,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 41331-2025</t>
+          <t>A 44947-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45899.35118055555</v>
+        <v>45575.44268518518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6286,8 +6281,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6324,14 +6324,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 57255-2022</t>
+          <t>A 4289-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44895.78674768518</v>
+        <v>45685.65704861111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6381,14 +6381,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 42237-2025</t>
+          <t>A 51398-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45904.56365740741</v>
+        <v>45604.4233912037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6438,14 +6438,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 4434-2024</t>
+          <t>A 27819-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45327.47383101852</v>
+        <v>45475</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6495,14 +6495,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42395-2025</t>
+          <t>A 57313-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45905</v>
+        <v>45629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6552,14 +6552,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 14690-2024</t>
+          <t>A 40331-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45397</v>
+        <v>44823.35134259259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6609,14 +6609,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 42919-2025</t>
+          <t>A 11983-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45908.87262731481</v>
+        <v>45728</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6666,14 +6666,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43216-2025</t>
+          <t>A 39371-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45910.46533564815</v>
+        <v>45889.58263888889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6685,8 +6685,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6723,14 +6728,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 42920-2025</t>
+          <t>A 39374-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45908.87545138889</v>
+        <v>45889.58648148148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6742,8 +6747,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6780,14 +6790,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 26631-2021</t>
+          <t>A 57295-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44348.67560185185</v>
+        <v>45629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6810,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6837,14 +6847,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 33299-2023</t>
+          <t>A 26786-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45116</v>
+        <v>45810.58515046296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6867,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6894,14 +6904,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 20465-2024</t>
+          <t>A 41690-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45435.66646990741</v>
+        <v>45176.36280092593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6924,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6951,14 +6961,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 64317-2023</t>
+          <t>A 27151-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45279</v>
+        <v>45812.32086805555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6981,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7008,14 +7018,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 64330-2023</t>
+          <t>A 4434-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45279</v>
+        <v>45327.47383101852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7038,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7065,14 +7075,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 44240-2025</t>
+          <t>A 53719-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45915.67596064815</v>
+        <v>45230.72717592592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7095,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7122,14 +7132,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 23065-2024</t>
+          <t>A 59527-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45450.44878472222</v>
+        <v>45638.59061342593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7152,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7179,14 +7189,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 60216-2025</t>
+          <t>A 12009-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45994.54114583333</v>
+        <v>45728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7209,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>8.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7236,14 +7246,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 961-2023</t>
+          <t>A 41278-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44934</v>
+        <v>45898.62895833333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7266,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7293,14 +7303,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 60029-2025</t>
+          <t>A 41331-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45993.61226851852</v>
+        <v>45899.35118055555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7323,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>19.6</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7350,14 +7360,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 9000-2023</t>
+          <t>A 41281-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44979.5653125</v>
+        <v>45898.63497685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7380,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7407,14 +7417,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 36627-2025</t>
+          <t>A 41286-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45870</v>
+        <v>45898.63819444444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7437,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7464,14 +7474,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45974-2025</t>
+          <t>A 57253-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45924.36851851852</v>
+        <v>44895.77885416667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7494,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7521,14 +7531,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 2867-2026</t>
+          <t>A 4622-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46038.50097222222</v>
+        <v>45687.61902777778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7551,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7578,14 +7588,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 35056-2023</t>
+          <t>A 28781-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45142</v>
+        <v>45820.45300925926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7597,8 +7607,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7635,14 +7650,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 60575-2025</t>
+          <t>A 42395-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45996.3097337963</v>
+        <v>45905</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7654,13 +7669,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7697,14 +7707,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 59946-2022</t>
+          <t>A 42237-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44909.38717592593</v>
+        <v>45904.56365740741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7717,7 +7727,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7754,14 +7764,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 10728-2023</t>
+          <t>A 50702-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44988.67260416667</v>
+        <v>44867.32679398148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7774,7 +7784,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7811,14 +7821,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 73168-2021</t>
+          <t>A 42920-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44550</v>
+        <v>45908.87545138889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7831,7 +7841,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7868,14 +7878,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 49820-2022</t>
+          <t>A 42919-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44862.70869212963</v>
+        <v>45908.87262731481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7888,7 +7898,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7925,14 +7935,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45303-2024</t>
+          <t>A 29303-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45576.4172337963</v>
+        <v>45824.45894675926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7945,7 +7955,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>8.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -7982,14 +7992,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47819-2025</t>
+          <t>A 17536-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45932.33591435185</v>
+        <v>45757</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8002,7 +8012,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8039,14 +8049,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 33693-2021</t>
+          <t>A 17543-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44378.4540162037</v>
+        <v>45757.60640046297</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8059,7 +8069,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8096,14 +8106,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61737-2023</t>
+          <t>A 29200-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45265.69740740741</v>
+        <v>45823.35009259259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8116,7 +8126,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8153,14 +8163,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 48066-2025</t>
+          <t>A 43216-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45932</v>
+        <v>45910.46533564815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8173,7 +8183,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8210,14 +8220,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 48074-2025</t>
+          <t>A 45303-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45932</v>
+        <v>45576.4172337963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8230,7 +8240,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8267,14 +8277,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 4278-2026</t>
+          <t>A 29814-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46045.38021990741</v>
+        <v>45825.78996527778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8287,7 +8297,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8324,14 +8334,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 9404-2022</t>
+          <t>A 44240-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44616</v>
+        <v>45915.67596064815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8344,7 +8354,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8381,14 +8391,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 4701-2026</t>
+          <t>A 25764-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46048.44986111111</v>
+        <v>45090.45520833333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8400,13 +8410,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8443,14 +8448,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 60819-2023</t>
+          <t>A 61738-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45260.73208333334</v>
+        <v>45265.69861111111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8468,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8500,14 +8505,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49863-2025</t>
+          <t>A 31163-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45940.51858796296</v>
+        <v>45832.65693287037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8525,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8557,14 +8562,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 20240-2023</t>
+          <t>A 9411-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45055.68784722222</v>
+        <v>45359.44168981481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8582,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8614,14 +8619,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 50123-2025</t>
+          <t>A 45974-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45943.55126157407</v>
+        <v>45924.36851851852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8633,13 +8638,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8676,14 +8676,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 50604-2025</t>
+          <t>A 64317-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45944</v>
+        <v>45279</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8733,14 +8733,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 4812-2025</t>
+          <t>A 64330-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45688.61510416667</v>
+        <v>45279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8752,13 +8752,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>6.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8795,14 +8790,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 9215-2024</t>
+          <t>A 31629-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45358</v>
+        <v>45834.3266087963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8815,7 +8810,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>12.2</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8852,14 +8847,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 52879-2024</t>
+          <t>A 31606-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45610.63946759259</v>
+        <v>45833.75311342593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8872,7 +8867,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8909,14 +8904,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 51212-2025</t>
+          <t>A 7655-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45947.64262731482</v>
+        <v>45348.69953703704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8929,7 +8924,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>8.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8966,14 +8961,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12007-2025</t>
+          <t>A 49737-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45728</v>
+        <v>45596.86387731481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8986,7 +8981,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9023,14 +9018,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 49391-2024</t>
+          <t>A 19259-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45595.6597337963</v>
+        <v>45769.50775462963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9043,7 +9038,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9080,14 +9075,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 51218-2025</t>
+          <t>A 48074-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45947.64576388889</v>
+        <v>45932</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9100,7 +9095,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9137,14 +9132,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 51206-2025</t>
+          <t>A 1141-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45947.6365625</v>
+        <v>44935</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9157,7 +9152,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9194,14 +9189,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 6380-2021</t>
+          <t>A 47819-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44235</v>
+        <v>45932.33591435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9214,7 +9209,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9251,14 +9246,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52131-2025</t>
+          <t>A 961-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45952.75775462963</v>
+        <v>44934</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9271,7 +9266,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9308,14 +9303,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 50812-2023</t>
+          <t>A 48066-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45217.75505787037</v>
+        <v>45932</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9328,7 +9323,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9365,14 +9360,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 12021-2024</t>
+          <t>A 22532-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45377.3702662037</v>
+        <v>45786</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9385,7 +9380,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>8</v>
+        <v>0.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9422,14 +9417,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 10180-2024</t>
+          <t>A 33672-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45364.8280787037</v>
+        <v>45841</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9442,7 +9437,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9479,14 +9474,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 43624-2024</t>
+          <t>A 11270-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45569.4868287037</v>
+        <v>45726.40613425926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9498,13 +9493,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9541,14 +9531,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 53604-2025</t>
+          <t>A 2680-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45960.46254629629</v>
+        <v>45677.34737268519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9561,7 +9551,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>19.8</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9598,14 +9588,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 53606-2025</t>
+          <t>A 33664-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45960.46693287037</v>
+        <v>45841.66825231481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9618,7 +9608,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9655,14 +9645,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 49737-2024</t>
+          <t>A 9404-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45596.86387731481</v>
+        <v>44616</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9675,7 +9665,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9712,14 +9702,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 20196-2024</t>
+          <t>A 33910-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45434.63688657407</v>
+        <v>45842.60122685185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9732,7 +9722,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9769,14 +9759,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33099-2025</t>
+          <t>A 59314-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45840</v>
+        <v>45637.68851851852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9789,7 +9779,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9826,14 +9816,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 53802-2025</t>
+          <t>A 50123-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45960.79004629629</v>
+        <v>45943.55126157407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9845,8 +9835,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9883,14 +9878,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 18843-2021</t>
+          <t>A 49863-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44307</v>
+        <v>45940.51858796296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9903,7 +9898,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9940,14 +9935,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 1980-2024</t>
+          <t>A 27845-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45308</v>
+        <v>45098.55438657408</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9960,7 +9955,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -9997,14 +9992,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 12675-2021</t>
+          <t>A 962-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44270.53107638889</v>
+        <v>44934</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10017,7 +10012,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10054,14 +10049,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 7655-2024</t>
+          <t>A 5847-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45348.69953703704</v>
+        <v>45335.61695601852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10074,7 +10069,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10111,14 +10106,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 20536-2022</t>
+          <t>A 46137-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44700</v>
+        <v>45196.56315972222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10131,7 +10126,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10168,14 +10163,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 56456-2022</t>
+          <t>A 50604-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44893.31987268518</v>
+        <v>45944</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10188,7 +10183,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10225,14 +10220,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 55667-2024</t>
+          <t>A 49391-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45622.64577546297</v>
+        <v>45595.6597337963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10245,7 +10240,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10282,14 +10277,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 56164-2024</t>
+          <t>A 11589-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45624.54939814815</v>
+        <v>44631</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10302,7 +10297,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>15.7</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10339,14 +10334,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 6453-2024</t>
+          <t>A 51212-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45338.67915509259</v>
+        <v>45947.64262731482</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10358,13 +10353,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10401,14 +10391,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 962-2023</t>
+          <t>A 51218-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44934</v>
+        <v>45947.64576388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10421,7 +10411,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10458,14 +10448,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 60543-2024</t>
+          <t>A 33693-2021</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45643.79293981481</v>
+        <v>44378.4540162037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10478,7 +10468,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10515,14 +10505,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 54997-2025</t>
+          <t>A 35059-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45967.5977199074</v>
+        <v>45142</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10535,7 +10525,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10572,14 +10562,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 50673-2024</t>
+          <t>A 6716-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45601.84043981481</v>
+        <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10592,7 +10582,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.1</v>
+        <v>2.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10629,14 +10619,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 56654-2023</t>
+          <t>A 51206-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45243.80131944444</v>
+        <v>45947.6365625</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10649,7 +10639,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10686,14 +10676,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 7851-2023</t>
+          <t>A 56654-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44973.52238425926</v>
+        <v>45243.80131944444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10706,7 +10696,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10743,14 +10733,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35042-2023</t>
+          <t>A 1197-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45142</v>
+        <v>45667.38278935185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10763,7 +10753,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10800,14 +10790,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 33300-2023</t>
+          <t>A 60483-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45116</v>
+        <v>44911.4247800926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10820,7 +10810,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10857,14 +10847,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 33301-2023</t>
+          <t>A 49736-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45116</v>
+        <v>45596.86271990741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10877,7 +10867,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10914,14 +10904,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 55561-2025</t>
+          <t>A 6974-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45971.65128472223</v>
+        <v>45701.54447916667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10934,7 +10924,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10971,14 +10961,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 7238-2024</t>
+          <t>A 28851-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45344.66310185185</v>
+        <v>45478.78487268519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10991,7 +10981,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11028,14 +11018,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 61269-2024</t>
+          <t>A 52131-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45645.74246527778</v>
+        <v>45952.75775462963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11048,7 +11038,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11085,14 +11075,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 55967-2025</t>
+          <t>A 61740-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45973.48353009259</v>
+        <v>45265.70538194444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11104,13 +11094,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11147,14 +11132,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 43615-2024</t>
+          <t>A 9013-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45569.47056712963</v>
+        <v>44979.60032407408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11166,13 +11151,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11209,14 +11189,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 56326-2025</t>
+          <t>A 36630-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45974.6370949074</v>
+        <v>45870</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11229,7 +11209,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11266,14 +11246,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 44947-2024</t>
+          <t>A 36632-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45575.44268518518</v>
+        <v>45870</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11285,13 +11265,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11328,14 +11303,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 31260-2022</t>
+          <t>A 9410-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44771.57344907407</v>
+        <v>45359.4405787037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11385,14 +11360,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 63842-2025</t>
+          <t>A 9216-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46020.43096064815</v>
+        <v>45358.50931712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11405,7 +11380,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11442,14 +11417,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 12938-2022</t>
+          <t>A 53606-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44642</v>
+        <v>45960.46693287037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11462,7 +11437,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11499,14 +11474,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 28851-2024</t>
+          <t>A 53604-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45478.78487268519</v>
+        <v>45960.46254629629</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11519,7 +11494,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>19.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11556,14 +11531,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 34708-2023</t>
+          <t>A 42038-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45140.9924537037</v>
+        <v>45561.79969907407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11576,7 +11551,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.9</v>
+        <v>7.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11613,14 +11588,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 42427-2023</t>
+          <t>A 37398-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45180</v>
+        <v>45877</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11633,7 +11608,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11670,14 +11645,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 21291-2024</t>
+          <t>A 57759-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45440.66341435185</v>
+        <v>45246.8422337963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11690,7 +11665,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11727,14 +11702,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 6517-2022</t>
+          <t>A 53802-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44601.46166666667</v>
+        <v>45960.79004629629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11747,7 +11722,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11784,14 +11759,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 13194-2022</t>
+          <t>A 50709-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44644</v>
+        <v>44460.36636574074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11804,7 +11779,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11841,14 +11816,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 18842-2021</t>
+          <t>A 50712-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44307</v>
+        <v>44460.36731481482</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11861,7 +11836,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11898,14 +11873,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 38920-2022</t>
+          <t>A 54997-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44816</v>
+        <v>45967.5977199074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11918,7 +11893,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11955,14 +11930,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 20439-2024</t>
+          <t>A 55561-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45435</v>
+        <v>45971.65128472223</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11975,7 +11950,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12012,14 +11987,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 20461-2024</t>
+          <t>A 62775-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45435.65636574074</v>
+        <v>45271</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12032,7 +12007,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12069,14 +12044,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 49736-2024</t>
+          <t>A 55967-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45596.86271990741</v>
+        <v>45973.48353009259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12088,8 +12063,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12126,14 +12106,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 55356-2024</t>
+          <t>A 17542-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45621.80996527777</v>
+        <v>45757.60574074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12146,7 +12126,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12183,14 +12163,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 37917-2023</t>
+          <t>A 56326-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45160.48486111111</v>
+        <v>45974.6370949074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12203,7 +12183,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12240,14 +12220,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 46137-2023</t>
+          <t>A 50812-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45196.56315972222</v>
+        <v>45217.75505787037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12260,7 +12240,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12297,14 +12277,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 9218-2024</t>
+          <t>A 63842-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45358.51653935185</v>
+        <v>46020.43096064815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12317,7 +12297,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12354,14 +12334,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 57266-2024</t>
+          <t>A 57260-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45629</v>
+        <v>45979.6544212963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12374,7 +12354,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12411,14 +12391,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 9380-2025</t>
+          <t>A 73305-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45715.34340277778</v>
+        <v>44551.3184837963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12430,13 +12410,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12473,14 +12448,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 365-2022</t>
+          <t>A 18224-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44565</v>
+        <v>44685</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12493,7 +12468,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>7.8</v>
+        <v>1.2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12530,14 +12505,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 50909-2023</t>
+          <t>A 18244-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45218.42068287037</v>
+        <v>44685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12550,7 +12525,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12587,14 +12562,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 31967-2024</t>
+          <t>A 6380-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45510</v>
+        <v>44235</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12607,7 +12582,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>9.1</v>
+        <v>5.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12644,14 +12619,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 59314-2024</t>
+          <t>A 12024-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45637.68851851852</v>
+        <v>45377</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12664,7 +12639,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12701,14 +12676,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 4622-2025</t>
+          <t>A 51467-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45687.61902777778</v>
+        <v>45221.75239583333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12721,7 +12696,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12758,14 +12733,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 47332-2023</t>
+          <t>A 55667-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45202.53005787037</v>
+        <v>45622.64577546297</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12815,14 +12790,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 4624-2025</t>
+          <t>A 9579-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45687.62030092593</v>
+        <v>44251</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12835,7 +12810,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>11.7</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12872,14 +12847,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 40331-2022</t>
+          <t>A 14690-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44823.35134259259</v>
+        <v>45397</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12892,7 +12867,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12929,14 +12904,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 2452-2022</t>
+          <t>A 57256-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44579</v>
+        <v>44895.78923611111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12949,7 +12924,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12986,14 +12961,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 57303-2024</t>
+          <t>A 57257-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45629</v>
+        <v>44895.79283564815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13006,7 +12981,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13043,14 +13018,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 52918-2023</t>
+          <t>A 10180-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45226.52905092593</v>
+        <v>45364.8280787037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13063,7 +13038,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13100,14 +13075,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 57420-2024</t>
+          <t>A 365-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45629</v>
+        <v>44565</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13120,7 +13095,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13157,14 +13132,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 12333-2022</t>
+          <t>A 49678-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44637.62513888889</v>
+        <v>45212.33935185185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13177,7 +13152,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13214,14 +13189,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 54201-2023</t>
+          <t>A 60029-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45232.55328703704</v>
+        <v>45993.61226851852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13234,7 +13209,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>7.6</v>
+        <v>19.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13271,14 +13246,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 12016-2025</t>
+          <t>A 12026-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45728</v>
+        <v>45377.37309027778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13291,7 +13266,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13328,14 +13303,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 17536-2025</t>
+          <t>A 57303-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45757</v>
+        <v>45629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13348,7 +13323,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13385,14 +13360,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 17543-2025</t>
+          <t>A 60216-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45757.60640046297</v>
+        <v>45994.54114583333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13405,7 +13380,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13442,14 +13417,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 35035-2023</t>
+          <t>A 60575-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45142</v>
+        <v>45996.3097337963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13461,8 +13436,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13499,14 +13479,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 63426-2023</t>
+          <t>A 36627-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45274</v>
+        <v>45870</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13519,7 +13499,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13556,14 +13536,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 9108-2022</t>
+          <t>A 2867-2026</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44615</v>
+        <v>46038.50097222222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13576,7 +13556,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13613,14 +13593,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 61738-2023</t>
+          <t>A 6454-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45265.69861111111</v>
+        <v>45338.68309027778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13632,8 +13612,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13670,14 +13655,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 9579-2021</t>
+          <t>A 49820-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44251</v>
+        <v>44862.70869212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13690,7 +13675,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13727,14 +13712,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 6716-2021</t>
+          <t>A 33300-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44236</v>
+        <v>45116</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13747,7 +13732,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13784,14 +13769,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 3522-2024</t>
+          <t>A 33301-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45320.53537037037</v>
+        <v>45116</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13804,7 +13789,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13841,14 +13826,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 11270-2025</t>
+          <t>A 35042-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45726.40613425926</v>
+        <v>45142</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13861,7 +13846,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13898,14 +13883,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 61687-2023</t>
+          <t>A 10728-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45264</v>
+        <v>44988.67260416667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13918,7 +13903,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13955,14 +13940,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 57256-2022</t>
+          <t>A 63426-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44895.78923611111</v>
+        <v>45274</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13975,7 +13960,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14012,14 +13997,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 57257-2022</t>
+          <t>A 57420-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44895.79283564815</v>
+        <v>45629</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14032,7 +14017,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14069,14 +14054,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 59266-2023</t>
+          <t>A 4278-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45253.55190972222</v>
+        <v>46045.38021990741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14089,7 +14074,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14126,14 +14111,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 18691-2023</t>
+          <t>A 43754-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45043.61253472222</v>
+        <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14146,7 +14131,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14183,14 +14168,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 15737-2025</t>
+          <t>A 18843-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45748.54488425926</v>
+        <v>44307</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14203,7 +14188,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14240,14 +14225,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 6977-2025</t>
+          <t>A 26631-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45701.54565972222</v>
+        <v>44348.67560185185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14260,7 +14245,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14297,14 +14282,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 57253-2022</t>
+          <t>A 62313-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44895.77885416667</v>
+        <v>45267</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14317,7 +14302,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14354,14 +14339,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 42038-2024</t>
+          <t>A 50713-2021</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45561.79969907407</v>
+        <v>44460.36797453704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14374,7 +14359,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14411,14 +14396,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 35059-2023</t>
+          <t>A 21291-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45142</v>
+        <v>45440.66341435185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14431,7 +14416,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14468,14 +14453,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 50712-2021</t>
+          <t>A 33099-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44460.36731481482</v>
+        <v>45840</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14525,14 +14510,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 50713-2021</t>
+          <t>A 2781-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44460.36797453704</v>
+        <v>45677.54344907407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14545,7 +14530,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14582,14 +14567,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 59782-2022</t>
+          <t>A 4812-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44900</v>
+        <v>45688.61510416667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14601,8 +14586,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14639,14 +14629,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 1141-2023</t>
+          <t>A 37726-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44935</v>
+        <v>45541.65391203704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14659,7 +14649,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14696,14 +14686,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 1152-2023</t>
+          <t>A 2452-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44935.64951388889</v>
+        <v>44579</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14716,7 +14706,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14753,14 +14743,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 4701-2026</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>46048.44986111111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14772,8 +14762,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14810,14 +14805,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 73305-2021</t>
+          <t>A 50673-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44551.3184837963</v>
+        <v>45601.84043981481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14830,7 +14825,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14867,14 +14862,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 9013-2023</t>
+          <t>A 47332-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44979.60032407408</v>
+        <v>45202.53005787037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14887,7 +14882,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14924,14 +14919,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 35608-2023</t>
+          <t>A 61879-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45146</v>
+        <v>45266.42527777778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14944,7 +14939,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14981,14 +14976,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 9012-2023</t>
+          <t>A 13481-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44979.59778935185</v>
+        <v>45005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15001,7 +14996,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15038,14 +15033,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 9413-2024</t>
+          <t>A 6453-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45359.44399305555</v>
+        <v>45338.67915509259</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15057,8 +15052,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15095,14 +15095,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 9450-2024</t>
+          <t>A 20196-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45358</v>
+        <v>45434.63688657407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15115,7 +15115,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15152,14 +15152,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 53719-2023</t>
+          <t>A 59786-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45230.72717592592</v>
+        <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15209,14 +15209,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 53374-2023</t>
+          <t>A 35035-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45229</v>
+        <v>45142</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15266,14 +15266,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 32771-2021</t>
+          <t>A 49041-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44375</v>
+        <v>44858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15323,14 +15323,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 13481-2023</t>
+          <t>A 37917-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45005</v>
+        <v>45160.48486111111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15380,14 +15380,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 57759-2023</t>
+          <t>A 20433-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45246.8422337963</v>
+        <v>45435.61200231482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15437,14 +15437,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 51467-2023</t>
+          <t>A 20439-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45221.75239583333</v>
+        <v>45435</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15494,14 +15494,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 25764-2023</t>
+          <t>A 20461-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45090.45520833333</v>
+        <v>45435.65636574074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15551,14 +15551,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 20443-2024</t>
+          <t>A 12668-2021</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45435.62212962963</v>
+        <v>44270</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15608,14 +15608,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 21303-2024</t>
+          <t>A 42486-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45440.6750462963</v>
+        <v>44427</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15665,14 +15665,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 55296-2023</t>
+          <t>A 3522-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45237.81827546296</v>
+        <v>45320.53537037037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15722,14 +15722,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 12026-2024</t>
+          <t>A 50909-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45377.37309027778</v>
+        <v>45218.42068287037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15779,14 +15779,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 22901-2024</t>
+          <t>A 7238-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45448.70333333333</v>
+        <v>45344.66310185185</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15836,14 +15836,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 12024-2024</t>
+          <t>A 52879-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45377</v>
+        <v>45610.63946759259</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15893,14 +15893,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 20433-2024</t>
+          <t>A 6517-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45435.61200231482</v>
+        <v>44601.46166666667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -15950,14 +15950,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 9216-2024</t>
+          <t>A 59272-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45358.50931712963</v>
+        <v>45253.55487268518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16007,14 +16007,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 11589-2022</t>
+          <t>A 43620-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44631</v>
+        <v>45569.481875</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16026,8 +16026,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16064,14 +16069,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 2680-2025</t>
+          <t>A 35608-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45677.34737268519</v>
+        <v>45146</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16084,7 +16089,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16121,14 +16126,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 56856-2024</t>
+          <t>A 12007-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45628.54497685185</v>
+        <v>45728</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16141,7 +16146,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16178,14 +16183,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 49678-2023</t>
+          <t>A 53374-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45212.33935185185</v>
+        <v>45229</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16198,7 +16203,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>5.7</v>
+        <v>1.6</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16235,14 +16240,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 2781-2025</t>
+          <t>A 12938-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45677.54344907407</v>
+        <v>44642</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16255,7 +16260,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16292,14 +16297,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 61879-2023</t>
+          <t>A 9108-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45266.42527777778</v>
+        <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16312,7 +16317,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16349,14 +16354,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 58514-2024</t>
+          <t>A 23065-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45635.42575231481</v>
+        <v>45450.44878472222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16369,7 +16374,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16406,14 +16411,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 13511-2024</t>
+          <t>A 59266-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45387</v>
+        <v>45253.55190972222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16426,7 +16431,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16463,14 +16468,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 12668-2021</t>
+          <t>A 34708-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44270</v>
+        <v>45140.9924537037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16483,7 +16488,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16520,14 +16525,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 40224-2024</t>
+          <t>A 1980-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45554.59815972222</v>
+        <v>45308</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16539,13 +16544,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G279" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16582,14 +16582,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 43620-2024</t>
+          <t>A 56456-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45569.481875</v>
+        <v>44893.31987268518</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16601,13 +16601,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G280" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16644,14 +16639,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 10165-2025</t>
+          <t>A 12333-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45719.65021990741</v>
+        <v>44637.62513888889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16663,13 +16658,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16706,14 +16696,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 52237-2021</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44463.60166666667</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16726,7 +16716,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16763,14 +16753,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 38160-2022</t>
+          <t>A 33299-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44812</v>
+        <v>45116</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16783,7 +16773,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16820,14 +16810,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 14593-2022</t>
+          <t>A 38160-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44655.57246527778</v>
+        <v>44812</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16840,7 +16830,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16877,14 +16867,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 6336-2022</t>
+          <t>A 38920-2022</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44600.57196759259</v>
+        <v>44816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16897,7 +16887,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16934,14 +16924,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 43754-2022</t>
+          <t>A 55296-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44837</v>
+        <v>45237.81827546296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16954,7 +16944,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -16991,14 +16981,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 59272-2023</t>
+          <t>A 52778-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45253.55487268518</v>
+        <v>44875</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17011,7 +17001,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.9</v>
+        <v>8.4</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17055,7 +17045,7 @@
         <v>45323.41983796296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17105,14 +17095,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 57465-2024</t>
+          <t>A 59946-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45630.32784722222</v>
+        <v>44909.38717592593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17125,7 +17115,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17162,14 +17152,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 61740-2023</t>
+          <t>A 56164-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45265.70538194444</v>
+        <v>45624.54939814815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17182,7 +17172,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.2</v>
+        <v>15.7</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17219,14 +17209,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 13235-2024</t>
+          <t>A 6977-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45386</v>
+        <v>45701.54565972222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17239,7 +17229,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17276,14 +17266,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 20911-2025</t>
+          <t>A 59782-2022</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45777.40738425926</v>
+        <v>44900</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17296,7 +17286,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17333,14 +17323,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 20915-2025</t>
+          <t>A 52918-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45777.40862268519</v>
+        <v>45226.52905092593</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17353,7 +17343,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17390,14 +17380,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 725-2025</t>
+          <t>A 13194-2022</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45665.391875</v>
+        <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17410,7 +17400,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17447,14 +17437,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 13513-2024</t>
+          <t>A 61737-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45387</v>
+        <v>45265.69740740741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17467,7 +17457,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17504,14 +17494,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 10303-2024</t>
+          <t>A 18842-2021</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45365</v>
+        <v>44307</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17524,7 +17514,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17561,14 +17551,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 9098-2025</t>
+          <t>A 42427-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45713.68337962963</v>
+        <v>45180</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17581,7 +17571,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17618,14 +17608,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 14901-2025</t>
+          <t>A 61269-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45743.48797453703</v>
+        <v>45645.74246527778</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17637,13 +17627,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G298" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17680,14 +17665,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 23668-2025</t>
+          <t>A 32771-2021</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45792.90586805555</v>
+        <v>44375</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17700,7 +17685,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17737,14 +17722,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 48908-2024</t>
+          <t>A 52237-2021</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45594.36315972222</v>
+        <v>44463.60166666667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17757,7 +17742,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17794,14 +17779,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 23669-2025</t>
+          <t>A 9218-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45792.93181712963</v>
+        <v>45358.51653935185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17814,7 +17799,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17851,14 +17836,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 23865-2025</t>
+          <t>A 60819-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45793.67059027778</v>
+        <v>45260.73208333334</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17871,7 +17856,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17908,14 +17893,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 4303-2025</t>
+          <t>A 9380-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45685</v>
+        <v>45715.34340277778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17927,8 +17912,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G303" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -17965,14 +17955,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 24609-2025</t>
+          <t>A 18691-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45798.58065972223</v>
+        <v>45043.61253472222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -17985,7 +17975,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18022,14 +18012,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 25359-2025</t>
+          <t>A 12675-2021</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45800.61756944445</v>
+        <v>44270.53107638889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18042,7 +18032,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18079,14 +18069,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 25128-2025</t>
+          <t>A 6336-2022</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45800.37969907407</v>
+        <v>44600.57196759259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18099,7 +18089,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>6.7</v>
+        <v>2.1</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18136,14 +18126,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 57313-2024</t>
+          <t>A 10165-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45629</v>
+        <v>45719.65021990741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18155,8 +18145,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G307" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18193,14 +18188,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 57295-2024</t>
+          <t>A 55356-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45629</v>
+        <v>45621.80996527777</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18213,7 +18208,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18250,14 +18245,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 27819-2024</t>
+          <t>A 43624-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45475</v>
+        <v>45569.4868287037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18269,8 +18264,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G309" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18307,14 +18307,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 51398-2024</t>
+          <t>A 17911-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45604.4233912037</v>
+        <v>45758.74115740741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18364,14 +18364,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 26786-2025</t>
+          <t>A 13511-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45810.58515046296</v>
+        <v>45387</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>8.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18421,14 +18421,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 27856-2024</t>
+          <t>A 20240-2023</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45475</v>
+        <v>45055.68784722222</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18478,14 +18478,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 27151-2025</t>
+          <t>A 12016-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45812.32086805555</v>
+        <v>45728</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18535,14 +18535,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 59527-2024</t>
+          <t>A 20536-2022</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45638.59061342593</v>
+        <v>44700</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18592,14 +18592,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 12009-2025</t>
+          <t>A 57465-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45728</v>
+        <v>45630.32784722222</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18649,14 +18649,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 28781-2025</t>
+          <t>A 579-2024</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45820.45300925926</v>
+        <v>45299</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18668,13 +18668,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G316" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18711,14 +18706,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 29303-2025</t>
+          <t>A 20911-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45824.45894675926</v>
+        <v>45777.40738425926</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18731,7 +18726,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18768,14 +18763,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 29200-2025</t>
+          <t>A 20915-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45823.35009259259</v>
+        <v>45777.40862268519</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18788,7 +18783,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18825,14 +18820,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 29814-2025</t>
+          <t>A 725-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45825.78996527778</v>
+        <v>45665.391875</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18845,7 +18840,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18882,14 +18877,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 31163-2025</t>
+          <t>A 13513-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45832.65693287037</v>
+        <v>45387</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18939,14 +18934,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 31606-2025</t>
+          <t>A 10303-2024</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45833.75311342593</v>
+        <v>45365</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18959,7 +18954,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -18996,14 +18991,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 31629-2025</t>
+          <t>A 9098-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45834.3266087963</v>
+        <v>45713.68337962963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19016,7 +19011,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19053,14 +19048,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 22532-2025</t>
+          <t>A 14901-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45786</v>
+        <v>45743.48797453703</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19072,8 +19067,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G323" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19110,14 +19110,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 33672-2025</t>
+          <t>A 23669-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45841</v>
+        <v>45792.93181712963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19167,14 +19167,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 33664-2025</t>
+          <t>A 23668-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45841.66825231481</v>
+        <v>45792.90586805555</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19224,14 +19224,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 33910-2025</t>
+          <t>A 23865-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45842.60122685185</v>
+        <v>45793.67059027778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19281,14 +19281,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 1197-2025</t>
+          <t>A 4303-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45667.38278935185</v>
+        <v>45685</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19338,14 +19338,14 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 60483-2022</t>
+          <t>A 48908-2024</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>44911.4247800926</v>
+        <v>45594.36315972222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -575,7 +575,7 @@
         <v>45695.66266203704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45950.23784722222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44264</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44600.48700231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>44782.61696759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44420.38428240741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44356.42327546296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44305.59869212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>44796.56913194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>44620</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44432</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44314.54328703704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>44461</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44448.8524537037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44503.61056712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44627.56489583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44378</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44851.3972337963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44831.4771412037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44867.89589120371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44851.74130787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44378.41319444445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44504</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44267</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44746.7121412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44851.74324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44851.74546296296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>44376.6027662037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44886.56302083333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44704.53608796297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44299</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44460.36069444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44270.36637731481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44867</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44431.35026620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44441</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>44343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>44594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44785.60559027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>44636.73104166667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44636.73430555555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44704.53440972222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44616.30952546297</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>45687.62030092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>45358</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>45435.62212962963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>45554.59815972222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>45628.54497685185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>45510</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>45643.79293981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>44979.5653125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>44979.59778935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>45440.6750462963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>45635.42575231481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>45386</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44973.52238425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>45264</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45720</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45253.54922453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45253.64171296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45377.3702662037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45569.47056712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>45359.44399305555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45358</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>44935.64951388889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>45232.55328703704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>45629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44655.57246527778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>45448.70333333333</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>45435.66646990741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>45798.58065972223</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>45748.54488425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>45232.72627314815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>45713.64200231482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>45800.37969907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>45800.61756944445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>44895.78674768518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44771.57344907407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>45740</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>45142</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>45146</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>44539.75721064815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>45475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>45575.44268518518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45685.65704861111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>45604.4233912037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45475</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44823.35134259259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45728</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45889.58263888889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45889.58648148148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45810.58515046296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>45176.36280092593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>45812.32086805555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>45327.47383101852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>45230.72717592592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>45638.59061342593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>45728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>45898.62895833333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>45899.35118055555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45898.63497685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>45898.63819444444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44895.77885416667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>45687.61902777778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45820.45300925926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45905</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45904.56365740741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44867.32679398148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45908.87545138889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45908.87262731481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45824.45894675926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45757</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45757.60640046297</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45823.35009259259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>45910.46533564815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>45576.4172337963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45825.78996527778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45915.67596064815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>45090.45520833333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>45265.69861111111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>45832.65693287037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45359.44168981481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45924.36851851852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>45279</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>45279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>45834.3266087963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>45833.75311342593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>45348.69953703704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>45596.86387731481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>45769.50775462963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>45932</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44935</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>45932.33591435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44934</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>45932</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>45786</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>45841</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>45726.40613425926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>45677.34737268519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>45841.66825231481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44616</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>45842.60122685185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>45637.68851851852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>45943.55126157407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>45940.51858796296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>45098.55438657408</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>44934</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>45335.61695601852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>45196.56315972222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>45944</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>45595.6597337963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44631</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>45947.64262731482</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>45947.64576388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44378.4540162037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>45142</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>45947.6365625</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>45243.80131944444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>45667.38278935185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44911.4247800926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>45596.86271990741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45701.54447916667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>45478.78487268519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>45952.75775462963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>45265.70538194444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>44979.60032407408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>45870</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>45870</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>45359.4405787037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>45358.50931712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45960.46693287037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>45960.46254629629</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>45561.79969907407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45877</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45246.8422337963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>45960.79004629629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44460.36636574074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44460.36731481482</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>45967.5977199074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>45971.65128472223</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>45271</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>45973.48353009259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45757.60574074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45974.6370949074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>45217.75505787037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>46020.43096064815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>45979.6544212963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44551.3184837963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44685</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>44685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>44235</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45377</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45221.75239583333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>45622.64577546297</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44251</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>45397</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44895.78923611111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44895.79283564815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45364.8280787037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44565</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45212.33935185185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45993.61226851852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45377.37309027778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45994.54114583333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45996.3097337963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>45870</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>46038.50097222222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>45338.68309027778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44862.70869212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45116</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45116</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45142</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44988.67260416667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45274</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45629</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>46045.38021990741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44307</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44348.67560185185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>45267</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44460.36797453704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>45440.66341435185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>45840</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>45677.54344907407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>45688.61510416667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>45541.65391203704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44579</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>46048.44986111111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>45601.84043981481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>45202.53005787037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>45266.42527777778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>45338.67915509259</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>45434.63688657407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>45142</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>45160.48486111111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>45435.61200231482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>45435</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>45435.65636574074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44270</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44427</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45320.53537037037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45218.42068287037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>45344.66310185185</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>45610.63946759259</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>44601.46166666667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>45253.55487268518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>45569.481875</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45146</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45728</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>45229</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44642</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>45450.44878472222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45253.55190972222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45140.9924537037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45308</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44893.31987268518</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44637.62513888889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44539.75721064815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>45116</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44812</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45237.81827546296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44875</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45323.41983796296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44909.38717592593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45624.54939814815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45701.54565972222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44900</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>45226.52905092593</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45265.69740740741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44307</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>45180</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>45645.74246527778</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>44375</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>44463.60166666667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>45358.51653935185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>45260.73208333334</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>45715.34340277778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>45043.61253472222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44270.53107638889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44600.57196759259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>45719.65021990741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45621.80996527777</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45569.4868287037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>45758.74115740741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>45387</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>45055.68784722222</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45728</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44700</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>45630.32784722222</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>45299</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45777.40738425926</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>45777.40862268519</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>45665.391875</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>45387</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>45365</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45713.68337962963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45743.48797453703</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45792.93181712963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45792.90586805555</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>45793.67059027778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45685</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45594.36315972222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -575,7 +575,7 @@
         <v>45695.66266203704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45950.23784722222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44264</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44600.48700231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>44782.61696759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44420.38428240741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44356.42327546296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44305.59869212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>44796.56913194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>44620</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44432</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44314.54328703704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>44461</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44448.8524537037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44503.61056712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44627.56489583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44378</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44851.3972337963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44831.4771412037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44867.89589120371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44851.74130787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44378.41319444445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44504</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44267</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44746.7121412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44851.74324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44851.74546296296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>44376.6027662037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44886.56302083333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44704.53608796297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44299</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44460.36069444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44270.36637731481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44867</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44431.35026620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44441</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>44343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>44594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44785.60559027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>44636.73104166667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44636.73430555555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44704.53440972222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44616.30952546297</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>45687.62030092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>45358</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         <v>45435.62212962963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>45554.59815972222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>45628.54497685185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>45510</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>45643.79293981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>44979.5653125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>44979.59778935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>45440.6750462963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>45635.42575231481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>45386</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44973.52238425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>45264</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45720</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45253.54922453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45253.64171296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45377.3702662037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45569.47056712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>45359.44399305555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45358</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>44935.64951388889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>45232.55328703704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>45629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>44655.57246527778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>45448.70333333333</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>45435.66646990741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>45798.58065972223</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>45748.54488425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>45232.72627314815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>45713.64200231482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>45800.37969907407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>45800.61756944445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>44895.78674768518</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>44771.57344907407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>45740</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         <v>45142</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6098,7 +6098,7 @@
         <v>45146</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>44539.75721064815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>45475</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>45575.44268518518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45685.65704861111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>45604.4233912037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
         <v>45475</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         <v>44823.35134259259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         <v>45728</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>45889.58263888889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45889.58648148148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45629</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>45810.58515046296</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>45176.36280092593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>45812.32086805555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>45327.47383101852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>45230.72717592592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>45638.59061342593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>45728</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>45898.62895833333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>45899.35118055555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45898.63497685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>45898.63819444444</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44895.77885416667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>45687.61902777778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45820.45300925926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45905</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45904.56365740741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44867.32679398148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45908.87545138889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45908.87262731481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45824.45894675926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45757</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45757.60640046297</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45823.35009259259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>45910.46533564815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>45576.4172337963</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45825.78996527778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45915.67596064815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>45090.45520833333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>45265.69861111111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>45832.65693287037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45359.44168981481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45924.36851851852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>45279</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>45279</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>45834.3266087963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>45833.75311342593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>45348.69953703704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>45596.86387731481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>45769.50775462963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>45932</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44935</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>45932.33591435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44934</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>45932</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>45786</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>45841</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>45726.40613425926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>45677.34737268519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>45841.66825231481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44616</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>45842.60122685185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>45637.68851851852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>45943.55126157407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>45940.51858796296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>45098.55438657408</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>44934</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>45335.61695601852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>45196.56315972222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>45944</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>45595.6597337963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44631</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>45947.64262731482</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>45947.64576388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44378.4540162037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>45142</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>44236</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>45947.6365625</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>45243.80131944444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>45667.38278935185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>44911.4247800926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>45596.86271990741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45701.54447916667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>45478.78487268519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>45952.75775462963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>45265.70538194444</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>44979.60032407408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>45870</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>45870</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>45359.4405787037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>45358.50931712963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>45960.46693287037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>45960.46254629629</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>45561.79969907407</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45877</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45246.8422337963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>45960.79004629629</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44460.36636574074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44460.36731481482</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>45967.5977199074</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>45971.65128472223</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>45271</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>45973.48353009259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45757.60574074074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45974.6370949074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>45217.75505787037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>46020.43096064815</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>45979.6544212963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44551.3184837963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44685</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>44685</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>44235</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45377</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45221.75239583333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>45622.64577546297</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>44251</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>45397</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12911,7 +12911,7 @@
         <v>44895.78923611111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12968,7 +12968,7 @@
         <v>44895.79283564815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45364.8280787037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13082,7 +13082,7 @@
         <v>44565</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45212.33935185185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13196,7 +13196,7 @@
         <v>45993.61226851852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         <v>45377.37309027778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13310,7 +13310,7 @@
         <v>45629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>45994.54114583333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>45996.3097337963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>45870</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>46038.50097222222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>45338.68309027778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>44862.70869212963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45116</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45116</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45142</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44988.67260416667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45274</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45629</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>46045.38021990741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>44837</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>44307</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44348.67560185185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>45267</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44460.36797453704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>45440.66341435185</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>45840</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>45677.54344907407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>45688.61510416667</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>45541.65391203704</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>44579</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>46048.44986111111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>45601.84043981481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>45202.53005787037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>45266.42527777778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>45338.67915509259</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>45434.63688657407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44900</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>45142</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44858</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>45160.48486111111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>45435.61200231482</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15444,7 +15444,7 @@
         <v>45435</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>45435.65636574074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15558,7 +15558,7 @@
         <v>44270</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44427</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45320.53537037037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>45218.42068287037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>45344.66310185185</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>45610.63946759259</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15900,7 +15900,7 @@
         <v>44601.46166666667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15957,7 +15957,7 @@
         <v>45253.55487268518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16014,7 +16014,7 @@
         <v>45569.481875</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>45146</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45728</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>45229</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44642</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44615</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>45450.44878472222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>45253.55190972222</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>45140.9924537037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>45308</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44893.31987268518</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44637.62513888889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44539.75721064815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>45116</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44812</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44816</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>45237.81827546296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44875</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>45323.41983796296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44909.38717592593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>45624.54939814815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>45701.54565972222</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44900</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>45226.52905092593</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44644</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>45265.69740740741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44307</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>45180</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>45645.74246527778</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17672,7 +17672,7 @@
         <v>44375</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17729,7 +17729,7 @@
         <v>44463.60166666667</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17786,7 +17786,7 @@
         <v>45358.51653935185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>45260.73208333334</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
         <v>45715.34340277778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>45043.61253472222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44270.53107638889</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44600.57196759259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>45719.65021990741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>45621.80996527777</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>45569.4868287037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18314,7 +18314,7 @@
         <v>45758.74115740741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>45387</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>45055.68784722222</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18485,7 +18485,7 @@
         <v>45728</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>44700</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18599,7 +18599,7 @@
         <v>45630.32784722222</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>45299</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45777.40738425926</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>45777.40862268519</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>45665.391875</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>45387</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>45365</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45713.68337962963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19055,7 +19055,7 @@
         <v>45743.48797453703</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45792.93181712963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45792.90586805555</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>45793.67059027778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>45685</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>45594.36315972222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z328"/>
+  <dimension ref="A1:Z326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 6040-2025</t>
+          <t>A 60881-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45695.66266203704</v>
+        <v>45999</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,13 +588,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -622,208 +622,208 @@
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Rostfläck</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 60881-2025 artfynd.xlsx", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 60881-2025 karta.png", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 60881-2025 FSC-klagomål.docx", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 60881-2025 FSC-klagomål mail.docx", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 60881-2025 tillsynsbegäran.docx", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 60881-2025 tillsynsbegäran mail.docx", "A 60881-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 51277-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45950.23784722222</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 51277-2025 artfynd.xlsx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 51277-2025 karta.png", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 51277-2025 FSC-klagomål.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 51277-2025 FSC-klagomål mail.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 51277-2025 tillsynsbegäran.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 51277-2025 tillsynsbegäran mail.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/fåglar/A 51277-2025 prioriterade fågelarter.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 6040-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45695.66266203704</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 6040-2025 artfynd.xlsx", "A 6040-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 6040-2025 karta.png", "A 6040-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 6040-2025 FSC-klagomål.docx", "A 6040-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 6040-2025 FSC-klagomål mail.docx", "A 6040-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 6040-2025 tillsynsbegäran.docx", "A 6040-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 6040-2025 tillsynsbegäran mail.docx", "A 6040-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 60881-2025</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45999</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Rostfläck</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 60881-2025 artfynd.xlsx", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 60881-2025 karta.png", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 60881-2025 FSC-klagomål.docx", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 60881-2025 FSC-klagomål mail.docx", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 60881-2025 tillsynsbegäran.docx", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 60881-2025 tillsynsbegäran mail.docx", "A 60881-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 51277-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45950.23784722222</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 51277-2025 artfynd.xlsx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 51277-2025 karta.png", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 51277-2025 FSC-klagomål.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 51277-2025 FSC-klagomål mail.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 51277-2025 tillsynsbegäran.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 51277-2025 tillsynsbegäran mail.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/fåglar/A 51277-2025 prioriterade fågelarter.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44264</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44600.48700231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>44782.61696759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44420.38428240741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44356.42327546296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44305.59869212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>44796.56913194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>44620</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44432</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44314.54328703704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>44461</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44448.8524537037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44503.61056712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44627.56489583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44378</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,14 +1801,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 46713-2022</t>
+          <t>A 42438-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44851.3972337963</v>
+        <v>44831.4771412037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>15.7</v>
+        <v>5.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 42438-2022</t>
+          <t>A 50987-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44831.4771412037</v>
+        <v>44867.89589120371</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1915,14 +1915,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 50987-2022</t>
+          <t>A 46713-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44867.89589120371</v>
+        <v>44851.3972337963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>15.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>44851.74130787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44378.41319444445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44504</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44267</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44746.7121412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44851.74324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44851.74546296296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>44376.6027662037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44886.56302083333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44704.53608796297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44299</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44460.36069444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44270.36637731481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44867</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44431.35026620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44441</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>44343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>44594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44785.60559027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>44636.73104166667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44636.73430555555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44704.53440972222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44616.30952546297</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3915,14 +3915,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 4624-2025</t>
+          <t>A 10449-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45687.62030092593</v>
+        <v>45720</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>11.7</v>
+        <v>8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3972,14 +3972,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9215-2024</t>
+          <t>A 62313-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45358</v>
+        <v>45267</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>12.2</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4029,14 +4029,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 20443-2024</t>
+          <t>A 6454-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45435.62212962963</v>
+        <v>45338.68309027778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4048,8 +4048,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.1</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4086,14 +4091,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 40224-2024</t>
+          <t>A 9411-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45554.59815972222</v>
+        <v>45359.44168981481</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4105,13 +4110,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4148,14 +4148,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56856-2024</t>
+          <t>A 50702-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45628.54497685185</v>
+        <v>44867.32679398148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4205,14 +4205,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31967-2024</t>
+          <t>A 50709-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45510</v>
+        <v>44460.36636574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>9.1</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4262,14 +4262,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 60543-2024</t>
+          <t>A 59259-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45643.79293981481</v>
+        <v>45253.54922453704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4319,14 +4319,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9000-2023</t>
+          <t>A 9410-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44979.5653125</v>
+        <v>45359.4405787037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4376,14 +4376,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9012-2023</t>
+          <t>A 49041-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44979.59778935185</v>
+        <v>44858</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4433,14 +4433,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 21303-2024</t>
+          <t>A 5847-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45440.6750462963</v>
+        <v>45335.61695601852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4490,14 +4490,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 58514-2024</t>
+          <t>A 57255-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45635.42575231481</v>
+        <v>44895.78674768518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4547,14 +4547,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 13235-2024</t>
+          <t>A 14690-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45386</v>
+        <v>45397</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4604,14 +4604,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 7851-2023</t>
+          <t>A 4434-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44973.52238425926</v>
+        <v>45327.47383101852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4661,14 +4661,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61687-2023</t>
+          <t>A 33299-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45264</v>
+        <v>45116</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4718,14 +4718,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10449-2025</t>
+          <t>A 26631-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45720</v>
+        <v>44348.67560185185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4775,14 +4775,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 59259-2023</t>
+          <t>A 64317-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45253.54922453704</v>
+        <v>45279</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4832,14 +4832,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 59335-2023</t>
+          <t>A 64330-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45253.64171296296</v>
+        <v>45279</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4889,14 +4889,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12021-2024</t>
+          <t>A 20465-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45377.3702662037</v>
+        <v>45435.66646990741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4946,14 +4946,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43615-2024</t>
+          <t>A 23065-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45569.47056712963</v>
+        <v>45450.44878472222</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4965,13 +4965,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5008,14 +5003,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9413-2024</t>
+          <t>A 961-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45359.44399305555</v>
+        <v>44934</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5028,7 +5023,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5065,14 +5060,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9450-2024</t>
+          <t>A 9000-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45358</v>
+        <v>44979.5653125</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5085,7 +5080,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5122,14 +5117,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 1152-2023</t>
+          <t>A 10728-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44935.64951388889</v>
+        <v>44988.67260416667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5142,7 +5137,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5179,14 +5174,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 54201-2023</t>
+          <t>A 33693-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45232.55328703704</v>
+        <v>44378.4540162037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5199,7 +5194,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>7.6</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5236,14 +5231,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 73168-2021</t>
+          <t>A 60819-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44550</v>
+        <v>45260.73208333334</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5256,7 +5251,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5293,14 +5288,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57266-2024</t>
+          <t>A 9404-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45629</v>
+        <v>44616</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5313,7 +5308,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5350,14 +5345,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14593-2022</t>
+          <t>A 49820-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44655.57246527778</v>
+        <v>44862.70869212963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5370,7 +5365,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5407,14 +5402,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 22901-2024</t>
+          <t>A 20240-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45448.70333333333</v>
+        <v>45055.68784722222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5427,7 +5422,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5464,14 +5459,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20465-2024</t>
+          <t>A 28781-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45435.66646990741</v>
+        <v>45820.45300925926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5483,8 +5478,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5521,14 +5521,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 24609-2025</t>
+          <t>A 4812-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45798.58065972223</v>
+        <v>45688.61510416667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5540,8 +5540,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5578,14 +5583,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 15737-2025</t>
+          <t>A 29303-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45748.54488425926</v>
+        <v>45824.45894675926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5598,7 +5603,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5635,14 +5640,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 54293-2023</t>
+          <t>A 29200-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45232.72627314815</v>
+        <v>45823.35009259259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5655,7 +5660,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5692,14 +5697,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9058-2025</t>
+          <t>A 9215-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45713.64200231482</v>
+        <v>45358</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5712,7 +5717,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>12.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5749,14 +5754,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 25128-2025</t>
+          <t>A 12007-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45800.37969907407</v>
+        <v>45728</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5769,7 +5774,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5806,14 +5811,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 25359-2025</t>
+          <t>A 49391-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45800.61756944445</v>
+        <v>45595.6597337963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5826,7 +5831,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5863,14 +5868,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 57255-2022</t>
+          <t>A 29814-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44895.78674768518</v>
+        <v>45825.78996527778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5883,7 +5888,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5920,14 +5925,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31260-2022</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44771.57344907407</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5940,7 +5945,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5977,14 +5982,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 14116-2025</t>
+          <t>A 31163-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45740</v>
+        <v>45832.65693287037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5997,7 +6002,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6034,14 +6039,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35056-2023</t>
+          <t>A 31606-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45142</v>
+        <v>45833.75311342593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6054,7 +6059,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6091,14 +6096,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35588-2023</t>
+          <t>A 31629-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45146</v>
+        <v>45834.3266087963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6111,7 +6116,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6148,14 +6153,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 11983-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>45728</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6168,7 +6173,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6205,14 +6210,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 27856-2024</t>
+          <t>A 9058-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45475</v>
+        <v>45713.64200231482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6225,7 +6230,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6262,14 +6267,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44947-2024</t>
+          <t>A 50812-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45575.44268518518</v>
+        <v>45217.75505787037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6281,13 +6286,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6324,14 +6324,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 4289-2025</t>
+          <t>A 35588-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45685.65704861111</v>
+        <v>45146</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6381,14 +6381,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 51398-2024</t>
+          <t>A 12021-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45604.4233912037</v>
+        <v>45377.3702662037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6438,14 +6438,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 27819-2024</t>
+          <t>A 4289-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45475</v>
+        <v>45685.65704861111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6495,14 +6495,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 57313-2024</t>
+          <t>A 10180-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45629</v>
+        <v>45364.8280787037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6552,14 +6552,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 40331-2022</t>
+          <t>A 43624-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44823.35134259259</v>
+        <v>45569.4868287037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6571,8 +6571,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6609,14 +6614,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 11983-2025</t>
+          <t>A 49737-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45728</v>
+        <v>45596.86387731481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6634,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6673,7 +6678,7 @@
         <v>45889.58263888889</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6735,7 +6740,7 @@
         <v>45889.58648148148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6790,14 +6795,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 57295-2024</t>
+          <t>A 20196-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45629</v>
+        <v>45434.63688657407</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6810,7 +6815,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6847,14 +6852,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26786-2025</t>
+          <t>A 22532-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45810.58515046296</v>
+        <v>45786</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6867,7 +6872,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>8.199999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6904,14 +6909,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 41690-2023</t>
+          <t>A 33672-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45176.36280092593</v>
+        <v>45841</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6924,7 +6929,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6961,14 +6966,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27151-2025</t>
+          <t>A 33664-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45812.32086805555</v>
+        <v>45841.66825231481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6981,7 +6986,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7018,14 +7023,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4434-2024</t>
+          <t>A 18843-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45327.47383101852</v>
+        <v>44307</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7038,7 +7043,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7075,14 +7080,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 53719-2023</t>
+          <t>A 1980-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45230.72717592592</v>
+        <v>45308</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7095,7 +7100,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7132,14 +7137,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 59527-2024</t>
+          <t>A 12675-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45638.59061342593</v>
+        <v>44270.53107638889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7152,7 +7157,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7189,14 +7194,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 12009-2025</t>
+          <t>A 41281-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45728</v>
+        <v>45898.63497685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7209,7 +7214,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7246,14 +7251,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41278-2025</t>
+          <t>A 7655-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45898.62895833333</v>
+        <v>45348.69953703704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7266,7 +7271,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7303,14 +7308,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 41331-2025</t>
+          <t>A 20536-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45899.35118055555</v>
+        <v>44700</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7323,7 +7328,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7360,14 +7365,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41281-2025</t>
+          <t>A 56456-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45898.63497685185</v>
+        <v>44893.31987268518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7380,7 +7385,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7417,14 +7422,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 41286-2025</t>
+          <t>A 41278-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45898.63819444444</v>
+        <v>45898.62895833333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7437,7 +7442,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7474,14 +7479,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 57253-2022</t>
+          <t>A 55667-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44895.77885416667</v>
+        <v>45622.64577546297</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7494,7 +7499,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7531,14 +7536,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4622-2025</t>
+          <t>A 33910-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45687.61902777778</v>
+        <v>45842.60122685185</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7551,7 +7556,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>7.8</v>
+        <v>3.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7588,14 +7593,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28781-2025</t>
+          <t>A 56164-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45820.45300925926</v>
+        <v>45624.54939814815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7607,13 +7612,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>2.8</v>
+        <v>15.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7650,14 +7650,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42395-2025</t>
+          <t>A 41286-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45905</v>
+        <v>45898.63819444444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7707,14 +7707,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 42237-2025</t>
+          <t>A 962-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45904.56365740741</v>
+        <v>44934</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7764,14 +7764,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 50702-2022</t>
+          <t>A 60543-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44867.32679398148</v>
+        <v>45643.79293981481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7821,14 +7821,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 42920-2025</t>
+          <t>A 50673-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45908.87545138889</v>
+        <v>45601.84043981481</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.2</v>
+        <v>5.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7878,14 +7878,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 42919-2025</t>
+          <t>A 41331-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45908.87262731481</v>
+        <v>45899.35118055555</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7935,14 +7935,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 29303-2025</t>
+          <t>A 1197-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45824.45894675926</v>
+        <v>45667.38278935185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -7992,14 +7992,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17536-2025</t>
+          <t>A 7851-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45757</v>
+        <v>44973.52238425926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8049,14 +8049,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 17543-2025</t>
+          <t>A 42237-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45757.60640046297</v>
+        <v>45904.56365740741</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8106,14 +8106,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 29200-2025</t>
+          <t>A 35042-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45823.35009259259</v>
+        <v>45142</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8163,14 +8163,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 43216-2025</t>
+          <t>A 33300-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45910.46533564815</v>
+        <v>45116</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8220,14 +8220,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 45303-2024</t>
+          <t>A 33301-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45576.4172337963</v>
+        <v>45116</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>8.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8277,14 +8277,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 29814-2025</t>
+          <t>A 61269-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45825.78996527778</v>
+        <v>45645.74246527778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8334,14 +8334,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 44240-2025</t>
+          <t>A 60483-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45915.67596064815</v>
+        <v>44911.4247800926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8391,14 +8391,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 25764-2023</t>
+          <t>A 42395-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45090.45520833333</v>
+        <v>45905</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8448,14 +8448,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 61738-2023</t>
+          <t>A 43615-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45265.69861111111</v>
+        <v>45569.47056712963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8467,8 +8467,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8505,14 +8510,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 31163-2025</t>
+          <t>A 44947-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45832.65693287037</v>
+        <v>45575.44268518518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8524,8 +8529,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8562,14 +8572,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 9411-2024</t>
+          <t>A 31260-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45359.44168981481</v>
+        <v>44771.57344907407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8582,7 +8592,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8619,14 +8629,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 45974-2025</t>
+          <t>A 42919-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45924.36851851852</v>
+        <v>45908.87262731481</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8676,14 +8686,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 64317-2023</t>
+          <t>A 6974-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45279</v>
+        <v>45701.54447916667</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8696,7 +8706,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8733,14 +8743,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 64330-2023</t>
+          <t>A 43216-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45279</v>
+        <v>45910.46533564815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8753,7 +8763,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>6.6</v>
+        <v>3.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8790,14 +8800,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 31629-2025</t>
+          <t>A 42920-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45834.3266087963</v>
+        <v>45908.87545138889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8810,7 +8820,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8847,14 +8857,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 31606-2025</t>
+          <t>A 12938-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45833.75311342593</v>
+        <v>44642</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8867,7 +8877,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8904,14 +8914,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 7655-2024</t>
+          <t>A 36630-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45348.69953703704</v>
+        <v>45870</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8924,7 +8934,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>8.5</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8961,14 +8971,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 49737-2024</t>
+          <t>A 36632-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45596.86387731481</v>
+        <v>45870</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8991,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9018,14 +9028,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 19259-2025</t>
+          <t>A 44240-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45769.50775462963</v>
+        <v>45915.67596064815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9048,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9075,14 +9085,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 48074-2025</t>
+          <t>A 6517-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45932</v>
+        <v>44601.46166666667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9095,7 +9105,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9132,14 +9142,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 1141-2023</t>
+          <t>A 37398-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44935</v>
+        <v>45877</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9152,7 +9162,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9189,14 +9199,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 47819-2025</t>
+          <t>A 18842-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45932.33591435185</v>
+        <v>44307</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9209,7 +9219,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9246,14 +9256,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 961-2023</t>
+          <t>A 38920-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44934</v>
+        <v>44816</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9266,7 +9276,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9303,14 +9313,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48066-2025</t>
+          <t>A 62775-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45932</v>
+        <v>45271</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9323,7 +9333,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9360,14 +9370,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 22532-2025</t>
+          <t>A 45974-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45786</v>
+        <v>45924.36851851852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9380,7 +9390,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9417,14 +9427,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 33672-2025</t>
+          <t>A 9380-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45841</v>
+        <v>45715.34340277778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9436,8 +9446,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9474,14 +9489,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 11270-2025</t>
+          <t>A 31967-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45726.40613425926</v>
+        <v>45510</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9494,7 +9509,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>9.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9531,14 +9546,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 2680-2025</t>
+          <t>A 59314-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45677.34737268519</v>
+        <v>45637.68851851852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9551,7 +9566,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9588,14 +9603,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 33664-2025</t>
+          <t>A 4622-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45841.66825231481</v>
+        <v>45687.61902777778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9608,7 +9623,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9645,14 +9660,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 9404-2022</t>
+          <t>A 47332-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44616</v>
+        <v>45202.53005787037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9665,7 +9680,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9702,14 +9717,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 33910-2025</t>
+          <t>A 4624-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45842.60122685185</v>
+        <v>45687.62030092593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9722,7 +9737,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.6</v>
+        <v>11.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9759,14 +9774,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 59314-2024</t>
+          <t>A 40331-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45637.68851851852</v>
+        <v>44823.35134259259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9779,7 +9794,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9816,14 +9831,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 50123-2025</t>
+          <t>A 2452-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45943.55126157407</v>
+        <v>44579</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9835,13 +9850,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9878,14 +9888,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 49863-2025</t>
+          <t>A 47819-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45940.51858796296</v>
+        <v>45932.33591435185</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9898,7 +9908,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9935,14 +9945,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 27845-2023</t>
+          <t>A 48066-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45098.55438657408</v>
+        <v>45932</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9955,7 +9965,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -9992,14 +10002,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 962-2023</t>
+          <t>A 48074-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44934</v>
+        <v>45932</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10012,7 +10022,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10049,14 +10059,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 5847-2024</t>
+          <t>A 41690-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45335.61695601852</v>
+        <v>45176.36280092593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10069,7 +10079,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10106,14 +10116,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 46137-2023</t>
+          <t>A 19259-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45196.56315972222</v>
+        <v>45769.50775462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10126,7 +10136,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10163,14 +10173,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 50604-2025</t>
+          <t>A 49863-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45944</v>
+        <v>45940.51858796296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10220,14 +10230,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 49391-2024</t>
+          <t>A 17542-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45595.6597337963</v>
+        <v>45757.60574074074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10240,7 +10250,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10277,14 +10287,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 11589-2022</t>
+          <t>A 59335-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44631</v>
+        <v>45253.64171296296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10297,7 +10307,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10334,14 +10344,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 51212-2025</t>
+          <t>A 50123-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45947.64262731482</v>
+        <v>45943.55126157407</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10351,6 +10361,11 @@
       <c r="E171" t="inlineStr">
         <is>
           <t>VARA</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -10391,14 +10406,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 51218-2025</t>
+          <t>A 54293-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45947.64576388889</v>
+        <v>45232.72627314815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10411,7 +10426,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10448,14 +10463,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 33693-2021</t>
+          <t>A 50604-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44378.4540162037</v>
+        <v>45944</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10468,7 +10483,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10505,14 +10520,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 35059-2023</t>
+          <t>A 579-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45142</v>
+        <v>45299</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10525,7 +10540,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10562,14 +10577,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 6716-2021</t>
+          <t>A 27845-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44236</v>
+        <v>45098.55438657408</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10582,7 +10597,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10619,14 +10634,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 51206-2025</t>
+          <t>A 18224-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45947.6365625</v>
+        <v>44685</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10639,7 +10654,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10676,14 +10691,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 56654-2023</t>
+          <t>A 18244-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45243.80131944444</v>
+        <v>44685</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10696,7 +10711,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10733,14 +10748,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1197-2025</t>
+          <t>A 59786-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45667.38278935185</v>
+        <v>44900</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10753,7 +10768,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10790,14 +10805,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 60483-2022</t>
+          <t>A 17911-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44911.4247800926</v>
+        <v>45758.74115740741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10810,7 +10825,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10847,14 +10862,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 49736-2024</t>
+          <t>A 42486-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45596.86271990741</v>
+        <v>44427</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10904,14 +10919,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 6974-2025</t>
+          <t>A 37726-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45701.54447916667</v>
+        <v>45541.65391203704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10924,7 +10939,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10961,14 +10976,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 28851-2024</t>
+          <t>A 51212-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45478.78487268519</v>
+        <v>45947.64262731482</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10981,7 +10996,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11018,14 +11033,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 52131-2025</t>
+          <t>A 51218-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45952.75775462963</v>
+        <v>45947.64576388889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11038,7 +11053,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11075,14 +11090,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 61740-2023</t>
+          <t>A 51206-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45265.70538194444</v>
+        <v>45947.6365625</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11095,7 +11110,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11132,14 +11147,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 9013-2023</t>
+          <t>A 14116-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44979.60032407408</v>
+        <v>45740</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11152,7 +11167,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11189,14 +11204,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 36630-2025</t>
+          <t>A 52131-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45870</v>
+        <v>45952.75775462963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11209,7 +11224,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11246,14 +11261,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 36632-2025</t>
+          <t>A 52778-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45870</v>
+        <v>44875</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11266,7 +11281,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11303,14 +11318,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 9410-2024</t>
+          <t>A 53604-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45359.4405787037</v>
+        <v>45960.46254629629</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11323,7 +11338,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>19.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11360,14 +11375,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 9216-2024</t>
+          <t>A 53606-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45358.50931712963</v>
+        <v>45960.46693287037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11380,7 +11395,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11417,14 +11432,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 53606-2025</t>
+          <t>A 53802-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45960.46693287037</v>
+        <v>45960.79004629629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11437,7 +11452,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11474,14 +11489,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 53604-2025</t>
+          <t>A 35056-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45960.46254629629</v>
+        <v>45142</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11494,7 +11509,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>19.8</v>
+        <v>7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11531,14 +11546,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 42038-2024</t>
+          <t>A 59946-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45561.79969907407</v>
+        <v>44909.38717592593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11551,7 +11566,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>7.2</v>
+        <v>2.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11588,14 +11603,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 37398-2025</t>
+          <t>A 73168-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45877</v>
+        <v>44550</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11608,7 +11623,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11645,14 +11660,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 57759-2023</t>
+          <t>A 45303-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45246.8422337963</v>
+        <v>45576.4172337963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11665,7 +11680,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11702,14 +11717,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53802-2025</t>
+          <t>A 61737-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45960.79004629629</v>
+        <v>45265.69740740741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11722,7 +11737,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11759,14 +11774,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 50709-2021</t>
+          <t>A 54997-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44460.36636574074</v>
+        <v>45967.5977199074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11779,7 +11794,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11816,14 +11831,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 50712-2021</t>
+          <t>A 52879-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44460.36731481482</v>
+        <v>45610.63946759259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11836,7 +11851,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11873,14 +11888,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 54997-2025</t>
+          <t>A 55561-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45967.5977199074</v>
+        <v>45971.65128472223</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11893,7 +11908,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11930,14 +11945,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 55561-2025</t>
+          <t>A 6453-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45971.65128472223</v>
+        <v>45338.67915509259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11949,8 +11964,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -11987,14 +12007,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 62775-2023</t>
+          <t>A 55967-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45271</v>
+        <v>45973.48353009259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12006,8 +12026,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12044,14 +12069,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 55967-2025</t>
+          <t>A 56326-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45973.48353009259</v>
+        <v>45974.6370949074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12063,13 +12088,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12106,14 +12126,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 17542-2025</t>
+          <t>A 56654-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45757.60574074074</v>
+        <v>45243.80131944444</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12126,7 +12146,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12163,14 +12183,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 56326-2025</t>
+          <t>A 7238-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45974.6370949074</v>
+        <v>45344.66310185185</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12183,7 +12203,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12220,14 +12240,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 50812-2023</t>
+          <t>A 28851-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45217.75505787037</v>
+        <v>45478.78487268519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12240,7 +12260,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12277,14 +12297,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 63842-2025</t>
+          <t>A 34708-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46020.43096064815</v>
+        <v>45140.9924537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12297,7 +12317,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12341,7 +12361,7 @@
         <v>45979.6544212963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12391,14 +12411,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 73305-2021</t>
+          <t>A 42427-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44551.3184837963</v>
+        <v>45180</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12411,7 +12431,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12448,14 +12468,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 18224-2022</t>
+          <t>A 21291-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44685</v>
+        <v>45440.66341435185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12468,7 +12488,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12505,14 +12525,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 18244-2022</t>
+          <t>A 13194-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44685</v>
+        <v>44644</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12525,7 +12545,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12562,14 +12582,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 6380-2021</t>
+          <t>A 20439-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44235</v>
+        <v>45435</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12582,7 +12602,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>5.1</v>
+        <v>0.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12619,14 +12639,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 12024-2024</t>
+          <t>A 20461-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45377</v>
+        <v>45435.65636574074</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12639,7 +12659,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12676,14 +12696,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 51467-2023</t>
+          <t>A 49736-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45221.75239583333</v>
+        <v>45596.86271990741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12696,7 +12716,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12733,14 +12753,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 55667-2024</t>
+          <t>A 55356-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45622.64577546297</v>
+        <v>45621.80996527777</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12753,7 +12773,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12790,14 +12810,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 9579-2021</t>
+          <t>A 37917-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44251</v>
+        <v>45160.48486111111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12810,7 +12830,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12847,14 +12867,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 14690-2024</t>
+          <t>A 46137-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45397</v>
+        <v>45196.56315972222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12867,7 +12887,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12904,14 +12924,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 57256-2022</t>
+          <t>A 9218-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44895.78923611111</v>
+        <v>45358.51653935185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12924,7 +12944,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12961,14 +12981,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 57257-2022</t>
+          <t>A 57266-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44895.79283564815</v>
+        <v>45629</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13018,14 +13038,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 10180-2024</t>
+          <t>A 365-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45364.8280787037</v>
+        <v>44565</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13038,7 +13058,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.6</v>
+        <v>7.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13075,14 +13095,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 365-2022</t>
+          <t>A 50909-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44565</v>
+        <v>45218.42068287037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13095,7 +13115,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>7.8</v>
+        <v>2.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13132,14 +13152,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 49678-2023</t>
+          <t>A 60216-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45212.33935185185</v>
+        <v>45994.54114583333</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13152,7 +13172,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13196,7 +13216,7 @@
         <v>45993.61226851852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13246,14 +13266,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 12026-2024</t>
+          <t>A 36627-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45377.37309027778</v>
+        <v>45870</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13266,7 +13286,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13310,7 +13330,7 @@
         <v>45629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13360,14 +13380,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 60216-2025</t>
+          <t>A 2867-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45994.54114583333</v>
+        <v>46038.50097222222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13380,7 +13400,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>8.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13417,14 +13437,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 60575-2025</t>
+          <t>A 52918-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45996.3097337963</v>
+        <v>45226.52905092593</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13436,13 +13456,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13479,14 +13494,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 36627-2025</t>
+          <t>A 60575-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45870</v>
+        <v>45996.3097337963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13498,8 +13513,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13536,14 +13556,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 2867-2026</t>
+          <t>A 57420-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>46038.50097222222</v>
+        <v>45629</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13556,7 +13576,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13593,14 +13613,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 6454-2024</t>
+          <t>A 12333-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45338.68309027778</v>
+        <v>44637.62513888889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13612,13 +13632,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13655,14 +13670,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 49820-2022</t>
+          <t>A 54201-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44862.70869212963</v>
+        <v>45232.55328703704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13675,7 +13690,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13712,14 +13727,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 33300-2023</t>
+          <t>A 12016-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45116</v>
+        <v>45728</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13732,7 +13747,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13769,14 +13784,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 33301-2023</t>
+          <t>A 17536-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45116</v>
+        <v>45757</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13789,7 +13804,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13826,14 +13841,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 35042-2023</t>
+          <t>A 17543-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45142</v>
+        <v>45757.60640046297</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13846,7 +13861,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13883,14 +13898,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 10728-2023</t>
+          <t>A 4278-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44988.67260416667</v>
+        <v>46045.38021990741</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13903,7 +13918,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13940,14 +13955,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 63426-2023</t>
+          <t>A 35035-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45274</v>
+        <v>45142</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13960,7 +13975,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -13997,14 +14012,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 57420-2024</t>
+          <t>A 63426-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45629</v>
+        <v>45274</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14017,7 +14032,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14054,14 +14069,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 4278-2026</t>
+          <t>A 9108-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46045.38021990741</v>
+        <v>44615</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14074,7 +14089,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14111,14 +14126,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 43754-2022</t>
+          <t>A 61738-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44837</v>
+        <v>45265.69861111111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14131,7 +14146,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14168,14 +14183,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 18843-2021</t>
+          <t>A 9579-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44307</v>
+        <v>44251</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14188,7 +14203,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14225,14 +14240,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 26631-2021</t>
+          <t>A 3522-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44348.67560185185</v>
+        <v>45320.53537037037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14245,7 +14260,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14282,14 +14297,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 62313-2023</t>
+          <t>A 11270-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45267</v>
+        <v>45726.40613425926</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14302,7 +14317,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14339,14 +14354,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 50713-2021</t>
+          <t>A 61687-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44460.36797453704</v>
+        <v>45264</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14359,7 +14374,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14396,14 +14411,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 21291-2024</t>
+          <t>A 57256-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45440.66341435185</v>
+        <v>44895.78923611111</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14416,7 +14431,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14453,14 +14468,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 33099-2025</t>
+          <t>A 57257-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45840</v>
+        <v>44895.79283564815</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14473,7 +14488,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14510,14 +14525,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 2781-2025</t>
+          <t>A 59266-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45677.54344907407</v>
+        <v>45253.55190972222</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14530,7 +14545,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14567,14 +14582,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 4812-2025</t>
+          <t>A 18691-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45688.61510416667</v>
+        <v>45043.61253472222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14586,13 +14601,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14629,14 +14639,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 37726-2024</t>
+          <t>A 15737-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45541.65391203704</v>
+        <v>45748.54488425926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14649,7 +14659,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14686,14 +14696,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 2452-2022</t>
+          <t>A 33099-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44579</v>
+        <v>45840</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14706,7 +14716,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14743,14 +14753,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 4701-2026</t>
+          <t>A 6977-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46048.44986111111</v>
+        <v>45701.54565972222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14762,13 +14772,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14805,14 +14810,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 50673-2024</t>
+          <t>A 4701-2026</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45601.84043981481</v>
+        <v>46048.44986111111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14824,8 +14829,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14862,14 +14872,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 47332-2023</t>
+          <t>A 57253-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45202.53005787037</v>
+        <v>44895.77885416667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14882,7 +14892,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14919,14 +14929,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 61879-2023</t>
+          <t>A 63842-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45266.42527777778</v>
+        <v>46020.43096064815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14939,7 +14949,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14976,14 +14986,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 13481-2023</t>
+          <t>A 42038-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45005</v>
+        <v>45561.79969907407</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14996,7 +15006,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.7</v>
+        <v>7.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15033,14 +15043,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 6453-2024</t>
+          <t>A 35059-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45338.67915509259</v>
+        <v>45142</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15052,13 +15062,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15095,14 +15100,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 20196-2024</t>
+          <t>A 50712-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45434.63688657407</v>
+        <v>44460.36731481482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15152,14 +15157,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 59786-2022</t>
+          <t>A 50713-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44900</v>
+        <v>44460.36797453704</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15172,7 +15177,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15209,14 +15214,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 35035-2023</t>
+          <t>A 59782-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45142</v>
+        <v>44900</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15229,7 +15234,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15266,14 +15271,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 49041-2022</t>
+          <t>A 1141-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44858</v>
+        <v>44935</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15286,7 +15291,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15323,14 +15328,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 37917-2023</t>
+          <t>A 1152-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45160.48486111111</v>
+        <v>44935.64951388889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15343,7 +15348,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15380,14 +15385,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 20433-2024</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45435.61200231482</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15400,7 +15405,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15437,14 +15442,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 20439-2024</t>
+          <t>A 73305-2021</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45435</v>
+        <v>44551.3184837963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15457,7 +15462,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15494,14 +15499,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 20461-2024</t>
+          <t>A 9013-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45435.65636574074</v>
+        <v>44979.60032407408</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15514,7 +15519,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15551,14 +15556,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 12668-2021</t>
+          <t>A 35608-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44270</v>
+        <v>45146</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15608,14 +15613,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 42486-2021</t>
+          <t>A 9012-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44427</v>
+        <v>44979.59778935185</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15628,7 +15633,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15665,14 +15670,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 3522-2024</t>
+          <t>A 9413-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45320.53537037037</v>
+        <v>45359.44399305555</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15685,7 +15690,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15722,14 +15727,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 50909-2023</t>
+          <t>A 9450-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45218.42068287037</v>
+        <v>45358</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15742,7 +15747,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15779,14 +15784,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 7238-2024</t>
+          <t>A 53719-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45344.66310185185</v>
+        <v>45230.72717592592</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15799,7 +15804,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15836,14 +15841,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 52879-2024</t>
+          <t>A 53374-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45610.63946759259</v>
+        <v>45229</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15856,7 +15861,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15893,14 +15898,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 6517-2022</t>
+          <t>A 32771-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44601.46166666667</v>
+        <v>44375</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15913,7 +15918,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -15950,14 +15955,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 59272-2023</t>
+          <t>A 13481-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45253.55487268518</v>
+        <v>45005</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -15970,7 +15975,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16007,14 +16012,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 43620-2024</t>
+          <t>A 57759-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45569.481875</v>
+        <v>45246.8422337963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16026,13 +16031,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16069,14 +16069,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 35608-2023</t>
+          <t>A 51467-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45146</v>
+        <v>45221.75239583333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16126,14 +16126,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 12007-2025</t>
+          <t>A 25764-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45728</v>
+        <v>45090.45520833333</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16183,14 +16183,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 53374-2023</t>
+          <t>A 20443-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45229</v>
+        <v>45435.62212962963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16240,14 +16240,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 12938-2022</t>
+          <t>A 21303-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44642</v>
+        <v>45440.6750462963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16297,14 +16297,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 9108-2022</t>
+          <t>A 55296-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44615</v>
+        <v>45237.81827546296</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16354,14 +16354,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 23065-2024</t>
+          <t>A 12026-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45450.44878472222</v>
+        <v>45377.37309027778</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16411,14 +16411,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 59266-2023</t>
+          <t>A 22901-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45253.55190972222</v>
+        <v>45448.70333333333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16468,14 +16468,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 34708-2023</t>
+          <t>A 12024-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45140.9924537037</v>
+        <v>45377</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16525,14 +16525,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 1980-2024</t>
+          <t>A 20433-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45308</v>
+        <v>45435.61200231482</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16582,14 +16582,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 56456-2022</t>
+          <t>A 9216-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44893.31987268518</v>
+        <v>45358.50931712963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16639,14 +16639,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 12333-2022</t>
+          <t>A 11589-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44637.62513888889</v>
+        <v>44631</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16696,14 +16696,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 2680-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>45677.34737268519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16753,14 +16753,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 33299-2023</t>
+          <t>A 56856-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45116</v>
+        <v>45628.54497685185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16810,14 +16810,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 38160-2022</t>
+          <t>A 49678-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44812</v>
+        <v>45212.33935185185</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16867,14 +16867,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 38920-2022</t>
+          <t>A 2781-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44816</v>
+        <v>45677.54344907407</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16924,14 +16924,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 55296-2023</t>
+          <t>A 61879-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45237.81827546296</v>
+        <v>45266.42527777778</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16944,7 +16944,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -16981,14 +16981,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 52778-2022</t>
+          <t>A 58514-2024</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44875</v>
+        <v>45635.42575231481</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17001,7 +17001,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>8.4</v>
+        <v>4.5</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17038,14 +17038,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 4036-2024</t>
+          <t>A 13511-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45323.41983796296</v>
+        <v>45387</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17058,7 +17058,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17095,14 +17095,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 59946-2022</t>
+          <t>A 12668-2021</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44909.38717592593</v>
+        <v>44270</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17115,7 +17115,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17152,14 +17152,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 56164-2024</t>
+          <t>A 40224-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45624.54939814815</v>
+        <v>45554.59815972222</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17171,8 +17171,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G290" t="n">
-        <v>15.7</v>
+        <v>1.4</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17209,14 +17214,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 6977-2025</t>
+          <t>A 43620-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45701.54565972222</v>
+        <v>45569.481875</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17228,8 +17233,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G291" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17266,14 +17276,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 59782-2022</t>
+          <t>A 10165-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44900</v>
+        <v>45719.65021990741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17283,6 +17293,11 @@
       <c r="E292" t="inlineStr">
         <is>
           <t>VARA</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G292" t="n">
@@ -17323,14 +17338,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 52918-2023</t>
+          <t>A 52237-2021</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45226.52905092593</v>
+        <v>44463.60166666667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17343,7 +17358,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17380,14 +17395,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 13194-2022</t>
+          <t>A 38160-2022</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44644</v>
+        <v>44812</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17400,7 +17415,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17437,14 +17452,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 61737-2023</t>
+          <t>A 14593-2022</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45265.69740740741</v>
+        <v>44655.57246527778</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17457,7 +17472,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17494,14 +17509,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 18842-2021</t>
+          <t>A 6336-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44307</v>
+        <v>44600.57196759259</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17514,7 +17529,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17551,14 +17566,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 42427-2023</t>
+          <t>A 43754-2022</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45180</v>
+        <v>44837</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17571,7 +17586,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17608,14 +17623,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 61269-2024</t>
+          <t>A 59272-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45645.74246527778</v>
+        <v>45253.55487268518</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17628,7 +17643,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17665,14 +17680,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 32771-2021</t>
+          <t>A 4036-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44375</v>
+        <v>45323.41983796296</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17685,7 +17700,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17722,14 +17737,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 52237-2021</t>
+          <t>A 57465-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44463.60166666667</v>
+        <v>45630.32784722222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17742,7 +17757,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17779,14 +17794,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 9218-2024</t>
+          <t>A 61740-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45358.51653935185</v>
+        <v>45265.70538194444</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17799,7 +17814,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17836,14 +17851,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 60819-2023</t>
+          <t>A 13235-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45260.73208333334</v>
+        <v>45386</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17856,7 +17871,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17893,14 +17908,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 9380-2025</t>
+          <t>A 20911-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45715.34340277778</v>
+        <v>45777.40738425926</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17912,13 +17927,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G303" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -17955,14 +17965,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 18691-2023</t>
+          <t>A 20915-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45043.61253472222</v>
+        <v>45777.40862268519</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -17975,7 +17985,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18012,14 +18022,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 12675-2021</t>
+          <t>A 725-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44270.53107638889</v>
+        <v>45665.391875</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18032,7 +18042,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18069,14 +18079,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 6336-2022</t>
+          <t>A 13513-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44600.57196759259</v>
+        <v>45387</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18089,7 +18099,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18126,14 +18136,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 10165-2025</t>
+          <t>A 10303-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45719.65021990741</v>
+        <v>45365</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18145,13 +18155,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G307" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18188,14 +18193,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 55356-2024</t>
+          <t>A 9098-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45621.80996527777</v>
+        <v>45713.68337962963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18208,7 +18213,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18245,14 +18250,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 43624-2024</t>
+          <t>A 14901-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45569.4868287037</v>
+        <v>45743.48797453703</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18266,11 +18271,11 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G309" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18307,14 +18312,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 17911-2025</t>
+          <t>A 23668-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45758.74115740741</v>
+        <v>45792.90586805555</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18327,7 +18332,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18364,14 +18369,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 13511-2024</t>
+          <t>A 48908-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45387</v>
+        <v>45594.36315972222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18384,7 +18389,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18421,14 +18426,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 20240-2023</t>
+          <t>A 23669-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45055.68784722222</v>
+        <v>45792.93181712963</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18441,7 +18446,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18478,14 +18483,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 12016-2025</t>
+          <t>A 23865-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45728</v>
+        <v>45793.67059027778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18498,7 +18503,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18535,14 +18540,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 20536-2022</t>
+          <t>A 4303-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44700</v>
+        <v>45685</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18555,7 +18560,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18592,14 +18597,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 57465-2024</t>
+          <t>A 24609-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45630.32784722222</v>
+        <v>45798.58065972223</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18612,7 +18617,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18649,14 +18654,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 579-2024</t>
+          <t>A 25359-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45299</v>
+        <v>45800.61756944445</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18669,7 +18674,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18706,14 +18711,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 20911-2025</t>
+          <t>A 25128-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45777.40738425926</v>
+        <v>45800.37969907407</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18726,7 +18731,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>0.9</v>
+        <v>6.7</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18763,14 +18768,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 20915-2025</t>
+          <t>A 57313-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45777.40862268519</v>
+        <v>45629</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18783,7 +18788,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18820,14 +18825,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 725-2025</t>
+          <t>A 57295-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45665.391875</v>
+        <v>45629</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18840,7 +18845,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18877,14 +18882,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 13513-2024</t>
+          <t>A 27819-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45387</v>
+        <v>45475</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18897,7 +18902,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18934,14 +18939,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 10303-2024</t>
+          <t>A 51398-2024</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45365</v>
+        <v>45604.4233912037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18954,7 +18959,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -18991,14 +18996,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 9098-2025</t>
+          <t>A 26786-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45713.68337962963</v>
+        <v>45810.58515046296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19011,7 +19016,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>1.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19048,14 +19053,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 14901-2025</t>
+          <t>A 27856-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45743.48797453703</v>
+        <v>45475</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19067,13 +19072,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G323" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19110,14 +19110,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 23669-2025</t>
+          <t>A 27151-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45792.93181712963</v>
+        <v>45812.32086805555</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19167,14 +19167,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 23668-2025</t>
+          <t>A 59527-2024</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45792.90586805555</v>
+        <v>45638.59061342593</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19221,17 +19221,17 @@
       </c>
       <c r="R325" s="2" t="inlineStr"/>
     </row>
-    <row r="326" ht="15" customHeight="1">
+    <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 23865-2025</t>
+          <t>A 12009-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45793.67059027778</v>
+        <v>45728</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19277,120 +19277,6 @@
         <v>0</v>
       </c>
       <c r="R326" s="2" t="inlineStr"/>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>A 4303-2025</t>
-        </is>
-      </c>
-      <c r="B327" s="1" t="n">
-        <v>45685</v>
-      </c>
-      <c r="C327" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G327" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" t="n">
-        <v>0</v>
-      </c>
-      <c r="K327" t="n">
-        <v>0</v>
-      </c>
-      <c r="L327" t="n">
-        <v>0</v>
-      </c>
-      <c r="M327" t="n">
-        <v>0</v>
-      </c>
-      <c r="N327" t="n">
-        <v>0</v>
-      </c>
-      <c r="O327" t="n">
-        <v>0</v>
-      </c>
-      <c r="P327" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q327" t="n">
-        <v>0</v>
-      </c>
-      <c r="R327" s="2" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>A 48908-2024</t>
-        </is>
-      </c>
-      <c r="B328" s="1" t="n">
-        <v>45594.36315972222</v>
-      </c>
-      <c r="C328" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G328" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="n">
-        <v>0</v>
-      </c>
-      <c r="K328" t="n">
-        <v>0</v>
-      </c>
-      <c r="L328" t="n">
-        <v>0</v>
-      </c>
-      <c r="M328" t="n">
-        <v>0</v>
-      </c>
-      <c r="N328" t="n">
-        <v>0</v>
-      </c>
-      <c r="O328" t="n">
-        <v>0</v>
-      </c>
-      <c r="P328" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q328" t="n">
-        <v>0</v>
-      </c>
-      <c r="R328" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 60881-2025</t>
+          <t>A 6040-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45999</v>
+        <v>45695.66266203704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,13 +588,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -622,208 +622,208 @@
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 6040-2025 artfynd.xlsx", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 6040-2025 karta.png", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 6040-2025 FSC-klagomål.docx", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 6040-2025 FSC-klagomål mail.docx", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 6040-2025 tillsynsbegäran.docx", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 6040-2025 tillsynsbegäran mail.docx", "A 6040-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 60881-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
           <t>Rostfläck</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 60881-2025 artfynd.xlsx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 60881-2025 karta.png", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 60881-2025 FSC-klagomål.docx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 60881-2025 FSC-klagomål mail.docx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 60881-2025 tillsynsbegäran.docx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 60881-2025 tillsynsbegäran mail.docx", "A 60881-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A 51277-2025</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>45950.23784722222</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>4.1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Gulsparv</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 51277-2025 artfynd.xlsx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 51277-2025 karta.png", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 51277-2025 FSC-klagomål.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 51277-2025 FSC-klagomål mail.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 51277-2025 tillsynsbegäran.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 51277-2025 tillsynsbegäran mail.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/fåglar/A 51277-2025 prioriterade fågelarter.docx", "A 51277-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 6040-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45695.66266203704</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 6040-2025 artfynd.xlsx", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 6040-2025 karta.png", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 6040-2025 FSC-klagomål.docx", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 6040-2025 FSC-klagomål mail.docx", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 6040-2025 tillsynsbegäran.docx", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 6040-2025 tillsynsbegäran mail.docx", "A 6040-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44264</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44600.48700231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1003,14 +1003,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 32481-2022</t>
+          <t>A 40536-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44782.61696759259</v>
+        <v>44420.38428240741</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1060,14 +1060,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 40536-2021</t>
+          <t>A 32481-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44420.38428240741</v>
+        <v>44782.61696759259</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>44356.42327546296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44305.59869212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>44796.56913194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>44620</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44432</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44314.54328703704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1516,14 +1516,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 51421-2021</t>
+          <t>A 47901-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44461</v>
+        <v>44448.8524537037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1573,14 +1573,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 47901-2021</t>
+          <t>A 51421-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44448.8524537037</v>
+        <v>44461</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1630,14 +1630,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 62540-2021</t>
+          <t>A 10831-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44503.61056712963</v>
+        <v>44627.56489583333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1687,14 +1687,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 10831-2022</t>
+          <t>A 62540-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44627.56489583333</v>
+        <v>44503.61056712963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>44378</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44831.4771412037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44867.89589120371</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44851.3972337963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44851.74130787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44378.41319444445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44504</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44267</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44746.7121412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44851.74324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44851.74546296296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>44376.6027662037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44886.56302083333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44704.53608796297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44299</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44460.36069444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44270.36637731481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44867</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44431.35026620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44441</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3402,14 +3402,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 25863-2021</t>
+          <t>A 5174-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44343</v>
+        <v>44594</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3459,14 +3459,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 5174-2022</t>
+          <t>A 25863-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44594</v>
+        <v>44343</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44785.60559027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>44636.73104166667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44636.73430555555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44704.53440972222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44616.30952546297</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3915,14 +3915,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 10449-2025</t>
+          <t>A 4624-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45720</v>
+        <v>45687.62030092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>8</v>
+        <v>11.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3972,14 +3972,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 62313-2023</t>
+          <t>A 9215-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45267</v>
+        <v>45358</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>12.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4029,14 +4029,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 6454-2024</t>
+          <t>A 61269-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45338.68309027778</v>
+        <v>45645.74246527778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4048,13 +4048,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4091,14 +4086,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 9411-2024</t>
+          <t>A 20443-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45359.44168981481</v>
+        <v>45435.62212962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4111,7 +4106,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4148,14 +4143,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 50702-2022</t>
+          <t>A 56856-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44867.32679398148</v>
+        <v>45628.54497685185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4168,7 +4163,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4205,14 +4200,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 50709-2021</t>
+          <t>A 40224-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44460.36636574074</v>
+        <v>45554.59815972222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4224,8 +4219,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4262,14 +4262,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 59259-2023</t>
+          <t>A 32771-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45253.54922453704</v>
+        <v>44375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4319,14 +4319,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9410-2024</t>
+          <t>A 52237-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45359.4405787037</v>
+        <v>44463.60166666667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4376,14 +4376,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 49041-2022</t>
+          <t>A 9218-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44858</v>
+        <v>45358.51653935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4433,14 +4433,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 5847-2024</t>
+          <t>A 9058-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45335.61695601852</v>
+        <v>45713.64200231482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4490,14 +4490,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57255-2022</t>
+          <t>A 60819-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44895.78674768518</v>
+        <v>45260.73208333334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4547,14 +4547,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 14690-2024</t>
+          <t>A 9380-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45397</v>
+        <v>45715.34340277778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4566,8 +4566,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4604,14 +4609,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 4434-2024</t>
+          <t>A 31967-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45327.47383101852</v>
+        <v>45510</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4624,7 +4629,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.6</v>
+        <v>9.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4661,14 +4666,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33299-2023</t>
+          <t>A 18691-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45116</v>
+        <v>45043.61253472222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4681,7 +4686,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4718,14 +4723,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26631-2021</t>
+          <t>A 12675-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44348.67560185185</v>
+        <v>44270.53107638889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4738,7 +4743,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4775,14 +4780,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 64317-2023</t>
+          <t>A 41278-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45279</v>
+        <v>45898.62895833333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4795,7 +4800,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4832,14 +4837,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 64330-2023</t>
+          <t>A 6336-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45279</v>
+        <v>44600.57196759259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4852,7 +4857,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6.6</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4889,14 +4894,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20465-2024</t>
+          <t>A 41331-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45435.66646990741</v>
+        <v>45899.35118055555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4909,7 +4914,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4946,14 +4951,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23065-2024</t>
+          <t>A 60543-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45450.44878472222</v>
+        <v>45643.79293981481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4966,7 +4971,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5003,14 +5008,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 961-2023</t>
+          <t>A 9000-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44934</v>
+        <v>44979.5653125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5023,7 +5028,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5060,14 +5065,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9000-2023</t>
+          <t>A 9012-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44979.5653125</v>
+        <v>44979.59778935185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5080,7 +5085,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5117,14 +5122,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 10728-2023</t>
+          <t>A 41281-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44988.67260416667</v>
+        <v>45898.63497685185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5137,7 +5142,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5174,14 +5179,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 33693-2021</t>
+          <t>A 35588-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44378.4540162037</v>
+        <v>45146</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5194,7 +5199,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5231,14 +5236,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 60819-2023</t>
+          <t>A 41286-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45260.73208333334</v>
+        <v>45898.63819444444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5251,7 +5256,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5288,14 +5293,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 9404-2022</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44616</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5308,7 +5313,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5345,14 +5350,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 49820-2022</t>
+          <t>A 4289-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44862.70869212963</v>
+        <v>45685.65704861111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5365,7 +5370,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5402,14 +5407,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 20240-2023</t>
+          <t>A 21303-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45055.68784722222</v>
+        <v>45440.6750462963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5422,7 +5427,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5459,14 +5464,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28781-2025</t>
+          <t>A 10165-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45820.45300925926</v>
+        <v>45719.65021990741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5480,11 +5485,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5521,14 +5526,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4812-2025</t>
+          <t>A 55356-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45688.61510416667</v>
+        <v>45621.80996527777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5540,13 +5545,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5583,14 +5583,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29303-2025</t>
+          <t>A 11983-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45824.45894675926</v>
+        <v>45728</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5640,14 +5640,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29200-2025</t>
+          <t>A 39371-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45823.35009259259</v>
+        <v>45889.58263888889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5659,8 +5659,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5697,14 +5702,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9215-2024</t>
+          <t>A 39374-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45358</v>
+        <v>45889.58648148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5716,8 +5721,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>12.2</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5754,14 +5764,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 12007-2025</t>
+          <t>A 7851-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45728</v>
+        <v>44973.52238425926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5784,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5811,14 +5821,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 49391-2024</t>
+          <t>A 10449-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45595.6597337963</v>
+        <v>45720</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5841,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5868,14 +5878,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 29814-2025</t>
+          <t>A 58514-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45825.78996527778</v>
+        <v>45635.42575231481</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5898,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5925,14 +5935,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 13235-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>45386</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5955,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5982,14 +5992,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31163-2025</t>
+          <t>A 61687-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45832.65693287037</v>
+        <v>45264</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6012,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6039,14 +6049,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 31606-2025</t>
+          <t>A 43624-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45833.75311342593</v>
+        <v>45569.4868287037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6058,8 +6068,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6096,14 +6111,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 31629-2025</t>
+          <t>A 17911-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45834.3266087963</v>
+        <v>45758.74115740741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6131,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6153,14 +6168,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 11983-2025</t>
+          <t>A 59259-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45728</v>
+        <v>45253.54922453704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6188,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6210,14 +6225,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 9058-2025</t>
+          <t>A 59335-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45713.64200231482</v>
+        <v>45253.64171296296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6245,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6267,14 +6282,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 50812-2023</t>
+          <t>A 13511-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45217.75505787037</v>
+        <v>45387</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6324,14 +6339,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 35588-2023</t>
+          <t>A 20240-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45146</v>
+        <v>45055.68784722222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6381,14 +6396,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 12021-2024</t>
+          <t>A 12016-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45377.3702662037</v>
+        <v>45728</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6416,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6438,14 +6453,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 4289-2025</t>
+          <t>A 12021-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45685.65704861111</v>
+        <v>45377.3702662037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6473,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6495,14 +6510,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 10180-2024</t>
+          <t>A 20536-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45364.8280787037</v>
+        <v>44700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6530,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6552,14 +6567,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43624-2024</t>
+          <t>A 42395-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45569.4868287037</v>
+        <v>45905</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6571,13 +6586,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6614,14 +6624,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 49737-2024</t>
+          <t>A 9413-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45596.86387731481</v>
+        <v>45359.44399305555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6634,7 +6644,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6671,14 +6681,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 39371-2025</t>
+          <t>A 9450-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45889.58263888889</v>
+        <v>45358</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6690,13 +6700,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6733,14 +6738,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 39374-2025</t>
+          <t>A 43615-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45889.58648148148</v>
+        <v>45569.47056712963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6754,11 +6759,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6795,14 +6800,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 20196-2024</t>
+          <t>A 57465-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45434.63688657407</v>
+        <v>45630.32784722222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6815,7 +6820,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6852,14 +6857,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 22532-2025</t>
+          <t>A 42237-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45786</v>
+        <v>45904.56365740741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6872,7 +6877,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6909,14 +6914,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 33672-2025</t>
+          <t>A 579-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45841</v>
+        <v>45299</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6929,7 +6934,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6966,14 +6971,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 33664-2025</t>
+          <t>A 20911-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45841.66825231481</v>
+        <v>45777.40738425926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6986,7 +6991,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7023,14 +7028,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 18843-2021</t>
+          <t>A 42920-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44307</v>
+        <v>45908.87545138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7043,7 +7048,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7080,14 +7085,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 1980-2024</t>
+          <t>A 20915-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45308</v>
+        <v>45777.40862268519</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7100,7 +7105,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7137,14 +7142,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 12675-2021</t>
+          <t>A 42919-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44270.53107638889</v>
+        <v>45908.87262731481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7157,7 +7162,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7194,14 +7199,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 41281-2025</t>
+          <t>A 1152-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45898.63497685185</v>
+        <v>44935.64951388889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7214,7 +7219,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7251,14 +7256,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 7655-2024</t>
+          <t>A 73168-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45348.69953703704</v>
+        <v>44550</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7271,7 +7276,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7308,14 +7313,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 20536-2022</t>
+          <t>A 54201-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44700</v>
+        <v>45232.55328703704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7328,7 +7333,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.9</v>
+        <v>7.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7365,14 +7370,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56456-2022</t>
+          <t>A 57266-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44893.31987268518</v>
+        <v>45629</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7422,14 +7427,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 41278-2025</t>
+          <t>A 725-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45898.62895833333</v>
+        <v>45665.391875</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7442,7 +7447,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7479,14 +7484,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 55667-2024</t>
+          <t>A 13513-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45622.64577546297</v>
+        <v>45387</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7499,7 +7504,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7536,14 +7541,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 33910-2025</t>
+          <t>A 10303-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45842.60122685185</v>
+        <v>45365</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7556,7 +7561,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7593,14 +7598,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 56164-2024</t>
+          <t>A 43216-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45624.54939814815</v>
+        <v>45910.46533564815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7613,7 +7618,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>15.7</v>
+        <v>3.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7650,14 +7655,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 41286-2025</t>
+          <t>A 14593-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45898.63819444444</v>
+        <v>44655.57246527778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7670,7 +7675,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7707,14 +7712,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 962-2023</t>
+          <t>A 22901-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44934</v>
+        <v>45448.70333333333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7727,7 +7732,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7764,14 +7769,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 60543-2024</t>
+          <t>A 20465-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45643.79293981481</v>
+        <v>45435.66646990741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7784,7 +7789,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7821,14 +7826,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 50673-2024</t>
+          <t>A 9098-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45601.84043981481</v>
+        <v>45713.68337962963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7841,7 +7846,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7878,14 +7883,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 41331-2025</t>
+          <t>A 15737-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45899.35118055555</v>
+        <v>45748.54488425926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7898,7 +7903,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7935,14 +7940,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 1197-2025</t>
+          <t>A 14901-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45667.38278935185</v>
+        <v>45743.48797453703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7954,8 +7959,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -7992,14 +8002,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 7851-2023</t>
+          <t>A 44240-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44973.52238425926</v>
+        <v>45915.67596064815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8012,7 +8022,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8049,14 +8059,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 42237-2025</t>
+          <t>A 54293-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45904.56365740741</v>
+        <v>45232.72627314815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8069,7 +8079,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8106,14 +8116,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 35042-2023</t>
+          <t>A 23669-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45142</v>
+        <v>45792.93181712963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8126,7 +8136,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8163,14 +8173,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 33300-2023</t>
+          <t>A 23668-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45116</v>
+        <v>45792.90586805555</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8183,7 +8193,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8220,14 +8230,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 33301-2023</t>
+          <t>A 23865-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45116</v>
+        <v>45793.67059027778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8240,7 +8250,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8277,14 +8287,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 61269-2024</t>
+          <t>A 57255-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45645.74246527778</v>
+        <v>44895.78674768518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8297,7 +8307,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8334,14 +8344,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 60483-2022</t>
+          <t>A 31260-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44911.4247800926</v>
+        <v>44771.57344907407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8354,7 +8364,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8391,14 +8401,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 42395-2025</t>
+          <t>A 4303-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45905</v>
+        <v>45685</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8411,7 +8421,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8448,14 +8458,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 43615-2024</t>
+          <t>A 14116-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45569.47056712963</v>
+        <v>45740</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8467,13 +8477,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8510,14 +8515,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 44947-2024</t>
+          <t>A 35056-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45575.44268518518</v>
+        <v>45142</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8529,13 +8534,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8572,14 +8572,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 31260-2022</t>
+          <t>A 48908-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44771.57344907407</v>
+        <v>45594.36315972222</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8629,14 +8629,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 42919-2025</t>
+          <t>A 44947-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45908.87262731481</v>
+        <v>45575.44268518518</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8648,8 +8648,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8686,14 +8691,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 6974-2025</t>
+          <t>A 24609-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45701.54447916667</v>
+        <v>45798.58065972223</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8706,7 +8711,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8743,14 +8748,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 43216-2025</t>
+          <t>A 40331-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45910.46533564815</v>
+        <v>44823.35134259259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8763,7 +8768,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8800,14 +8805,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 42920-2025</t>
+          <t>A 41690-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45908.87545138889</v>
+        <v>45176.36280092593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8820,7 +8825,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8857,14 +8862,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 12938-2022</t>
+          <t>A 25128-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44642</v>
+        <v>45800.37969907407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8877,7 +8882,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.7</v>
+        <v>6.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8914,14 +8919,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 36630-2025</t>
+          <t>A 25359-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45870</v>
+        <v>45800.61756944445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8934,7 +8939,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8971,14 +8976,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 36632-2025</t>
+          <t>A 4434-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45870</v>
+        <v>45327.47383101852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8991,7 +8996,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9028,14 +9033,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 44240-2025</t>
+          <t>A 53719-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45915.67596064815</v>
+        <v>45230.72717592592</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9048,7 +9053,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9085,14 +9090,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 6517-2022</t>
+          <t>A 27856-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44601.46166666667</v>
+        <v>45475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9105,7 +9110,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9142,14 +9147,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 37398-2025</t>
+          <t>A 51398-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45877</v>
+        <v>45604.4233912037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9162,7 +9167,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9199,14 +9204,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 18842-2021</t>
+          <t>A 27819-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44307</v>
+        <v>45475</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9219,7 +9224,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.3</v>
+        <v>4.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9256,14 +9261,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 38920-2022</t>
+          <t>A 57313-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44816</v>
+        <v>45629</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9276,7 +9281,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9313,14 +9318,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 62775-2023</t>
+          <t>A 57295-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45271</v>
+        <v>45629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9333,7 +9338,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9370,14 +9375,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 45974-2025</t>
+          <t>A 26786-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45924.36851851852</v>
+        <v>45810.58515046296</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9390,7 +9395,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9427,14 +9432,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9380-2025</t>
+          <t>A 57253-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45715.34340277778</v>
+        <v>44895.77885416667</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9446,13 +9451,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9489,14 +9489,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 31967-2024</t>
+          <t>A 4622-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45510</v>
+        <v>45687.61902777778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>9.1</v>
+        <v>7.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9546,14 +9546,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 59314-2024</t>
+          <t>A 27151-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45637.68851851852</v>
+        <v>45812.32086805555</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9603,14 +9603,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 4622-2025</t>
+          <t>A 45974-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45687.61902777778</v>
+        <v>45924.36851851852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>7.8</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9660,14 +9660,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 47332-2023</t>
+          <t>A 59527-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45202.53005787037</v>
+        <v>45638.59061342593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9717,14 +9717,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 4624-2025</t>
+          <t>A 50702-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45687.62030092593</v>
+        <v>44867.32679398148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>11.7</v>
+        <v>4.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9774,14 +9774,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 40331-2022</t>
+          <t>A 12009-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44823.35134259259</v>
+        <v>45728</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9831,14 +9831,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 2452-2022</t>
+          <t>A 17536-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44579</v>
+        <v>45757</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9888,14 +9888,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 47819-2025</t>
+          <t>A 17543-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45932.33591435185</v>
+        <v>45757.60640046297</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9945,14 +9945,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48066-2025</t>
+          <t>A 45303-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45932</v>
+        <v>45576.4172337963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10002,14 +10002,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 48074-2025</t>
+          <t>A 28781-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45932</v>
+        <v>45820.45300925926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10021,8 +10021,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10059,14 +10064,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 41690-2023</t>
+          <t>A 25764-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45176.36280092593</v>
+        <v>45090.45520833333</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10079,7 +10084,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10116,14 +10121,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 19259-2025</t>
+          <t>A 61738-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45769.50775462963</v>
+        <v>45265.69861111111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10136,7 +10141,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10173,14 +10178,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49863-2025</t>
+          <t>A 29303-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45940.51858796296</v>
+        <v>45824.45894675926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10193,7 +10198,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10230,14 +10235,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 17542-2025</t>
+          <t>A 29200-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45757.60574074074</v>
+        <v>45823.35009259259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10250,7 +10255,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10287,14 +10292,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 59335-2023</t>
+          <t>A 29814-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45253.64171296296</v>
+        <v>45825.78996527778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10307,7 +10312,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10344,14 +10349,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 50123-2025</t>
+          <t>A 9411-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45943.55126157407</v>
+        <v>45359.44168981481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10363,13 +10368,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10406,14 +10406,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 54293-2023</t>
+          <t>A 31163-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45232.72627314815</v>
+        <v>45832.65693287037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10463,14 +10463,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 50604-2025</t>
+          <t>A 31629-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45944</v>
+        <v>45834.3266087963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10520,14 +10520,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 579-2024</t>
+          <t>A 31606-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45299</v>
+        <v>45833.75311342593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10577,14 +10577,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 27845-2023</t>
+          <t>A 64317-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45098.55438657408</v>
+        <v>45279</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10634,14 +10634,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 18224-2022</t>
+          <t>A 64330-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44685</v>
+        <v>45279</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10691,14 +10691,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 18244-2022</t>
+          <t>A 48074-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44685</v>
+        <v>45932</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10748,14 +10748,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 59786-2022</t>
+          <t>A 47819-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44900</v>
+        <v>45932.33591435185</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10805,14 +10805,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 17911-2025</t>
+          <t>A 48066-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45758.74115740741</v>
+        <v>45932</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10862,14 +10862,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 42486-2021</t>
+          <t>A 7655-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44427</v>
+        <v>45348.69953703704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.7</v>
+        <v>8.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10919,14 +10919,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 37726-2024</t>
+          <t>A 49737-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45541.65391203704</v>
+        <v>45596.86387731481</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10976,14 +10976,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 51212-2025</t>
+          <t>A 22532-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45947.64262731482</v>
+        <v>45786</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11033,14 +11033,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 51218-2025</t>
+          <t>A 33672-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45947.64576388889</v>
+        <v>45841</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11090,14 +11090,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 51206-2025</t>
+          <t>A 19259-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45947.6365625</v>
+        <v>45769.50775462963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11147,14 +11147,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 14116-2025</t>
+          <t>A 33664-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45740</v>
+        <v>45841.66825231481</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11204,14 +11204,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 52131-2025</t>
+          <t>A 1141-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45952.75775462963</v>
+        <v>44935</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11261,14 +11261,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 52778-2022</t>
+          <t>A 33910-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44875</v>
+        <v>45842.60122685185</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>8.4</v>
+        <v>3.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11318,14 +11318,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 53604-2025</t>
+          <t>A 961-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45960.46254629629</v>
+        <v>44934</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>19.8</v>
+        <v>1.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11375,14 +11375,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 53606-2025</t>
+          <t>A 11270-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45960.46693287037</v>
+        <v>45726.40613425926</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11432,14 +11432,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 53802-2025</t>
+          <t>A 2680-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45960.79004629629</v>
+        <v>45677.34737268519</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11489,14 +11489,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 35056-2023</t>
+          <t>A 9404-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45142</v>
+        <v>44616</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>7</v>
+        <v>1.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11546,14 +11546,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 59946-2022</t>
+          <t>A 59314-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44909.38717592593</v>
+        <v>45637.68851851852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11603,14 +11603,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 73168-2021</t>
+          <t>A 50123-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44550</v>
+        <v>45943.55126157407</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11622,8 +11622,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11660,14 +11665,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 45303-2024</t>
+          <t>A 1197-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45576.4172337963</v>
+        <v>45667.38278935185</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11680,7 +11685,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>8.300000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11717,14 +11722,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 61737-2023</t>
+          <t>A 27845-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45265.69740740741</v>
+        <v>45098.55438657408</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11737,7 +11742,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11774,14 +11779,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 54997-2025</t>
+          <t>A 60483-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45967.5977199074</v>
+        <v>44911.4247800926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11794,7 +11799,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11831,14 +11836,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 52879-2024</t>
+          <t>A 962-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45610.63946759259</v>
+        <v>44934</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11851,7 +11856,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11888,14 +11893,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 55561-2025</t>
+          <t>A 5847-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45971.65128472223</v>
+        <v>45335.61695601852</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11908,7 +11913,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11945,14 +11950,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 6453-2024</t>
+          <t>A 46137-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45338.67915509259</v>
+        <v>45196.56315972222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11964,13 +11969,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12007,14 +12007,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 55967-2025</t>
+          <t>A 49863-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45973.48353009259</v>
+        <v>45940.51858796296</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12026,13 +12026,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12069,14 +12064,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 56326-2025</t>
+          <t>A 49391-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45974.6370949074</v>
+        <v>45595.6597337963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12089,7 +12084,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12126,14 +12121,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 56654-2023</t>
+          <t>A 6974-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45243.80131944444</v>
+        <v>45701.54447916667</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12146,7 +12141,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12183,14 +12178,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 7238-2024</t>
+          <t>A 11589-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45344.66310185185</v>
+        <v>44631</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12203,7 +12198,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12240,14 +12235,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 28851-2024</t>
+          <t>A 33693-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45478.78487268519</v>
+        <v>44378.4540162037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12260,7 +12255,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12297,14 +12292,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 34708-2023</t>
+          <t>A 35059-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45140.9924537037</v>
+        <v>45142</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12317,7 +12312,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12354,14 +12349,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 57260-2025</t>
+          <t>A 56654-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45979.6544212963</v>
+        <v>45243.80131944444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12374,7 +12369,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12411,14 +12406,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 42427-2023</t>
+          <t>A 50604-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45180</v>
+        <v>45944</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12431,7 +12426,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12468,14 +12463,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 21291-2024</t>
+          <t>A 49736-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45440.66341435185</v>
+        <v>45596.86271990741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12488,7 +12483,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12525,14 +12520,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 13194-2022</t>
+          <t>A 36630-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44644</v>
+        <v>45870</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12545,7 +12540,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12582,14 +12577,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 20439-2024</t>
+          <t>A 36632-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45435</v>
+        <v>45870</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12602,7 +12597,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12639,14 +12634,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 20461-2024</t>
+          <t>A 28851-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45435.65636574074</v>
+        <v>45478.78487268519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12659,7 +12654,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12696,14 +12691,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 49736-2024</t>
+          <t>A 61740-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45596.86271990741</v>
+        <v>45265.70538194444</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12716,7 +12711,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12753,14 +12748,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 55356-2024</t>
+          <t>A 51212-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45621.80996527777</v>
+        <v>45947.64262731482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12773,7 +12768,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12810,14 +12805,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 37917-2023</t>
+          <t>A 9013-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45160.48486111111</v>
+        <v>44979.60032407408</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12830,7 +12825,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12867,14 +12862,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 46137-2023</t>
+          <t>A 37398-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45196.56315972222</v>
+        <v>45877</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12887,7 +12882,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>5.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12924,14 +12919,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 9218-2024</t>
+          <t>A 51218-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45358.51653935185</v>
+        <v>45947.64576388889</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12944,7 +12939,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12981,14 +12976,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 57266-2024</t>
+          <t>A 9410-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45629</v>
+        <v>45359.4405787037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13001,7 +12996,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13038,14 +13033,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 365-2022</t>
+          <t>A 9216-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44565</v>
+        <v>45358.50931712963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13058,7 +13053,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13095,14 +13090,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 50909-2023</t>
+          <t>A 51206-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45218.42068287037</v>
+        <v>45947.6365625</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13152,14 +13147,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 60216-2025</t>
+          <t>A 62775-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45994.54114583333</v>
+        <v>45271</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13172,7 +13167,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>8.199999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13209,14 +13204,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 60029-2025</t>
+          <t>A 42038-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45993.61226851852</v>
+        <v>45561.79969907407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13229,7 +13224,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>19.6</v>
+        <v>7.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13266,14 +13261,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 36627-2025</t>
+          <t>A 57759-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45870</v>
+        <v>45246.8422337963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13286,7 +13281,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13323,14 +13318,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 57303-2024</t>
+          <t>A 52131-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45629</v>
+        <v>45952.75775462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13343,7 +13338,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13380,14 +13375,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 2867-2026</t>
+          <t>A 50709-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46038.50097222222</v>
+        <v>44460.36636574074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13400,7 +13395,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13437,14 +13432,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 52918-2023</t>
+          <t>A 50712-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45226.52905092593</v>
+        <v>44460.36731481482</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13457,7 +13452,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13494,14 +13489,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 60575-2025</t>
+          <t>A 17542-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45996.3097337963</v>
+        <v>45757.60574074074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13513,13 +13508,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13556,14 +13546,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 57420-2024</t>
+          <t>A 53606-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45629</v>
+        <v>45960.46693287037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13576,7 +13566,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>6.6</v>
+        <v>3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13613,14 +13603,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 12333-2022</t>
+          <t>A 53604-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44637.62513888889</v>
+        <v>45960.46254629629</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13633,7 +13623,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.4</v>
+        <v>19.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13670,14 +13660,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 54201-2023</t>
+          <t>A 50812-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45232.55328703704</v>
+        <v>45217.75505787037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13690,7 +13680,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>7.6</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13727,14 +13717,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 12016-2025</t>
+          <t>A 53802-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45728</v>
+        <v>45960.79004629629</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13747,7 +13737,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13784,14 +13774,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 17536-2025</t>
+          <t>A 73305-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45757</v>
+        <v>44551.3184837963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13804,7 +13794,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13841,14 +13831,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 17543-2025</t>
+          <t>A 18224-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45757.60640046297</v>
+        <v>44685</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13861,7 +13851,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13898,14 +13888,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 4278-2026</t>
+          <t>A 18244-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46045.38021990741</v>
+        <v>44685</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13918,7 +13908,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13955,14 +13945,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 35035-2023</t>
+          <t>A 12024-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45142</v>
+        <v>45377</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13975,7 +13965,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14012,14 +14002,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 63426-2023</t>
+          <t>A 54997-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45274</v>
+        <v>45967.5977199074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14032,7 +14022,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14069,14 +14059,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 9108-2022</t>
+          <t>A 51467-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44615</v>
+        <v>45221.75239583333</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14089,7 +14079,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14126,14 +14116,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 61738-2023</t>
+          <t>A 55561-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45265.69861111111</v>
+        <v>45971.65128472223</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14146,7 +14136,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14183,14 +14173,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 9579-2021</t>
+          <t>A 55967-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44251</v>
+        <v>45973.48353009259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14202,8 +14192,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14240,14 +14235,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 3522-2024</t>
+          <t>A 55667-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45320.53537037037</v>
+        <v>45622.64577546297</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14260,7 +14255,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14297,14 +14292,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 11270-2025</t>
+          <t>A 56326-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45726.40613425926</v>
+        <v>45974.6370949074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14317,7 +14312,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14354,14 +14349,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 61687-2023</t>
+          <t>A 57260-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45264</v>
+        <v>45979.6544212963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14374,7 +14369,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14411,14 +14406,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 57256-2022</t>
+          <t>A 9579-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44895.78923611111</v>
+        <v>44251</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14431,7 +14426,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14468,14 +14463,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 57257-2022</t>
+          <t>A 14690-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44895.79283564815</v>
+        <v>45397</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14488,7 +14483,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14525,14 +14520,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 59266-2023</t>
+          <t>A 57256-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45253.55190972222</v>
+        <v>44895.78923611111</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14545,7 +14540,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14582,14 +14577,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 18691-2023</t>
+          <t>A 57257-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45043.61253472222</v>
+        <v>44895.79283564815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14602,7 +14597,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14639,14 +14634,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 15737-2025</t>
+          <t>A 10180-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45748.54488425926</v>
+        <v>45364.8280787037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14659,7 +14654,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14696,14 +14691,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 33099-2025</t>
+          <t>A 365-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45840</v>
+        <v>44565</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14716,7 +14711,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.7</v>
+        <v>7.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14753,14 +14748,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 6977-2025</t>
+          <t>A 49678-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45701.54565972222</v>
+        <v>45212.33935185185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14773,7 +14768,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14810,14 +14805,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 4701-2026</t>
+          <t>A 12026-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46048.44986111111</v>
+        <v>45377.37309027778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14829,13 +14824,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14872,14 +14862,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 57253-2022</t>
+          <t>A 57303-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44895.77885416667</v>
+        <v>45629</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14892,7 +14882,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14929,14 +14919,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 63842-2025</t>
+          <t>A 60029-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46020.43096064815</v>
+        <v>45993.61226851852</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14949,7 +14939,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.6</v>
+        <v>19.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14986,14 +14976,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 42038-2024</t>
+          <t>A 6454-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45561.79969907407</v>
+        <v>45338.68309027778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15005,8 +14995,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15043,14 +15038,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 35059-2023</t>
+          <t>A 60216-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45142</v>
+        <v>45994.54114583333</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15063,7 +15058,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15100,14 +15095,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 50712-2021</t>
+          <t>A 49820-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44460.36731481482</v>
+        <v>44862.70869212963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15120,7 +15115,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15157,14 +15152,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 50713-2021</t>
+          <t>A 60575-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44460.36797453704</v>
+        <v>45996.3097337963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15176,8 +15171,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15214,14 +15214,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 59782-2022</t>
+          <t>A 33300-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44900</v>
+        <v>45116</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15271,14 +15271,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 1141-2023</t>
+          <t>A 33301-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44935</v>
+        <v>45116</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15328,14 +15328,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 1152-2023</t>
+          <t>A 36627-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44935.64951388889</v>
+        <v>45870</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15385,14 +15385,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 2867-2026</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>46038.50097222222</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15442,14 +15442,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 73305-2021</t>
+          <t>A 35042-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44551.3184837963</v>
+        <v>45142</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15499,14 +15499,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 9013-2023</t>
+          <t>A 10728-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44979.60032407408</v>
+        <v>44988.67260416667</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15556,14 +15556,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 35608-2023</t>
+          <t>A 63426-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45146</v>
+        <v>45274</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15613,14 +15613,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 9012-2023</t>
+          <t>A 57420-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44979.59778935185</v>
+        <v>45629</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15670,14 +15670,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 9413-2024</t>
+          <t>A 43754-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45359.44399305555</v>
+        <v>44837</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15727,14 +15727,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 9450-2024</t>
+          <t>A 4278-2026</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45358</v>
+        <v>46045.38021990741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15784,14 +15784,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 53719-2023</t>
+          <t>A 18843-2021</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45230.72717592592</v>
+        <v>44307</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15841,14 +15841,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 53374-2023</t>
+          <t>A 26631-2021</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45229</v>
+        <v>44348.67560185185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15898,14 +15898,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 32771-2021</t>
+          <t>A 62313-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44375</v>
+        <v>45267</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -15955,14 +15955,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 13481-2023</t>
+          <t>A 50713-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45005</v>
+        <v>44460.36797453704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16012,14 +16012,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 57759-2023</t>
+          <t>A 21291-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45246.8422337963</v>
+        <v>45440.66341435185</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16069,14 +16069,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 51467-2023</t>
+          <t>A 2781-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45221.75239583333</v>
+        <v>45677.54344907407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16126,14 +16126,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 25764-2023</t>
+          <t>A 4812-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45090.45520833333</v>
+        <v>45688.61510416667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16143,6 +16143,11 @@
       <c r="E272" t="inlineStr">
         <is>
           <t>VARA</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G272" t="n">
@@ -16183,14 +16188,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 20443-2024</t>
+          <t>A 37726-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45435.62212962963</v>
+        <v>45541.65391203704</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16203,7 +16208,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16240,14 +16245,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 21303-2024</t>
+          <t>A 2452-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45440.6750462963</v>
+        <v>44579</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16260,7 +16265,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16297,14 +16302,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 55296-2023</t>
+          <t>A 50673-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45237.81827546296</v>
+        <v>45601.84043981481</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16317,7 +16322,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16354,14 +16359,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 12026-2024</t>
+          <t>A 47332-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45377.37309027778</v>
+        <v>45202.53005787037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16374,7 +16379,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16411,14 +16416,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 22901-2024</t>
+          <t>A 33099-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45448.70333333333</v>
+        <v>45840</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16468,14 +16473,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 12024-2024</t>
+          <t>A 61879-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45377</v>
+        <v>45266.42527777778</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16488,7 +16493,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16525,14 +16530,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 20433-2024</t>
+          <t>A 4701-2026</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45435.61200231482</v>
+        <v>46048.44986111111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16544,8 +16549,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G279" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16582,14 +16592,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 9216-2024</t>
+          <t>A 13481-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45358.50931712963</v>
+        <v>45005</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16602,7 +16612,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16639,14 +16649,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 11589-2022</t>
+          <t>A 63842-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44631</v>
+        <v>46020.43096064815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16659,7 +16669,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16696,14 +16706,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 2680-2025</t>
+          <t>A 6453-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45677.34737268519</v>
+        <v>45338.67915509259</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16715,8 +16725,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G282" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16753,14 +16768,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 56856-2024</t>
+          <t>A 20196-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45628.54497685185</v>
+        <v>45434.63688657407</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16773,7 +16788,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16810,14 +16825,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 49678-2023</t>
+          <t>A 59786-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45212.33935185185</v>
+        <v>44900</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16830,7 +16845,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16867,14 +16882,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 2781-2025</t>
+          <t>A 35035-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45677.54344907407</v>
+        <v>45142</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16887,7 +16902,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16924,14 +16939,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 61879-2023</t>
+          <t>A 49041-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45266.42527777778</v>
+        <v>44858</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16944,7 +16959,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -16981,14 +16996,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 58514-2024</t>
+          <t>A 37917-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45635.42575231481</v>
+        <v>45160.48486111111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17001,7 +17016,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17038,14 +17053,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 13511-2024</t>
+          <t>A 20433-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45387</v>
+        <v>45435.61200231482</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17058,7 +17073,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17095,14 +17110,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 12668-2021</t>
+          <t>A 20439-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44270</v>
+        <v>45435</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17115,7 +17130,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17152,14 +17167,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 40224-2024</t>
+          <t>A 20461-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45554.59815972222</v>
+        <v>45435.65636574074</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17171,13 +17186,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G290" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17214,14 +17224,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 43620-2024</t>
+          <t>A 12668-2021</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45569.481875</v>
+        <v>44270</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17233,13 +17243,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G291" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17276,14 +17281,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 10165-2025</t>
+          <t>A 42486-2021</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45719.65021990741</v>
+        <v>44427</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17295,13 +17300,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G292" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17338,14 +17338,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 52237-2021</t>
+          <t>A 3522-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44463.60166666667</v>
+        <v>45320.53537037037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17395,14 +17395,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 38160-2022</t>
+          <t>A 50909-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44812</v>
+        <v>45218.42068287037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>7.2</v>
+        <v>2.4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17452,14 +17452,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 14593-2022</t>
+          <t>A 7238-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44655.57246527778</v>
+        <v>45344.66310185185</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17509,14 +17509,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 6336-2022</t>
+          <t>A 52879-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44600.57196759259</v>
+        <v>45610.63946759259</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17566,14 +17566,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 43754-2022</t>
+          <t>A 6517-2022</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44837</v>
+        <v>44601.46166666667</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17630,7 +17630,7 @@
         <v>45253.55487268518</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17680,14 +17680,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 4036-2024</t>
+          <t>A 43620-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45323.41983796296</v>
+        <v>45569.481875</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17699,8 +17699,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G299" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17737,14 +17742,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 57465-2024</t>
+          <t>A 35608-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45630.32784722222</v>
+        <v>45146</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17757,7 +17762,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17794,14 +17799,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 61740-2023</t>
+          <t>A 12007-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45265.70538194444</v>
+        <v>45728</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17814,7 +17819,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17851,14 +17856,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 13235-2024</t>
+          <t>A 53374-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45386</v>
+        <v>45229</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17871,7 +17876,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17908,14 +17913,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 20911-2025</t>
+          <t>A 12938-2022</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45777.40738425926</v>
+        <v>44642</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17928,7 +17933,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -17965,14 +17970,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 20915-2025</t>
+          <t>A 9108-2022</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45777.40862268519</v>
+        <v>44615</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -17985,7 +17990,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18022,14 +18027,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 725-2025</t>
+          <t>A 23065-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45665.391875</v>
+        <v>45450.44878472222</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18042,7 +18047,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18079,14 +18084,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 13513-2024</t>
+          <t>A 59266-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45387</v>
+        <v>45253.55190972222</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18099,7 +18104,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18136,14 +18141,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 10303-2024</t>
+          <t>A 34708-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45365</v>
+        <v>45140.9924537037</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18193,14 +18198,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 9098-2025</t>
+          <t>A 1980-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45713.68337962963</v>
+        <v>45308</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18213,7 +18218,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18250,14 +18255,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 14901-2025</t>
+          <t>A 56456-2022</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45743.48797453703</v>
+        <v>44893.31987268518</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18269,13 +18274,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G309" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18312,14 +18312,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 23668-2025</t>
+          <t>A 12333-2022</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45792.90586805555</v>
+        <v>44637.62513888889</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18369,14 +18369,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 48908-2024</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45594.36315972222</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18426,14 +18426,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 23669-2025</t>
+          <t>A 33299-2023</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45792.93181712963</v>
+        <v>45116</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18483,14 +18483,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 23865-2025</t>
+          <t>A 38160-2022</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45793.67059027778</v>
+        <v>44812</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18540,14 +18540,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 4303-2025</t>
+          <t>A 38920-2022</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45685</v>
+        <v>44816</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18597,14 +18597,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 24609-2025</t>
+          <t>A 55296-2023</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45798.58065972223</v>
+        <v>45237.81827546296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18654,14 +18654,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 25359-2025</t>
+          <t>A 52778-2022</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45800.61756944445</v>
+        <v>44875</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>3</v>
+        <v>8.4</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18711,14 +18711,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 25128-2025</t>
+          <t>A 4036-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45800.37969907407</v>
+        <v>45323.41983796296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>6.7</v>
+        <v>2.4</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18768,14 +18768,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 57313-2024</t>
+          <t>A 59946-2022</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45629</v>
+        <v>44909.38717592593</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18825,14 +18825,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 57295-2024</t>
+          <t>A 56164-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45629</v>
+        <v>45624.54939814815</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1.3</v>
+        <v>15.7</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18882,14 +18882,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 27819-2024</t>
+          <t>A 6977-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45475</v>
+        <v>45701.54565972222</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18939,14 +18939,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 51398-2024</t>
+          <t>A 59782-2022</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45604.4233912037</v>
+        <v>44900</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -18996,14 +18996,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 26786-2025</t>
+          <t>A 52918-2023</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45810.58515046296</v>
+        <v>45226.52905092593</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>8.199999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19053,14 +19053,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 27856-2024</t>
+          <t>A 13194-2022</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45475</v>
+        <v>44644</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19110,14 +19110,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 27151-2025</t>
+          <t>A 61737-2023</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45812.32086805555</v>
+        <v>45265.69740740741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19167,14 +19167,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 59527-2024</t>
+          <t>A 18842-2021</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45638.59061342593</v>
+        <v>44307</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19224,14 +19224,14 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 12009-2025</t>
+          <t>A 42427-2023</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45728</v>
+        <v>45180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -575,7 +575,7 @@
         <v>45695.66266203704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45950.23784722222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44264</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44600.48700231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1003,14 +1003,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 40536-2021</t>
+          <t>A 32481-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44420.38428240741</v>
+        <v>44782.61696759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1060,14 +1060,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 32481-2022</t>
+          <t>A 40536-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44782.61696759259</v>
+        <v>44420.38428240741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1117,14 +1117,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 28360-2021</t>
+          <t>A 18380-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44356.42327546296</v>
+        <v>44305.59869212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1174,14 +1174,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 18380-2021</t>
+          <t>A 28360-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44305.59869212963</v>
+        <v>44356.42327546296</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>44796.56913194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>44620</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44432</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1459,14 +1459,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 20163-2021</t>
+          <t>A 47901-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44314.54328703704</v>
+        <v>44448.8524537037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1516,14 +1516,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 47901-2021</t>
+          <t>A 51421-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44448.8524537037</v>
+        <v>44461</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1573,14 +1573,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 51421-2021</t>
+          <t>A 62540-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44461</v>
+        <v>44503.61056712963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>44627.56489583333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 62540-2021</t>
+          <t>A 20163-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44503.61056712963</v>
+        <v>44314.54328703704</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>44378</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44831.4771412037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44867.89589120371</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44851.3972337963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44851.74130787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,14 +2143,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 33678-2021</t>
+          <t>A 46932-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44378.41319444445</v>
+        <v>44851.74324074074</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2200,14 +2200,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 3865-2022</t>
+          <t>A 46933-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44587</v>
+        <v>44851.74546296296</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2257,14 +2257,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 54964-2021</t>
+          <t>A 21086-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44474</v>
+        <v>44704.53608796297</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2314,14 +2314,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 62992-2021</t>
+          <t>A 50982-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44504</v>
+        <v>44867</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2371,14 +2371,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 12454-2021</t>
+          <t>A 47896-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44267</v>
+        <v>44448</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2428,14 +2428,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 28253-2022</t>
+          <t>A 17742-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44746.7121412037</v>
+        <v>44299</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 46932-2022</t>
+          <t>A 50699-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44851.74324074074</v>
+        <v>44460.36069444445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2542,14 +2542,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 46933-2022</t>
+          <t>A 50702-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44851.74546296296</v>
+        <v>44460</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2599,14 +2599,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 50982-2022</t>
+          <t>A 33836-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44867</v>
+        <v>44378</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>6.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2656,14 +2656,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 33092-2021</t>
+          <t>A 49047-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44376.6027662037</v>
+        <v>44858</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2713,14 +2713,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 55043-2022</t>
+          <t>A 12454-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44886.56302083333</v>
+        <v>44267</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2732,13 +2732,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2775,14 +2770,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21086-2022</t>
+          <t>A 33678-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44704.53608796297</v>
+        <v>44378.41319444445</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2795,7 +2790,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2832,14 +2827,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 47896-2021</t>
+          <t>A 33092-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44448</v>
+        <v>44376.6027662037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2852,7 +2847,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2889,14 +2884,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 17742-2021</t>
+          <t>A 12575-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44299</v>
+        <v>44270.36637731481</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2909,7 +2904,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2946,14 +2941,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 50699-2021</t>
+          <t>A 3865-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44460.36069444445</v>
+        <v>44587</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2966,7 +2961,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3003,14 +2998,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 50702-2021</t>
+          <t>A 55043-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44460</v>
+        <v>44886.56302083333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3022,8 +3017,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3060,14 +3060,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 33836-2021</t>
+          <t>A 50985-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44378</v>
+        <v>44867</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6.9</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3117,14 +3117,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 49047-2022</t>
+          <t>A 54964-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44858</v>
+        <v>44474</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3174,14 +3174,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12575-2021</t>
+          <t>A 42902-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44270.36637731481</v>
+        <v>44431.35026620371</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3231,14 +3231,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 50985-2022</t>
+          <t>A 62992-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44867</v>
+        <v>44504</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3288,14 +3288,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 42902-2021</t>
+          <t>A 45943-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44431.35026620371</v>
+        <v>44441</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3345,14 +3345,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45943-2021</t>
+          <t>A 50984-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44441</v>
+        <v>44867</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3402,14 +3402,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 5174-2022</t>
+          <t>A 28253-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44594</v>
+        <v>44746.7121412037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>44343</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3516,14 +3516,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 50984-2022</t>
+          <t>A 33171-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44867</v>
+        <v>44785.60559027778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3573,14 +3573,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 33171-2022</t>
+          <t>A 5174-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44785.60559027778</v>
+        <v>44594</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3630,14 +3630,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 10503-2022</t>
+          <t>A 26631-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44623</v>
+        <v>44348.67560185185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3687,14 +3687,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 12173-2022</t>
+          <t>A 33299-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44636.73104166667</v>
+        <v>45116</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3744,14 +3744,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 12175-2022</t>
+          <t>A 20465-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44636.73430555555</v>
+        <v>45435.66646990741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3801,14 +3801,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 21085-2022</t>
+          <t>A 64317-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44704.53440972222</v>
+        <v>45279</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3858,14 +3858,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9212-2022</t>
+          <t>A 64330-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44616.30952546297</v>
+        <v>45279</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.3</v>
+        <v>6.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3915,14 +3915,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 4624-2025</t>
+          <t>A 10503-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45687.62030092593</v>
+        <v>44623</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>11.7</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3972,14 +3972,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9215-2024</t>
+          <t>A 54293-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45358</v>
+        <v>45232.72627314815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4029,14 +4029,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 61269-2024</t>
+          <t>A 12173-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45645.74246527778</v>
+        <v>44636.73104166667</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4086,14 +4086,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 20443-2024</t>
+          <t>A 12175-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45435.62212962963</v>
+        <v>44636.73430555555</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4143,14 +4143,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 56856-2024</t>
+          <t>A 579-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45628.54497685185</v>
+        <v>45299</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4200,14 +4200,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40224-2024</t>
+          <t>A 21085-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45554.59815972222</v>
+        <v>44704.53440972222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4219,13 +4219,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4262,14 +4257,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32771-2021</t>
+          <t>A 27845-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44375</v>
+        <v>45098.55438657408</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4282,7 +4277,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4319,14 +4314,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52237-2021</t>
+          <t>A 23065-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44463.60166666667</v>
+        <v>45450.44878472222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4339,7 +4334,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4376,14 +4371,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9218-2024</t>
+          <t>A 9212-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45358.51653935185</v>
+        <v>44616.30952546297</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4396,7 +4391,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4433,14 +4428,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 9058-2025</t>
+          <t>A 18224-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45713.64200231482</v>
+        <v>44685</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4453,7 +4448,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4490,14 +4485,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60819-2023</t>
+          <t>A 18244-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45260.73208333334</v>
+        <v>44685</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4510,7 +4505,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4547,14 +4542,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 9380-2025</t>
+          <t>A 59786-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45715.34340277778</v>
+        <v>44900</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4566,13 +4561,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4609,14 +4599,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 31967-2024</t>
+          <t>A 17911-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45510</v>
+        <v>45758.74115740741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4629,7 +4619,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>9.1</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4666,14 +4656,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 18691-2023</t>
+          <t>A 42486-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45043.61253472222</v>
+        <v>44427</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4686,7 +4676,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4723,14 +4713,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 12675-2021</t>
+          <t>A 10449-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44270.53107638889</v>
+        <v>45720</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4743,7 +4733,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4780,14 +4770,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41278-2025</t>
+          <t>A 37726-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45898.62895833333</v>
+        <v>45541.65391203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4800,7 +4790,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4837,14 +4827,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 6336-2022</t>
+          <t>A 961-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44600.57196759259</v>
+        <v>44934</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4857,7 +4847,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4894,14 +4884,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41331-2025</t>
+          <t>A 5847-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45899.35118055555</v>
+        <v>45335.61695601852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4914,7 +4904,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4951,14 +4941,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 60543-2024</t>
+          <t>A 9000-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45643.79293981481</v>
+        <v>44979.5653125</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4971,7 +4961,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5008,14 +4998,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9000-2023</t>
+          <t>A 62313-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44979.5653125</v>
+        <v>45267</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5028,7 +5018,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5065,14 +5055,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9012-2023</t>
+          <t>A 14116-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44979.59778935185</v>
+        <v>45740</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5085,7 +5075,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5122,14 +5112,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41281-2025</t>
+          <t>A 9411-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45898.63497685185</v>
+        <v>45359.44168981481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5142,7 +5132,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5179,14 +5169,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 35588-2023</t>
+          <t>A 6454-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45146</v>
+        <v>45338.68309027778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5198,8 +5188,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5236,14 +5231,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 41286-2025</t>
+          <t>A 10728-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45898.63819444444</v>
+        <v>44988.67260416667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5256,7 +5251,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5293,14 +5288,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 50702-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>44867.32679398148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5313,7 +5308,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5350,14 +5345,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4289-2025</t>
+          <t>A 49820-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45685.65704861111</v>
+        <v>44862.70869212963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5370,7 +5365,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5407,14 +5402,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 21303-2024</t>
+          <t>A 52778-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45440.6750462963</v>
+        <v>44875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5427,7 +5422,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.1</v>
+        <v>8.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5464,14 +5459,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 10165-2025</t>
+          <t>A 59259-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45719.65021990741</v>
+        <v>45253.54922453704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5483,13 +5478,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5526,14 +5516,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 55356-2024</t>
+          <t>A 9410-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45621.80996527777</v>
+        <v>45359.4405787037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5536,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5583,14 +5573,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11983-2025</t>
+          <t>A 50709-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45728</v>
+        <v>44460.36636574074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5593,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5640,14 +5630,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 39371-2025</t>
+          <t>A 33693-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45889.58263888889</v>
+        <v>44378.4540162037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5659,13 +5649,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5702,14 +5687,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 39374-2025</t>
+          <t>A 49041-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45889.58648148148</v>
+        <v>44858</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5721,13 +5706,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5764,14 +5744,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 7851-2023</t>
+          <t>A 35056-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44973.52238425926</v>
+        <v>45142</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5784,7 +5764,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5821,14 +5801,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10449-2025</t>
+          <t>A 59946-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45720</v>
+        <v>44909.38717592593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5841,7 +5821,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5878,14 +5858,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 58514-2024</t>
+          <t>A 73168-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45635.42575231481</v>
+        <v>44550</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5898,7 +5878,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5935,14 +5915,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 13235-2024</t>
+          <t>A 45303-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45386</v>
+        <v>45576.4172337963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5955,7 +5935,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5992,14 +5972,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61687-2023</t>
+          <t>A 61737-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45264</v>
+        <v>45265.69740740741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6012,7 +5992,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6049,14 +6029,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43624-2024</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45569.4868287037</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6068,13 +6048,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6111,14 +6086,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17911-2025</t>
+          <t>A 9404-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45758.74115740741</v>
+        <v>44616</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6131,7 +6106,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6168,14 +6143,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 59259-2023</t>
+          <t>A 57255-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45253.54922453704</v>
+        <v>44895.78674768518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6188,7 +6163,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6225,14 +6200,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 59335-2023</t>
+          <t>A 60819-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45253.64171296296</v>
+        <v>45260.73208333334</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6245,7 +6220,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6282,14 +6257,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13511-2024</t>
+          <t>A 52879-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45387</v>
+        <v>45610.63946759259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6302,7 +6277,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6339,14 +6314,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 20240-2023</t>
+          <t>A 4434-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45055.68784722222</v>
+        <v>45327.47383101852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6359,7 +6334,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6396,14 +6371,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 12016-2025</t>
+          <t>A 73305-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45728</v>
+        <v>44551.3184837963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6416,7 +6391,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6453,14 +6428,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 12021-2024</t>
+          <t>A 20240-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45377.3702662037</v>
+        <v>45055.68784722222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6473,7 +6448,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6510,14 +6485,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 20536-2022</t>
+          <t>A 9013-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44700</v>
+        <v>44979.60032407408</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6530,7 +6505,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6567,14 +6542,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 42395-2025</t>
+          <t>A 14690-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45905</v>
+        <v>45397</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6587,7 +6562,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6624,14 +6599,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 9413-2024</t>
+          <t>A 6453-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45359.44399305555</v>
+        <v>45338.67915509259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6643,8 +6618,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6681,14 +6661,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 9450-2024</t>
+          <t>A 4812-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45358</v>
+        <v>45688.61510416667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6700,8 +6680,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6738,14 +6723,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 43615-2024</t>
+          <t>A 9215-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45569.47056712963</v>
+        <v>45358</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6757,13 +6742,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>12.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6800,14 +6780,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 57465-2024</t>
+          <t>A 56654-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45630.32784722222</v>
+        <v>45243.80131944444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6820,7 +6800,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6857,14 +6837,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 42237-2025</t>
+          <t>A 35608-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45904.56365740741</v>
+        <v>45146</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6877,7 +6857,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6914,14 +6894,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 579-2024</t>
+          <t>A 57313-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45299</v>
+        <v>45629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6971,14 +6951,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 20911-2025</t>
+          <t>A 12007-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45777.40738425926</v>
+        <v>45728</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6991,7 +6971,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7028,14 +7008,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 42920-2025</t>
+          <t>A 49391-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45908.87545138889</v>
+        <v>45595.6597337963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7048,7 +7028,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7085,14 +7065,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 20915-2025</t>
+          <t>A 7238-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45777.40862268519</v>
+        <v>45344.66310185185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7105,7 +7085,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7142,14 +7122,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42919-2025</t>
+          <t>A 57295-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45908.87262731481</v>
+        <v>45629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7162,7 +7142,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7199,14 +7179,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1152-2023</t>
+          <t>A 27819-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44935.64951388889</v>
+        <v>45475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7219,7 +7199,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7256,14 +7236,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 73168-2021</t>
+          <t>A 51398-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44550</v>
+        <v>45604.4233912037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7276,7 +7256,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7313,14 +7293,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 54201-2023</t>
+          <t>A 26786-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45232.55328703704</v>
+        <v>45810.58515046296</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7333,7 +7313,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7370,14 +7350,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 57266-2024</t>
+          <t>A 28851-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45629</v>
+        <v>45478.78487268519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7390,7 +7370,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7427,14 +7407,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 725-2025</t>
+          <t>A 27856-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45665.391875</v>
+        <v>45475</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7447,7 +7427,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7484,14 +7464,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 13513-2024</t>
+          <t>A 34708-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45387</v>
+        <v>45140.9924537037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7504,7 +7484,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7541,14 +7521,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 10303-2024</t>
+          <t>A 27151-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45365</v>
+        <v>45812.32086805555</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7561,7 +7541,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7598,14 +7578,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 43216-2025</t>
+          <t>A 42427-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45910.46533564815</v>
+        <v>45180</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7618,7 +7598,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7655,14 +7635,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 14593-2022</t>
+          <t>A 50812-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44655.57246527778</v>
+        <v>45217.75505787037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7675,7 +7655,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7712,14 +7692,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 22901-2024</t>
+          <t>A 12021-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45448.70333333333</v>
+        <v>45377.3702662037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7732,7 +7712,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7769,14 +7749,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 20465-2024</t>
+          <t>A 10180-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45435.66646990741</v>
+        <v>45364.8280787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7789,7 +7769,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7826,14 +7806,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 9098-2025</t>
+          <t>A 21291-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45713.68337962963</v>
+        <v>45440.66341435185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7883,14 +7863,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 15737-2025</t>
+          <t>A 59527-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45748.54488425926</v>
+        <v>45638.59061342593</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7903,7 +7883,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7940,14 +7920,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 14901-2025</t>
+          <t>A 12009-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45743.48797453703</v>
+        <v>45728</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7959,13 +7939,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8002,14 +7977,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44240-2025</t>
+          <t>A 43624-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45915.67596064815</v>
+        <v>45569.4868287037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8021,8 +7996,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8059,14 +8039,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 54293-2023</t>
+          <t>A 49737-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45232.72627314815</v>
+        <v>45596.86387731481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8079,7 +8059,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8116,14 +8096,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 23669-2025</t>
+          <t>A 28781-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45792.93181712963</v>
+        <v>45820.45300925926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8135,8 +8115,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8173,14 +8158,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 23668-2025</t>
+          <t>A 20196-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45792.90586805555</v>
+        <v>45434.63688657407</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8193,7 +8178,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8230,14 +8215,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 23865-2025</t>
+          <t>A 29303-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45793.67059027778</v>
+        <v>45824.45894675926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8250,7 +8235,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8287,14 +8272,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 57255-2022</t>
+          <t>A 13194-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44895.78674768518</v>
+        <v>44644</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8307,7 +8292,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8344,14 +8329,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 31260-2022</t>
+          <t>A 29200-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44771.57344907407</v>
+        <v>45823.35009259259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8364,7 +8349,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8401,14 +8386,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 4303-2025</t>
+          <t>A 20439-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45685</v>
+        <v>45435</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8421,7 +8406,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8458,14 +8443,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 14116-2025</t>
+          <t>A 20461-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45740</v>
+        <v>45435.65636574074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8478,7 +8463,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8515,14 +8500,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 35056-2023</t>
+          <t>A 18843-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45142</v>
+        <v>44307</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8535,7 +8520,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7</v>
+        <v>0.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8572,14 +8557,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 48908-2024</t>
+          <t>A 49736-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45594.36315972222</v>
+        <v>45596.86271990741</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8592,7 +8577,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8629,14 +8614,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 44947-2024</t>
+          <t>A 55356-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45575.44268518518</v>
+        <v>45621.80996527777</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8648,13 +8633,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8691,14 +8671,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 24609-2025</t>
+          <t>A 1980-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45798.58065972223</v>
+        <v>45308</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8711,7 +8691,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8748,14 +8728,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 40331-2022</t>
+          <t>A 12675-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44823.35134259259</v>
+        <v>44270.53107638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8768,7 +8748,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8805,14 +8785,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 41690-2023</t>
+          <t>A 7655-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45176.36280092593</v>
+        <v>45348.69953703704</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8825,7 +8805,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.8</v>
+        <v>8.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8862,14 +8842,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 25128-2025</t>
+          <t>A 37917-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45800.37969907407</v>
+        <v>45160.48486111111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8882,7 +8862,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8919,14 +8899,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 25359-2025</t>
+          <t>A 46137-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45800.61756944445</v>
+        <v>45196.56315972222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8939,7 +8919,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8976,14 +8956,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 4434-2024</t>
+          <t>A 20536-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45327.47383101852</v>
+        <v>44700</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8996,7 +8976,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9033,14 +9013,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 53719-2023</t>
+          <t>A 56456-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45230.72717592592</v>
+        <v>44893.31987268518</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9053,7 +9033,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9090,14 +9070,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 27856-2024</t>
+          <t>A 29814-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45475</v>
+        <v>45825.78996527778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9110,7 +9090,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9147,14 +9127,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 51398-2024</t>
+          <t>A 55667-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45604.4233912037</v>
+        <v>45622.64577546297</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9167,7 +9147,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9204,14 +9184,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 27819-2024</t>
+          <t>A 56164-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45475</v>
+        <v>45624.54939814815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9224,7 +9204,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.6</v>
+        <v>15.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9261,14 +9241,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 57313-2024</t>
+          <t>A 962-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45629</v>
+        <v>44934</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9281,7 +9261,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9318,14 +9298,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 57295-2024</t>
+          <t>A 9218-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45629</v>
+        <v>45358.51653935185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9375,14 +9355,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 26786-2025</t>
+          <t>A 60543-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45810.58515046296</v>
+        <v>45643.79293981481</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9395,7 +9375,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>8.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9432,14 +9412,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 57253-2022</t>
+          <t>A 31163-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44895.77885416667</v>
+        <v>45832.65693287037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9452,7 +9432,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9489,14 +9469,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 4622-2025</t>
+          <t>A 57266-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45687.61902777778</v>
+        <v>45629</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9509,7 +9489,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9546,14 +9526,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 27151-2025</t>
+          <t>A 50673-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45812.32086805555</v>
+        <v>45601.84043981481</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9566,7 +9546,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9603,14 +9583,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 45974-2025</t>
+          <t>A 365-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45924.36851851852</v>
+        <v>44565</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9623,7 +9603,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9660,14 +9640,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59527-2024</t>
+          <t>A 50909-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45638.59061342593</v>
+        <v>45218.42068287037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9680,7 +9660,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9717,14 +9697,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 50702-2022</t>
+          <t>A 9012-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44867.32679398148</v>
+        <v>44979.59778935185</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9737,7 +9717,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9774,14 +9754,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 12009-2025</t>
+          <t>A 31606-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45728</v>
+        <v>45833.75311342593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9794,7 +9774,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9831,14 +9811,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 17536-2025</t>
+          <t>A 31629-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45757</v>
+        <v>45834.3266087963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9851,7 +9831,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9888,14 +9868,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 17543-2025</t>
+          <t>A 7851-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45757.60640046297</v>
+        <v>44973.52238425926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9908,7 +9888,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9945,14 +9925,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 45303-2024</t>
+          <t>A 9413-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45576.4172337963</v>
+        <v>45359.44399305555</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9965,7 +9945,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>8.300000000000001</v>
+        <v>3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10002,14 +9982,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 28781-2025</t>
+          <t>A 9450-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45820.45300925926</v>
+        <v>45358</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10021,13 +10001,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10064,14 +10039,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 25764-2023</t>
+          <t>A 35042-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45090.45520833333</v>
+        <v>45142</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10084,7 +10059,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10121,14 +10096,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61738-2023</t>
+          <t>A 33300-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45265.69861111111</v>
+        <v>45116</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10141,7 +10116,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10178,14 +10153,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 29303-2025</t>
+          <t>A 33301-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45824.45894675926</v>
+        <v>45116</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10198,7 +10173,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10235,14 +10210,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 29200-2025</t>
+          <t>A 61269-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45823.35009259259</v>
+        <v>45645.74246527778</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10255,7 +10230,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10292,14 +10267,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 29814-2025</t>
+          <t>A 53719-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45825.78996527778</v>
+        <v>45230.72717592592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10312,7 +10287,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10349,14 +10324,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 9411-2024</t>
+          <t>A 53374-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45359.44168981481</v>
+        <v>45229</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10369,7 +10344,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10406,14 +10381,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 31163-2025</t>
+          <t>A 32771-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45832.65693287037</v>
+        <v>44375</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10426,7 +10401,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10463,14 +10438,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 31629-2025</t>
+          <t>A 43615-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45834.3266087963</v>
+        <v>45569.47056712963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10482,8 +10457,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10520,14 +10500,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 31606-2025</t>
+          <t>A 13481-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45833.75311342593</v>
+        <v>45005</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10540,7 +10520,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10577,14 +10557,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 64317-2023</t>
+          <t>A 57759-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45279</v>
+        <v>45246.8422337963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10597,7 +10577,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10634,14 +10614,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 64330-2023</t>
+          <t>A 44947-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45279</v>
+        <v>45575.44268518518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10653,8 +10633,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10691,14 +10676,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 48074-2025</t>
+          <t>A 31260-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45932</v>
+        <v>44771.57344907407</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10711,7 +10696,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10748,14 +10733,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 47819-2025</t>
+          <t>A 51467-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45932.33591435185</v>
+        <v>45221.75239583333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10768,7 +10753,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10805,14 +10790,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 48066-2025</t>
+          <t>A 22532-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45932</v>
+        <v>45786</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10825,7 +10810,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10862,14 +10847,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 7655-2024</t>
+          <t>A 57303-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45348.69953703704</v>
+        <v>45629</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10882,7 +10867,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>8.5</v>
+        <v>2.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10919,14 +10904,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 49737-2024</t>
+          <t>A 52918-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45596.86387731481</v>
+        <v>45226.52905092593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10939,7 +10924,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10976,14 +10961,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 22532-2025</t>
+          <t>A 33672-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45786</v>
+        <v>45841</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10996,7 +10981,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11033,14 +11018,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 33672-2025</t>
+          <t>A 25764-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45841</v>
+        <v>45090.45520833333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11053,7 +11038,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11090,14 +11075,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 19259-2025</t>
+          <t>A 20443-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45769.50775462963</v>
+        <v>45435.62212962963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11110,7 +11095,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.9</v>
+        <v>0.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11154,7 +11139,7 @@
         <v>45841.66825231481</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11204,14 +11189,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 1141-2023</t>
+          <t>A 21303-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44935</v>
+        <v>45440.6750462963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11224,7 +11209,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11261,14 +11246,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 33910-2025</t>
+          <t>A 55296-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45842.60122685185</v>
+        <v>45237.81827546296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11281,7 +11266,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11318,14 +11303,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 961-2023</t>
+          <t>A 57420-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44934</v>
+        <v>45629</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11338,7 +11323,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11375,14 +11360,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 11270-2025</t>
+          <t>A 12938-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45726.40613425926</v>
+        <v>44642</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11395,7 +11380,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11432,14 +11417,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 2680-2025</t>
+          <t>A 12333-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45677.34737268519</v>
+        <v>44637.62513888889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11452,7 +11437,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11489,14 +11474,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 9404-2022</t>
+          <t>A 54201-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44616</v>
+        <v>45232.55328703704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11509,7 +11494,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.9</v>
+        <v>7.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11546,14 +11531,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 59314-2024</t>
+          <t>A 33910-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45637.68851851852</v>
+        <v>45842.60122685185</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11566,7 +11551,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11603,14 +11588,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50123-2025</t>
+          <t>A 12016-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45943.55126157407</v>
+        <v>45728</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11622,13 +11607,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11665,14 +11645,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 1197-2025</t>
+          <t>A 17536-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45667.38278935185</v>
+        <v>45757</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11685,7 +11665,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11722,14 +11702,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 27845-2023</t>
+          <t>A 17543-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45098.55438657408</v>
+        <v>45757.60640046297</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11742,7 +11722,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11779,14 +11759,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 60483-2022</t>
+          <t>A 35035-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44911.4247800926</v>
+        <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11799,7 +11779,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11836,14 +11816,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 962-2023</t>
+          <t>A 1197-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44934</v>
+        <v>45667.38278935185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11856,7 +11836,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11893,14 +11873,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 5847-2024</t>
+          <t>A 63426-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45335.61695601852</v>
+        <v>45274</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11913,7 +11893,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11950,14 +11930,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 46137-2023</t>
+          <t>A 6517-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45196.56315972222</v>
+        <v>44601.46166666667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11970,7 +11950,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12007,14 +11987,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 49863-2025</t>
+          <t>A 9108-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45940.51858796296</v>
+        <v>44615</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12027,7 +12007,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12064,14 +12044,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 49391-2024</t>
+          <t>A 61738-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45595.6597337963</v>
+        <v>45265.69861111111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12084,7 +12064,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12121,14 +12101,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 6974-2025</t>
+          <t>A 60483-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45701.54447916667</v>
+        <v>44911.4247800926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12141,7 +12121,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12178,14 +12158,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 11589-2022</t>
+          <t>A 9579-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44631</v>
+        <v>44251</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12198,7 +12178,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12235,14 +12215,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 33693-2021</t>
+          <t>A 6974-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44378.4540162037</v>
+        <v>45701.54447916667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12255,7 +12235,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12292,14 +12272,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 35059-2023</t>
+          <t>A 18842-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45142</v>
+        <v>44307</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12312,7 +12292,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12349,14 +12329,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 56654-2023</t>
+          <t>A 38920-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45243.80131944444</v>
+        <v>44816</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12369,7 +12349,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12406,14 +12386,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 50604-2025</t>
+          <t>A 36630-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45944</v>
+        <v>45870</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12426,7 +12406,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12463,14 +12443,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 49736-2024</t>
+          <t>A 36632-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45596.86271990741</v>
+        <v>45870</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12483,7 +12463,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12520,14 +12500,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 36630-2025</t>
+          <t>A 9380-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45870</v>
+        <v>45715.34340277778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12539,8 +12519,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12577,14 +12562,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 36632-2025</t>
+          <t>A 12026-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45870</v>
+        <v>45377.37309027778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12634,14 +12619,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 28851-2024</t>
+          <t>A 31967-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45478.78487268519</v>
+        <v>45510</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12654,7 +12639,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.7</v>
+        <v>9.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12691,14 +12676,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 61740-2023</t>
+          <t>A 59314-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45265.70538194444</v>
+        <v>45637.68851851852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12711,7 +12696,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12748,14 +12733,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 51212-2025</t>
+          <t>A 22901-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45947.64262731482</v>
+        <v>45448.70333333333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12768,7 +12753,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12805,14 +12790,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 9013-2023</t>
+          <t>A 3522-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44979.60032407408</v>
+        <v>45320.53537037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12825,7 +12810,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12862,14 +12847,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 37398-2025</t>
+          <t>A 4622-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45877</v>
+        <v>45687.61902777778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12882,7 +12867,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12919,14 +12904,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 51218-2025</t>
+          <t>A 37398-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45947.64576388889</v>
+        <v>45877</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12939,7 +12924,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.2</v>
+        <v>5.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12976,14 +12961,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 9410-2024</t>
+          <t>A 11270-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45359.4405787037</v>
+        <v>45726.40613425926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12996,7 +12981,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13033,14 +13018,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 9216-2024</t>
+          <t>A 47332-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45358.50931712963</v>
+        <v>45202.53005787037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13053,7 +13038,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13090,14 +13075,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 51206-2025</t>
+          <t>A 61687-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45947.6365625</v>
+        <v>45264</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13110,7 +13095,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13147,14 +13132,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 62775-2023</t>
+          <t>A 4624-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45271</v>
+        <v>45687.62030092593</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13167,7 +13152,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.4</v>
+        <v>11.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13204,14 +13189,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 42038-2024</t>
+          <t>A 40331-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45561.79969907407</v>
+        <v>44823.35134259259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13224,7 +13209,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13261,14 +13246,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 57759-2023</t>
+          <t>A 2452-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45246.8422337963</v>
+        <v>44579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13281,7 +13266,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13318,14 +13303,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 52131-2025</t>
+          <t>A 57256-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45952.75775462963</v>
+        <v>44895.78923611111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13338,7 +13323,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13375,14 +13360,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 50709-2021</t>
+          <t>A 57257-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44460.36636574074</v>
+        <v>44895.79283564815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13395,7 +13380,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13432,14 +13417,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 50712-2021</t>
+          <t>A 62775-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44460.36731481482</v>
+        <v>45271</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13452,7 +13437,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13489,14 +13474,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 17542-2025</t>
+          <t>A 59266-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45757.60574074074</v>
+        <v>45253.55190972222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13509,7 +13494,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13546,14 +13531,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 53606-2025</t>
+          <t>A 12024-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45960.46693287037</v>
+        <v>45377</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13566,7 +13551,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13603,14 +13588,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 53604-2025</t>
+          <t>A 18691-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45960.46254629629</v>
+        <v>45043.61253472222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13623,7 +13608,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>19.8</v>
+        <v>0.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13660,14 +13645,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 50812-2023</t>
+          <t>A 41690-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45217.75505787037</v>
+        <v>45176.36280092593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13680,7 +13665,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13717,14 +13702,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 53802-2025</t>
+          <t>A 15737-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45960.79004629629</v>
+        <v>45748.54488425926</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13737,7 +13722,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13774,14 +13759,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 73305-2021</t>
+          <t>A 19259-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44551.3184837963</v>
+        <v>45769.50775462963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13794,7 +13779,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13831,14 +13816,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 18224-2022</t>
+          <t>A 6977-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44685</v>
+        <v>45701.54565972222</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13851,7 +13836,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13888,14 +13873,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 18244-2022</t>
+          <t>A 57253-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44685</v>
+        <v>44895.77885416667</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13908,7 +13893,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13945,14 +13930,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 12024-2024</t>
+          <t>A 17542-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45377</v>
+        <v>45757.60574074074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13965,7 +13950,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14002,14 +13987,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 54997-2025</t>
+          <t>A 59335-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45967.5977199074</v>
+        <v>45253.64171296296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14022,7 +14007,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14059,14 +14044,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 51467-2023</t>
+          <t>A 20433-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45221.75239583333</v>
+        <v>45435.61200231482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14079,7 +14064,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14116,14 +14101,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 55561-2025</t>
+          <t>A 42038-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45971.65128472223</v>
+        <v>45561.79969907407</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14136,7 +14121,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.4</v>
+        <v>7.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14173,14 +14158,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 55967-2025</t>
+          <t>A 9216-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45973.48353009259</v>
+        <v>45358.50931712963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14192,13 +14177,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14235,14 +14215,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 55667-2024</t>
+          <t>A 35059-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45622.64577546297</v>
+        <v>45142</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14255,7 +14235,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14292,14 +14272,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 56326-2025</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45974.6370949074</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14312,7 +14292,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14349,14 +14329,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 57260-2025</t>
+          <t>A 50712-2021</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45979.6544212963</v>
+        <v>44460.36731481482</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14369,7 +14349,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14406,14 +14386,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 9579-2021</t>
+          <t>A 50713-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44251</v>
+        <v>44460.36797453704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14426,7 +14406,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14463,14 +14443,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 14690-2024</t>
+          <t>A 11589-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45397</v>
+        <v>44631</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14483,7 +14463,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14520,14 +14500,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 57256-2022</t>
+          <t>A 59782-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44895.78923611111</v>
+        <v>44900</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14540,7 +14520,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14577,14 +14557,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 57257-2022</t>
+          <t>A 2680-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44895.79283564815</v>
+        <v>45677.34737268519</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14597,7 +14577,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14634,14 +14614,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 10180-2024</t>
+          <t>A 1141-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45364.8280787037</v>
+        <v>44935</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14654,7 +14634,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14691,14 +14671,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 365-2022</t>
+          <t>A 56856-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44565</v>
+        <v>45628.54497685185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14711,7 +14691,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>7.8</v>
+        <v>1.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14748,14 +14728,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 49678-2023</t>
+          <t>A 11983-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45212.33935185185</v>
+        <v>45728</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14768,7 +14748,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14805,14 +14785,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 12026-2024</t>
+          <t>A 9058-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45377.37309027778</v>
+        <v>45713.64200231482</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14862,14 +14842,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 57303-2024</t>
+          <t>A 1152-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45629</v>
+        <v>44935.64951388889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14882,7 +14862,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14919,14 +14899,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 60029-2025</t>
+          <t>A 35588-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45993.61226851852</v>
+        <v>45146</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14939,7 +14919,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>19.6</v>
+        <v>1.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14976,14 +14956,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 6454-2024</t>
+          <t>A 49678-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45338.68309027778</v>
+        <v>45212.33935185185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14995,13 +14975,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>3.6</v>
+        <v>5.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15038,14 +15013,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 60216-2025</t>
+          <t>A 4289-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45994.54114583333</v>
+        <v>45685.65704861111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15058,7 +15033,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>8.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15095,14 +15070,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 49820-2022</t>
+          <t>A 2781-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44862.70869212963</v>
+        <v>45677.54344907407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15115,7 +15090,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15152,14 +15127,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 60575-2025</t>
+          <t>A 61879-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45996.3097337963</v>
+        <v>45266.42527777778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15171,13 +15146,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15214,14 +15184,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 33300-2023</t>
+          <t>A 58514-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45116</v>
+        <v>45635.42575231481</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15234,7 +15204,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15271,14 +15241,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 33301-2023</t>
+          <t>A 39371-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45116</v>
+        <v>45889.58263888889</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15290,8 +15260,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15328,14 +15303,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 36627-2025</t>
+          <t>A 39374-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45870</v>
+        <v>45889.58648148148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15347,8 +15322,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15385,14 +15365,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 2867-2026</t>
+          <t>A 13511-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46038.50097222222</v>
+        <v>45387</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15442,14 +15422,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 35042-2023</t>
+          <t>A 12668-2021</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45142</v>
+        <v>44270</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15462,7 +15442,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15499,14 +15479,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 10728-2023</t>
+          <t>A 41281-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44988.67260416667</v>
+        <v>45898.63497685185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15519,7 +15499,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15556,14 +15536,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 63426-2023</t>
+          <t>A 40224-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45274</v>
+        <v>45554.59815972222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15575,8 +15555,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15613,14 +15598,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 57420-2024</t>
+          <t>A 41278-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45629</v>
+        <v>45898.62895833333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15633,7 +15618,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15670,14 +15655,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 43754-2022</t>
+          <t>A 43620-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44837</v>
+        <v>45569.481875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15689,8 +15674,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G264" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15727,14 +15717,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 4278-2026</t>
+          <t>A 41286-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>46045.38021990741</v>
+        <v>45898.63819444444</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15747,7 +15737,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15784,14 +15774,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 18843-2021</t>
+          <t>A 10165-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44307</v>
+        <v>45719.65021990741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15803,8 +15793,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15841,14 +15836,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 26631-2021</t>
+          <t>A 41331-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44348.67560185185</v>
+        <v>45899.35118055555</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15898,14 +15893,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 62313-2023</t>
+          <t>A 52237-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45267</v>
+        <v>44463.60166666667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15918,7 +15913,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -15955,14 +15950,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 50713-2021</t>
+          <t>A 42237-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44460.36797453704</v>
+        <v>45904.56365740741</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -15975,7 +15970,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16012,14 +16007,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 21291-2024</t>
+          <t>A 38160-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45440.66341435185</v>
+        <v>44812</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16032,7 +16027,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16069,14 +16064,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 2781-2025</t>
+          <t>A 42395-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45677.54344907407</v>
+        <v>45905</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16089,7 +16084,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16126,14 +16121,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 4812-2025</t>
+          <t>A 14593-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45688.61510416667</v>
+        <v>44655.57246527778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16145,13 +16140,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16188,14 +16178,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 37726-2024</t>
+          <t>A 42919-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45541.65391203704</v>
+        <v>45908.87262731481</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16208,7 +16198,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16245,14 +16235,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 2452-2022</t>
+          <t>A 6336-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44579</v>
+        <v>44600.57196759259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16265,7 +16255,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16302,14 +16292,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 50673-2024</t>
+          <t>A 43216-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45601.84043981481</v>
+        <v>45910.46533564815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16322,7 +16312,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16359,14 +16349,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 47332-2023</t>
+          <t>A 42920-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45202.53005787037</v>
+        <v>45908.87545138889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16379,7 +16369,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16416,14 +16406,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 33099-2025</t>
+          <t>A 43754-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45840</v>
+        <v>44837</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16436,7 +16426,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16473,14 +16463,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 61879-2023</t>
+          <t>A 44240-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45266.42527777778</v>
+        <v>45915.67596064815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16493,7 +16483,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16530,14 +16520,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 4701-2026</t>
+          <t>A 59272-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>46048.44986111111</v>
+        <v>45253.55487268518</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16549,13 +16539,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G279" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16592,14 +16577,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 13481-2023</t>
+          <t>A 4036-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45005</v>
+        <v>45323.41983796296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16612,7 +16597,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16649,14 +16634,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 63842-2025</t>
+          <t>A 57465-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46020.43096064815</v>
+        <v>45630.32784722222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16669,7 +16654,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16706,14 +16691,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 6453-2024</t>
+          <t>A 61740-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45338.67915509259</v>
+        <v>45265.70538194444</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16725,13 +16710,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G282" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16768,14 +16748,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 20196-2024</t>
+          <t>A 13235-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45434.63688657407</v>
+        <v>45386</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16788,7 +16768,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16825,14 +16805,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 59786-2022</t>
+          <t>A 45974-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44900</v>
+        <v>45924.36851851852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16845,7 +16825,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16882,14 +16862,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 35035-2023</t>
+          <t>A 20911-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45142</v>
+        <v>45777.40738425926</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16902,7 +16882,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16939,14 +16919,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 49041-2022</t>
+          <t>A 20915-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44858</v>
+        <v>45777.40862268519</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16959,7 +16939,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -16996,14 +16976,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 37917-2023</t>
+          <t>A 47819-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45160.48486111111</v>
+        <v>45932.33591435185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17016,7 +16996,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17053,14 +17033,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 20433-2024</t>
+          <t>A 725-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45435.61200231482</v>
+        <v>45665.391875</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17073,7 +17053,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17110,14 +17090,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 20439-2024</t>
+          <t>A 13513-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45435</v>
+        <v>45387</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17130,7 +17110,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17167,14 +17147,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 20461-2024</t>
+          <t>A 48066-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45435.65636574074</v>
+        <v>45932</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17187,7 +17167,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17224,14 +17204,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 12668-2021</t>
+          <t>A 48074-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44270</v>
+        <v>45932</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17244,7 +17224,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17281,14 +17261,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 42486-2021</t>
+          <t>A 10303-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44427</v>
+        <v>45365</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17301,7 +17281,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17338,14 +17318,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 3522-2024</t>
+          <t>A 49863-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45320.53537037037</v>
+        <v>45940.51858796296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17358,7 +17338,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17395,14 +17375,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 50909-2023</t>
+          <t>A 50123-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45218.42068287037</v>
+        <v>45943.55126157407</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17414,8 +17394,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G294" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17452,14 +17437,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 7238-2024</t>
+          <t>A 50604-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45344.66310185185</v>
+        <v>45944</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17472,7 +17457,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17509,14 +17494,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 52879-2024</t>
+          <t>A 9098-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45610.63946759259</v>
+        <v>45713.68337962963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17529,7 +17514,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17566,14 +17551,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 6517-2022</t>
+          <t>A 51212-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44601.46166666667</v>
+        <v>45947.64262731482</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17586,7 +17571,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17623,14 +17608,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 59272-2023</t>
+          <t>A 14901-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45253.55487268518</v>
+        <v>45743.48797453703</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17642,8 +17627,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G298" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17680,14 +17670,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 43620-2024</t>
+          <t>A 51218-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45569.481875</v>
+        <v>45947.64576388889</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17699,13 +17689,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G299" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17742,14 +17727,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 35608-2023</t>
+          <t>A 51206-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45146</v>
+        <v>45947.6365625</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17762,7 +17747,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17799,14 +17784,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 12007-2025</t>
+          <t>A 23668-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45728</v>
+        <v>45792.90586805555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17819,7 +17804,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17856,14 +17841,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 53374-2023</t>
+          <t>A 52131-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45229</v>
+        <v>45952.75775462963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17876,7 +17861,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17913,14 +17898,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 12938-2022</t>
+          <t>A 48908-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44642</v>
+        <v>45594.36315972222</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17933,7 +17918,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -17970,14 +17955,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 9108-2022</t>
+          <t>A 23669-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44615</v>
+        <v>45792.93181712963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -17990,7 +17975,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18027,14 +18012,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 23065-2024</t>
+          <t>A 23865-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45450.44878472222</v>
+        <v>45793.67059027778</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18047,7 +18032,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18084,14 +18069,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 59266-2023</t>
+          <t>A 4303-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45253.55190972222</v>
+        <v>45685</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18104,7 +18089,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18141,14 +18126,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 34708-2023</t>
+          <t>A 24609-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45140.9924537037</v>
+        <v>45798.58065972223</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18161,7 +18146,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18198,14 +18183,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 1980-2024</t>
+          <t>A 53604-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45308</v>
+        <v>45960.46254629629</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18218,7 +18203,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>2.9</v>
+        <v>19.8</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18255,14 +18240,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 56456-2022</t>
+          <t>A 53606-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44893.31987268518</v>
+        <v>45960.46693287037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18275,7 +18260,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18312,14 +18297,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 12333-2022</t>
+          <t>A 25359-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>44637.62513888889</v>
+        <v>45800.61756944445</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18332,7 +18317,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18369,14 +18354,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 53802-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>45960.79004629629</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18389,7 +18374,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18426,14 +18411,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 33299-2023</t>
+          <t>A 25128-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45116</v>
+        <v>45800.37969907407</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18446,7 +18431,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>2.7</v>
+        <v>6.7</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18483,14 +18468,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 38160-2022</t>
+          <t>A 54997-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44812</v>
+        <v>45967.5977199074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18503,7 +18488,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>7.2</v>
+        <v>2.1</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18540,14 +18525,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 38920-2022</t>
+          <t>A 55561-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44816</v>
+        <v>45971.65128472223</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18560,7 +18545,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18597,14 +18582,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 55296-2023</t>
+          <t>A 55967-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45237.81827546296</v>
+        <v>45973.48353009259</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18616,8 +18601,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G315" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18654,14 +18644,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 52778-2022</t>
+          <t>A 56326-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44875</v>
+        <v>45974.6370949074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18674,7 +18664,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>8.4</v>
+        <v>1.3</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18711,14 +18701,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 4036-2024</t>
+          <t>A 57260-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45323.41983796296</v>
+        <v>45979.6544212963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18731,7 +18721,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>2.4</v>
+        <v>7.2</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18768,14 +18758,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 59946-2022</t>
+          <t>A 60216-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>44909.38717592593</v>
+        <v>45994.54114583333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18788,7 +18778,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>2.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18825,14 +18815,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 56164-2024</t>
+          <t>A 60029-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45624.54939814815</v>
+        <v>45993.61226851852</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18845,7 +18835,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>15.7</v>
+        <v>19.6</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18882,14 +18872,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 6977-2025</t>
+          <t>A 36627-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45701.54565972222</v>
+        <v>45870</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18902,7 +18892,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18939,14 +18929,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 59782-2022</t>
+          <t>A 2867-2026</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>44900</v>
+        <v>46038.50097222222</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18959,7 +18949,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -18996,14 +18986,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 52918-2023</t>
+          <t>A 60575-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45226.52905092593</v>
+        <v>45996.3097337963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19015,8 +19005,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G322" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19053,14 +19048,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 13194-2022</t>
+          <t>A 4278-2026</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>44644</v>
+        <v>46045.38021990741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19073,7 +19068,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19110,14 +19105,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 61737-2023</t>
+          <t>A 33099-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45265.69740740741</v>
+        <v>45840</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19130,7 +19125,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19167,14 +19162,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 18842-2021</t>
+          <t>A 4701-2026</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>44307</v>
+        <v>46048.44986111111</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19186,8 +19181,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G325" t="n">
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19224,14 +19224,14 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 42427-2023</t>
+          <t>A 63842-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45180</v>
+        <v>46020.43096064815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -575,7 +575,7 @@
         <v>45695.66266203704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45950.23784722222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44264</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44600.48700231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1003,14 +1003,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 32481-2022</t>
+          <t>A 40536-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44782.61696759259</v>
+        <v>44420.38428240741</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1060,14 +1060,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 40536-2021</t>
+          <t>A 32481-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44420.38428240741</v>
+        <v>44782.61696759259</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1117,14 +1117,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 18380-2021</t>
+          <t>A 28360-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44305.59869212963</v>
+        <v>44356.42327546296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1174,14 +1174,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 28360-2021</t>
+          <t>A 18380-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44356.42327546296</v>
+        <v>44305.59869212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>44796.56913194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>44620</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44432</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1459,14 +1459,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 47901-2021</t>
+          <t>A 20163-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44448.8524537037</v>
+        <v>44314.54328703704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>44461</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1573,14 +1573,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 62540-2021</t>
+          <t>A 47901-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44503.61056712963</v>
+        <v>44448.8524537037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1630,14 +1630,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 10831-2022</t>
+          <t>A 62540-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44627.56489583333</v>
+        <v>44503.61056712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1687,14 +1687,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 20163-2021</t>
+          <t>A 10831-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44314.54328703704</v>
+        <v>44627.56489583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>44378</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44831.4771412037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,14 +1858,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 50987-2022</t>
+          <t>A 46713-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44867.89589120371</v>
+        <v>44851.3972337963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>15.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1915,14 +1915,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 46713-2022</t>
+          <t>A 50987-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44851.3972337963</v>
+        <v>44867.89589120371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>15.7</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>44851.74130787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2143,14 +2143,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 46932-2022</t>
+          <t>A 33678-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44851.74324074074</v>
+        <v>44378.41319444445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2200,14 +2200,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 46933-2022</t>
+          <t>A 3865-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44851.74546296296</v>
+        <v>44587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2257,14 +2257,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 21086-2022</t>
+          <t>A 54964-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44704.53608796297</v>
+        <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2314,14 +2314,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 50982-2022</t>
+          <t>A 62992-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44867</v>
+        <v>44504</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2371,14 +2371,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 47896-2021</t>
+          <t>A 12454-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44448</v>
+        <v>44267</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2428,14 +2428,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 17742-2021</t>
+          <t>A 28253-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44299</v>
+        <v>44746.7121412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 50699-2021</t>
+          <t>A 46932-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44460.36069444445</v>
+        <v>44851.74324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2542,14 +2542,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 50702-2021</t>
+          <t>A 46933-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44460</v>
+        <v>44851.74546296296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2599,14 +2599,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 33836-2021</t>
+          <t>A 50982-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44378</v>
+        <v>44867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2619,7 +2619,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6.9</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2656,14 +2656,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 49047-2022</t>
+          <t>A 55043-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44858</v>
+        <v>44886.56302083333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2675,8 +2675,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2713,14 +2718,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12454-2021</t>
+          <t>A 33092-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44267</v>
+        <v>44376.6027662037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2733,7 +2738,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2770,14 +2775,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 33678-2021</t>
+          <t>A 21086-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44378.41319444445</v>
+        <v>44704.53608796297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2790,7 +2795,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2827,14 +2832,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 33092-2021</t>
+          <t>A 47896-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44376.6027662037</v>
+        <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2847,7 +2852,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2884,14 +2889,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12575-2021</t>
+          <t>A 17742-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44270.36637731481</v>
+        <v>44299</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2904,7 +2909,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2941,14 +2946,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3865-2022</t>
+          <t>A 50699-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44587</v>
+        <v>44460.36069444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2961,7 +2966,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2998,14 +3003,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 55043-2022</t>
+          <t>A 50702-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44886.56302083333</v>
+        <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3017,13 +3022,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3060,14 +3060,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 50985-2022</t>
+          <t>A 33836-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44867</v>
+        <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>6.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3117,14 +3117,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 54964-2021</t>
+          <t>A 49047-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44474</v>
+        <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3174,14 +3174,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 42902-2021</t>
+          <t>A 12575-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44431.35026620371</v>
+        <v>44270.36637731481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3231,14 +3231,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 62992-2021</t>
+          <t>A 50985-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44504</v>
+        <v>44867</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3288,14 +3288,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 45943-2021</t>
+          <t>A 42902-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44441</v>
+        <v>44431.35026620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3345,14 +3345,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 50984-2022</t>
+          <t>A 45943-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44867</v>
+        <v>44441</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3402,14 +3402,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 28253-2022</t>
+          <t>A 25863-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44746.7121412037</v>
+        <v>44343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3459,14 +3459,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 25863-2021</t>
+          <t>A 5174-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44343</v>
+        <v>44594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3516,14 +3516,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33171-2022</t>
+          <t>A 50984-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44785.60559027778</v>
+        <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3573,14 +3573,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 5174-2022</t>
+          <t>A 33171-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44594</v>
+        <v>44785.60559027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3630,14 +3630,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 26631-2021</t>
+          <t>A 10503-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44348.67560185185</v>
+        <v>44623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3687,14 +3687,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 33299-2023</t>
+          <t>A 12173-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45116</v>
+        <v>44636.73104166667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3744,14 +3744,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 20465-2024</t>
+          <t>A 12175-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45435.66646990741</v>
+        <v>44636.73430555555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3801,14 +3801,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 64317-2023</t>
+          <t>A 21085-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45279</v>
+        <v>44704.53440972222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3858,14 +3858,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 64330-2023</t>
+          <t>A 9212-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45279</v>
+        <v>44616.30952546297</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3915,14 +3915,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 10503-2022</t>
+          <t>A 40224-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44623</v>
+        <v>45554.59815972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3934,8 +3934,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3972,14 +3977,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 54293-2023</t>
+          <t>A 20443-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45232.72627314815</v>
+        <v>45435.62212962963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3992,7 +3997,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4029,14 +4034,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 12173-2022</t>
+          <t>A 56856-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44636.73104166667</v>
+        <v>45628.54497685185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4049,7 +4054,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4086,14 +4091,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 12175-2022</t>
+          <t>A 4624-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44636.73430555555</v>
+        <v>45687.62030092593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4106,7 +4111,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.4</v>
+        <v>11.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4143,14 +4148,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 579-2024</t>
+          <t>A 9215-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45299</v>
+        <v>45358</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4163,7 +4168,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>12.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4200,14 +4205,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 21085-2022</t>
+          <t>A 31967-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44704.53440972222</v>
+        <v>45510</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4220,7 +4225,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>9.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4257,14 +4262,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 27845-2023</t>
+          <t>A 60543-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45098.55438657408</v>
+        <v>45643.79293981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4277,7 +4282,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4314,14 +4319,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 23065-2024</t>
+          <t>A 9000-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45450.44878472222</v>
+        <v>44979.5653125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4334,7 +4339,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4371,14 +4376,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9212-2022</t>
+          <t>A 9012-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44616.30952546297</v>
+        <v>44979.59778935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4391,7 +4396,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4428,14 +4433,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 18224-2022</t>
+          <t>A 21303-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44685</v>
+        <v>45440.6750462963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4448,7 +4453,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4485,14 +4490,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 18244-2022</t>
+          <t>A 7851-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44685</v>
+        <v>44973.52238425926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4505,7 +4510,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4542,14 +4547,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59786-2022</t>
+          <t>A 58514-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44900</v>
+        <v>45635.42575231481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4562,7 +4567,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4599,14 +4604,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17911-2025</t>
+          <t>A 10449-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45758.74115740741</v>
+        <v>45720</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4619,7 +4624,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4656,14 +4661,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 42486-2021</t>
+          <t>A 13235-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44427</v>
+        <v>45386</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4676,7 +4681,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4713,14 +4718,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10449-2025</t>
+          <t>A 61687-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45720</v>
+        <v>45264</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4733,7 +4738,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4770,14 +4775,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 37726-2024</t>
+          <t>A 59259-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45541.65391203704</v>
+        <v>45253.54922453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4790,7 +4795,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4827,14 +4832,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 961-2023</t>
+          <t>A 59335-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44934</v>
+        <v>45253.64171296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4847,7 +4852,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4884,14 +4889,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 5847-2024</t>
+          <t>A 12021-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45335.61695601852</v>
+        <v>45377.3702662037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4904,7 +4909,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4941,14 +4946,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 9000-2023</t>
+          <t>A 43615-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44979.5653125</v>
+        <v>45569.47056712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4960,8 +4965,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4998,14 +5008,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62313-2023</t>
+          <t>A 9413-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45267</v>
+        <v>45359.44399305555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5018,7 +5028,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5055,14 +5065,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14116-2025</t>
+          <t>A 9450-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45740</v>
+        <v>45358</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5075,7 +5085,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5112,14 +5122,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 9411-2024</t>
+          <t>A 23668-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45359.44168981481</v>
+        <v>45792.90586805555</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5132,7 +5142,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5169,14 +5179,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 6454-2024</t>
+          <t>A 23865-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45338.68309027778</v>
+        <v>45793.67059027778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5188,13 +5198,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5231,14 +5236,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 10728-2023</t>
+          <t>A 1152-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44988.67260416667</v>
+        <v>44935.64951388889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5251,7 +5256,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5288,14 +5293,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 50702-2022</t>
+          <t>A 4701-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44867.32679398148</v>
+        <v>46048.44986111111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5307,8 +5312,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5345,14 +5355,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 49820-2022</t>
+          <t>A 4303-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44862.70869212963</v>
+        <v>45685</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5365,7 +5375,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5402,14 +5412,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 52778-2022</t>
+          <t>A 73168-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44875</v>
+        <v>44550</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5422,7 +5432,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8.4</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5459,14 +5469,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 59259-2023</t>
+          <t>A 54201-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45253.54922453704</v>
+        <v>45232.55328703704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5479,7 +5489,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.5</v>
+        <v>7.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5516,14 +5526,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 9410-2024</t>
+          <t>A 48908-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45359.4405787037</v>
+        <v>45594.36315972222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5536,7 +5546,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5573,14 +5583,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 50709-2021</t>
+          <t>A 57266-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44460.36636574074</v>
+        <v>45629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5593,7 +5603,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5630,14 +5640,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 33693-2021</t>
+          <t>A 24609-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44378.4540162037</v>
+        <v>45798.58065972223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5650,7 +5660,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5687,14 +5697,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 49041-2022</t>
+          <t>A 9058-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44858</v>
+        <v>45713.64200231482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5707,7 +5717,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5744,14 +5754,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 35056-2023</t>
+          <t>A 14593-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45142</v>
+        <v>44655.57246527778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5764,7 +5774,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5801,14 +5811,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 59946-2022</t>
+          <t>A 22901-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44909.38717592593</v>
+        <v>45448.70333333333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5821,7 +5831,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5858,14 +5868,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 73168-2021</t>
+          <t>A 20465-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44550</v>
+        <v>45435.66646990741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5878,7 +5888,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5915,14 +5925,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 45303-2024</t>
+          <t>A 25128-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45576.4172337963</v>
+        <v>45800.37969907407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5935,7 +5945,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>8.300000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5972,14 +5982,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61737-2023</t>
+          <t>A 25359-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45265.69740740741</v>
+        <v>45800.61756944445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5992,7 +6002,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6029,14 +6039,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 15737-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>45748.54488425926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6049,7 +6059,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6086,14 +6096,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9404-2022</t>
+          <t>A 54293-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44616</v>
+        <v>45232.72627314815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6106,7 +6116,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6143,14 +6153,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57255-2022</t>
+          <t>A 63842-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44895.78674768518</v>
+        <v>46020.43096064815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6163,7 +6173,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6200,14 +6210,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 60819-2023</t>
+          <t>A 35588-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45260.73208333334</v>
+        <v>45146</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6220,7 +6230,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6257,14 +6267,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 52879-2024</t>
+          <t>A 57255-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45610.63946759259</v>
+        <v>44895.78674768518</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6277,7 +6287,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6314,14 +6324,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 4434-2024</t>
+          <t>A 31260-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45327.47383101852</v>
+        <v>44771.57344907407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6334,7 +6344,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6371,14 +6381,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 73305-2021</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44551.3184837963</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6391,7 +6401,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6428,14 +6438,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 20240-2023</t>
+          <t>A 27856-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45055.68784722222</v>
+        <v>45475</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6448,7 +6458,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6485,14 +6495,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 9013-2023</t>
+          <t>A 14116-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44979.60032407408</v>
+        <v>45740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6505,7 +6515,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6542,14 +6552,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 14690-2024</t>
+          <t>A 51398-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45397</v>
+        <v>45604.4233912037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6562,7 +6572,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6599,14 +6609,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 6453-2024</t>
+          <t>A 27819-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45338.67915509259</v>
+        <v>45475</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6618,13 +6628,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6661,14 +6666,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4812-2025</t>
+          <t>A 57313-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45688.61510416667</v>
+        <v>45629</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6680,13 +6685,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6723,14 +6723,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 9215-2024</t>
+          <t>A 35056-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45358</v>
+        <v>45142</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>12.2</v>
+        <v>7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6780,14 +6780,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 56654-2023</t>
+          <t>A 4289-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45243.80131944444</v>
+        <v>45685.65704861111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6837,14 +6837,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 35608-2023</t>
+          <t>A 57295-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45146</v>
+        <v>45629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6894,14 +6894,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 57313-2024</t>
+          <t>A 26786-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45629</v>
+        <v>45810.58515046296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6951,14 +6951,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 12007-2025</t>
+          <t>A 44947-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45728</v>
+        <v>45575.44268518518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6970,8 +6970,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7008,14 +7013,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 49391-2024</t>
+          <t>A 27151-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45595.6597337963</v>
+        <v>45812.32086805555</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7033,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7065,14 +7070,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 7238-2024</t>
+          <t>A 40331-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45344.66310185185</v>
+        <v>44823.35134259259</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7090,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7122,14 +7127,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 57295-2024</t>
+          <t>A 11983-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45629</v>
+        <v>45728</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7147,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7179,14 +7184,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 27819-2024</t>
+          <t>A 39371-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45475</v>
+        <v>45889.58263888889</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7198,8 +7203,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7236,14 +7246,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 51398-2024</t>
+          <t>A 41690-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45604.4233912037</v>
+        <v>45176.36280092593</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7266,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7293,14 +7303,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26786-2025</t>
+          <t>A 39374-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45810.58515046296</v>
+        <v>45889.58648148148</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7312,8 +7322,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>8.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7350,14 +7365,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28851-2024</t>
+          <t>A 59527-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45478.78487268519</v>
+        <v>45638.59061342593</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7385,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7407,14 +7422,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 27856-2024</t>
+          <t>A 12009-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45475</v>
+        <v>45728</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7442,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7464,14 +7479,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 34708-2023</t>
+          <t>A 4434-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45140.9924537037</v>
+        <v>45327.47383101852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7499,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7521,14 +7536,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 27151-2025</t>
+          <t>A 53719-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45812.32086805555</v>
+        <v>45230.72717592592</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7556,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7578,14 +7593,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 42427-2023</t>
+          <t>A 28781-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45180</v>
+        <v>45820.45300925926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7597,8 +7612,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7635,14 +7655,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 50812-2023</t>
+          <t>A 29303-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45217.75505787037</v>
+        <v>45824.45894675926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7692,14 +7712,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 12021-2024</t>
+          <t>A 29200-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45377.3702662037</v>
+        <v>45823.35009259259</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7732,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7749,14 +7769,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 10180-2024</t>
+          <t>A 29814-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45364.8280787037</v>
+        <v>45825.78996527778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7789,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7806,14 +7826,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 21291-2024</t>
+          <t>A 57253-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45440.66341435185</v>
+        <v>44895.77885416667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7846,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7863,14 +7883,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 59527-2024</t>
+          <t>A 4622-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45638.59061342593</v>
+        <v>45687.61902777778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7903,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>7.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7920,14 +7940,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 12009-2025</t>
+          <t>A 31163-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45728</v>
+        <v>45832.65693287037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7960,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -7977,14 +7997,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 43624-2024</t>
+          <t>A 50702-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45569.4868287037</v>
+        <v>44867.32679398148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7996,13 +8016,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8039,14 +8054,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 49737-2024</t>
+          <t>A 31629-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45596.86387731481</v>
+        <v>45834.3266087963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8059,7 +8074,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8096,14 +8111,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 28781-2025</t>
+          <t>A 31606-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45820.45300925926</v>
+        <v>45833.75311342593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8115,13 +8130,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8158,14 +8168,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 20196-2024</t>
+          <t>A 17536-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45434.63688657407</v>
+        <v>45757</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8188,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8215,14 +8225,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 29303-2025</t>
+          <t>A 17543-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45824.45894675926</v>
+        <v>45757.60640046297</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8245,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8272,14 +8282,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 13194-2022</t>
+          <t>A 45303-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44644</v>
+        <v>45576.4172337963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8302,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8329,14 +8339,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 29200-2025</t>
+          <t>A 25764-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45823.35009259259</v>
+        <v>45090.45520833333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8359,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8386,14 +8396,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 20439-2024</t>
+          <t>A 22532-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45435</v>
+        <v>45786</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8416,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8443,14 +8453,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 20461-2024</t>
+          <t>A 61738-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45435.65636574074</v>
+        <v>45265.69861111111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8473,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8500,14 +8510,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 18843-2021</t>
+          <t>A 41278-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44307</v>
+        <v>45898.62895833333</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8530,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8557,14 +8567,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 49736-2024</t>
+          <t>A 41331-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45596.86271990741</v>
+        <v>45899.35118055555</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8587,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8614,14 +8624,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 55356-2024</t>
+          <t>A 41281-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45621.80996527777</v>
+        <v>45898.63497685185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8644,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8671,14 +8681,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 1980-2024</t>
+          <t>A 41286-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45308</v>
+        <v>45898.63819444444</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8701,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8728,14 +8738,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 12675-2021</t>
+          <t>A 33672-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44270.53107638889</v>
+        <v>45841</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8748,7 +8758,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8785,14 +8795,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 7655-2024</t>
+          <t>A 33664-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45348.69953703704</v>
+        <v>45841.66825231481</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8805,7 +8815,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>8.5</v>
+        <v>4.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8842,14 +8852,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 37917-2023</t>
+          <t>A 33910-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45160.48486111111</v>
+        <v>45842.60122685185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8862,7 +8872,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8899,14 +8909,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 46137-2023</t>
+          <t>A 9411-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45196.56315972222</v>
+        <v>45359.44168981481</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8919,7 +8929,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8956,14 +8966,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 20536-2022</t>
+          <t>A 64317-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44700</v>
+        <v>45279</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8976,7 +8986,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9013,14 +9023,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56456-2022</t>
+          <t>A 64330-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44893.31987268518</v>
+        <v>45279</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9033,7 +9043,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9070,14 +9080,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 29814-2025</t>
+          <t>A 1197-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45825.78996527778</v>
+        <v>45667.38278935185</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9090,7 +9100,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9127,14 +9137,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 55667-2024</t>
+          <t>A 60483-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45622.64577546297</v>
+        <v>44911.4247800926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9147,7 +9157,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9184,14 +9194,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56164-2024</t>
+          <t>A 42395-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45624.54939814815</v>
+        <v>45905</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9204,7 +9214,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>15.7</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9241,14 +9251,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 962-2023</t>
+          <t>A 7655-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44934</v>
+        <v>45348.69953703704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9261,7 +9271,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9298,14 +9308,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 9218-2024</t>
+          <t>A 49737-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45358.51653935185</v>
+        <v>45596.86387731481</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9318,7 +9328,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9355,14 +9365,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60543-2024</t>
+          <t>A 6974-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45643.79293981481</v>
+        <v>45701.54447916667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9375,7 +9385,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9412,14 +9422,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 31163-2025</t>
+          <t>A 42237-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45832.65693287037</v>
+        <v>45904.56365740741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9432,7 +9442,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9469,14 +9479,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 57266-2024</t>
+          <t>A 42920-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45629</v>
+        <v>45908.87545138889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9489,7 +9499,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9526,14 +9536,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 50673-2024</t>
+          <t>A 19259-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45601.84043981481</v>
+        <v>45769.50775462963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9546,7 +9556,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9583,14 +9593,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 365-2022</t>
+          <t>A 1141-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44565</v>
+        <v>44935</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9603,7 +9613,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>7.8</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9640,14 +9650,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 50909-2023</t>
+          <t>A 961-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45218.42068287037</v>
+        <v>44934</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9660,7 +9670,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9697,14 +9707,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 9012-2023</t>
+          <t>A 36630-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44979.59778935185</v>
+        <v>45870</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9717,7 +9727,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9754,14 +9764,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 31606-2025</t>
+          <t>A 36632-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45833.75311342593</v>
+        <v>45870</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9774,7 +9784,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9811,14 +9821,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 31629-2025</t>
+          <t>A 42919-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45834.3266087963</v>
+        <v>45908.87262731481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9831,7 +9841,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9868,14 +9878,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 7851-2023</t>
+          <t>A 11270-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44973.52238425926</v>
+        <v>45726.40613425926</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9888,7 +9898,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9925,14 +9935,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 9413-2024</t>
+          <t>A 2680-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45359.44399305555</v>
+        <v>45677.34737268519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9945,7 +9955,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -9982,14 +9992,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 9450-2024</t>
+          <t>A 37398-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45358</v>
+        <v>45877</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10002,7 +10012,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10039,14 +10049,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 35042-2023</t>
+          <t>A 9404-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45142</v>
+        <v>44616</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10059,7 +10069,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10096,14 +10106,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 33300-2023</t>
+          <t>A 59314-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45116</v>
+        <v>45637.68851851852</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10116,7 +10126,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10153,14 +10163,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 33301-2023</t>
+          <t>A 43216-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45116</v>
+        <v>45910.46533564815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10173,7 +10183,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10210,14 +10220,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 61269-2024</t>
+          <t>A 27845-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45645.74246527778</v>
+        <v>45098.55438657408</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10230,7 +10240,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10267,14 +10277,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 53719-2023</t>
+          <t>A 962-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45230.72717592592</v>
+        <v>44934</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10287,7 +10297,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10324,14 +10334,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 53374-2023</t>
+          <t>A 5847-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45229</v>
+        <v>45335.61695601852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10344,7 +10354,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10381,14 +10391,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 32771-2021</t>
+          <t>A 62775-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44375</v>
+        <v>45271</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10438,14 +10448,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 43615-2024</t>
+          <t>A 46137-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45569.47056712963</v>
+        <v>45196.56315972222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10457,13 +10467,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10500,14 +10505,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 13481-2023</t>
+          <t>A 44240-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45005</v>
+        <v>45915.67596064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10520,7 +10525,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10557,14 +10562,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 57759-2023</t>
+          <t>A 49391-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45246.8422337963</v>
+        <v>45595.6597337963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10577,7 +10582,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10614,14 +10619,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 44947-2024</t>
+          <t>A 11589-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45575.44268518518</v>
+        <v>44631</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10633,13 +10638,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10676,14 +10676,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 31260-2022</t>
+          <t>A 33693-2021</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44771.57344907407</v>
+        <v>44378.4540162037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10733,14 +10733,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51467-2023</t>
+          <t>A 35059-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45221.75239583333</v>
+        <v>45142</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10790,14 +10790,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 22532-2025</t>
+          <t>A 56654-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45786</v>
+        <v>45243.80131944444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10847,14 +10847,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 57303-2024</t>
+          <t>A 49736-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45629</v>
+        <v>45596.86271990741</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10904,14 +10904,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 52918-2023</t>
+          <t>A 28851-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45226.52905092593</v>
+        <v>45478.78487268519</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10961,14 +10961,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 33672-2025</t>
+          <t>A 61740-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45841</v>
+        <v>45265.70538194444</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11018,14 +11018,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 25764-2023</t>
+          <t>A 9013-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45090.45520833333</v>
+        <v>44979.60032407408</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11075,14 +11075,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 20443-2024</t>
+          <t>A 45974-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45435.62212962963</v>
+        <v>45924.36851851852</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11132,14 +11132,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 33664-2025</t>
+          <t>A 9410-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45841.66825231481</v>
+        <v>45359.4405787037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11152,7 +11152,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11189,14 +11189,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 21303-2024</t>
+          <t>A 9216-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45440.6750462963</v>
+        <v>45358.50931712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11246,14 +11246,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 55296-2023</t>
+          <t>A 42038-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45237.81827546296</v>
+        <v>45561.79969907407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11303,14 +11303,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 57420-2024</t>
+          <t>A 57759-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45629</v>
+        <v>45246.8422337963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>6.6</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11360,14 +11360,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 12938-2022</t>
+          <t>A 48074-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44642</v>
+        <v>45932</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11417,14 +11417,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 12333-2022</t>
+          <t>A 47819-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44637.62513888889</v>
+        <v>45932.33591435185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11474,14 +11474,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 54201-2023</t>
+          <t>A 48066-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45232.55328703704</v>
+        <v>45932</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11494,7 +11494,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>7.6</v>
+        <v>4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11531,14 +11531,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 33910-2025</t>
+          <t>A 50709-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45842.60122685185</v>
+        <v>44460.36636574074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11588,14 +11588,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 12016-2025</t>
+          <t>A 50712-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45728</v>
+        <v>44460.36731481482</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11645,14 +11645,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 17536-2025</t>
+          <t>A 17542-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45757</v>
+        <v>45757.60574074074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11702,14 +11702,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 17543-2025</t>
+          <t>A 50123-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45757.60640046297</v>
+        <v>45943.55126157407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11721,8 +11721,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11759,14 +11764,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 35035-2023</t>
+          <t>A 50812-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45142</v>
+        <v>45217.75505787037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11779,7 +11784,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11816,14 +11821,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 1197-2025</t>
+          <t>A 49863-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45667.38278935185</v>
+        <v>45940.51858796296</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11836,7 +11841,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11873,14 +11878,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 63426-2023</t>
+          <t>A 73305-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45274</v>
+        <v>44551.3184837963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11893,7 +11898,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11930,14 +11935,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 6517-2022</t>
+          <t>A 18224-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44601.46166666667</v>
+        <v>44685</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11950,7 +11955,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -11987,14 +11992,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 9108-2022</t>
+          <t>A 18244-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44615</v>
+        <v>44685</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12007,7 +12012,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12044,14 +12049,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 61738-2023</t>
+          <t>A 50604-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45265.69861111111</v>
+        <v>45944</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12101,14 +12106,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 60483-2022</t>
+          <t>A 12024-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44911.4247800926</v>
+        <v>45377</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12121,7 +12126,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12158,14 +12163,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 9579-2021</t>
+          <t>A 51467-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44251</v>
+        <v>45221.75239583333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12178,7 +12183,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12215,14 +12220,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 6974-2025</t>
+          <t>A 51212-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45701.54447916667</v>
+        <v>45947.64262731482</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12235,7 +12240,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12272,14 +12277,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 18842-2021</t>
+          <t>A 55667-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44307</v>
+        <v>45622.64577546297</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12292,7 +12297,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12329,14 +12334,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 38920-2022</t>
+          <t>A 51218-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44816</v>
+        <v>45947.64576388889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12349,7 +12354,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12386,14 +12391,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 36630-2025</t>
+          <t>A 51206-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45870</v>
+        <v>45947.6365625</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12406,7 +12411,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12443,14 +12448,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 36632-2025</t>
+          <t>A 9579-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45870</v>
+        <v>44251</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12463,7 +12468,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12500,14 +12505,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 9380-2025</t>
+          <t>A 14690-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45715.34340277778</v>
+        <v>45397</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12519,13 +12524,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12562,14 +12562,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 12026-2024</t>
+          <t>A 57256-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45377.37309027778</v>
+        <v>44895.78923611111</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12619,14 +12619,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 31967-2024</t>
+          <t>A 57257-2022</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45510</v>
+        <v>44895.79283564815</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12639,7 +12639,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>9.1</v>
+        <v>1.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12676,14 +12676,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 59314-2024</t>
+          <t>A 52131-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45637.68851851852</v>
+        <v>45952.75775462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12733,14 +12733,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 22901-2024</t>
+          <t>A 10180-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45448.70333333333</v>
+        <v>45364.8280787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12790,14 +12790,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 3522-2024</t>
+          <t>A 365-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45320.53537037037</v>
+        <v>44565</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12847,14 +12847,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 4622-2025</t>
+          <t>A 49678-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45687.61902777778</v>
+        <v>45212.33935185185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12904,14 +12904,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 37398-2025</t>
+          <t>A 53606-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45877</v>
+        <v>45960.46693287037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12961,14 +12961,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 11270-2025</t>
+          <t>A 12026-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45726.40613425926</v>
+        <v>45377.37309027778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13018,14 +13018,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 47332-2023</t>
+          <t>A 53604-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45202.53005787037</v>
+        <v>45960.46254629629</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.5</v>
+        <v>19.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13075,14 +13075,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 61687-2023</t>
+          <t>A 53802-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45264</v>
+        <v>45960.79004629629</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13132,14 +13132,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 4624-2025</t>
+          <t>A 57303-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45687.62030092593</v>
+        <v>45629</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>11.7</v>
+        <v>2.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13189,14 +13189,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 40331-2022</t>
+          <t>A 54997-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44823.35134259259</v>
+        <v>45967.5977199074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13246,14 +13246,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 2452-2022</t>
+          <t>A 6454-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44579</v>
+        <v>45338.68309027778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13265,8 +13265,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13303,14 +13308,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 57256-2022</t>
+          <t>A 49820-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44895.78923611111</v>
+        <v>44862.70869212963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13323,7 +13328,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13360,14 +13365,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 57257-2022</t>
+          <t>A 55561-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44895.79283564815</v>
+        <v>45971.65128472223</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13380,7 +13385,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13417,14 +13422,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 62775-2023</t>
+          <t>A 33300-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45271</v>
+        <v>45116</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13474,14 +13479,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 59266-2023</t>
+          <t>A 33301-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45253.55190972222</v>
+        <v>45116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13494,7 +13499,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13531,14 +13536,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 12024-2024</t>
+          <t>A 55967-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45377</v>
+        <v>45973.48353009259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13548,6 +13553,11 @@
       <c r="E227" t="inlineStr">
         <is>
           <t>VARA</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -13588,14 +13598,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 18691-2023</t>
+          <t>A 56326-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45043.61253472222</v>
+        <v>45974.6370949074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13608,7 +13618,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13645,14 +13655,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 41690-2023</t>
+          <t>A 35042-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45176.36280092593</v>
+        <v>45142</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13665,7 +13675,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13702,14 +13712,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 15737-2025</t>
+          <t>A 10728-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45748.54488425926</v>
+        <v>44988.67260416667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13722,7 +13732,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13759,14 +13769,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 19259-2025</t>
+          <t>A 57260-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45769.50775462963</v>
+        <v>45979.6544212963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13779,7 +13789,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13816,14 +13826,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 6977-2025</t>
+          <t>A 63426-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45701.54565972222</v>
+        <v>45274</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13836,7 +13846,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13873,14 +13883,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 57253-2022</t>
+          <t>A 57420-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44895.77885416667</v>
+        <v>45629</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13893,7 +13903,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13930,14 +13940,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 17542-2025</t>
+          <t>A 43754-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45757.60574074074</v>
+        <v>44837</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13950,7 +13960,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -13987,14 +13997,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 59335-2023</t>
+          <t>A 18843-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45253.64171296296</v>
+        <v>44307</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14007,7 +14017,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14044,14 +14054,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 20433-2024</t>
+          <t>A 26631-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45435.61200231482</v>
+        <v>44348.67560185185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14064,7 +14074,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14101,14 +14111,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 42038-2024</t>
+          <t>A 62313-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45561.79969907407</v>
+        <v>45267</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14121,7 +14131,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14158,14 +14168,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 9216-2024</t>
+          <t>A 50713-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45358.50931712963</v>
+        <v>44460.36797453704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14178,7 +14188,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14215,14 +14225,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 35059-2023</t>
+          <t>A 21291-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45142</v>
+        <v>45440.66341435185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14235,7 +14245,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14272,14 +14282,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 60029-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>45993.61226851852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14292,7 +14302,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>4</v>
+        <v>19.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14329,14 +14339,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 50712-2021</t>
+          <t>A 2781-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44460.36731481482</v>
+        <v>45677.54344907407</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14349,7 +14359,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14386,14 +14396,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 50713-2021</t>
+          <t>A 4812-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44460.36797453704</v>
+        <v>45688.61510416667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14405,8 +14415,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14443,14 +14458,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 11589-2022</t>
+          <t>A 37726-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44631</v>
+        <v>45541.65391203704</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14463,7 +14478,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14500,14 +14515,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 59782-2022</t>
+          <t>A 2452-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44900</v>
+        <v>44579</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14520,7 +14535,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14557,14 +14572,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 2680-2025</t>
+          <t>A 50673-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45677.34737268519</v>
+        <v>45601.84043981481</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14577,7 +14592,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14614,14 +14629,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 1141-2023</t>
+          <t>A 60216-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44935</v>
+        <v>45994.54114583333</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14634,7 +14649,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14671,14 +14686,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 56856-2024</t>
+          <t>A 60575-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45628.54497685185</v>
+        <v>45996.3097337963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14690,8 +14705,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14728,14 +14748,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 11983-2025</t>
+          <t>A 36627-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45728</v>
+        <v>45870</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14748,7 +14768,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14785,14 +14805,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 9058-2025</t>
+          <t>A 2867-2026</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45713.64200231482</v>
+        <v>46038.50097222222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14805,7 +14825,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14842,14 +14862,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 1152-2023</t>
+          <t>A 47332-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44935.64951388889</v>
+        <v>45202.53005787037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14862,7 +14882,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14899,14 +14919,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 35588-2023</t>
+          <t>A 61879-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45146</v>
+        <v>45266.42527777778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14919,7 +14939,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14956,14 +14976,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 49678-2023</t>
+          <t>A 13481-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45212.33935185185</v>
+        <v>45005</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14976,7 +14996,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15013,14 +15033,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 4289-2025</t>
+          <t>A 4278-2026</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45685.65704861111</v>
+        <v>46045.38021990741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15033,7 +15053,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15070,14 +15090,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 2781-2025</t>
+          <t>A 6453-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45677.54344907407</v>
+        <v>45338.67915509259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15089,8 +15109,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15127,14 +15152,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 61879-2023</t>
+          <t>A 20196-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45266.42527777778</v>
+        <v>45434.63688657407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15147,7 +15172,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15184,14 +15209,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 58514-2024</t>
+          <t>A 59786-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45635.42575231481</v>
+        <v>44900</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15204,7 +15229,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15241,14 +15266,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 39371-2025</t>
+          <t>A 35035-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45889.58263888889</v>
+        <v>45142</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15260,13 +15285,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15303,14 +15323,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 39374-2025</t>
+          <t>A 49041-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45889.58648148148</v>
+        <v>44858</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15322,13 +15342,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>2.1</v>
+        <v>5.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15365,14 +15380,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 13511-2024</t>
+          <t>A 37917-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45387</v>
+        <v>45160.48486111111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15385,7 +15400,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15422,14 +15437,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 12668-2021</t>
+          <t>A 20433-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44270</v>
+        <v>45435.61200231482</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15442,7 +15457,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15479,14 +15494,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 41281-2025</t>
+          <t>A 20439-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45898.63497685185</v>
+        <v>45435</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15499,7 +15514,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15536,14 +15551,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 40224-2024</t>
+          <t>A 20461-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45554.59815972222</v>
+        <v>45435.65636574074</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15555,13 +15570,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15598,14 +15608,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 41278-2025</t>
+          <t>A 12668-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45898.62895833333</v>
+        <v>44270</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15618,7 +15628,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15655,14 +15665,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 43620-2024</t>
+          <t>A 42486-2021</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45569.481875</v>
+        <v>44427</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15674,13 +15684,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15717,14 +15722,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 41286-2025</t>
+          <t>A 3522-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45898.63819444444</v>
+        <v>45320.53537037037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15737,7 +15742,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15774,14 +15779,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 10165-2025</t>
+          <t>A 50909-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45719.65021990741</v>
+        <v>45218.42068287037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15793,13 +15798,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15836,14 +15836,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 41331-2025</t>
+          <t>A 7238-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45899.35118055555</v>
+        <v>45344.66310185185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15856,7 +15856,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15893,14 +15893,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 52237-2021</t>
+          <t>A 52879-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44463.60166666667</v>
+        <v>45610.63946759259</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -15950,14 +15950,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 42237-2025</t>
+          <t>A 33099-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45904.56365740741</v>
+        <v>45840</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16007,14 +16007,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 38160-2022</t>
+          <t>A 6517-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44812</v>
+        <v>44601.46166666667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16027,7 +16027,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16064,14 +16064,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 42395-2025</t>
+          <t>A 59272-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45905</v>
+        <v>45253.55487268518</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16121,14 +16121,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 14593-2022</t>
+          <t>A 43620-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44655.57246527778</v>
+        <v>45569.481875</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16140,8 +16140,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16178,14 +16183,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 42919-2025</t>
+          <t>A 35608-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45908.87262731481</v>
+        <v>45146</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16198,7 +16203,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16235,14 +16240,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 6336-2022</t>
+          <t>A 12007-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44600.57196759259</v>
+        <v>45728</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16255,7 +16260,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16292,14 +16297,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 43216-2025</t>
+          <t>A 53374-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45910.46533564815</v>
+        <v>45229</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16312,7 +16317,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16349,14 +16354,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 42920-2025</t>
+          <t>A 12938-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45908.87545138889</v>
+        <v>44642</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16369,7 +16374,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.2</v>
+        <v>2.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16406,14 +16411,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 43754-2022</t>
+          <t>A 9108-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44837</v>
+        <v>44615</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16426,7 +16431,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16463,14 +16468,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 44240-2025</t>
+          <t>A 23065-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45915.67596064815</v>
+        <v>45450.44878472222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16483,7 +16488,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16520,14 +16525,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 59272-2023</t>
+          <t>A 59266-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45253.55487268518</v>
+        <v>45253.55190972222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16540,7 +16545,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16577,14 +16582,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 4036-2024</t>
+          <t>A 34708-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45323.41983796296</v>
+        <v>45140.9924537037</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16597,7 +16602,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16634,14 +16639,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 57465-2024</t>
+          <t>A 1980-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45630.32784722222</v>
+        <v>45308</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16654,7 +16659,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16691,14 +16696,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 61740-2023</t>
+          <t>A 56456-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45265.70538194444</v>
+        <v>44893.31987268518</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16711,7 +16716,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16748,14 +16753,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 13235-2024</t>
+          <t>A 12333-2022</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45386</v>
+        <v>44637.62513888889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16768,7 +16773,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16805,14 +16810,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 45974-2025</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45924.36851851852</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16825,7 +16830,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16862,14 +16867,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 20911-2025</t>
+          <t>A 33299-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45777.40738425926</v>
+        <v>45116</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16882,7 +16887,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16919,14 +16924,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 20915-2025</t>
+          <t>A 38160-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45777.40862268519</v>
+        <v>44812</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16939,7 +16944,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -16976,14 +16981,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 47819-2025</t>
+          <t>A 38920-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45932.33591435185</v>
+        <v>44816</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -16996,7 +17001,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17033,14 +17038,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 725-2025</t>
+          <t>A 55296-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45665.391875</v>
+        <v>45237.81827546296</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17053,7 +17058,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17090,14 +17095,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 13513-2024</t>
+          <t>A 52778-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45387</v>
+        <v>44875</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17110,7 +17115,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17147,14 +17152,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 48066-2025</t>
+          <t>A 4036-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45932</v>
+        <v>45323.41983796296</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17167,7 +17172,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17204,14 +17209,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 48074-2025</t>
+          <t>A 59946-2022</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45932</v>
+        <v>44909.38717592593</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17224,7 +17229,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17261,14 +17266,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 10303-2024</t>
+          <t>A 56164-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45365</v>
+        <v>45624.54939814815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17281,7 +17286,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.9</v>
+        <v>15.7</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17318,14 +17323,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 49863-2025</t>
+          <t>A 6977-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45940.51858796296</v>
+        <v>45701.54565972222</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17338,7 +17343,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17375,14 +17380,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 50123-2025</t>
+          <t>A 59782-2022</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45943.55126157407</v>
+        <v>44900</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17394,13 +17399,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G294" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17437,14 +17437,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 50604-2025</t>
+          <t>A 52918-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45944</v>
+        <v>45226.52905092593</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17494,14 +17494,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 9098-2025</t>
+          <t>A 13194-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45713.68337962963</v>
+        <v>44644</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17551,14 +17551,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 51212-2025</t>
+          <t>A 61737-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45947.64262731482</v>
+        <v>45265.69740740741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17608,14 +17608,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 14901-2025</t>
+          <t>A 18842-2021</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45743.48797453703</v>
+        <v>44307</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17627,13 +17627,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G298" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17670,14 +17665,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 51218-2025</t>
+          <t>A 42427-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45947.64576388889</v>
+        <v>45180</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17690,7 +17685,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17727,14 +17722,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 51206-2025</t>
+          <t>A 61269-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45947.6365625</v>
+        <v>45645.74246527778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17747,7 +17742,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17784,14 +17779,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 23668-2025</t>
+          <t>A 32771-2021</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45792.90586805555</v>
+        <v>44375</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17804,7 +17799,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17841,14 +17836,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 52131-2025</t>
+          <t>A 52237-2021</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45952.75775462963</v>
+        <v>44463.60166666667</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17861,7 +17856,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17898,14 +17893,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 48908-2024</t>
+          <t>A 9218-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45594.36315972222</v>
+        <v>45358.51653935185</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17918,7 +17913,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -17955,14 +17950,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 23669-2025</t>
+          <t>A 60819-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45792.93181712963</v>
+        <v>45260.73208333334</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -17975,7 +17970,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18012,14 +18007,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 23865-2025</t>
+          <t>A 9380-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45793.67059027778</v>
+        <v>45715.34340277778</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18031,8 +18026,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G305" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18069,14 +18069,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 4303-2025</t>
+          <t>A 18691-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45685</v>
+        <v>45043.61253472222</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18126,14 +18126,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 24609-2025</t>
+          <t>A 12675-2021</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45798.58065972223</v>
+        <v>44270.53107638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18183,14 +18183,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 53604-2025</t>
+          <t>A 6336-2022</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45960.46254629629</v>
+        <v>44600.57196759259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>19.8</v>
+        <v>2.1</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18240,14 +18240,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 53606-2025</t>
+          <t>A 10165-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45960.46693287037</v>
+        <v>45719.65021990741</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18259,8 +18259,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18297,14 +18302,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 25359-2025</t>
+          <t>A 55356-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45800.61756944445</v>
+        <v>45621.80996527777</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18317,7 +18322,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18354,14 +18359,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 53802-2025</t>
+          <t>A 43624-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45960.79004629629</v>
+        <v>45569.4868287037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18373,8 +18378,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G311" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18411,14 +18421,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 25128-2025</t>
+          <t>A 17911-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45800.37969907407</v>
+        <v>45758.74115740741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18431,7 +18441,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18468,14 +18478,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 54997-2025</t>
+          <t>A 13511-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45967.5977199074</v>
+        <v>45387</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18488,7 +18498,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18525,14 +18535,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 55561-2025</t>
+          <t>A 20240-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45971.65128472223</v>
+        <v>45055.68784722222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18545,7 +18555,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18582,14 +18592,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 55967-2025</t>
+          <t>A 12016-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45973.48353009259</v>
+        <v>45728</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18601,13 +18611,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G315" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18644,14 +18649,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 56326-2025</t>
+          <t>A 20536-2022</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45974.6370949074</v>
+        <v>44700</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18664,7 +18669,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18701,14 +18706,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 57260-2025</t>
+          <t>A 57465-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45979.6544212963</v>
+        <v>45630.32784722222</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18721,7 +18726,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18758,14 +18763,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 60216-2025</t>
+          <t>A 579-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45994.54114583333</v>
+        <v>45299</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18778,7 +18783,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18815,14 +18820,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 60029-2025</t>
+          <t>A 20911-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45993.61226851852</v>
+        <v>45777.40738425926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18835,7 +18840,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>19.6</v>
+        <v>0.9</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18872,14 +18877,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 36627-2025</t>
+          <t>A 20915-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45870</v>
+        <v>45777.40862268519</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18892,7 +18897,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18929,14 +18934,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 2867-2026</t>
+          <t>A 725-2025</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>46038.50097222222</v>
+        <v>45665.391875</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18949,7 +18954,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -18986,14 +18991,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 60575-2025</t>
+          <t>A 13513-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45996.3097337963</v>
+        <v>45387</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19005,13 +19010,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G322" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19048,14 +19048,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 4278-2026</t>
+          <t>A 10303-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>46045.38021990741</v>
+        <v>45365</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19105,14 +19105,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 33099-2025</t>
+          <t>A 9098-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45840</v>
+        <v>45713.68337962963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19162,14 +19162,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 4701-2026</t>
+          <t>A 14901-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>46048.44986111111</v>
+        <v>45743.48797453703</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19183,11 +19183,11 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G325" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19224,14 +19224,14 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 63842-2025</t>
+          <t>A 23669-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>46020.43096064815</v>
+        <v>45792.93181712963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z326"/>
+  <dimension ref="A1:Z328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45695.66266203704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -653,14 +653,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 60881-2025</t>
+          <t>A 51277-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45999</v>
+        <v>45950.23784722222</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -673,17 +673,17 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6.6</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -707,123 +707,123 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Gulsparv</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 51277-2025 artfynd.xlsx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 51277-2025 karta.png", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 51277-2025 FSC-klagomål.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 51277-2025 FSC-klagomål mail.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 51277-2025 tillsynsbegäran.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 51277-2025 tillsynsbegäran mail.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/fåglar/A 51277-2025 prioriterade fågelarter.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 60881-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Rostfläck</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 60881-2025 artfynd.xlsx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 60881-2025 karta.png", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 60881-2025 FSC-klagomål.docx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 60881-2025 FSC-klagomål mail.docx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 60881-2025 tillsynsbegäran.docx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 60881-2025 tillsynsbegäran mail.docx", "A 60881-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 51277-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45950.23784722222</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 51277-2025 artfynd.xlsx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 51277-2025 karta.png", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 51277-2025 FSC-klagomål.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 51277-2025 FSC-klagomål mail.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 51277-2025 tillsynsbegäran.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 51277-2025 tillsynsbegäran mail.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/fåglar/A 51277-2025 prioriterade fågelarter.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44264</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44600.48700231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1003,14 +1003,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 40536-2021</t>
+          <t>A 32481-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44420.38428240741</v>
+        <v>44782.61696759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1060,14 +1060,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 32481-2022</t>
+          <t>A 40536-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44782.61696759259</v>
+        <v>44420.38428240741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>44356.42327546296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44305.59869212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>44796.56913194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>44620</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44432</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44314.54328703704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>44461</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44448.8524537037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1630,14 +1630,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 62540-2021</t>
+          <t>A 10831-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44503.61056712963</v>
+        <v>44627.56489583333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1687,14 +1687,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 10831-2022</t>
+          <t>A 62540-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44627.56489583333</v>
+        <v>44503.61056712963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>44378</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,14 +1801,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 42438-2022</t>
+          <t>A 46713-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44831.4771412037</v>
+        <v>44851.3972337963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.3</v>
+        <v>15.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 46713-2022</t>
+          <t>A 42438-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44851.3972337963</v>
+        <v>44831.4771412037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>15.7</v>
+        <v>5.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1915,14 +1915,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 50987-2022</t>
+          <t>A 46930-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44867.89589120371</v>
+        <v>44851.74130787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1972,14 +1972,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 46930-2022</t>
+          <t>A 50987-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44851.74130787037</v>
+        <v>44867.89589120371</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44378.41319444445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44504</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44267</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44746.7121412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44851.74324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44851.74546296296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2656,14 +2656,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 55043-2022</t>
+          <t>A 33092-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44886.56302083333</v>
+        <v>44376.6027662037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2675,13 +2675,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2718,14 +2713,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 33092-2021</t>
+          <t>A 55043-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44376.6027662037</v>
+        <v>44886.56302083333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,8 +2732,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>44704.53608796297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44299</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44460.36069444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44270.36637731481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44867</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44431.35026620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44441</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>44343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>44594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44785.60559027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>44636.73104166667</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44636.73430555555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44704.53440972222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44616.30952546297</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3915,14 +3915,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 40224-2024</t>
+          <t>A 4624-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45554.59815972222</v>
+        <v>45687.62030092593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3934,13 +3934,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>11.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3977,14 +3972,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20443-2024</t>
+          <t>A 9215-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45435.62212962963</v>
+        <v>45358</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3997,7 +3992,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.1</v>
+        <v>12.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4034,14 +4029,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 56856-2024</t>
+          <t>A 20443-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45628.54497685185</v>
+        <v>45435.62212962963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4054,7 +4049,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4091,14 +4086,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 4624-2025</t>
+          <t>A 56856-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45687.62030092593</v>
+        <v>45628.54497685185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4111,7 +4106,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>11.7</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4148,14 +4143,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 9215-2024</t>
+          <t>A 31967-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45358</v>
+        <v>45510</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4168,7 +4163,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>12.2</v>
+        <v>9.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4205,14 +4200,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31967-2024</t>
+          <t>A 40224-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45510</v>
+        <v>45554.59815972222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4224,8 +4219,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>9.1</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>45643.79293981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>44979.5653125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>44979.59778935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4433,14 +4433,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 21303-2024</t>
+          <t>A 58514-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45440.6750462963</v>
+        <v>45635.42575231481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4490,14 +4490,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7851-2023</t>
+          <t>A 13235-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44973.52238425926</v>
+        <v>45386</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4547,14 +4547,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 58514-2024</t>
+          <t>A 7851-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45635.42575231481</v>
+        <v>44973.52238425926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4604,14 +4604,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 10449-2025</t>
+          <t>A 21303-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45720</v>
+        <v>45440.6750462963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4661,14 +4661,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13235-2024</t>
+          <t>A 10449-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45386</v>
+        <v>45720</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>45264</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45253.54922453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45253.64171296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45377.3702662037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4946,14 +4946,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43615-2024</t>
+          <t>A 9413-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45569.47056712963</v>
+        <v>45359.44399305555</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4965,13 +4965,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5008,14 +5003,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9413-2024</t>
+          <t>A 9450-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45359.44399305555</v>
+        <v>45358</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5028,7 +5023,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5065,14 +5060,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9450-2024</t>
+          <t>A 43615-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45358</v>
+        <v>45569.47056712963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5084,8 +5079,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5122,14 +5122,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 23668-2025</t>
+          <t>A 9098-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45792.90586805555</v>
+        <v>45713.68337962963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5179,14 +5179,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23865-2025</t>
+          <t>A 9058-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45793.67059027778</v>
+        <v>45713.64200231482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5236,14 +5236,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1152-2023</t>
+          <t>A 14901-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44935.64951388889</v>
+        <v>45743.48797453703</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5255,8 +5255,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5293,14 +5298,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4701-2026</t>
+          <t>A 23669-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46048.44986111111</v>
+        <v>45792.93181712963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5312,13 +5317,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5355,14 +5355,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4303-2025</t>
+          <t>A 23668-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45685</v>
+        <v>45792.90586805555</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5412,14 +5412,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 73168-2021</t>
+          <t>A 23865-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44550</v>
+        <v>45793.67059027778</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5469,14 +5469,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 54201-2023</t>
+          <t>A 35588-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45232.55328703704</v>
+        <v>45146</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.6</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5526,14 +5526,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 48908-2024</t>
+          <t>A 4303-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45594.36315972222</v>
+        <v>45685</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5583,14 +5583,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57266-2024</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45629</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5640,14 +5640,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24609-2025</t>
+          <t>A 4289-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45798.58065972223</v>
+        <v>45685.65704861111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5697,14 +5697,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9058-2025</t>
+          <t>A 1152-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45713.64200231482</v>
+        <v>44935.64951388889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5754,14 +5754,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 14593-2022</t>
+          <t>A 48908-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44655.57246527778</v>
+        <v>45594.36315972222</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5811,14 +5811,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 22901-2024</t>
+          <t>A 11983-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45448.70333333333</v>
+        <v>45728</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5868,14 +5868,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 20465-2024</t>
+          <t>A 39371-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45435.66646990741</v>
+        <v>45889.58263888889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5887,8 +5887,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5925,14 +5930,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25128-2025</t>
+          <t>A 39374-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45800.37969907407</v>
+        <v>45889.58648148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5944,8 +5949,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>6.7</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5982,14 +5992,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 25359-2025</t>
+          <t>A 73168-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45800.61756944445</v>
+        <v>44550</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6012,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6039,14 +6049,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 15737-2025</t>
+          <t>A 4278-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45748.54488425926</v>
+        <v>46045.38021990741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6069,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6096,14 +6106,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 54293-2023</t>
+          <t>A 24609-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45232.72627314815</v>
+        <v>45798.58065972223</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6126,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6153,14 +6163,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 63842-2025</t>
+          <t>A 54201-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46020.43096064815</v>
+        <v>45232.55328703704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6183,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>7.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6210,14 +6220,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 35588-2023</t>
+          <t>A 57266-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45146</v>
+        <v>45629</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6240,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6267,14 +6277,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 57255-2022</t>
+          <t>A 25128-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44895.78674768518</v>
+        <v>45800.37969907407</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6297,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>6.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6324,14 +6334,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 31260-2022</t>
+          <t>A 25359-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44771.57344907407</v>
+        <v>45800.61756944445</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6354,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6381,14 +6391,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 14593-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>44655.57246527778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6411,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6438,14 +6448,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 27856-2024</t>
+          <t>A 22901-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45475</v>
+        <v>45448.70333333333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6468,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6495,14 +6505,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 14116-2025</t>
+          <t>A 20465-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45740</v>
+        <v>45435.66646990741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6525,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6552,14 +6562,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 51398-2024</t>
+          <t>A 15737-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45604.4233912037</v>
+        <v>45748.54488425926</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6582,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6609,14 +6619,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 27819-2024</t>
+          <t>A 54293-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45475</v>
+        <v>45232.72627314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6639,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6666,14 +6676,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 57313-2024</t>
+          <t>A 27856-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45629</v>
+        <v>45475</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6696,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6723,14 +6733,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 35056-2023</t>
+          <t>A 41278-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45142</v>
+        <v>45898.62895833333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6753,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6780,14 +6790,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 4289-2025</t>
+          <t>A 51398-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45685.65704861111</v>
+        <v>45604.4233912037</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6810,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6837,14 +6847,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 57295-2024</t>
+          <t>A 27819-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45629</v>
+        <v>45475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6867,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6894,14 +6904,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26786-2025</t>
+          <t>A 41331-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45810.58515046296</v>
+        <v>45899.35118055555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6924,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>8.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6951,14 +6961,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 44947-2024</t>
+          <t>A 57313-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45575.44268518518</v>
+        <v>45629</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6970,13 +6980,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7013,14 +7018,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 27151-2025</t>
+          <t>A 41281-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45812.32086805555</v>
+        <v>45898.63497685185</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7033,7 +7038,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7070,14 +7075,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40331-2022</t>
+          <t>A 41286-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44823.35134259259</v>
+        <v>45898.63819444444</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7090,7 +7095,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7127,14 +7132,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 11983-2025</t>
+          <t>A 57295-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45728</v>
+        <v>45629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7147,7 +7152,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7184,14 +7189,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 39371-2025</t>
+          <t>A 26786-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45889.58263888889</v>
+        <v>45810.58515046296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7203,13 +7208,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7246,14 +7246,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41690-2023</t>
+          <t>A 57255-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45176.36280092593</v>
+        <v>44895.78674768518</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7303,14 +7303,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 39374-2025</t>
+          <t>A 31260-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45889.58648148148</v>
+        <v>44771.57344907407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7322,13 +7322,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7365,14 +7360,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 59527-2024</t>
+          <t>A 27151-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45638.59061342593</v>
+        <v>45812.32086805555</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7385,7 +7380,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7422,14 +7417,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 12009-2025</t>
+          <t>A 14116-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45728</v>
+        <v>45740</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7442,7 +7437,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7479,14 +7474,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 4434-2024</t>
+          <t>A 35056-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45327.47383101852</v>
+        <v>45142</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7499,7 +7494,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7536,14 +7531,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 53719-2023</t>
+          <t>A 59527-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45230.72717592592</v>
+        <v>45638.59061342593</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7556,7 +7551,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7593,14 +7588,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28781-2025</t>
+          <t>A 12009-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45820.45300925926</v>
+        <v>45728</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7612,13 +7607,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7655,14 +7645,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 29303-2025</t>
+          <t>A 42395-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45824.45894675926</v>
+        <v>45905</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7675,7 +7665,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7712,14 +7702,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 29200-2025</t>
+          <t>A 44947-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45823.35009259259</v>
+        <v>45575.44268518518</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7731,8 +7721,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7769,14 +7764,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 29814-2025</t>
+          <t>A 42237-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45825.78996527778</v>
+        <v>45904.56365740741</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7789,7 +7784,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7826,14 +7821,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 57253-2022</t>
+          <t>A 40331-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44895.77885416667</v>
+        <v>44823.35134259259</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7846,7 +7841,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7883,14 +7878,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 4622-2025</t>
+          <t>A 28781-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45687.61902777778</v>
+        <v>45820.45300925926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7902,8 +7897,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>7.8</v>
+        <v>2.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7940,14 +7940,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31163-2025</t>
+          <t>A 42920-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45832.65693287037</v>
+        <v>45908.87545138889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -7997,14 +7997,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 50702-2022</t>
+          <t>A 41690-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44867.32679398148</v>
+        <v>45176.36280092593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8054,14 +8054,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 31629-2025</t>
+          <t>A 42919-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45834.3266087963</v>
+        <v>45908.87262731481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8111,14 +8111,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 31606-2025</t>
+          <t>A 29303-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45833.75311342593</v>
+        <v>45824.45894675926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8168,14 +8168,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 17536-2025</t>
+          <t>A 29200-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45757</v>
+        <v>45823.35009259259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8188,7 +8188,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8225,14 +8225,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 17543-2025</t>
+          <t>A 4434-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45757.60640046297</v>
+        <v>45327.47383101852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8282,14 +8282,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 45303-2024</t>
+          <t>A 43216-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45576.4172337963</v>
+        <v>45910.46533564815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>8.300000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8339,14 +8339,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 25764-2023</t>
+          <t>A 53719-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45090.45520833333</v>
+        <v>45230.72717592592</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8396,14 +8396,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 22532-2025</t>
+          <t>A 29814-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45786</v>
+        <v>45825.78996527778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8453,14 +8453,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 61738-2023</t>
+          <t>A 44240-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45265.69861111111</v>
+        <v>45915.67596064815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8510,14 +8510,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 41278-2025</t>
+          <t>A 31163-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45898.62895833333</v>
+        <v>45832.65693287037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8567,14 +8567,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 41331-2025</t>
+          <t>A 57253-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45899.35118055555</v>
+        <v>44895.77885416667</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8624,14 +8624,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 41281-2025</t>
+          <t>A 4622-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45898.63497685185</v>
+        <v>45687.61902777778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.1</v>
+        <v>7.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8681,14 +8681,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 41286-2025</t>
+          <t>A 31629-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45898.63819444444</v>
+        <v>45834.3266087963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8738,14 +8738,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 33672-2025</t>
+          <t>A 31606-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45841</v>
+        <v>45833.75311342593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8795,14 +8795,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 33664-2025</t>
+          <t>A 45974-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45841.66825231481</v>
+        <v>45924.36851851852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8852,14 +8852,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 33910-2025</t>
+          <t>A 50702-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45842.60122685185</v>
+        <v>44867.32679398148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8909,14 +8909,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 9411-2024</t>
+          <t>A 22532-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45359.44168981481</v>
+        <v>45786</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8966,14 +8966,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 64317-2023</t>
+          <t>A 17536-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45279</v>
+        <v>45757</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9023,14 +9023,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 64330-2023</t>
+          <t>A 17543-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45279</v>
+        <v>45757.60640046297</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9080,14 +9080,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 1197-2025</t>
+          <t>A 33672-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45667.38278935185</v>
+        <v>45841</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9137,14 +9137,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 60483-2022</t>
+          <t>A 45303-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44911.4247800926</v>
+        <v>45576.4172337963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9194,14 +9194,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 42395-2025</t>
+          <t>A 33664-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45905</v>
+        <v>45841.66825231481</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9251,14 +9251,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 7655-2024</t>
+          <t>A 33910-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45348.69953703704</v>
+        <v>45842.60122685185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9308,14 +9308,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 49737-2024</t>
+          <t>A 25764-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45596.86387731481</v>
+        <v>45090.45520833333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9365,14 +9365,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 6974-2025</t>
+          <t>A 61738-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45701.54447916667</v>
+        <v>45265.69861111111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9422,14 +9422,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 42237-2025</t>
+          <t>A 48074-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45904.56365740741</v>
+        <v>45932</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9479,14 +9479,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 42920-2025</t>
+          <t>A 47819-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45908.87545138889</v>
+        <v>45932.33591435185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9536,14 +9536,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 19259-2025</t>
+          <t>A 48066-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45769.50775462963</v>
+        <v>45932</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9593,14 +9593,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 1141-2023</t>
+          <t>A 1197-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44935</v>
+        <v>45667.38278935185</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9613,7 +9613,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9650,14 +9650,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 961-2023</t>
+          <t>A 9411-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44934</v>
+        <v>45359.44168981481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9707,14 +9707,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 36630-2025</t>
+          <t>A 60483-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45870</v>
+        <v>44911.4247800926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9727,7 +9727,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9764,14 +9764,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 36632-2025</t>
+          <t>A 6974-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45870</v>
+        <v>45701.54447916667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9784,7 +9784,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9821,14 +9821,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 42919-2025</t>
+          <t>A 50123-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45908.87262731481</v>
+        <v>45943.55126157407</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9840,8 +9840,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9878,14 +9883,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 11270-2025</t>
+          <t>A 64317-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45726.40613425926</v>
+        <v>45279</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9898,7 +9903,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9935,14 +9940,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 2680-2025</t>
+          <t>A 64330-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45677.34737268519</v>
+        <v>45279</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9955,7 +9960,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -9992,14 +9997,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 37398-2025</t>
+          <t>A 49863-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45877</v>
+        <v>45940.51858796296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10012,7 +10017,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10049,14 +10054,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 9404-2022</t>
+          <t>A 7655-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44616</v>
+        <v>45348.69953703704</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10069,7 +10074,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>8.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10106,14 +10111,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 59314-2024</t>
+          <t>A 36630-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45637.68851851852</v>
+        <v>45870</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10126,7 +10131,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10163,14 +10168,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 43216-2025</t>
+          <t>A 36632-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45910.46533564815</v>
+        <v>45870</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10183,7 +10188,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10220,14 +10225,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 27845-2023</t>
+          <t>A 49737-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45098.55438657408</v>
+        <v>45596.86387731481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10240,7 +10245,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10277,14 +10282,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 962-2023</t>
+          <t>A 50604-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44934</v>
+        <v>45944</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10297,7 +10302,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10334,14 +10339,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 5847-2024</t>
+          <t>A 51212-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45335.61695601852</v>
+        <v>45947.64262731482</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10354,7 +10359,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10391,14 +10396,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 62775-2023</t>
+          <t>A 51218-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45271</v>
+        <v>45947.64576388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10411,7 +10416,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10448,14 +10453,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 46137-2023</t>
+          <t>A 51206-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45196.56315972222</v>
+        <v>45947.6365625</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10468,7 +10473,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10505,14 +10510,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 44240-2025</t>
+          <t>A 37398-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45915.67596064815</v>
+        <v>45877</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10525,7 +10530,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10562,14 +10567,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 49391-2024</t>
+          <t>A 19259-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45595.6597337963</v>
+        <v>45769.50775462963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10582,7 +10587,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10619,14 +10624,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11589-2022</t>
+          <t>A 33099-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44631</v>
+        <v>45840</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10639,7 +10644,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10676,14 +10681,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 33693-2021</t>
+          <t>A 1141-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44378.4540162037</v>
+        <v>44935</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10696,7 +10701,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10733,14 +10738,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35059-2023</t>
+          <t>A 961-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45142</v>
+        <v>44934</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10753,7 +10758,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10790,14 +10795,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56654-2023</t>
+          <t>A 52131-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45243.80131944444</v>
+        <v>45952.75775462963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10810,7 +10815,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10847,14 +10852,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 49736-2024</t>
+          <t>A 62775-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45596.86271990741</v>
+        <v>45271</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10867,7 +10872,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10904,14 +10909,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 28851-2024</t>
+          <t>A 11270-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45478.78487268519</v>
+        <v>45726.40613425926</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10924,7 +10929,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10961,14 +10966,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 61740-2023</t>
+          <t>A 4701-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45265.70538194444</v>
+        <v>46048.44986111111</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10980,8 +10985,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11018,14 +11028,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 9013-2023</t>
+          <t>A 2680-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44979.60032407408</v>
+        <v>45677.34737268519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11038,7 +11048,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11075,14 +11085,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 45974-2025</t>
+          <t>A 53606-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45924.36851851852</v>
+        <v>45960.46693287037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11095,7 +11105,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11132,14 +11142,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 9410-2024</t>
+          <t>A 53604-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45359.4405787037</v>
+        <v>45960.46254629629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11152,7 +11162,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>19.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11189,14 +11199,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 9216-2024</t>
+          <t>A 9404-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45358.50931712963</v>
+        <v>44616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11209,7 +11219,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11246,14 +11256,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 42038-2024</t>
+          <t>A 53802-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45561.79969907407</v>
+        <v>45960.79004629629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11266,7 +11276,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>7.2</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11303,14 +11313,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 57759-2023</t>
+          <t>A 59314-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45246.8422337963</v>
+        <v>45637.68851851852</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11323,7 +11333,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11360,14 +11370,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 48074-2025</t>
+          <t>A 27845-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45932</v>
+        <v>45098.55438657408</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11380,7 +11390,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11417,14 +11427,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 47819-2025</t>
+          <t>A 962-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45932.33591435185</v>
+        <v>44934</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11437,7 +11447,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11474,14 +11484,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 48066-2025</t>
+          <t>A 5847-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45932</v>
+        <v>45335.61695601852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11494,7 +11504,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11531,14 +11541,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 50709-2021</t>
+          <t>A 54997-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44460.36636574074</v>
+        <v>45967.5977199074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11551,7 +11561,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11588,14 +11598,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50712-2021</t>
+          <t>A 46137-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44460.36731481482</v>
+        <v>45196.56315972222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11608,7 +11618,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11645,14 +11655,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 17542-2025</t>
+          <t>A 49391-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45757.60574074074</v>
+        <v>45595.6597337963</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11665,7 +11675,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11702,14 +11712,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 50123-2025</t>
+          <t>A 11589-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45943.55126157407</v>
+        <v>44631</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11721,13 +11731,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11764,14 +11769,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 50812-2023</t>
+          <t>A 63842-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45217.75505787037</v>
+        <v>46020.43096064815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11784,7 +11789,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11821,14 +11826,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 49863-2025</t>
+          <t>A 55561-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45940.51858796296</v>
+        <v>45971.65128472223</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11841,7 +11846,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11878,14 +11883,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 73305-2021</t>
+          <t>A 33693-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44551.3184837963</v>
+        <v>44378.4540162037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11898,7 +11903,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11935,14 +11940,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 18224-2022</t>
+          <t>A 35059-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44685</v>
+        <v>45142</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11955,7 +11960,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -11992,14 +11997,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 18244-2022</t>
+          <t>A 55967-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44685</v>
+        <v>45973.48353009259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12011,8 +12016,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12049,14 +12059,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 50604-2025</t>
+          <t>A 56326-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45944</v>
+        <v>45974.6370949074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12106,14 +12116,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 12024-2024</t>
+          <t>A 56654-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45377</v>
+        <v>45243.80131944444</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12126,7 +12136,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12163,14 +12173,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 51467-2023</t>
+          <t>A 49736-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45221.75239583333</v>
+        <v>45596.86271990741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12183,7 +12193,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12220,14 +12230,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 51212-2025</t>
+          <t>A 57260-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45947.64262731482</v>
+        <v>45979.6544212963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12240,7 +12250,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12277,14 +12287,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 55667-2024</t>
+          <t>A 28851-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45622.64577546297</v>
+        <v>45478.78487268519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12297,7 +12307,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12334,14 +12344,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 51218-2025</t>
+          <t>A 61740-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45947.64576388889</v>
+        <v>45265.70538194444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12354,7 +12364,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12391,14 +12401,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 51206-2025</t>
+          <t>A 9013-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45947.6365625</v>
+        <v>44979.60032407408</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12411,7 +12421,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12448,14 +12458,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 9579-2021</t>
+          <t>A 9410-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44251</v>
+        <v>45359.4405787037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12468,7 +12478,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12505,14 +12515,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 14690-2024</t>
+          <t>A 9216-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45397</v>
+        <v>45358.50931712963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12525,7 +12535,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12562,14 +12572,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 57256-2022</t>
+          <t>A 8678-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44895.78923611111</v>
+        <v>46066.41101851852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12581,8 +12591,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>2.6</v>
+        <v>7.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12619,14 +12634,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 57257-2022</t>
+          <t>A 42038-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44895.79283564815</v>
+        <v>45561.79969907407</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12639,7 +12654,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.5</v>
+        <v>7.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12676,14 +12691,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 52131-2025</t>
+          <t>A 57759-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45952.75775462963</v>
+        <v>45246.8422337963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12696,7 +12711,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12733,14 +12748,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 10180-2024</t>
+          <t>A 8949-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45364.8280787037</v>
+        <v>46069.38609953703</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12753,7 +12768,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12790,14 +12805,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 365-2022</t>
+          <t>A 50709-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44565</v>
+        <v>44460.36636574074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12810,7 +12825,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>7.8</v>
+        <v>1.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12847,14 +12862,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 49678-2023</t>
+          <t>A 50712-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45212.33935185185</v>
+        <v>44460.36731481482</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12867,7 +12882,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12904,14 +12919,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 53606-2025</t>
+          <t>A 60029-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45960.46693287037</v>
+        <v>45993.61226851852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12924,7 +12939,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3</v>
+        <v>19.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12961,14 +12976,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 12026-2024</t>
+          <t>A 17542-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45377.37309027778</v>
+        <v>45757.60574074074</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12981,7 +12996,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13018,14 +13033,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 53604-2025</t>
+          <t>A 50812-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45960.46254629629</v>
+        <v>45217.75505787037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13038,7 +13053,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>19.8</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13075,14 +13090,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 53802-2025</t>
+          <t>A 73305-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45960.79004629629</v>
+        <v>44551.3184837963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13095,7 +13110,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13132,14 +13147,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 57303-2024</t>
+          <t>A 18224-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45629</v>
+        <v>44685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13152,7 +13167,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13189,14 +13204,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 54997-2025</t>
+          <t>A 18244-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45967.5977199074</v>
+        <v>44685</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13209,7 +13224,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13246,14 +13261,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 6454-2024</t>
+          <t>A 60216-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45338.68309027778</v>
+        <v>45994.54114583333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13265,13 +13280,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13308,14 +13318,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 49820-2022</t>
+          <t>A 60575-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44862.70869212963</v>
+        <v>45996.3097337963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13327,8 +13337,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13365,14 +13380,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 55561-2025</t>
+          <t>A 36627-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45971.65128472223</v>
+        <v>45870</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13385,7 +13400,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13422,14 +13437,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 33300-2023</t>
+          <t>A 2867-2026</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45116</v>
+        <v>46038.50097222222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13442,7 +13457,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13479,14 +13494,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 33301-2023</t>
+          <t>A 12024-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45116</v>
+        <v>45377</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13499,7 +13514,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13536,14 +13551,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 55967-2025</t>
+          <t>A 51467-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45973.48353009259</v>
+        <v>45221.75239583333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13555,13 +13570,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13598,14 +13608,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 56326-2025</t>
+          <t>A 55667-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45974.6370949074</v>
+        <v>45622.64577546297</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13618,7 +13628,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13655,14 +13665,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 35042-2023</t>
+          <t>A 9579-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45142</v>
+        <v>44251</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13675,7 +13685,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13712,14 +13722,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 10728-2023</t>
+          <t>A 14690-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44988.67260416667</v>
+        <v>45397</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13732,7 +13742,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13769,14 +13779,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 57260-2025</t>
+          <t>A 57256-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45979.6544212963</v>
+        <v>44895.78923611111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13789,7 +13799,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>7.2</v>
+        <v>2.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13826,14 +13836,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 63426-2023</t>
+          <t>A 57257-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45274</v>
+        <v>44895.79283564815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13846,7 +13856,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13883,14 +13893,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 57420-2024</t>
+          <t>A 10180-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45629</v>
+        <v>45364.8280787037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13903,7 +13913,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>6.6</v>
+        <v>2.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13940,14 +13950,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 43754-2022</t>
+          <t>A 365-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44837</v>
+        <v>44565</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13960,7 +13970,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -13997,14 +14007,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 18843-2021</t>
+          <t>A 49678-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44307</v>
+        <v>45212.33935185185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14017,7 +14027,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.3</v>
+        <v>5.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14054,14 +14064,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 26631-2021</t>
+          <t>A 12026-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44348.67560185185</v>
+        <v>45377.37309027778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14074,7 +14084,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14111,14 +14121,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 62313-2023</t>
+          <t>A 57303-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45267</v>
+        <v>45629</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14131,7 +14141,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14168,14 +14178,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 50713-2021</t>
+          <t>A 6454-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44460.36797453704</v>
+        <v>45338.68309027778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14187,8 +14197,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14225,14 +14240,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 21291-2024</t>
+          <t>A 49820-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45440.66341435185</v>
+        <v>44862.70869212963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14245,7 +14260,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14282,14 +14297,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 60029-2025</t>
+          <t>A 33300-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45993.61226851852</v>
+        <v>45116</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14302,7 +14317,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>19.6</v>
+        <v>1.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14339,14 +14354,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 2781-2025</t>
+          <t>A 33301-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45677.54344907407</v>
+        <v>45116</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14359,7 +14374,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14396,14 +14411,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 4812-2025</t>
+          <t>A 35042-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45688.61510416667</v>
+        <v>45142</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14415,13 +14430,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14458,14 +14468,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 37726-2024</t>
+          <t>A 10728-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45541.65391203704</v>
+        <v>44988.67260416667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14478,7 +14488,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14515,14 +14525,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 2452-2022</t>
+          <t>A 63426-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44579</v>
+        <v>45274</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14535,7 +14545,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14572,14 +14582,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 50673-2024</t>
+          <t>A 57420-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45601.84043981481</v>
+        <v>45629</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14592,7 +14602,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14629,14 +14639,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 60216-2025</t>
+          <t>A 43754-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45994.54114583333</v>
+        <v>44837</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14649,7 +14659,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>8.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14686,14 +14696,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 60575-2025</t>
+          <t>A 18843-2021</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45996.3097337963</v>
+        <v>44307</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14705,13 +14715,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>5.8</v>
+        <v>0.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14748,14 +14753,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 36627-2025</t>
+          <t>A 26631-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45870</v>
+        <v>44348.67560185185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14768,7 +14773,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14805,14 +14810,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 2867-2026</t>
+          <t>A 62313-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46038.50097222222</v>
+        <v>45267</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14825,7 +14830,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14862,14 +14867,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 47332-2023</t>
+          <t>A 50713-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45202.53005787037</v>
+        <v>44460.36797453704</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14882,7 +14887,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14919,14 +14924,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 61879-2023</t>
+          <t>A 21291-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45266.42527777778</v>
+        <v>45440.66341435185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14939,7 +14944,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14976,14 +14981,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 13481-2023</t>
+          <t>A 2781-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45005</v>
+        <v>45677.54344907407</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -14996,7 +15001,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15033,14 +15038,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 4278-2026</t>
+          <t>A 4812-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46045.38021990741</v>
+        <v>45688.61510416667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15052,8 +15057,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15090,14 +15100,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 6453-2024</t>
+          <t>A 37726-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45338.67915509259</v>
+        <v>45541.65391203704</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15109,13 +15119,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15152,14 +15157,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 20196-2024</t>
+          <t>A 2452-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45434.63688657407</v>
+        <v>44579</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15172,7 +15177,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15209,14 +15214,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 59786-2022</t>
+          <t>A 50673-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44900</v>
+        <v>45601.84043981481</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15229,7 +15234,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.4</v>
+        <v>5.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15266,14 +15271,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 35035-2023</t>
+          <t>A 47332-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45142</v>
+        <v>45202.53005787037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15286,7 +15291,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15323,14 +15328,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 49041-2022</t>
+          <t>A 61879-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44858</v>
+        <v>45266.42527777778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15343,7 +15348,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15380,14 +15385,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 37917-2023</t>
+          <t>A 13481-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45160.48486111111</v>
+        <v>45005</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15400,7 +15405,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15437,14 +15442,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 20433-2024</t>
+          <t>A 6453-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45435.61200231482</v>
+        <v>45338.67915509259</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15456,8 +15461,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15494,14 +15504,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 20439-2024</t>
+          <t>A 20196-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45435</v>
+        <v>45434.63688657407</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15514,7 +15524,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15551,14 +15561,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 20461-2024</t>
+          <t>A 59786-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45435.65636574074</v>
+        <v>44900</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15571,7 +15581,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15608,14 +15618,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 12668-2021</t>
+          <t>A 35035-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44270</v>
+        <v>45142</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15628,7 +15638,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15665,14 +15675,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 42486-2021</t>
+          <t>A 49041-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44427</v>
+        <v>44858</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15685,7 +15695,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15722,14 +15732,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 3522-2024</t>
+          <t>A 37917-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45320.53537037037</v>
+        <v>45160.48486111111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15742,7 +15752,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15779,14 +15789,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 50909-2023</t>
+          <t>A 20433-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45218.42068287037</v>
+        <v>45435.61200231482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15799,7 +15809,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15836,14 +15846,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 7238-2024</t>
+          <t>A 20439-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45344.66310185185</v>
+        <v>45435</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15856,7 +15866,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15893,14 +15903,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 52879-2024</t>
+          <t>A 20461-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45610.63946759259</v>
+        <v>45435.65636574074</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15913,7 +15923,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -15950,14 +15960,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 33099-2025</t>
+          <t>A 12668-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45840</v>
+        <v>44270</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16007,14 +16017,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 6517-2022</t>
+          <t>A 42486-2021</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44601.46166666667</v>
+        <v>44427</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16027,7 +16037,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16064,14 +16074,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 59272-2023</t>
+          <t>A 3522-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45253.55487268518</v>
+        <v>45320.53537037037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16084,7 +16094,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16121,14 +16131,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 43620-2024</t>
+          <t>A 50909-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45569.481875</v>
+        <v>45218.42068287037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16140,13 +16150,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16183,14 +16188,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 35608-2023</t>
+          <t>A 7238-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45146</v>
+        <v>45344.66310185185</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16203,7 +16208,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16240,14 +16245,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 12007-2025</t>
+          <t>A 52879-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45728</v>
+        <v>45610.63946759259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16260,7 +16265,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16297,14 +16302,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 53374-2023</t>
+          <t>A 6517-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45229</v>
+        <v>44601.46166666667</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16317,7 +16322,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16354,14 +16359,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 12938-2022</t>
+          <t>A 59272-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44642</v>
+        <v>45253.55487268518</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16374,7 +16379,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16411,14 +16416,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 9108-2022</t>
+          <t>A 43620-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44615</v>
+        <v>45569.481875</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16430,8 +16435,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16468,14 +16478,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 23065-2024</t>
+          <t>A 35608-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45450.44878472222</v>
+        <v>45146</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16488,7 +16498,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16525,14 +16535,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 59266-2023</t>
+          <t>A 12007-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45253.55190972222</v>
+        <v>45728</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16545,7 +16555,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16582,14 +16592,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 34708-2023</t>
+          <t>A 53374-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45140.9924537037</v>
+        <v>45229</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16602,7 +16612,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16639,14 +16649,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 1980-2024</t>
+          <t>A 12938-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45308</v>
+        <v>44642</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16659,7 +16669,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16696,14 +16706,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 56456-2022</t>
+          <t>A 9108-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44893.31987268518</v>
+        <v>44615</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16716,7 +16726,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16753,14 +16763,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 12333-2022</t>
+          <t>A 23065-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44637.62513888889</v>
+        <v>45450.44878472222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16773,7 +16783,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16810,14 +16820,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 59266-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>45253.55190972222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16830,7 +16840,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16867,14 +16877,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 33299-2023</t>
+          <t>A 34708-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45116</v>
+        <v>45140.9924537037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16887,7 +16897,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16924,14 +16934,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 38160-2022</t>
+          <t>A 1980-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44812</v>
+        <v>45308</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16944,7 +16954,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>7.2</v>
+        <v>2.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -16981,14 +16991,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 38920-2022</t>
+          <t>A 56456-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44816</v>
+        <v>44893.31987268518</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17001,7 +17011,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17038,14 +17048,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 55296-2023</t>
+          <t>A 12333-2022</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45237.81827546296</v>
+        <v>44637.62513888889</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17058,7 +17068,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17095,14 +17105,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 52778-2022</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44875</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17115,7 +17125,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>8.4</v>
+        <v>4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17152,14 +17162,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 4036-2024</t>
+          <t>A 33299-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45323.41983796296</v>
+        <v>45116</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17172,7 +17182,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17209,14 +17219,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 59946-2022</t>
+          <t>A 38160-2022</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44909.38717592593</v>
+        <v>44812</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17229,7 +17239,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>2.2</v>
+        <v>7.2</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17266,14 +17276,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 56164-2024</t>
+          <t>A 38920-2022</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45624.54939814815</v>
+        <v>44816</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17286,7 +17296,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>15.7</v>
+        <v>1.3</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17323,14 +17333,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 6977-2025</t>
+          <t>A 55296-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45701.54565972222</v>
+        <v>45237.81827546296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17343,7 +17353,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17380,14 +17390,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 59782-2022</t>
+          <t>A 52778-2022</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44900</v>
+        <v>44875</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17400,7 +17410,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>2</v>
+        <v>8.4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17437,14 +17447,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 52918-2023</t>
+          <t>A 4036-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45226.52905092593</v>
+        <v>45323.41983796296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17457,7 +17467,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17494,14 +17504,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 13194-2022</t>
+          <t>A 59946-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44644</v>
+        <v>44909.38717592593</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17514,7 +17524,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17551,14 +17561,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 61737-2023</t>
+          <t>A 56164-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45265.69740740741</v>
+        <v>45624.54939814815</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17571,7 +17581,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2.6</v>
+        <v>15.7</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17608,14 +17618,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 18842-2021</t>
+          <t>A 6977-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44307</v>
+        <v>45701.54565972222</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17628,7 +17638,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17665,14 +17675,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 42427-2023</t>
+          <t>A 59782-2022</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45180</v>
+        <v>44900</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17685,7 +17695,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17722,14 +17732,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 61269-2024</t>
+          <t>A 52918-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45645.74246527778</v>
+        <v>45226.52905092593</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17742,7 +17752,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17779,14 +17789,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 32771-2021</t>
+          <t>A 13194-2022</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44375</v>
+        <v>44644</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17799,7 +17809,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17836,14 +17846,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 52237-2021</t>
+          <t>A 61737-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44463.60166666667</v>
+        <v>45265.69740740741</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17856,7 +17866,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17893,14 +17903,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 9218-2024</t>
+          <t>A 18842-2021</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45358.51653935185</v>
+        <v>44307</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17913,7 +17923,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -17950,14 +17960,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 60819-2023</t>
+          <t>A 42427-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45260.73208333334</v>
+        <v>45180</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -17970,7 +17980,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18007,14 +18017,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 9380-2025</t>
+          <t>A 61269-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45715.34340277778</v>
+        <v>45645.74246527778</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18026,13 +18036,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18069,14 +18074,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 18691-2023</t>
+          <t>A 32771-2021</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45043.61253472222</v>
+        <v>44375</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18089,7 +18094,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18126,14 +18131,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 12675-2021</t>
+          <t>A 52237-2021</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>44270.53107638889</v>
+        <v>44463.60166666667</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18146,7 +18151,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18183,14 +18188,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 6336-2022</t>
+          <t>A 9218-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>44600.57196759259</v>
+        <v>45358.51653935185</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18203,7 +18208,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18240,14 +18245,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 10165-2025</t>
+          <t>A 60819-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45719.65021990741</v>
+        <v>45260.73208333334</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18259,13 +18264,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G309" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18302,14 +18302,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 55356-2024</t>
+          <t>A 9380-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45621.80996527777</v>
+        <v>45715.34340277778</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18321,8 +18321,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G310" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18359,14 +18364,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 43624-2024</t>
+          <t>A 18691-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45569.4868287037</v>
+        <v>45043.61253472222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18378,13 +18383,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G311" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18421,14 +18421,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 17911-2025</t>
+          <t>A 12675-2021</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45758.74115740741</v>
+        <v>44270.53107638889</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18478,14 +18478,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 13511-2024</t>
+          <t>A 6336-2022</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45387</v>
+        <v>44600.57196759259</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18535,14 +18535,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 20240-2023</t>
+          <t>A 10165-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45055.68784722222</v>
+        <v>45719.65021990741</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18554,8 +18554,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G314" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18592,14 +18597,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 12016-2025</t>
+          <t>A 55356-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45728</v>
+        <v>45621.80996527777</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18612,7 +18617,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18649,14 +18654,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 20536-2022</t>
+          <t>A 43624-2024</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44700</v>
+        <v>45569.4868287037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18668,8 +18673,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G316" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18706,14 +18716,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 57465-2024</t>
+          <t>A 17911-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45630.32784722222</v>
+        <v>45758.74115740741</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18726,7 +18736,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18763,14 +18773,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 579-2024</t>
+          <t>A 13511-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45299</v>
+        <v>45387</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18783,7 +18793,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18820,14 +18830,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 20911-2025</t>
+          <t>A 20240-2023</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45777.40738425926</v>
+        <v>45055.68784722222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18840,7 +18850,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18877,14 +18887,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 20915-2025</t>
+          <t>A 12016-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45777.40862268519</v>
+        <v>45728</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18897,7 +18907,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18934,14 +18944,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 725-2025</t>
+          <t>A 20536-2022</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45665.391875</v>
+        <v>44700</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18954,7 +18964,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -18991,14 +19001,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 13513-2024</t>
+          <t>A 57465-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45387</v>
+        <v>45630.32784722222</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19011,7 +19021,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19048,14 +19058,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 10303-2024</t>
+          <t>A 579-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45365</v>
+        <v>45299</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19068,7 +19078,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19105,14 +19115,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 9098-2025</t>
+          <t>A 20911-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45713.68337962963</v>
+        <v>45777.40738425926</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19125,7 +19135,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19162,14 +19172,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 14901-2025</t>
+          <t>A 20915-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45743.48797453703</v>
+        <v>45777.40862268519</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19181,13 +19191,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G325" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19221,17 +19226,17 @@
       </c>
       <c r="R325" s="2" t="inlineStr"/>
     </row>
-    <row r="326">
+    <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 23669-2025</t>
+          <t>A 725-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45792.93181712963</v>
+        <v>45665.391875</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19244,39 +19249,153 @@
         </is>
       </c>
       <c r="G326" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" t="n">
+        <v>0</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" s="2" t="inlineStr"/>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>A 13513-2024</t>
+        </is>
+      </c>
+      <c r="B327" s="1" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C327" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G327" t="n">
         <v>1.2</v>
       </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" t="n">
-        <v>0</v>
-      </c>
-      <c r="K326" t="n">
-        <v>0</v>
-      </c>
-      <c r="L326" t="n">
-        <v>0</v>
-      </c>
-      <c r="M326" t="n">
-        <v>0</v>
-      </c>
-      <c r="N326" t="n">
-        <v>0</v>
-      </c>
-      <c r="O326" t="n">
-        <v>0</v>
-      </c>
-      <c r="P326" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q326" t="n">
-        <v>0</v>
-      </c>
-      <c r="R326" s="2" t="inlineStr"/>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" t="n">
+        <v>0</v>
+      </c>
+      <c r="O327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" s="2" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>A 10303-2024</t>
+        </is>
+      </c>
+      <c r="B328" s="1" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C328" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G328" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>0</v>
+      </c>
+      <c r="O328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R328" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -575,7 +575,7 @@
         <v>45695.66266203704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -653,14 +653,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 51277-2025</t>
+          <t>A 60881-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45950.23784722222</v>
+        <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -707,123 +707,123 @@
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
+          <t>Rostfläck</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 60881-2025 artfynd.xlsx", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 60881-2025 karta.png", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 60881-2025 FSC-klagomål.docx", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 60881-2025 FSC-klagomål mail.docx", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 60881-2025 tillsynsbegäran.docx", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 60881-2025 tillsynsbegäran mail.docx", "A 60881-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 51277-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45950.23784722222</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Gulsparv</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 51277-2025 artfynd.xlsx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 51277-2025 karta.png", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 51277-2025 FSC-klagomål.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 51277-2025 FSC-klagomål mail.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 51277-2025 tillsynsbegäran.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 51277-2025 tillsynsbegäran mail.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/fåglar/A 51277-2025 prioriterade fågelarter.docx", "A 51277-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 60881-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45999</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Rostfläck</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 60881-2025 artfynd.xlsx", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 60881-2025 karta.png", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 60881-2025 FSC-klagomål.docx", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 60881-2025 FSC-klagomål mail.docx", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 60881-2025 tillsynsbegäran.docx", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 60881-2025 tillsynsbegäran mail.docx", "A 60881-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44264</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44600.48700231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>44782.61696759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44420.38428240741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44356.42327546296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44305.59869212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>44796.56913194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>44620</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44432</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44314.54328703704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>44461</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44448.8524537037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1630,14 +1630,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 10831-2022</t>
+          <t>A 62540-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44627.56489583333</v>
+        <v>44503.61056712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1687,14 +1687,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 62540-2021</t>
+          <t>A 10831-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44503.61056712963</v>
+        <v>44627.56489583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>44378</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1801,14 +1801,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 46713-2022</t>
+          <t>A 42438-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44851.3972337963</v>
+        <v>44831.4771412037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>15.7</v>
+        <v>5.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1858,14 +1858,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 42438-2022</t>
+          <t>A 46713-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44831.4771412037</v>
+        <v>44851.3972337963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.3</v>
+        <v>15.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1915,14 +1915,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 46930-2022</t>
+          <t>A 50987-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44851.74130787037</v>
+        <v>44867.89589120371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1972,14 +1972,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 50987-2022</t>
+          <t>A 46930-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44867.89589120371</v>
+        <v>44851.74130787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44378.41319444445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44504</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44267</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44746.7121412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44851.74324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44851.74546296296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>44376.6027662037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44886.56302083333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44704.53608796297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44299</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44460.36069444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44270.36637731481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44867</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44431.35026620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44441</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>44343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>44594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44785.60559027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3687,14 +3687,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 12173-2022</t>
+          <t>A 21085-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44636.73104166667</v>
+        <v>44704.53440972222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3744,14 +3744,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 12175-2022</t>
+          <t>A 9212-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44636.73430555555</v>
+        <v>44616.30952546297</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3801,14 +3801,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 21085-2022</t>
+          <t>A 4624-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44704.53440972222</v>
+        <v>45687.62030092593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>11.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3858,14 +3858,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9212-2022</t>
+          <t>A 9215-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44616.30952546297</v>
+        <v>45358</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.3</v>
+        <v>12.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3915,14 +3915,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 4624-2025</t>
+          <t>A 20443-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45687.62030092593</v>
+        <v>45435.62212962963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>11.7</v>
+        <v>0.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3972,14 +3972,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9215-2024</t>
+          <t>A 12173-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45358</v>
+        <v>44636.73104166667</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>12.2</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4029,14 +4029,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 20443-2024</t>
+          <t>A 12175-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45435.62212962963</v>
+        <v>44636.73430555555</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>45628.54497685185</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4143,14 +4143,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 31967-2024</t>
+          <t>A 40224-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45510</v>
+        <v>45554.59815972222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4162,8 +4162,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>9.1</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4200,14 +4205,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40224-2024</t>
+          <t>A 31967-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45554.59815972222</v>
+        <v>45510</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4219,13 +4224,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>9.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4262,14 +4262,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 60543-2024</t>
+          <t>A 21303-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45643.79293981481</v>
+        <v>45440.6750462963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4319,14 +4319,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9000-2023</t>
+          <t>A 60543-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44979.5653125</v>
+        <v>45643.79293981481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4376,14 +4376,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9012-2023</t>
+          <t>A 9000-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44979.59778935185</v>
+        <v>44979.5653125</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4433,14 +4433,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 58514-2024</t>
+          <t>A 9012-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45635.42575231481</v>
+        <v>44979.59778935185</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4490,14 +4490,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 13235-2024</t>
+          <t>A 7851-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45386</v>
+        <v>44973.52238425926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4547,14 +4547,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 7851-2023</t>
+          <t>A 10449-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44973.52238425926</v>
+        <v>45720</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4604,14 +4604,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 21303-2024</t>
+          <t>A 58514-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45440.6750462963</v>
+        <v>45635.42575231481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4661,14 +4661,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 10449-2025</t>
+          <t>A 13235-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45720</v>
+        <v>45386</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>45264</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4775,14 +4775,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 59259-2023</t>
+          <t>A 725-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45253.54922453704</v>
+        <v>45665.391875</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4832,14 +4832,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 59335-2023</t>
+          <t>A 59259-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45253.64171296296</v>
+        <v>45253.54922453704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4889,14 +4889,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12021-2024</t>
+          <t>A 59335-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45377.3702662037</v>
+        <v>45253.64171296296</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4946,14 +4946,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 9413-2024</t>
+          <t>A 13513-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45359.44399305555</v>
+        <v>45387</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5003,14 +5003,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9450-2024</t>
+          <t>A 9058-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45358</v>
+        <v>45713.64200231482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5060,14 +5060,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43615-2024</t>
+          <t>A 10303-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45569.47056712963</v>
+        <v>45365</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5079,13 +5079,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5122,14 +5117,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 9098-2025</t>
+          <t>A 55967-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45713.68337962963</v>
+        <v>45973.48353009259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5141,8 +5136,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5179,14 +5179,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 9058-2025</t>
+          <t>A 12021-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45713.64200231482</v>
+        <v>45377.3702662037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5236,14 +5236,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 14901-2025</t>
+          <t>A 9098-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45743.48797453703</v>
+        <v>45713.68337962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5255,13 +5255,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5298,14 +5293,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 23669-2025</t>
+          <t>A 35588-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45792.93181712963</v>
+        <v>45146</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5313,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5355,14 +5350,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23668-2025</t>
+          <t>A 14901-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45792.90586805555</v>
+        <v>45743.48797453703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5374,8 +5369,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5412,14 +5412,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23865-2025</t>
+          <t>A 56326-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45793.67059027778</v>
+        <v>45974.6370949074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5469,14 +5469,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 35588-2023</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45146</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5526,14 +5526,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4303-2025</t>
+          <t>A 9413-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45685</v>
+        <v>45359.44399305555</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5583,14 +5583,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 4289-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>45685.65704861111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5640,14 +5640,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 4289-2025</t>
+          <t>A 9450-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45685.65704861111</v>
+        <v>45358</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5697,14 +5697,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 1152-2023</t>
+          <t>A 23669-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44935.64951388889</v>
+        <v>45792.93181712963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5754,14 +5754,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 48908-2024</t>
+          <t>A 23668-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45594.36315972222</v>
+        <v>45792.90586805555</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5811,14 +5811,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 11983-2025</t>
+          <t>A 23865-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45728</v>
+        <v>45793.67059027778</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5868,14 +5868,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 39371-2025</t>
+          <t>A 43615-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45889.58263888889</v>
+        <v>45569.47056712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5889,11 +5889,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5930,14 +5930,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 39374-2025</t>
+          <t>A 11983-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45889.58648148148</v>
+        <v>45728</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5949,13 +5949,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5992,14 +5987,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 73168-2021</t>
+          <t>A 39371-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44550</v>
+        <v>45889.58263888889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6011,8 +6006,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6049,14 +6049,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 4278-2026</t>
+          <t>A 39374-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46045.38021990741</v>
+        <v>45889.58648148148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6068,8 +6068,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6106,14 +6111,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 24609-2025</t>
+          <t>A 4303-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45798.58065972223</v>
+        <v>45685</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6126,7 +6131,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6163,14 +6168,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 54201-2023</t>
+          <t>A 48908-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45232.55328703704</v>
+        <v>45594.36315972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6183,7 +6188,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>7.6</v>
+        <v>1.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6220,14 +6225,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57266-2024</t>
+          <t>A 24609-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45629</v>
+        <v>45798.58065972223</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6240,7 +6245,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6277,14 +6282,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 25128-2025</t>
+          <t>A 57260-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45800.37969907407</v>
+        <v>45979.6544212963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6297,7 +6302,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6334,14 +6339,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 25359-2025</t>
+          <t>A 1152-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45800.61756944445</v>
+        <v>44935.64951388889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6354,7 +6359,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6391,14 +6396,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 14593-2022</t>
+          <t>A 25128-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44655.57246527778</v>
+        <v>45800.37969907407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6411,7 +6416,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>6.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6448,14 +6453,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22901-2024</t>
+          <t>A 25359-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45448.70333333333</v>
+        <v>45800.61756944445</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6468,7 +6473,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6505,14 +6510,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 20465-2024</t>
+          <t>A 41278-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45435.66646990741</v>
+        <v>45898.62895833333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6525,7 +6530,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6562,14 +6567,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15737-2025</t>
+          <t>A 73168-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45748.54488425926</v>
+        <v>44550</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6582,7 +6587,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6619,14 +6624,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 54293-2023</t>
+          <t>A 41331-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45232.72627314815</v>
+        <v>45899.35118055555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6639,7 +6644,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6676,14 +6681,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 27856-2024</t>
+          <t>A 41281-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45475</v>
+        <v>45898.63497685185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6696,7 +6701,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6733,14 +6738,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 41278-2025</t>
+          <t>A 41286-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45898.62895833333</v>
+        <v>45898.63819444444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6753,7 +6758,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6790,14 +6795,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 51398-2024</t>
+          <t>A 54201-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45604.4233912037</v>
+        <v>45232.55328703704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6810,7 +6815,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6847,14 +6852,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 27819-2024</t>
+          <t>A 57266-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45475</v>
+        <v>45629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6867,7 +6872,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6904,14 +6909,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 41331-2025</t>
+          <t>A 14593-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45899.35118055555</v>
+        <v>44655.57246527778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6924,7 +6929,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6961,14 +6966,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 57313-2024</t>
+          <t>A 22901-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45629</v>
+        <v>45448.70333333333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6981,7 +6986,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7018,14 +7023,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 41281-2025</t>
+          <t>A 20465-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45898.63497685185</v>
+        <v>45435.66646990741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7038,7 +7043,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7075,14 +7080,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 41286-2025</t>
+          <t>A 27856-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45898.63819444444</v>
+        <v>45475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7095,7 +7100,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7132,14 +7137,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 57295-2024</t>
+          <t>A 51398-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45629</v>
+        <v>45604.4233912037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7152,7 +7157,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7189,14 +7194,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26786-2025</t>
+          <t>A 27819-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45810.58515046296</v>
+        <v>45475</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7209,7 +7214,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>8.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7246,14 +7251,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 57255-2022</t>
+          <t>A 57313-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44895.78674768518</v>
+        <v>45629</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7266,7 +7271,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7303,14 +7308,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31260-2022</t>
+          <t>A 42395-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44771.57344907407</v>
+        <v>45905</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7323,7 +7328,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7360,14 +7365,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27151-2025</t>
+          <t>A 15737-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45812.32086805555</v>
+        <v>45748.54488425926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7380,7 +7385,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7417,14 +7422,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 14116-2025</t>
+          <t>A 54293-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45740</v>
+        <v>45232.72627314815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7437,7 +7442,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7474,14 +7479,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 35056-2023</t>
+          <t>A 42237-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45142</v>
+        <v>45904.56365740741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7494,7 +7499,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7531,14 +7536,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 59527-2024</t>
+          <t>A 57295-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45638.59061342593</v>
+        <v>45629</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7551,7 +7556,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7588,14 +7593,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12009-2025</t>
+          <t>A 42920-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45728</v>
+        <v>45908.87545138889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7608,7 +7613,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7645,14 +7650,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42395-2025</t>
+          <t>A 26786-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45905</v>
+        <v>45810.58515046296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7665,7 +7670,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7702,14 +7707,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 44947-2024</t>
+          <t>A 27151-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45575.44268518518</v>
+        <v>45812.32086805555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7719,11 +7724,6 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>VARA</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -7764,14 +7764,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42237-2025</t>
+          <t>A 42919-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45904.56365740741</v>
+        <v>45908.87262731481</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7821,14 +7821,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 40331-2022</t>
+          <t>A 57255-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44823.35134259259</v>
+        <v>44895.78674768518</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7878,14 +7878,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 28781-2025</t>
+          <t>A 31260-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45820.45300925926</v>
+        <v>44771.57344907407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7897,13 +7897,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7940,14 +7935,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 42920-2025</t>
+          <t>A 43216-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45908.87545138889</v>
+        <v>45910.46533564815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7960,7 +7955,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -7997,14 +7992,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 41690-2023</t>
+          <t>A 14116-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45176.36280092593</v>
+        <v>45740</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8017,7 +8012,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8054,14 +8049,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 42919-2025</t>
+          <t>A 59527-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45908.87262731481</v>
+        <v>45638.59061342593</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8074,7 +8069,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8111,14 +8106,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 29303-2025</t>
+          <t>A 12009-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45824.45894675926</v>
+        <v>45728</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8131,7 +8126,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8168,14 +8163,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29200-2025</t>
+          <t>A 44240-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45823.35009259259</v>
+        <v>45915.67596064815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8188,7 +8183,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8225,14 +8220,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 4434-2024</t>
+          <t>A 35056-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45327.47383101852</v>
+        <v>45142</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8245,7 +8240,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8282,14 +8277,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 43216-2025</t>
+          <t>A 44947-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45910.46533564815</v>
+        <v>45575.44268518518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8301,8 +8296,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8339,14 +8339,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 53719-2023</t>
+          <t>A 28781-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45230.72717592592</v>
+        <v>45820.45300925926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8358,8 +8358,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8396,14 +8401,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 29814-2025</t>
+          <t>A 40331-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45825.78996527778</v>
+        <v>44823.35134259259</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8416,7 +8421,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8453,14 +8458,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 44240-2025</t>
+          <t>A 41690-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45915.67596064815</v>
+        <v>45176.36280092593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8473,7 +8478,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8510,14 +8515,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 31163-2025</t>
+          <t>A 29303-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45832.65693287037</v>
+        <v>45824.45894675926</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8530,7 +8535,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8567,14 +8572,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 57253-2022</t>
+          <t>A 29200-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44895.77885416667</v>
+        <v>45823.35009259259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8587,7 +8592,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8624,14 +8629,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 4622-2025</t>
+          <t>A 4434-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45687.61902777778</v>
+        <v>45327.47383101852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8644,7 +8649,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>7.8</v>
+        <v>3.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8681,14 +8686,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 31629-2025</t>
+          <t>A 29814-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45834.3266087963</v>
+        <v>45825.78996527778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8701,7 +8706,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8738,14 +8743,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 31606-2025</t>
+          <t>A 53719-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45833.75311342593</v>
+        <v>45230.72717592592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8758,7 +8763,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8802,7 +8807,7 @@
         <v>45924.36851851852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8852,14 +8857,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 50702-2022</t>
+          <t>A 31163-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44867.32679398148</v>
+        <v>45832.65693287037</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8872,7 +8877,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8909,14 +8914,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 22532-2025</t>
+          <t>A 57253-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45786</v>
+        <v>44895.77885416667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8929,7 +8934,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8966,14 +8971,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 17536-2025</t>
+          <t>A 4622-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45757</v>
+        <v>45687.61902777778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8986,7 +8991,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>7.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9023,14 +9028,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 17543-2025</t>
+          <t>A 31629-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45757.60640046297</v>
+        <v>45834.3266087963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9043,7 +9048,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9080,14 +9085,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 33672-2025</t>
+          <t>A 31606-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45841</v>
+        <v>45833.75311342593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9100,7 +9105,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9137,14 +9142,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 45303-2024</t>
+          <t>A 48074-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45576.4172337963</v>
+        <v>45932</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9157,7 +9162,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>8.300000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9194,14 +9199,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 33664-2025</t>
+          <t>A 47819-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45841.66825231481</v>
+        <v>45932.33591435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9214,7 +9219,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9251,14 +9256,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 33910-2025</t>
+          <t>A 48066-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45842.60122685185</v>
+        <v>45932</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9271,7 +9276,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9308,14 +9313,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 25764-2023</t>
+          <t>A 50702-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45090.45520833333</v>
+        <v>44867.32679398148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9328,7 +9333,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9365,14 +9370,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 61738-2023</t>
+          <t>A 17536-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45265.69861111111</v>
+        <v>45757</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9385,7 +9390,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9422,14 +9427,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48074-2025</t>
+          <t>A 17543-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45932</v>
+        <v>45757.60640046297</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9442,7 +9447,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9479,14 +9484,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 47819-2025</t>
+          <t>A 45303-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45932.33591435185</v>
+        <v>45576.4172337963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9499,7 +9504,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9536,14 +9541,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 48066-2025</t>
+          <t>A 22532-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45932</v>
+        <v>45786</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9556,7 +9561,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9593,14 +9598,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 1197-2025</t>
+          <t>A 25764-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45667.38278935185</v>
+        <v>45090.45520833333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9613,7 +9618,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9650,14 +9655,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 9411-2024</t>
+          <t>A 33672-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45359.44168981481</v>
+        <v>45841</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9670,7 +9675,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9707,14 +9712,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 60483-2022</t>
+          <t>A 61738-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44911.4247800926</v>
+        <v>45265.69861111111</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9727,7 +9732,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9764,14 +9769,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 6974-2025</t>
+          <t>A 33664-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45701.54447916667</v>
+        <v>45841.66825231481</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9784,7 +9789,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9821,14 +9826,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 50123-2025</t>
+          <t>A 33910-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45943.55126157407</v>
+        <v>45842.60122685185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9840,13 +9845,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9883,14 +9883,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 64317-2023</t>
+          <t>A 50123-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45279</v>
+        <v>45943.55126157407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9902,8 +9902,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9940,14 +9945,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 64330-2023</t>
+          <t>A 49863-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45279</v>
+        <v>45940.51858796296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9960,7 +9965,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -9997,14 +10002,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 49863-2025</t>
+          <t>A 50604-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45940.51858796296</v>
+        <v>45944</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10054,14 +10059,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 7655-2024</t>
+          <t>A 9411-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45348.69953703704</v>
+        <v>45359.44168981481</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10074,7 +10079,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>8.5</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10111,14 +10116,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 36630-2025</t>
+          <t>A 51212-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45870</v>
+        <v>45947.64262731482</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10131,7 +10136,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10168,14 +10173,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 36632-2025</t>
+          <t>A 51218-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45870</v>
+        <v>45947.64576388889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10188,7 +10193,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10225,14 +10230,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 49737-2024</t>
+          <t>A 51206-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45596.86387731481</v>
+        <v>45947.6365625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10245,7 +10250,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10282,14 +10287,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 50604-2025</t>
+          <t>A 1197-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45944</v>
+        <v>45667.38278935185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10302,7 +10307,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10339,14 +10344,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 51212-2025</t>
+          <t>A 60483-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45947.64262731482</v>
+        <v>44911.4247800926</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10359,7 +10364,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10396,14 +10401,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 51218-2025</t>
+          <t>A 64317-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45947.64576388889</v>
+        <v>45279</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10416,7 +10421,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10453,14 +10458,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51206-2025</t>
+          <t>A 64330-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45947.6365625</v>
+        <v>45279</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10473,7 +10478,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10510,14 +10515,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 37398-2025</t>
+          <t>A 52131-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45877</v>
+        <v>45952.75775462963</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10530,7 +10535,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10567,14 +10572,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 19259-2025</t>
+          <t>A 7655-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45769.50775462963</v>
+        <v>45348.69953703704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10587,7 +10592,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.9</v>
+        <v>8.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10624,14 +10629,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 33099-2025</t>
+          <t>A 6974-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45840</v>
+        <v>45701.54447916667</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10644,7 +10649,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10681,14 +10686,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 1141-2023</t>
+          <t>A 49737-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44935</v>
+        <v>45596.86387731481</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10701,7 +10706,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10738,14 +10743,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 961-2023</t>
+          <t>A 19259-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44934</v>
+        <v>45769.50775462963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10758,7 +10763,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10795,14 +10800,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 52131-2025</t>
+          <t>A 36630-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45952.75775462963</v>
+        <v>45870</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10815,7 +10820,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10852,14 +10857,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 62775-2023</t>
+          <t>A 36632-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45271</v>
+        <v>45870</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10872,7 +10877,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10909,14 +10914,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 11270-2025</t>
+          <t>A 1141-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45726.40613425926</v>
+        <v>44935</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10929,7 +10934,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10966,14 +10971,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 4701-2026</t>
+          <t>A 961-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46048.44986111111</v>
+        <v>44934</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10985,13 +10990,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11028,14 +11028,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 2680-2025</t>
+          <t>A 53606-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45677.34737268519</v>
+        <v>45960.46693287037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11085,14 +11085,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 53606-2025</t>
+          <t>A 53604-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45960.46693287037</v>
+        <v>45960.46254629629</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>19.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11142,14 +11142,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53604-2025</t>
+          <t>A 53802-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45960.46254629629</v>
+        <v>45960.79004629629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>19.8</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11199,14 +11199,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 9404-2022</t>
+          <t>A 11270-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44616</v>
+        <v>45726.40613425926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11256,14 +11256,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 53802-2025</t>
+          <t>A 2680-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45960.79004629629</v>
+        <v>45677.34737268519</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11313,14 +11313,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 59314-2024</t>
+          <t>A 37398-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45637.68851851852</v>
+        <v>45877</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11370,14 +11370,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 27845-2023</t>
+          <t>A 54997-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45098.55438657408</v>
+        <v>45967.5977199074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11427,14 +11427,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 962-2023</t>
+          <t>A 9404-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44934</v>
+        <v>44616</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11484,14 +11484,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 5847-2024</t>
+          <t>A 59314-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45335.61695601852</v>
+        <v>45637.68851851852</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11541,14 +11541,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 54997-2025</t>
+          <t>A 55561-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45967.5977199074</v>
+        <v>45971.65128472223</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11598,14 +11598,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 46137-2023</t>
+          <t>A 27845-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45196.56315972222</v>
+        <v>45098.55438657408</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11655,14 +11655,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 49391-2024</t>
+          <t>A 962-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45595.6597337963</v>
+        <v>44934</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11712,14 +11712,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 11589-2022</t>
+          <t>A 5847-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44631</v>
+        <v>45335.61695601852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11769,14 +11769,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 63842-2025</t>
+          <t>A 62775-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46020.43096064815</v>
+        <v>45271</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11826,14 +11826,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 55561-2025</t>
+          <t>A 46137-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45971.65128472223</v>
+        <v>45196.56315972222</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11883,14 +11883,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 33693-2021</t>
+          <t>A 49391-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44378.4540162037</v>
+        <v>45595.6597337963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11940,14 +11940,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 35059-2023</t>
+          <t>A 11589-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45142</v>
+        <v>44631</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11960,7 +11960,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -11997,14 +11997,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 55967-2025</t>
+          <t>A 60029-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45973.48353009259</v>
+        <v>45993.61226851852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12016,13 +12016,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>0.9</v>
+        <v>19.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12059,14 +12054,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 56326-2025</t>
+          <t>A 33693-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45974.6370949074</v>
+        <v>44378.4540162037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12079,7 +12074,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12116,14 +12111,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 56654-2023</t>
+          <t>A 35059-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45243.80131944444</v>
+        <v>45142</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12136,7 +12131,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12173,14 +12168,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 49736-2024</t>
+          <t>A 56654-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45596.86271990741</v>
+        <v>45243.80131944444</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12193,7 +12188,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12230,14 +12225,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 57260-2025</t>
+          <t>A 49736-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45979.6544212963</v>
+        <v>45596.86271990741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12250,7 +12245,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12294,7 +12289,7 @@
         <v>45478.78487268519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12351,7 +12346,7 @@
         <v>45265.70538194444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12401,14 +12396,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 9013-2023</t>
+          <t>A 60216-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44979.60032407408</v>
+        <v>45994.54114583333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12421,7 +12416,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12458,14 +12453,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 9410-2024</t>
+          <t>A 9013-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45359.4405787037</v>
+        <v>44979.60032407408</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12478,7 +12473,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12515,14 +12510,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 9216-2024</t>
+          <t>A 60575-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45358.50931712963</v>
+        <v>45996.3097337963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12534,8 +12529,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12572,14 +12572,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 8678-2026</t>
+          <t>A 36627-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46066.41101851852</v>
+        <v>45870</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12591,13 +12591,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>7.1</v>
+        <v>3.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12634,14 +12629,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 42038-2024</t>
+          <t>A 2867-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45561.79969907407</v>
+        <v>46038.50097222222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12654,7 +12649,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12691,14 +12686,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 57759-2023</t>
+          <t>A 9410-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45246.8422337963</v>
+        <v>45359.4405787037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12711,7 +12706,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12748,14 +12743,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 8949-2026</t>
+          <t>A 9216-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46069.38609953703</v>
+        <v>45358.50931712963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12768,7 +12763,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12805,14 +12800,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 50709-2021</t>
+          <t>A 42038-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44460.36636574074</v>
+        <v>45561.79969907407</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12825,7 +12820,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12862,14 +12857,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 50712-2021</t>
+          <t>A 57759-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44460.36731481482</v>
+        <v>45246.8422337963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12882,7 +12877,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12919,14 +12914,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 60029-2025</t>
+          <t>A 50709-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45993.61226851852</v>
+        <v>44460.36636574074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12939,7 +12934,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>19.6</v>
+        <v>1.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12976,14 +12971,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 17542-2025</t>
+          <t>A 50712-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45757.60574074074</v>
+        <v>44460.36731481482</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12996,7 +12991,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13033,14 +13028,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 50812-2023</t>
+          <t>A 4278-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45217.75505787037</v>
+        <v>46045.38021990741</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13053,7 +13048,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13090,14 +13085,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 73305-2021</t>
+          <t>A 17542-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44551.3184837963</v>
+        <v>45757.60574074074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13110,7 +13105,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13147,14 +13142,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 18224-2022</t>
+          <t>A 50812-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44685</v>
+        <v>45217.75505787037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13167,7 +13162,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13204,14 +13199,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 18244-2022</t>
+          <t>A 73305-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44685</v>
+        <v>44551.3184837963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13224,7 +13219,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13261,14 +13256,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 60216-2025</t>
+          <t>A 18224-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45994.54114583333</v>
+        <v>44685</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13281,7 +13276,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13318,14 +13313,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 60575-2025</t>
+          <t>A 18244-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45996.3097337963</v>
+        <v>44685</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13337,13 +13332,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>5.8</v>
+        <v>1.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13380,14 +13370,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 36627-2025</t>
+          <t>A 12024-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45870</v>
+        <v>45377</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13400,7 +13390,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13437,14 +13427,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 2867-2026</t>
+          <t>A 51467-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>46038.50097222222</v>
+        <v>45221.75239583333</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13457,7 +13447,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13494,14 +13484,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 12024-2024</t>
+          <t>A 55667-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45377</v>
+        <v>45622.64577546297</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13514,7 +13504,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13551,14 +13541,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 51467-2023</t>
+          <t>A 9579-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45221.75239583333</v>
+        <v>44251</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13571,7 +13561,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13608,14 +13598,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 55667-2024</t>
+          <t>A 14690-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45622.64577546297</v>
+        <v>45397</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13628,7 +13618,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13665,14 +13655,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 9579-2021</t>
+          <t>A 57256-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44251</v>
+        <v>44895.78923611111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13685,7 +13675,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13722,14 +13712,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 14690-2024</t>
+          <t>A 57257-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45397</v>
+        <v>44895.79283564815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13742,7 +13732,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13779,14 +13769,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 57256-2022</t>
+          <t>A 33099-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44895.78923611111</v>
+        <v>45840</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13799,7 +13789,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13836,14 +13826,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 57257-2022</t>
+          <t>A 4701-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44895.79283564815</v>
+        <v>46048.44986111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13855,8 +13845,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13900,7 +13895,7 @@
         <v>45364.8280787037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13957,7 +13952,7 @@
         <v>44565</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14014,7 +14009,7 @@
         <v>45212.33935185185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14064,14 +14059,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 12026-2024</t>
+          <t>A 63842-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45377.37309027778</v>
+        <v>46020.43096064815</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14084,7 +14079,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14121,14 +14116,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 57303-2024</t>
+          <t>A 12026-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45629</v>
+        <v>45377.37309027778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14141,7 +14136,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14178,14 +14173,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 6454-2024</t>
+          <t>A 57303-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45338.68309027778</v>
+        <v>45629</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14197,13 +14192,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14240,14 +14230,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 49820-2022</t>
+          <t>A 6454-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44862.70869212963</v>
+        <v>45338.68309027778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14259,8 +14249,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14297,14 +14292,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 33300-2023</t>
+          <t>A 49820-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45116</v>
+        <v>44862.70869212963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14317,7 +14312,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14354,14 +14349,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 33301-2023</t>
+          <t>A 33300-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
         <v>45116</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14374,7 +14369,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14411,14 +14406,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 35042-2023</t>
+          <t>A 33301-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45142</v>
+        <v>45116</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14431,7 +14426,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14468,14 +14463,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 10728-2023</t>
+          <t>A 8678-2026</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44988.67260416667</v>
+        <v>46066.41101851852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14487,8 +14482,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14525,14 +14525,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 63426-2023</t>
+          <t>A 8949-2026</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45274</v>
+        <v>46069.38609953703</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14582,14 +14582,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 57420-2024</t>
+          <t>A 35042-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45629</v>
+        <v>45142</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>6.6</v>
+        <v>2.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14639,14 +14639,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 43754-2022</t>
+          <t>A 10728-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44837</v>
+        <v>44988.67260416667</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14696,14 +14696,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 18843-2021</t>
+          <t>A 63426-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44307</v>
+        <v>45274</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14753,14 +14753,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 26631-2021</t>
+          <t>A 57420-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44348.67560185185</v>
+        <v>45629</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14773,7 +14773,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14810,14 +14810,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 62313-2023</t>
+          <t>A 43754-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45267</v>
+        <v>44837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14830,7 +14830,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14867,14 +14867,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 50713-2021</t>
+          <t>A 18843-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44460.36797453704</v>
+        <v>44307</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14924,14 +14924,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 21291-2024</t>
+          <t>A 26631-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45440.66341435185</v>
+        <v>44348.67560185185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14981,14 +14981,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 2781-2025</t>
+          <t>A 62313-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45677.54344907407</v>
+        <v>45267</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15038,14 +15038,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 4812-2025</t>
+          <t>A 50713-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45688.61510416667</v>
+        <v>44460.36797453704</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15057,13 +15057,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15100,14 +15095,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 37726-2024</t>
+          <t>A 21291-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45541.65391203704</v>
+        <v>45440.66341435185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15120,7 +15115,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15157,14 +15152,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 2452-2022</t>
+          <t>A 2781-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44579</v>
+        <v>45677.54344907407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15177,7 +15172,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15214,14 +15209,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 50673-2024</t>
+          <t>A 4812-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45601.84043981481</v>
+        <v>45688.61510416667</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15233,8 +15228,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15271,14 +15271,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 47332-2023</t>
+          <t>A 37726-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45202.53005787037</v>
+        <v>45541.65391203704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15328,14 +15328,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 61879-2023</t>
+          <t>A 2452-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45266.42527777778</v>
+        <v>44579</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15385,14 +15385,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 13481-2023</t>
+          <t>A 50673-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45005</v>
+        <v>45601.84043981481</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15442,14 +15442,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 6453-2024</t>
+          <t>A 47332-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45338.67915509259</v>
+        <v>45202.53005787037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15461,13 +15461,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15504,14 +15499,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 20196-2024</t>
+          <t>A 61879-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45434.63688657407</v>
+        <v>45266.42527777778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15524,7 +15519,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15561,14 +15556,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 59786-2022</t>
+          <t>A 13481-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44900</v>
+        <v>45005</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15581,7 +15576,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15618,14 +15613,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 35035-2023</t>
+          <t>A 6453-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45142</v>
+        <v>45338.67915509259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15637,8 +15632,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15675,14 +15675,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 49041-2022</t>
+          <t>A 20196-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44858</v>
+        <v>45434.63688657407</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15732,14 +15732,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 37917-2023</t>
+          <t>A 59786-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45160.48486111111</v>
+        <v>44900</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15789,14 +15789,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 20433-2024</t>
+          <t>A 35035-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45435.61200231482</v>
+        <v>45142</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15846,14 +15846,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 20439-2024</t>
+          <t>A 49041-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45435</v>
+        <v>44858</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.2</v>
+        <v>5.3</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15903,14 +15903,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 20461-2024</t>
+          <t>A 37917-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45435.65636574074</v>
+        <v>45160.48486111111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.9</v>
+        <v>5.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -15960,14 +15960,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 12668-2021</t>
+          <t>A 20433-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44270</v>
+        <v>45435.61200231482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16017,14 +16017,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 42486-2021</t>
+          <t>A 20439-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44427</v>
+        <v>45435</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16074,14 +16074,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 3522-2024</t>
+          <t>A 20461-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45320.53537037037</v>
+        <v>45435.65636574074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16131,14 +16131,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 50909-2023</t>
+          <t>A 12668-2021</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45218.42068287037</v>
+        <v>44270</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16188,14 +16188,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 7238-2024</t>
+          <t>A 42486-2021</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45344.66310185185</v>
+        <v>44427</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16245,14 +16245,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 52879-2024</t>
+          <t>A 3522-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45610.63946759259</v>
+        <v>45320.53537037037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16302,14 +16302,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 6517-2022</t>
+          <t>A 50909-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44601.46166666667</v>
+        <v>45218.42068287037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16359,14 +16359,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 59272-2023</t>
+          <t>A 7238-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45253.55487268518</v>
+        <v>45344.66310185185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16416,14 +16416,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 43620-2024</t>
+          <t>A 52879-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45569.481875</v>
+        <v>45610.63946759259</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16433,11 +16433,6 @@
       <c r="E277" t="inlineStr">
         <is>
           <t>VARA</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G277" t="n">
@@ -16478,14 +16473,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 35608-2023</t>
+          <t>A 6517-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45146</v>
+        <v>44601.46166666667</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16498,7 +16493,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16535,14 +16530,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 12007-2025</t>
+          <t>A 59272-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45728</v>
+        <v>45253.55487268518</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16555,7 +16550,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16592,14 +16587,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 53374-2023</t>
+          <t>A 43620-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45229</v>
+        <v>45569.481875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16611,8 +16606,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G280" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16649,14 +16649,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 12938-2022</t>
+          <t>A 35608-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44642</v>
+        <v>45146</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16706,14 +16706,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 9108-2022</t>
+          <t>A 12007-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44615</v>
+        <v>45728</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16763,14 +16763,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 23065-2024</t>
+          <t>A 53374-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45450.44878472222</v>
+        <v>45229</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16820,14 +16820,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 59266-2023</t>
+          <t>A 12938-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45253.55190972222</v>
+        <v>44642</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16877,14 +16877,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 34708-2023</t>
+          <t>A 9108-2022</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45140.9924537037</v>
+        <v>44615</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16934,14 +16934,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 1980-2024</t>
+          <t>A 23065-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45308</v>
+        <v>45450.44878472222</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -16991,14 +16991,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 56456-2022</t>
+          <t>A 59266-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44893.31987268518</v>
+        <v>45253.55190972222</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17048,14 +17048,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 12333-2022</t>
+          <t>A 34708-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44637.62513888889</v>
+        <v>45140.9924537037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17105,14 +17105,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 1980-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>45308</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17162,14 +17162,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 33299-2023</t>
+          <t>A 56456-2022</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45116</v>
+        <v>44893.31987268518</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17219,14 +17219,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 38160-2022</t>
+          <t>A 12333-2022</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44812</v>
+        <v>44637.62513888889</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>7.2</v>
+        <v>3.4</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17276,14 +17276,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 38920-2022</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44816</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17333,14 +17333,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 55296-2023</t>
+          <t>A 33299-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45237.81827546296</v>
+        <v>45116</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17390,14 +17390,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 52778-2022</t>
+          <t>A 38160-2022</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44875</v>
+        <v>44812</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17447,14 +17447,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 4036-2024</t>
+          <t>A 38920-2022</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45323.41983796296</v>
+        <v>44816</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17504,14 +17504,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 59946-2022</t>
+          <t>A 55296-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44909.38717592593</v>
+        <v>45237.81827546296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17561,14 +17561,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 56164-2024</t>
+          <t>A 52778-2022</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45624.54939814815</v>
+        <v>44875</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>15.7</v>
+        <v>8.4</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17618,14 +17618,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 6977-2025</t>
+          <t>A 4036-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45701.54565972222</v>
+        <v>45323.41983796296</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17675,14 +17675,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 59782-2022</t>
+          <t>A 59946-2022</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44900</v>
+        <v>44909.38717592593</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17732,14 +17732,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 52918-2023</t>
+          <t>A 56164-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45226.52905092593</v>
+        <v>45624.54939814815</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.5</v>
+        <v>15.7</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17789,14 +17789,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 13194-2022</t>
+          <t>A 6977-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44644</v>
+        <v>45701.54565972222</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17846,14 +17846,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 61737-2023</t>
+          <t>A 59782-2022</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45265.69740740741</v>
+        <v>44900</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17903,14 +17903,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 18842-2021</t>
+          <t>A 52918-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44307</v>
+        <v>45226.52905092593</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -17960,14 +17960,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 42427-2023</t>
+          <t>A 13194-2022</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45180</v>
+        <v>44644</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18017,14 +18017,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 61269-2024</t>
+          <t>A 61737-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45645.74246527778</v>
+        <v>45265.69740740741</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18074,14 +18074,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 32771-2021</t>
+          <t>A 18842-2021</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44375</v>
+        <v>44307</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18094,7 +18094,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18131,14 +18131,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 52237-2021</t>
+          <t>A 42427-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>44463.60166666667</v>
+        <v>45180</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18188,14 +18188,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 9218-2024</t>
+          <t>A 61269-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45358.51653935185</v>
+        <v>45645.74246527778</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18245,14 +18245,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 60819-2023</t>
+          <t>A 32771-2021</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45260.73208333334</v>
+        <v>44375</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18302,14 +18302,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 9380-2025</t>
+          <t>A 52237-2021</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45715.34340277778</v>
+        <v>44463.60166666667</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18321,13 +18321,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G310" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18364,14 +18359,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 18691-2023</t>
+          <t>A 9218-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45043.61253472222</v>
+        <v>45358.51653935185</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18384,7 +18379,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18421,14 +18416,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 12675-2021</t>
+          <t>A 60819-2023</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44270.53107638889</v>
+        <v>45260.73208333334</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18441,7 +18436,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18478,14 +18473,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 6336-2022</t>
+          <t>A 9380-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44600.57196759259</v>
+        <v>45715.34340277778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18497,8 +18492,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G313" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18535,14 +18535,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 10165-2025</t>
+          <t>A 18691-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45719.65021990741</v>
+        <v>45043.61253472222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18554,13 +18554,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18597,14 +18592,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 55356-2024</t>
+          <t>A 12675-2021</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45621.80996527777</v>
+        <v>44270.53107638889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18617,7 +18612,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18654,14 +18649,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 43624-2024</t>
+          <t>A 6336-2022</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45569.4868287037</v>
+        <v>44600.57196759259</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18673,13 +18668,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G316" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18716,14 +18706,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 17911-2025</t>
+          <t>A 10165-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45758.74115740741</v>
+        <v>45719.65021990741</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18735,8 +18725,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G317" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18773,14 +18768,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 13511-2024</t>
+          <t>A 55356-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45387</v>
+        <v>45621.80996527777</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18793,7 +18788,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18830,14 +18825,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 20240-2023</t>
+          <t>A 43624-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45055.68784722222</v>
+        <v>45569.4868287037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18849,8 +18844,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G319" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18887,14 +18887,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 12016-2025</t>
+          <t>A 17911-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45728</v>
+        <v>45758.74115740741</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18944,14 +18944,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 20536-2022</t>
+          <t>A 13511-2024</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>44700</v>
+        <v>45387</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19001,14 +19001,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 57465-2024</t>
+          <t>A 20240-2023</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45630.32784722222</v>
+        <v>45055.68784722222</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19058,14 +19058,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 579-2024</t>
+          <t>A 12016-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45299</v>
+        <v>45728</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19115,14 +19115,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 20911-2025</t>
+          <t>A 20536-2022</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45777.40738425926</v>
+        <v>44700</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19172,14 +19172,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 20915-2025</t>
+          <t>A 57465-2024</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45777.40862268519</v>
+        <v>45630.32784722222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19229,14 +19229,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 725-2025</t>
+          <t>A 579-2024</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45665.391875</v>
+        <v>45299</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19286,14 +19286,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 13513-2024</t>
+          <t>A 20911-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45387</v>
+        <v>45777.40738425926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19343,14 +19343,14 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 10303-2024</t>
+          <t>A 20915-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45365</v>
+        <v>45777.40862268519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 6040-2025</t>
+          <t>A 60881-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45695.66266203704</v>
+        <v>45999</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,13 +588,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -622,208 +622,208 @@
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Rostfläck</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 60881-2025 artfynd.xlsx", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 60881-2025 karta.png", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 60881-2025 FSC-klagomål.docx", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 60881-2025 FSC-klagomål mail.docx", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 60881-2025 tillsynsbegäran.docx", "A 60881-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 60881-2025 tillsynsbegäran mail.docx", "A 60881-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 51277-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45950.23784722222</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 51277-2025 artfynd.xlsx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 51277-2025 karta.png", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 51277-2025 FSC-klagomål.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 51277-2025 FSC-klagomål mail.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 51277-2025 tillsynsbegäran.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 51277-2025 tillsynsbegäran mail.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/fåglar/A 51277-2025 prioriterade fågelarter.docx", "A 51277-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 6040-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45695.66266203704</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 6040-2025 artfynd.xlsx", "A 6040-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 6040-2025 karta.png", "A 6040-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 6040-2025 FSC-klagomål.docx", "A 6040-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 6040-2025 FSC-klagomål mail.docx", "A 6040-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 6040-2025 tillsynsbegäran.docx", "A 6040-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 6040-2025 tillsynsbegäran mail.docx", "A 6040-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 60881-2025</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45999</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Rostfläck</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 60881-2025 artfynd.xlsx", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 60881-2025 karta.png", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 60881-2025 FSC-klagomål.docx", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 60881-2025 FSC-klagomål mail.docx", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 60881-2025 tillsynsbegäran.docx", "A 60881-2025")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 60881-2025 tillsynsbegäran mail.docx", "A 60881-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 51277-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45950.23784722222</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 51277-2025 artfynd.xlsx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 51277-2025 karta.png", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 51277-2025 FSC-klagomål.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 51277-2025 FSC-klagomål mail.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 51277-2025 tillsynsbegäran.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 51277-2025 tillsynsbegäran mail.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/fåglar/A 51277-2025 prioriterade fågelarter.docx", "A 51277-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44264</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44600.48700231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>44782.61696759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44420.38428240741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44356.42327546296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44305.59869212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>44796.56913194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>44620</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44432</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44314.54328703704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1516,14 +1516,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 51421-2021</t>
+          <t>A 47901-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44461</v>
+        <v>44448.8524537037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1573,14 +1573,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 47901-2021</t>
+          <t>A 51421-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44448.8524537037</v>
+        <v>44461</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>44503.61056712963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44627.56489583333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44378</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44831.4771412037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1858,14 +1858,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 46713-2022</t>
+          <t>A 50987-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44851.3972337963</v>
+        <v>44867.89589120371</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>15.7</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1915,14 +1915,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 50987-2022</t>
+          <t>A 46713-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44867.89589120371</v>
+        <v>44851.3972337963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>15.7</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>44851.74130787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44378.41319444445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44504</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44267</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44746.7121412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44851.74324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44851.74546296296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>44376.6027662037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44886.56302083333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44704.53608796297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44299</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44460.36069444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44270.36637731481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44867</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44431.35026620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44441</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>44343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>44594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44785.60559027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>44704.53440972222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3744,14 +3744,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9212-2022</t>
+          <t>A 12173-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44616.30952546297</v>
+        <v>44636.73104166667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3801,14 +3801,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 4624-2025</t>
+          <t>A 12175-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45687.62030092593</v>
+        <v>44636.73430555555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>11.7</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3858,14 +3858,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 9215-2024</t>
+          <t>A 9212-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45358</v>
+        <v>44616.30952546297</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>12.2</v>
+        <v>0.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3915,14 +3915,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 20443-2024</t>
+          <t>A 10449-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45435.62212962963</v>
+        <v>45720</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3972,14 +3972,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 12173-2022</t>
+          <t>A 5847-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44636.73104166667</v>
+        <v>45335.61695601852</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4029,14 +4029,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 12175-2022</t>
+          <t>A 59272-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44636.73430555555</v>
+        <v>45253.55487268518</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4086,14 +4086,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56856-2024</t>
+          <t>A 62313-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45628.54497685185</v>
+        <v>45267</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4143,14 +4143,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40224-2024</t>
+          <t>A 47819-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45554.59815972222</v>
+        <v>45932.33591435185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4162,13 +4162,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4205,14 +4200,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 31967-2024</t>
+          <t>A 4036-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45510</v>
+        <v>45323.41983796296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4225,7 +4220,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>9.1</v>
+        <v>2.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4262,14 +4257,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 21303-2024</t>
+          <t>A 9411-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45440.6750462963</v>
+        <v>45359.44168981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4282,7 +4277,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4319,14 +4314,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 60543-2024</t>
+          <t>A 57465-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45643.79293981481</v>
+        <v>45630.32784722222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4339,7 +4334,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4376,14 +4371,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9000-2023</t>
+          <t>A 6454-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44979.5653125</v>
+        <v>45338.68309027778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4395,8 +4390,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4433,14 +4433,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 9012-2023</t>
+          <t>A 50702-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44979.59778935185</v>
+        <v>44867.32679398148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4490,14 +4490,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7851-2023</t>
+          <t>A 61740-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44973.52238425926</v>
+        <v>45265.70538194444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4547,14 +4547,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 10449-2025</t>
+          <t>A 13235-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45720</v>
+        <v>45386</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4604,14 +4604,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 58514-2024</t>
+          <t>A 59259-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45635.42575231481</v>
+        <v>45253.54922453704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4661,14 +4661,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13235-2024</t>
+          <t>A 9410-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45386</v>
+        <v>45359.4405787037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4718,14 +4718,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 61687-2023</t>
+          <t>A 50709-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45264</v>
+        <v>44460.36636574074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4775,14 +4775,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 725-2025</t>
+          <t>A 48066-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45665.391875</v>
+        <v>45932</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4832,14 +4832,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 59259-2023</t>
+          <t>A 20911-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45253.54922453704</v>
+        <v>45777.40738425926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4889,14 +4889,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 59335-2023</t>
+          <t>A 48074-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45253.64171296296</v>
+        <v>45932</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4946,14 +4946,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13513-2024</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45387</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5003,14 +5003,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9058-2025</t>
+          <t>A 20915-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45713.64200231482</v>
+        <v>45777.40862268519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5060,14 +5060,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 10303-2024</t>
+          <t>A 49041-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45365</v>
+        <v>44858</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5117,14 +5117,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 55967-2025</t>
+          <t>A 11983-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45973.48353009259</v>
+        <v>45728</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5136,13 +5136,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5179,14 +5174,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12021-2024</t>
+          <t>A 9058-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45377.3702662037</v>
+        <v>45713.64200231482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5199,7 +5194,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>8</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5236,14 +5231,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 9098-2025</t>
+          <t>A 35588-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45713.68337962963</v>
+        <v>45146</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5256,7 +5251,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5293,14 +5288,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35588-2023</t>
+          <t>A 4289-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45146</v>
+        <v>45685.65704861111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5350,14 +5345,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 14901-2025</t>
+          <t>A 725-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45743.48797453703</v>
+        <v>45665.391875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5369,13 +5364,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5412,14 +5402,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56326-2025</t>
+          <t>A 13513-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45974.6370949074</v>
+        <v>45387</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5422,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5469,14 +5459,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 39371-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>45889.58263888889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5488,8 +5478,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5526,14 +5521,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 9413-2024</t>
+          <t>A 39374-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45359.44399305555</v>
+        <v>45889.58648148148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5545,8 +5540,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5583,14 +5583,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 4289-2025</t>
+          <t>A 57255-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45685.65704861111</v>
+        <v>44895.78674768518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5640,14 +5640,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9450-2024</t>
+          <t>A 4434-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45358</v>
+        <v>45327.47383101852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5697,14 +5697,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 23669-2025</t>
+          <t>A 10303-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45792.93181712963</v>
+        <v>45365</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5754,14 +5754,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 23668-2025</t>
+          <t>A 41281-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45792.90586805555</v>
+        <v>45898.63497685185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5811,14 +5811,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 23865-2025</t>
+          <t>A 14690-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45793.67059027778</v>
+        <v>45397</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5868,14 +5868,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43615-2024</t>
+          <t>A 41278-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45569.47056712963</v>
+        <v>45898.62895833333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5887,13 +5887,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5930,14 +5925,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11983-2025</t>
+          <t>A 26631-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45728</v>
+        <v>44348.67560185185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5950,7 +5945,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5987,14 +5982,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 39371-2025</t>
+          <t>A 41286-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45889.58263888889</v>
+        <v>45898.63819444444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6006,13 +6001,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6049,14 +6039,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 39374-2025</t>
+          <t>A 33299-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45889.58648148148</v>
+        <v>45116</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6068,13 +6058,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6111,14 +6096,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 4303-2025</t>
+          <t>A 41331-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45685</v>
+        <v>45899.35118055555</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6131,7 +6116,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6168,14 +6153,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 48908-2024</t>
+          <t>A 9098-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45594.36315972222</v>
+        <v>45713.68337962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6188,7 +6173,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6225,14 +6210,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 24609-2025</t>
+          <t>A 20465-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45798.58065972223</v>
+        <v>45435.66646990741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6245,7 +6230,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6282,14 +6267,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 57260-2025</t>
+          <t>A 14901-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45979.6544212963</v>
+        <v>45743.48797453703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6301,8 +6286,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6339,14 +6329,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 1152-2023</t>
+          <t>A 23668-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44935.64951388889</v>
+        <v>45792.90586805555</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6359,7 +6349,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6396,14 +6386,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 25128-2025</t>
+          <t>A 64317-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45800.37969907407</v>
+        <v>45279</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6416,7 +6406,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6453,14 +6443,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 25359-2025</t>
+          <t>A 64330-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45800.61756944445</v>
+        <v>45279</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6473,7 +6463,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6510,14 +6500,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 41278-2025</t>
+          <t>A 49863-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45898.62895833333</v>
+        <v>45940.51858796296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6530,7 +6520,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6567,14 +6557,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 73168-2021</t>
+          <t>A 50123-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44550</v>
+        <v>45943.55126157407</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6586,8 +6576,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6624,14 +6619,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41331-2025</t>
+          <t>A 42237-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45899.35118055555</v>
+        <v>45904.56365740741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6644,7 +6639,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6681,14 +6676,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 41281-2025</t>
+          <t>A 50604-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45898.63497685185</v>
+        <v>45944</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6701,7 +6696,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6738,14 +6733,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 41286-2025</t>
+          <t>A 48908-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45898.63819444444</v>
+        <v>45594.36315972222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6758,7 +6753,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6795,14 +6790,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 54201-2023</t>
+          <t>A 23669-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45232.55328703704</v>
+        <v>45792.93181712963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6815,7 +6810,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6852,14 +6847,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 57266-2024</t>
+          <t>A 23865-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45629</v>
+        <v>45793.67059027778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6872,7 +6867,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6909,14 +6904,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 14593-2022</t>
+          <t>A 4303-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44655.57246527778</v>
+        <v>45685</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6929,7 +6924,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6966,14 +6961,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 22901-2024</t>
+          <t>A 23065-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45448.70333333333</v>
+        <v>45450.44878472222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6986,7 +6981,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7023,14 +7018,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 20465-2024</t>
+          <t>A 51212-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45435.66646990741</v>
+        <v>45947.64262731482</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7043,7 +7038,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7080,14 +7075,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27856-2024</t>
+          <t>A 51218-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45475</v>
+        <v>45947.64576388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7100,7 +7095,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.5</v>
+        <v>0.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7137,14 +7132,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 51398-2024</t>
+          <t>A 51206-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45604.4233912037</v>
+        <v>45947.6365625</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7157,7 +7152,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7194,14 +7189,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 27819-2024</t>
+          <t>A 961-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45475</v>
+        <v>44934</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7214,7 +7209,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7251,14 +7246,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 57313-2024</t>
+          <t>A 24609-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45629</v>
+        <v>45798.58065972223</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7271,7 +7266,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7315,7 +7310,7 @@
         <v>45905</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7365,14 +7360,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15737-2025</t>
+          <t>A 52131-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45748.54488425926</v>
+        <v>45952.75775462963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7385,7 +7380,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7422,14 +7417,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 54293-2023</t>
+          <t>A 42919-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45232.72627314815</v>
+        <v>45908.87262731481</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7442,7 +7437,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7479,14 +7474,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 42237-2025</t>
+          <t>A 43216-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45904.56365740741</v>
+        <v>45910.46533564815</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7499,7 +7494,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7536,14 +7531,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 57295-2024</t>
+          <t>A 9000-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45629</v>
+        <v>44979.5653125</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7556,7 +7551,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7593,14 +7588,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 42920-2025</t>
+          <t>A 25359-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45908.87545138889</v>
+        <v>45800.61756944445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7613,7 +7608,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7650,14 +7645,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 26786-2025</t>
+          <t>A 42920-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45810.58515046296</v>
+        <v>45908.87545138889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7670,7 +7665,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>8.199999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7707,14 +7702,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 27151-2025</t>
+          <t>A 53604-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45812.32086805555</v>
+        <v>45960.46254629629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7727,7 +7722,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.3</v>
+        <v>19.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7764,14 +7759,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42919-2025</t>
+          <t>A 53606-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45908.87262731481</v>
+        <v>45960.46693287037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7784,7 +7779,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7821,14 +7816,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 57255-2022</t>
+          <t>A 53802-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44895.78674768518</v>
+        <v>45960.79004629629</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7878,14 +7873,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 31260-2022</t>
+          <t>A 25128-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44771.57344907407</v>
+        <v>45800.37969907407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7898,7 +7893,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>6.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7935,14 +7930,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43216-2025</t>
+          <t>A 10728-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45910.46533564815</v>
+        <v>44988.67260416667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7955,7 +7950,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -7992,14 +7987,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 14116-2025</t>
+          <t>A 44240-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45740</v>
+        <v>45915.67596064815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8012,7 +8007,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8049,14 +8044,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 59527-2024</t>
+          <t>A 49820-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45638.59061342593</v>
+        <v>44862.70869212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8069,7 +8064,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8106,14 +8101,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 12009-2025</t>
+          <t>A 54997-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45728</v>
+        <v>45967.5977199074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8126,7 +8121,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8163,14 +8158,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44240-2025</t>
+          <t>A 55561-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45915.67596064815</v>
+        <v>45971.65128472223</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8183,7 +8178,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8220,14 +8215,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 35056-2023</t>
+          <t>A 57313-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45142</v>
+        <v>45629</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8240,7 +8235,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8277,14 +8272,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44947-2024</t>
+          <t>A 57295-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45575.44268518518</v>
+        <v>45629</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8296,13 +8291,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8339,14 +8329,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 28781-2025</t>
+          <t>A 27819-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45820.45300925926</v>
+        <v>45475</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8358,13 +8348,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8401,14 +8386,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 40331-2022</t>
+          <t>A 33693-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44823.35134259259</v>
+        <v>44378.4540162037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8421,7 +8406,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8458,14 +8443,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 41690-2023</t>
+          <t>A 51398-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45176.36280092593</v>
+        <v>45604.4233912037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8478,7 +8463,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8515,14 +8500,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 29303-2025</t>
+          <t>A 26786-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45824.45894675926</v>
+        <v>45810.58515046296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8535,7 +8520,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8572,14 +8557,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 29200-2025</t>
+          <t>A 27856-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45823.35009259259</v>
+        <v>45475</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8592,7 +8577,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8629,14 +8614,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 4434-2024</t>
+          <t>A 27151-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45327.47383101852</v>
+        <v>45812.32086805555</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8649,7 +8634,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8686,14 +8671,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 29814-2025</t>
+          <t>A 45974-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45825.78996527778</v>
+        <v>45924.36851851852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8706,7 +8691,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8743,14 +8728,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 53719-2023</t>
+          <t>A 55967-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45230.72717592592</v>
+        <v>45973.48353009259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8762,8 +8747,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8800,14 +8790,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45974-2025</t>
+          <t>A 9404-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45924.36851851852</v>
+        <v>44616</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8820,7 +8810,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8857,14 +8847,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 31163-2025</t>
+          <t>A 60819-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45832.65693287037</v>
+        <v>45260.73208333334</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8877,7 +8867,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8914,14 +8904,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 57253-2022</t>
+          <t>A 59527-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44895.77885416667</v>
+        <v>45638.59061342593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8934,7 +8924,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8971,14 +8961,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 4622-2025</t>
+          <t>A 12009-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45687.61902777778</v>
+        <v>45728</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8991,7 +8981,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>7.8</v>
+        <v>3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9028,14 +9018,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 31629-2025</t>
+          <t>A 56326-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45834.3266087963</v>
+        <v>45974.6370949074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9048,7 +9038,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9085,14 +9075,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 31606-2025</t>
+          <t>A 28781-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45833.75311342593</v>
+        <v>45820.45300925926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9104,8 +9094,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9142,14 +9137,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 48074-2025</t>
+          <t>A 20240-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45932</v>
+        <v>45055.68784722222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9162,7 +9157,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9199,14 +9194,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 47819-2025</t>
+          <t>A 29303-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45932.33591435185</v>
+        <v>45824.45894675926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9219,7 +9214,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9256,14 +9251,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 48066-2025</t>
+          <t>A 29200-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45932</v>
+        <v>45823.35009259259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9276,7 +9271,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9313,14 +9308,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 50702-2022</t>
+          <t>A 4812-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44867.32679398148</v>
+        <v>45688.61510416667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9332,8 +9327,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9370,14 +9370,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 17536-2025</t>
+          <t>A 9215-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45757</v>
+        <v>45358</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.4</v>
+        <v>12.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9427,14 +9427,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 17543-2025</t>
+          <t>A 29814-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45757.60640046297</v>
+        <v>45825.78996527778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9484,14 +9484,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 45303-2024</t>
+          <t>A 12007-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45576.4172337963</v>
+        <v>45728</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>8.300000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9541,14 +9541,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 22532-2025</t>
+          <t>A 49391-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45786</v>
+        <v>45595.6597337963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9598,14 +9598,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 25764-2023</t>
+          <t>A 31163-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45090.45520833333</v>
+        <v>45832.65693287037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9655,14 +9655,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 33672-2025</t>
+          <t>A 57260-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45841</v>
+        <v>45979.6544212963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.3</v>
+        <v>7.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9712,14 +9712,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 61738-2023</t>
+          <t>A 31606-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45265.69861111111</v>
+        <v>45833.75311342593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9769,14 +9769,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33664-2025</t>
+          <t>A 31629-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45841.66825231481</v>
+        <v>45834.3266087963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9826,14 +9826,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 33910-2025</t>
+          <t>A 50812-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45842.60122685185</v>
+        <v>45217.75505787037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9883,14 +9883,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 50123-2025</t>
+          <t>A 12021-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45943.55126157407</v>
+        <v>45377.3702662037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9902,13 +9902,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>0.6</v>
+        <v>8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9945,14 +9940,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 49863-2025</t>
+          <t>A 10180-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45940.51858796296</v>
+        <v>45364.8280787037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9965,7 +9960,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10002,14 +9997,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50604-2025</t>
+          <t>A 22532-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45944</v>
+        <v>45786</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10022,7 +10017,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10059,14 +10054,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 9411-2024</t>
+          <t>A 43624-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45359.44168981481</v>
+        <v>45569.4868287037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10078,8 +10073,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10116,14 +10116,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 51212-2025</t>
+          <t>A 33672-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45947.64262731482</v>
+        <v>45841</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10173,14 +10173,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 51218-2025</t>
+          <t>A 33664-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45947.64576388889</v>
+        <v>45841.66825231481</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.2</v>
+        <v>4.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10230,14 +10230,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 51206-2025</t>
+          <t>A 49737-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45947.6365625</v>
+        <v>45596.86387731481</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10287,14 +10287,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 1197-2025</t>
+          <t>A 20196-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45667.38278935185</v>
+        <v>45434.63688657407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10344,14 +10344,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 60483-2022</t>
+          <t>A 33910-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44911.4247800926</v>
+        <v>45842.60122685185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10401,14 +10401,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 64317-2023</t>
+          <t>A 18843-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45279</v>
+        <v>44307</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10458,14 +10458,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 64330-2023</t>
+          <t>A 1980-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45279</v>
+        <v>45308</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10515,14 +10515,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 52131-2025</t>
+          <t>A 12675-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45952.75775462963</v>
+        <v>44270.53107638889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10579,7 +10579,7 @@
         <v>45348.69953703704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10629,14 +10629,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 6974-2025</t>
+          <t>A 20536-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45701.54447916667</v>
+        <v>44700</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10686,14 +10686,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 49737-2024</t>
+          <t>A 1197-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45596.86387731481</v>
+        <v>45667.38278935185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10743,14 +10743,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 19259-2025</t>
+          <t>A 60216-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45769.50775462963</v>
+        <v>45994.54114583333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10800,14 +10800,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 36630-2025</t>
+          <t>A 56456-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45870</v>
+        <v>44893.31987268518</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10857,14 +10857,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 36632-2025</t>
+          <t>A 55667-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45870</v>
+        <v>45622.64577546297</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10914,14 +10914,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 1141-2023</t>
+          <t>A 56164-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44935</v>
+        <v>45624.54939814815</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.2</v>
+        <v>15.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10971,14 +10971,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 961-2023</t>
+          <t>A 60483-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44934</v>
+        <v>44911.4247800926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11028,14 +11028,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 53606-2025</t>
+          <t>A 962-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45960.46693287037</v>
+        <v>44934</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11048,7 +11048,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11085,14 +11085,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 53604-2025</t>
+          <t>A 60543-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45960.46254629629</v>
+        <v>45643.79293981481</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>19.8</v>
+        <v>3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11142,14 +11142,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53802-2025</t>
+          <t>A 50673-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45960.79004629629</v>
+        <v>45601.84043981481</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11199,14 +11199,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 11270-2025</t>
+          <t>A 6974-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45726.40613425926</v>
+        <v>45701.54447916667</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11256,14 +11256,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 2680-2025</t>
+          <t>A 60029-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45677.34737268519</v>
+        <v>45993.61226851852</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.2</v>
+        <v>19.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11313,14 +11313,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 37398-2025</t>
+          <t>A 36630-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45877</v>
+        <v>45870</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11370,14 +11370,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 54997-2025</t>
+          <t>A 36632-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45967.5977199074</v>
+        <v>45870</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11427,14 +11427,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 9404-2022</t>
+          <t>A 7851-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44616</v>
+        <v>44973.52238425926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11484,14 +11484,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 59314-2024</t>
+          <t>A 36627-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45637.68851851852</v>
+        <v>45870</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11541,14 +11541,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 55561-2025</t>
+          <t>A 35042-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45971.65128472223</v>
+        <v>45142</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11598,14 +11598,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 27845-2023</t>
+          <t>A 33300-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45098.55438657408</v>
+        <v>45116</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11618,7 +11618,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11655,14 +11655,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 962-2023</t>
+          <t>A 33301-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44934</v>
+        <v>45116</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11712,14 +11712,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 5847-2024</t>
+          <t>A 61269-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45335.61695601852</v>
+        <v>45645.74246527778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11732,7 +11732,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11769,14 +11769,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 62775-2023</t>
+          <t>A 2867-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45271</v>
+        <v>46038.50097222222</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11826,14 +11826,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 46137-2023</t>
+          <t>A 43615-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45196.56315972222</v>
+        <v>45569.47056712963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11845,8 +11845,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11883,14 +11888,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 49391-2024</t>
+          <t>A 44947-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45595.6597337963</v>
+        <v>45575.44268518518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11902,8 +11907,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11940,14 +11950,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 11589-2022</t>
+          <t>A 31260-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44631</v>
+        <v>44771.57344907407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11960,7 +11970,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -11997,14 +12007,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 60029-2025</t>
+          <t>A 60575-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45993.61226851852</v>
+        <v>45996.3097337963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12016,8 +12026,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>19.6</v>
+        <v>5.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12054,14 +12069,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 33693-2021</t>
+          <t>A 12938-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44378.4540162037</v>
+        <v>44642</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12074,7 +12089,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12111,14 +12126,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 35059-2023</t>
+          <t>A 37398-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45142</v>
+        <v>45877</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12131,7 +12146,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12168,14 +12183,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 56654-2023</t>
+          <t>A 62775-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45243.80131944444</v>
+        <v>45271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12188,7 +12203,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12225,14 +12240,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 49736-2024</t>
+          <t>A 6517-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45596.86271990741</v>
+        <v>44601.46166666667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12245,7 +12260,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12282,14 +12297,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 28851-2024</t>
+          <t>A 18842-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45478.78487268519</v>
+        <v>44307</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12302,7 +12317,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12339,14 +12354,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 61740-2023</t>
+          <t>A 38920-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45265.70538194444</v>
+        <v>44816</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12359,7 +12374,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12396,14 +12411,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 60216-2025</t>
+          <t>A 9380-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45994.54114583333</v>
+        <v>45715.34340277778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12415,8 +12430,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12453,14 +12473,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 9013-2023</t>
+          <t>A 31967-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44979.60032407408</v>
+        <v>45510</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12473,7 +12493,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12510,14 +12530,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 60575-2025</t>
+          <t>A 4278-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45996.3097337963</v>
+        <v>46045.38021990741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12529,13 +12549,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12572,14 +12587,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 36627-2025</t>
+          <t>A 59314-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45870</v>
+        <v>45637.68851851852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12592,7 +12607,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12629,14 +12644,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 2867-2026</t>
+          <t>A 4622-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46038.50097222222</v>
+        <v>45687.61902777778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12649,7 +12664,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12686,14 +12701,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 9410-2024</t>
+          <t>A 47332-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45359.4405787037</v>
+        <v>45202.53005787037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12706,7 +12721,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12743,14 +12758,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 9216-2024</t>
+          <t>A 4624-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45358.50931712963</v>
+        <v>45687.62030092593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12763,7 +12778,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.5</v>
+        <v>11.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12800,14 +12815,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 42038-2024</t>
+          <t>A 40331-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45561.79969907407</v>
+        <v>44823.35134259259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12820,7 +12835,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12857,14 +12872,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 57759-2023</t>
+          <t>A 2452-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45246.8422337963</v>
+        <v>44579</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12877,7 +12892,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12914,14 +12929,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 50709-2021</t>
+          <t>A 41690-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44460.36636574074</v>
+        <v>45176.36280092593</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12934,7 +12949,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12971,14 +12986,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 50712-2021</t>
+          <t>A 19259-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44460.36731481482</v>
+        <v>45769.50775462963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -12991,7 +13006,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13028,14 +13043,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 4278-2026</t>
+          <t>A 17542-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>46045.38021990741</v>
+        <v>45757.60574074074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13085,14 +13100,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 17542-2025</t>
+          <t>A 59335-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45757.60574074074</v>
+        <v>45253.64171296296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13105,7 +13120,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13142,14 +13157,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 50812-2023</t>
+          <t>A 54293-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45217.75505787037</v>
+        <v>45232.72627314815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13162,7 +13177,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13199,14 +13214,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 73305-2021</t>
+          <t>A 579-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44551.3184837963</v>
+        <v>45299</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13219,7 +13234,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13256,14 +13271,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 18224-2022</t>
+          <t>A 27845-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44685</v>
+        <v>45098.55438657408</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13276,7 +13291,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13313,14 +13328,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 18244-2022</t>
+          <t>A 18224-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
         <v>44685</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13333,7 +13348,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13370,14 +13385,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 12024-2024</t>
+          <t>A 18244-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45377</v>
+        <v>44685</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13390,7 +13405,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13427,14 +13442,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 51467-2023</t>
+          <t>A 59786-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45221.75239583333</v>
+        <v>44900</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13447,7 +13462,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13484,14 +13499,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 55667-2024</t>
+          <t>A 17911-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45622.64577546297</v>
+        <v>45758.74115740741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13504,7 +13519,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13541,14 +13556,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 9579-2021</t>
+          <t>A 42486-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44251</v>
+        <v>44427</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13561,7 +13576,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13598,14 +13613,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 14690-2024</t>
+          <t>A 37726-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45397</v>
+        <v>45541.65391203704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13618,7 +13633,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13655,14 +13670,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 57256-2022</t>
+          <t>A 33099-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44895.78923611111</v>
+        <v>45840</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13675,7 +13690,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13712,14 +13727,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 57257-2022</t>
+          <t>A 4701-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44895.79283564815</v>
+        <v>46048.44986111111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13731,8 +13746,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13769,14 +13789,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 33099-2025</t>
+          <t>A 63842-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45840</v>
+        <v>46020.43096064815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13789,7 +13809,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13826,14 +13846,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 4701-2026</t>
+          <t>A 14116-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46048.44986111111</v>
+        <v>45740</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13845,13 +13865,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13888,14 +13903,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 10180-2024</t>
+          <t>A 52778-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45364.8280787037</v>
+        <v>44875</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13908,7 +13923,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.6</v>
+        <v>8.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13945,14 +13960,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 365-2022</t>
+          <t>A 35056-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44565</v>
+        <v>45142</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13965,7 +13980,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14002,14 +14017,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 49678-2023</t>
+          <t>A 8678-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45212.33935185185</v>
+        <v>46066.41101851852</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14021,8 +14036,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14059,14 +14079,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 63842-2025</t>
+          <t>A 59946-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46020.43096064815</v>
+        <v>44909.38717592593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14079,7 +14099,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14116,14 +14136,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 12026-2024</t>
+          <t>A 73168-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45377.37309027778</v>
+        <v>44550</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14136,7 +14156,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14173,14 +14193,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 57303-2024</t>
+          <t>A 45303-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45629</v>
+        <v>45576.4172337963</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14193,7 +14213,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14230,14 +14250,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 6454-2024</t>
+          <t>A 61737-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45338.68309027778</v>
+        <v>45265.69740740741</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14249,13 +14269,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14292,14 +14307,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 49820-2022</t>
+          <t>A 52879-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44862.70869212963</v>
+        <v>45610.63946759259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14312,7 +14327,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14349,14 +14364,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 33300-2023</t>
+          <t>A 8949-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45116</v>
+        <v>46069.38609953703</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14369,7 +14384,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14406,14 +14421,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 33301-2023</t>
+          <t>A 6453-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45116</v>
+        <v>45338.67915509259</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14425,8 +14440,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14463,14 +14483,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 8678-2026</t>
+          <t>A 56654-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46066.41101851852</v>
+        <v>45243.80131944444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14482,13 +14502,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14525,14 +14540,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 8949-2026</t>
+          <t>A 7238-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46069.38609953703</v>
+        <v>45344.66310185185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14545,7 +14560,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14582,14 +14597,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 35042-2023</t>
+          <t>A 28851-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45142</v>
+        <v>45478.78487268519</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14602,7 +14617,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14639,14 +14654,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 10728-2023</t>
+          <t>A 34708-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44988.67260416667</v>
+        <v>45140.9924537037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14659,7 +14674,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14696,14 +14711,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 63426-2023</t>
+          <t>A 42427-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45274</v>
+        <v>45180</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14753,14 +14768,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 57420-2024</t>
+          <t>A 21291-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45629</v>
+        <v>45440.66341435185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14773,7 +14788,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14810,14 +14825,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 43754-2022</t>
+          <t>A 13194-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44837</v>
+        <v>44644</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14830,7 +14845,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14867,14 +14882,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 18843-2021</t>
+          <t>A 20439-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44307</v>
+        <v>45435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14887,7 +14902,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -14924,14 +14939,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 26631-2021</t>
+          <t>A 20461-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44348.67560185185</v>
+        <v>45435.65636574074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14944,7 +14959,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -14981,14 +14996,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 62313-2023</t>
+          <t>A 49736-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45267</v>
+        <v>45596.86271990741</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15001,7 +15016,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15038,14 +15053,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 50713-2021</t>
+          <t>A 55356-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44460.36797453704</v>
+        <v>45621.80996527777</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15058,7 +15073,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15095,14 +15110,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 21291-2024</t>
+          <t>A 37917-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45440.66341435185</v>
+        <v>45160.48486111111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15115,7 +15130,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15152,14 +15167,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 2781-2025</t>
+          <t>A 46137-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45677.54344907407</v>
+        <v>45196.56315972222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15172,7 +15187,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15209,14 +15224,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 4812-2025</t>
+          <t>A 9218-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45688.61510416667</v>
+        <v>45358.51653935185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15228,13 +15243,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15271,14 +15281,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 37726-2024</t>
+          <t>A 57266-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45541.65391203704</v>
+        <v>45629</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15291,7 +15301,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15328,14 +15338,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 2452-2022</t>
+          <t>A 365-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44579</v>
+        <v>44565</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15348,7 +15358,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15385,14 +15395,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 50673-2024</t>
+          <t>A 50909-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45601.84043981481</v>
+        <v>45218.42068287037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15405,7 +15415,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15442,14 +15452,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 47332-2023</t>
+          <t>A 57303-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45202.53005787037</v>
+        <v>45629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15462,7 +15472,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15499,14 +15509,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 61879-2023</t>
+          <t>A 52918-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45266.42527777778</v>
+        <v>45226.52905092593</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15519,7 +15529,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15556,14 +15566,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 13481-2023</t>
+          <t>A 57420-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45005</v>
+        <v>45629</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15576,7 +15586,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.7</v>
+        <v>6.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15613,14 +15623,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 6453-2024</t>
+          <t>A 12333-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45338.67915509259</v>
+        <v>44637.62513888889</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15632,13 +15642,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15675,14 +15680,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 20196-2024</t>
+          <t>A 54201-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45434.63688657407</v>
+        <v>45232.55328703704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15695,7 +15700,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.7</v>
+        <v>7.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15732,14 +15737,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 59786-2022</t>
+          <t>A 12016-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44900</v>
+        <v>45728</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15752,7 +15757,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15789,14 +15794,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 35035-2023</t>
+          <t>A 17536-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45142</v>
+        <v>45757</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15809,7 +15814,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15846,14 +15851,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 49041-2022</t>
+          <t>A 17543-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44858</v>
+        <v>45757.60640046297</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15866,7 +15871,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15903,14 +15908,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 37917-2023</t>
+          <t>A 35035-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45160.48486111111</v>
+        <v>45142</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15923,7 +15928,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -15960,14 +15965,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 20433-2024</t>
+          <t>A 63426-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45435.61200231482</v>
+        <v>45274</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -15980,7 +15985,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16017,14 +16022,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 20439-2024</t>
+          <t>A 9108-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45435</v>
+        <v>44615</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16037,7 +16042,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16074,14 +16079,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 20461-2024</t>
+          <t>A 61738-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45435.65636574074</v>
+        <v>45265.69861111111</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16094,7 +16099,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16131,14 +16136,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 12668-2021</t>
+          <t>A 9579-2021</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44270</v>
+        <v>44251</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16151,7 +16156,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16188,14 +16193,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 42486-2021</t>
+          <t>A 3522-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44427</v>
+        <v>45320.53537037037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16208,7 +16213,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16245,14 +16250,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 3522-2024</t>
+          <t>A 11270-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45320.53537037037</v>
+        <v>45726.40613425926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16265,7 +16270,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16302,14 +16307,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 50909-2023</t>
+          <t>A 61687-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45218.42068287037</v>
+        <v>45264</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16322,7 +16327,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16359,14 +16364,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 7238-2024</t>
+          <t>A 57256-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45344.66310185185</v>
+        <v>44895.78923611111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16379,7 +16384,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16416,14 +16421,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 52879-2024</t>
+          <t>A 57257-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45610.63946759259</v>
+        <v>44895.79283564815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16436,7 +16441,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16473,14 +16478,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 6517-2022</t>
+          <t>A 59266-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44601.46166666667</v>
+        <v>45253.55190972222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16493,7 +16498,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16530,14 +16535,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 59272-2023</t>
+          <t>A 18691-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45253.55487268518</v>
+        <v>45043.61253472222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16550,7 +16555,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16587,14 +16592,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 43620-2024</t>
+          <t>A 15737-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45569.481875</v>
+        <v>45748.54488425926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16606,13 +16611,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G280" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16649,14 +16649,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 35608-2023</t>
+          <t>A 6977-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45146</v>
+        <v>45701.54565972222</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16706,14 +16706,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 12007-2025</t>
+          <t>A 57253-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45728</v>
+        <v>44895.77885416667</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16763,14 +16763,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 53374-2023</t>
+          <t>A 42038-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45229</v>
+        <v>45561.79969907407</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16820,14 +16820,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 12938-2022</t>
+          <t>A 35059-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44642</v>
+        <v>45142</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16877,14 +16877,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 9108-2022</t>
+          <t>A 50712-2021</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44615</v>
+        <v>44460.36731481482</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16934,14 +16934,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 23065-2024</t>
+          <t>A 50713-2021</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45450.44878472222</v>
+        <v>44460.36797453704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -16991,14 +16991,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 59266-2023</t>
+          <t>A 59782-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45253.55190972222</v>
+        <v>44900</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17048,14 +17048,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 34708-2023</t>
+          <t>A 1141-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45140.9924537037</v>
+        <v>44935</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17105,14 +17105,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 1980-2024</t>
+          <t>A 1152-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45308</v>
+        <v>44935.64951388889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17125,7 +17125,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17162,14 +17162,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 56456-2022</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44893.31987268518</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17219,14 +17219,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 12333-2022</t>
+          <t>A 73305-2021</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44637.62513888889</v>
+        <v>44551.3184837963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17276,14 +17276,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 9013-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>44979.60032407408</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17333,14 +17333,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 33299-2023</t>
+          <t>A 35608-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45116</v>
+        <v>45146</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17390,14 +17390,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 38160-2022</t>
+          <t>A 9012-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44812</v>
+        <v>44979.59778935185</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>7.2</v>
+        <v>2.2</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17447,14 +17447,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 38920-2022</t>
+          <t>A 9413-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44816</v>
+        <v>45359.44399305555</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17504,14 +17504,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 55296-2023</t>
+          <t>A 9450-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45237.81827546296</v>
+        <v>45358</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17561,14 +17561,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 52778-2022</t>
+          <t>A 53719-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44875</v>
+        <v>45230.72717592592</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>8.4</v>
+        <v>3.3</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17618,14 +17618,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 4036-2024</t>
+          <t>A 53374-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45323.41983796296</v>
+        <v>45229</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17675,14 +17675,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 59946-2022</t>
+          <t>A 32771-2021</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44909.38717592593</v>
+        <v>44375</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17732,14 +17732,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 56164-2024</t>
+          <t>A 13481-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45624.54939814815</v>
+        <v>45005</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>15.7</v>
+        <v>0.7</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17789,14 +17789,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 6977-2025</t>
+          <t>A 57759-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45701.54565972222</v>
+        <v>45246.8422337963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17846,14 +17846,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 59782-2022</t>
+          <t>A 51467-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44900</v>
+        <v>45221.75239583333</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17903,14 +17903,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 52918-2023</t>
+          <t>A 25764-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45226.52905092593</v>
+        <v>45090.45520833333</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -17960,14 +17960,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 13194-2022</t>
+          <t>A 20443-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44644</v>
+        <v>45435.62212962963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18017,14 +18017,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 61737-2023</t>
+          <t>A 21303-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45265.69740740741</v>
+        <v>45440.6750462963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18074,14 +18074,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 18842-2021</t>
+          <t>A 55296-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44307</v>
+        <v>45237.81827546296</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18094,7 +18094,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18131,14 +18131,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 42427-2023</t>
+          <t>A 12026-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45180</v>
+        <v>45377.37309027778</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18188,14 +18188,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 61269-2024</t>
+          <t>A 22901-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45645.74246527778</v>
+        <v>45448.70333333333</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18245,14 +18245,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 32771-2021</t>
+          <t>A 12024-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44375</v>
+        <v>45377</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18302,14 +18302,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 52237-2021</t>
+          <t>A 20433-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>44463.60166666667</v>
+        <v>45435.61200231482</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18359,14 +18359,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 9218-2024</t>
+          <t>A 9216-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45358.51653935185</v>
+        <v>45358.50931712963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18416,14 +18416,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 60819-2023</t>
+          <t>A 11589-2022</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45260.73208333334</v>
+        <v>44631</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18473,14 +18473,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 9380-2025</t>
+          <t>A 2680-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45715.34340277778</v>
+        <v>45677.34737268519</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18492,13 +18492,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G313" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18535,14 +18530,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 18691-2023</t>
+          <t>A 56856-2024</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45043.61253472222</v>
+        <v>45628.54497685185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18555,7 +18550,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18592,14 +18587,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 12675-2021</t>
+          <t>A 49678-2023</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44270.53107638889</v>
+        <v>45212.33935185185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18612,7 +18607,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18649,14 +18644,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 6336-2022</t>
+          <t>A 2781-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44600.57196759259</v>
+        <v>45677.54344907407</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18669,7 +18664,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18706,14 +18701,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 10165-2025</t>
+          <t>A 61879-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45719.65021990741</v>
+        <v>45266.42527777778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18725,13 +18720,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G317" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18768,14 +18758,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 55356-2024</t>
+          <t>A 58514-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45621.80996527777</v>
+        <v>45635.42575231481</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18788,7 +18778,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18825,14 +18815,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 43624-2024</t>
+          <t>A 13511-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45569.4868287037</v>
+        <v>45387</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18844,13 +18834,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G319" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18887,14 +18872,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 17911-2025</t>
+          <t>A 12668-2021</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45758.74115740741</v>
+        <v>44270</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18907,7 +18892,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18944,14 +18929,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 13511-2024</t>
+          <t>A 40224-2024</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45387</v>
+        <v>45554.59815972222</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18963,8 +18948,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19001,14 +18991,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 20240-2023</t>
+          <t>A 43620-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45055.68784722222</v>
+        <v>45569.481875</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19020,8 +19010,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G322" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19058,14 +19053,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 12016-2025</t>
+          <t>A 10165-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45728</v>
+        <v>45719.65021990741</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19077,8 +19072,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G323" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19115,14 +19115,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 20536-2022</t>
+          <t>A 52237-2021</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>44700</v>
+        <v>44463.60166666667</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19172,14 +19172,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 57465-2024</t>
+          <t>A 38160-2022</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45630.32784722222</v>
+        <v>44812</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19229,14 +19229,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 579-2024</t>
+          <t>A 14593-2022</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45299</v>
+        <v>44655.57246527778</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19286,14 +19286,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 20911-2025</t>
+          <t>A 6336-2022</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45777.40738425926</v>
+        <v>44600.57196759259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19343,14 +19343,14 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 20915-2025</t>
+          <t>A 43754-2022</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45777.40862268519</v>
+        <v>44837</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z328"/>
+  <dimension ref="A1:Z333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 60881-2025</t>
+          <t>A 6040-2025</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45999</v>
+        <v>45695.66266203704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,13 +588,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6.6</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -622,208 +622,208 @@
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 6040-2025 artfynd.xlsx", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 6040-2025 karta.png", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 6040-2025 FSC-klagomål.docx", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 6040-2025 FSC-klagomål mail.docx", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 6040-2025 tillsynsbegäran.docx", "A 6040-2025")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 6040-2025 tillsynsbegäran mail.docx", "A 6040-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 60881-2025</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45999</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
           <t>Rostfläck</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 60881-2025 artfynd.xlsx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 60881-2025 karta.png", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 60881-2025 FSC-klagomål.docx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 60881-2025 FSC-klagomål mail.docx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 60881-2025 tillsynsbegäran.docx", "A 60881-2025")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 60881-2025 tillsynsbegäran mail.docx", "A 60881-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
         <is>
           <t>A 51277-2025</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>45950.23784722222</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>4.1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Gulsparv</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 51277-2025 artfynd.xlsx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 51277-2025 karta.png", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 51277-2025 FSC-klagomål.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 51277-2025 FSC-klagomål mail.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 51277-2025 tillsynsbegäran.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 51277-2025 tillsynsbegäran mail.docx", "A 51277-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1470/fåglar/A 51277-2025 prioriterade fågelarter.docx", "A 51277-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 6040-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45695.66266203704</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>VARA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/artfynd/A 6040-2025 artfynd.xlsx", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/kartor/A 6040-2025 karta.png", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomål/A 6040-2025 FSC-klagomål.docx", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/klagomålsmail/A 6040-2025 FSC-klagomål mail.docx", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsyn/A 6040-2025 tillsynsbegäran.docx", "A 6040-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1470/tillsynsmail/A 6040-2025 tillsynsbegäran mail.docx", "A 6040-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44264</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44600.48700231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>44782.61696759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44420.38428240741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44356.42327546296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44305.59869212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>44796.56913194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>44620</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44432</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44314.54328703704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>44448.8524537037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44461</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1630,14 +1630,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 62540-2021</t>
+          <t>A 10831-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44503.61056712963</v>
+        <v>44627.56489583333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1687,14 +1687,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 10831-2022</t>
+          <t>A 62540-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44627.56489583333</v>
+        <v>44503.61056712963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>44378</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44831.4771412037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44867.89589120371</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44851.3972337963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44851.74130787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44378.41319444445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44504</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44267</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44746.7121412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44851.74324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44851.74546296296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>44376.6027662037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44886.56302083333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44704.53608796297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44299</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44460.36069444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44270.36637731481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44867</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44431.35026620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44441</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>44343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>44594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44785.60559027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>44704.53440972222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44636.73104166667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44636.73430555555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44616.30952546297</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3915,14 +3915,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 10449-2025</t>
+          <t>A 40224-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45720</v>
+        <v>45554.59815972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3934,8 +3934,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3972,14 +3977,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 5847-2024</t>
+          <t>A 4624-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45335.61695601852</v>
+        <v>45687.62030092593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3992,7 +3997,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>11.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4029,14 +4034,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59272-2023</t>
+          <t>A 9215-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45253.55487268518</v>
+        <v>45358</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4049,7 +4054,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>12.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4086,14 +4091,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 62313-2023</t>
+          <t>A 20443-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45267</v>
+        <v>45435.62212962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4106,7 +4111,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4143,14 +4148,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 47819-2025</t>
+          <t>A 56856-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45932.33591435185</v>
+        <v>45628.54497685185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4163,7 +4168,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4200,14 +4205,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4036-2024</t>
+          <t>A 31967-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45323.41983796296</v>
+        <v>45510</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4220,7 +4225,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.4</v>
+        <v>9.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4257,14 +4262,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9411-2024</t>
+          <t>A 60543-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45359.44168981481</v>
+        <v>45643.79293981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4277,7 +4282,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4314,14 +4319,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 57465-2024</t>
+          <t>A 9000-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45630.32784722222</v>
+        <v>44979.5653125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4334,7 +4339,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4371,14 +4376,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 6454-2024</t>
+          <t>A 9012-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45338.68309027778</v>
+        <v>44979.59778935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4390,13 +4395,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4433,14 +4433,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 50702-2022</t>
+          <t>A 21303-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44867.32679398148</v>
+        <v>45440.6750462963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4490,14 +4490,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 61740-2023</t>
+          <t>A 58514-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45265.70538194444</v>
+        <v>45635.42575231481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>45386</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4604,14 +4604,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59259-2023</t>
+          <t>A 7851-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45253.54922453704</v>
+        <v>44973.52238425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4661,14 +4661,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9410-2024</t>
+          <t>A 10449-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45359.4405787037</v>
+        <v>45720</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4718,14 +4718,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 50709-2021</t>
+          <t>A 61687-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44460.36636574074</v>
+        <v>45264</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4775,14 +4775,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 48066-2025</t>
+          <t>A 59259-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45932</v>
+        <v>45253.54922453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4832,14 +4832,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20911-2025</t>
+          <t>A 59335-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45777.40738425926</v>
+        <v>45253.64171296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4889,14 +4889,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 48074-2025</t>
+          <t>A 12021-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45932</v>
+        <v>45377.3702662037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4946,14 +4946,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 43615-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>45569.47056712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4965,8 +4965,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5003,14 +5008,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 20915-2025</t>
+          <t>A 9413-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45777.40862268519</v>
+        <v>45359.44399305555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5023,7 +5028,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5060,14 +5065,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 49041-2022</t>
+          <t>A 9450-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44858</v>
+        <v>45358</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5080,7 +5085,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5117,14 +5122,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11983-2025</t>
+          <t>A 54201-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45728</v>
+        <v>45232.55328703704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5137,7 +5142,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5174,14 +5179,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 9058-2025</t>
+          <t>A 1152-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45713.64200231482</v>
+        <v>44935.64951388889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5194,7 +5199,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5231,14 +5236,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 35588-2023</t>
+          <t>A 73168-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45146</v>
+        <v>44550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5251,7 +5256,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5288,14 +5293,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4289-2025</t>
+          <t>A 57266-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45685.65704861111</v>
+        <v>45629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5308,7 +5313,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5345,14 +5350,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 725-2025</t>
+          <t>A 22901-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45665.391875</v>
+        <v>45448.70333333333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5365,7 +5370,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5402,14 +5407,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13513-2024</t>
+          <t>A 20465-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45387</v>
+        <v>45435.66646990741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5422,7 +5427,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5459,14 +5464,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39371-2025</t>
+          <t>A 14593-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45889.58263888889</v>
+        <v>44655.57246527778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5476,11 +5481,6 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>VARA</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -5521,14 +5521,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39374-2025</t>
+          <t>A 15737-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45889.58648148148</v>
+        <v>45748.54488425926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5540,13 +5540,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5583,14 +5578,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 57255-2022</t>
+          <t>A 54293-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44895.78674768518</v>
+        <v>45232.72627314815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5598,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5640,14 +5635,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 4434-2024</t>
+          <t>A 57255-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45327.47383101852</v>
+        <v>44895.78674768518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5655,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5697,14 +5692,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10303-2024</t>
+          <t>A 31260-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45365</v>
+        <v>44771.57344907407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5712,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5754,14 +5749,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41281-2025</t>
+          <t>A 35056-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45898.63497685185</v>
+        <v>45142</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5769,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5811,14 +5806,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 14690-2024</t>
+          <t>A 14116-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45397</v>
+        <v>45740</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5826,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5868,14 +5863,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 41278-2025</t>
+          <t>A 40331-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45898.62895833333</v>
+        <v>44823.35134259259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5883,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5925,14 +5920,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 26631-2021</t>
+          <t>A 44947-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44348.67560185185</v>
+        <v>45575.44268518518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5944,8 +5939,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -5982,14 +5982,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 41286-2025</t>
+          <t>A 4434-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45898.63819444444</v>
+        <v>45327.47383101852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6039,14 +6039,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 33299-2023</t>
+          <t>A 59527-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45116</v>
+        <v>45638.59061342593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6096,14 +6096,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41331-2025</t>
+          <t>A 12009-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45899.35118055555</v>
+        <v>45728</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6153,14 +6153,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 9098-2025</t>
+          <t>A 53719-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45713.68337962963</v>
+        <v>45230.72717592592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6210,14 +6210,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 20465-2024</t>
+          <t>A 41690-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45435.66646990741</v>
+        <v>45176.36280092593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6267,14 +6267,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 14901-2025</t>
+          <t>A 9058-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45743.48797453703</v>
+        <v>45713.64200231482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6286,13 +6286,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6329,14 +6324,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 23668-2025</t>
+          <t>A 35588-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45792.90586805555</v>
+        <v>45146</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6349,7 +6344,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6386,14 +6381,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 64317-2023</t>
+          <t>A 28781-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45279</v>
+        <v>45820.45300925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6405,8 +6400,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6443,14 +6443,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 64330-2023</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45279</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6500,14 +6500,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 49863-2025</t>
+          <t>A 4289-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45940.51858796296</v>
+        <v>45685.65704861111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6557,14 +6557,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 50123-2025</t>
+          <t>A 57253-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45943.55126157407</v>
+        <v>44895.77885416667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6576,13 +6576,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6619,14 +6614,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 42237-2025</t>
+          <t>A 4622-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45904.56365740741</v>
+        <v>45687.61902777778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6639,7 +6634,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6676,14 +6671,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 50604-2025</t>
+          <t>A 11983-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45944</v>
+        <v>45728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6696,7 +6691,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6733,14 +6728,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 48908-2024</t>
+          <t>A 39371-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45594.36315972222</v>
+        <v>45889.58263888889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6750,6 +6745,11 @@
       <c r="E108" t="inlineStr">
         <is>
           <t>VARA</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -6790,14 +6790,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 23669-2025</t>
+          <t>A 39374-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45792.93181712963</v>
+        <v>45889.58648148148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6809,8 +6809,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6847,14 +6852,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 23865-2025</t>
+          <t>A 29303-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45793.67059027778</v>
+        <v>45824.45894675926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6867,7 +6872,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -6904,14 +6909,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4303-2025</t>
+          <t>A 29200-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45685</v>
+        <v>45823.35009259259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6924,7 +6929,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -6961,14 +6966,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 23065-2024</t>
+          <t>A 29814-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45450.44878472222</v>
+        <v>45825.78996527778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6981,7 +6986,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7018,14 +7023,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 51212-2025</t>
+          <t>A 50702-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45947.64262731482</v>
+        <v>44867.32679398148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7038,7 +7043,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7075,14 +7080,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 51218-2025</t>
+          <t>A 17536-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45947.64576388889</v>
+        <v>45757</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7095,7 +7100,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7132,14 +7137,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 51206-2025</t>
+          <t>A 17543-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45947.6365625</v>
+        <v>45757.60640046297</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7152,7 +7157,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7189,14 +7194,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 961-2023</t>
+          <t>A 45303-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44934</v>
+        <v>45576.4172337963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7209,7 +7214,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7246,14 +7251,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 24609-2025</t>
+          <t>A 31163-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45798.58065972223</v>
+        <v>45832.65693287037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7266,7 +7271,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7303,14 +7308,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 42395-2025</t>
+          <t>A 41278-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45905</v>
+        <v>45898.62895833333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7323,7 +7328,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7360,14 +7365,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 52131-2025</t>
+          <t>A 25764-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45952.75775462963</v>
+        <v>45090.45520833333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7380,7 +7385,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7417,14 +7422,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 42919-2025</t>
+          <t>A 41331-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45908.87262731481</v>
+        <v>45899.35118055555</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7437,7 +7442,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7474,14 +7479,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 43216-2025</t>
+          <t>A 41281-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45910.46533564815</v>
+        <v>45898.63497685185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7494,7 +7499,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7531,14 +7536,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 9000-2023</t>
+          <t>A 41286-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44979.5653125</v>
+        <v>45898.63819444444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7551,7 +7556,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7588,14 +7593,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 25359-2025</t>
+          <t>A 61738-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45800.61756944445</v>
+        <v>45265.69861111111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7608,7 +7613,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7645,14 +7650,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42920-2025</t>
+          <t>A 31629-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45908.87545138889</v>
+        <v>45834.3266087963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7665,7 +7670,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7702,14 +7707,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 53604-2025</t>
+          <t>A 31606-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45960.46254629629</v>
+        <v>45833.75311342593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7722,7 +7727,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>19.8</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7759,14 +7764,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 53606-2025</t>
+          <t>A 42395-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45960.46693287037</v>
+        <v>45905</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7779,7 +7784,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7816,14 +7821,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 53802-2025</t>
+          <t>A 42237-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45960.79004629629</v>
+        <v>45904.56365740741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7836,7 +7841,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -7873,14 +7878,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 25128-2025</t>
+          <t>A 9411-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45800.37969907407</v>
+        <v>45359.44168981481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7893,7 +7898,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7930,14 +7935,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 10728-2023</t>
+          <t>A 42920-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44988.67260416667</v>
+        <v>45908.87545138889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7950,7 +7955,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -7987,14 +7992,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44240-2025</t>
+          <t>A 22532-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45915.67596064815</v>
+        <v>45786</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8007,7 +8012,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8044,14 +8049,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 49820-2022</t>
+          <t>A 42919-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44862.70869212963</v>
+        <v>45908.87262731481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8064,7 +8069,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8101,14 +8106,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 54997-2025</t>
+          <t>A 33672-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45967.5977199074</v>
+        <v>45841</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8121,7 +8126,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8158,14 +8163,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 55561-2025</t>
+          <t>A 33664-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45971.65128472223</v>
+        <v>45841.66825231481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8178,7 +8183,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8215,14 +8220,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 57313-2024</t>
+          <t>A 33910-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45629</v>
+        <v>45842.60122685185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8235,7 +8240,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8272,14 +8277,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 57295-2024</t>
+          <t>A 43216-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45629</v>
+        <v>45910.46533564815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8292,7 +8297,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8329,14 +8334,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 27819-2024</t>
+          <t>A 64317-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45475</v>
+        <v>45279</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8349,7 +8354,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8386,14 +8391,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 33693-2021</t>
+          <t>A 64330-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44378.4540162037</v>
+        <v>45279</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8406,7 +8411,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8443,14 +8448,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 51398-2024</t>
+          <t>A 44240-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45604.4233912037</v>
+        <v>45915.67596064815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8463,7 +8468,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8500,14 +8505,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 26786-2025</t>
+          <t>A 7655-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45810.58515046296</v>
+        <v>45348.69953703704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8520,7 +8525,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8557,14 +8562,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 27856-2024</t>
+          <t>A 49737-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45475</v>
+        <v>45596.86387731481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8577,7 +8582,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8614,14 +8619,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 27151-2025</t>
+          <t>A 19259-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45812.32086805555</v>
+        <v>45769.50775462963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8634,7 +8639,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8671,14 +8676,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45974-2025</t>
+          <t>A 1141-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45924.36851851852</v>
+        <v>44935</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8691,7 +8696,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8728,14 +8733,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 55967-2025</t>
+          <t>A 1197-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45973.48353009259</v>
+        <v>45667.38278935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8747,13 +8752,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8790,14 +8790,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 9404-2022</t>
+          <t>A 961-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44616</v>
+        <v>44934</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8810,7 +8810,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -8847,14 +8847,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 60819-2023</t>
+          <t>A 60483-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45260.73208333334</v>
+        <v>44911.4247800926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -8904,14 +8904,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 59527-2024</t>
+          <t>A 6974-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45638.59061342593</v>
+        <v>45701.54447916667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -8961,14 +8961,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12009-2025</t>
+          <t>A 11270-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45728</v>
+        <v>45726.40613425926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9018,14 +9018,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56326-2025</t>
+          <t>A 45974-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45974.6370949074</v>
+        <v>45924.36851851852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9075,14 +9075,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 28781-2025</t>
+          <t>A 2680-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45820.45300925926</v>
+        <v>45677.34737268519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9094,13 +9094,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9137,14 +9132,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 20240-2023</t>
+          <t>A 9404-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45055.68784722222</v>
+        <v>44616</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9194,14 +9189,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 29303-2025</t>
+          <t>A 59314-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45824.45894675926</v>
+        <v>45637.68851851852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9214,7 +9209,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9251,14 +9246,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 29200-2025</t>
+          <t>A 36630-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45823.35009259259</v>
+        <v>45870</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9271,7 +9266,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9308,14 +9303,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 4812-2025</t>
+          <t>A 36632-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45688.61510416667</v>
+        <v>45870</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9327,13 +9322,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9370,14 +9360,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 9215-2024</t>
+          <t>A 27845-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45358</v>
+        <v>45098.55438657408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9390,7 +9380,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>12.2</v>
+        <v>3.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9427,14 +9417,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 29814-2025</t>
+          <t>A 962-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45825.78996527778</v>
+        <v>44934</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9447,7 +9437,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9484,14 +9474,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 12007-2025</t>
+          <t>A 5847-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45728</v>
+        <v>45335.61695601852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9504,7 +9494,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9541,14 +9531,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 49391-2024</t>
+          <t>A 46137-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45595.6597337963</v>
+        <v>45196.56315972222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9561,7 +9551,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9598,14 +9588,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 31163-2025</t>
+          <t>A 49391-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45832.65693287037</v>
+        <v>45595.6597337963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9618,7 +9608,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9655,14 +9645,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 57260-2025</t>
+          <t>A 48074-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45979.6544212963</v>
+        <v>45932</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9675,7 +9665,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9712,14 +9702,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 31606-2025</t>
+          <t>A 11589-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45833.75311342593</v>
+        <v>44631</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9732,7 +9722,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9769,14 +9759,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 31629-2025</t>
+          <t>A 37398-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45834.3266087963</v>
+        <v>45877</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9789,7 +9779,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -9826,14 +9816,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 50812-2023</t>
+          <t>A 47819-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45217.75505787037</v>
+        <v>45932.33591435185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9846,7 +9836,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -9883,14 +9873,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 12021-2024</t>
+          <t>A 33693-2021</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45377.3702662037</v>
+        <v>44378.4540162037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9903,7 +9893,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -9940,14 +9930,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 10180-2024</t>
+          <t>A 48066-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45364.8280787037</v>
+        <v>45932</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9960,7 +9950,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -9997,14 +9987,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 22532-2025</t>
+          <t>A 35059-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45786</v>
+        <v>45142</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10017,7 +10007,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10054,14 +10044,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 43624-2024</t>
+          <t>A 56654-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45569.4868287037</v>
+        <v>45243.80131944444</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10073,13 +10063,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10116,14 +10101,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 33672-2025</t>
+          <t>A 62775-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45841</v>
+        <v>45271</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10136,7 +10121,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10173,14 +10158,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 33664-2025</t>
+          <t>A 49736-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45841.66825231481</v>
+        <v>45596.86271990741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10193,7 +10178,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10230,14 +10215,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 49737-2024</t>
+          <t>A 28851-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45596.86387731481</v>
+        <v>45478.78487268519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10250,7 +10235,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10287,14 +10272,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 20196-2024</t>
+          <t>A 50123-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45434.63688657407</v>
+        <v>45943.55126157407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10306,8 +10291,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10344,14 +10334,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 33910-2025</t>
+          <t>A 61740-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45842.60122685185</v>
+        <v>45265.70538194444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10364,7 +10354,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10401,14 +10391,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 18843-2021</t>
+          <t>A 49863-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44307</v>
+        <v>45940.51858796296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10421,7 +10411,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10458,14 +10448,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 1980-2024</t>
+          <t>A 9013-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45308</v>
+        <v>44979.60032407408</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10478,7 +10468,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10515,14 +10505,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 12675-2021</t>
+          <t>A 50604-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44270.53107638889</v>
+        <v>45944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10535,7 +10525,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10572,14 +10562,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 7655-2024</t>
+          <t>A 9410-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45348.69953703704</v>
+        <v>45359.4405787037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10592,7 +10582,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>8.5</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10629,14 +10619,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 20536-2022</t>
+          <t>A 9216-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44700</v>
+        <v>45358.50931712963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10649,7 +10639,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10686,14 +10676,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 1197-2025</t>
+          <t>A 51212-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45667.38278935185</v>
+        <v>45947.64262731482</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10706,7 +10696,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10743,14 +10733,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 60216-2025</t>
+          <t>A 51218-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45994.54114583333</v>
+        <v>45947.64576388889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10763,7 +10753,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>8.199999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -10800,14 +10790,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56456-2022</t>
+          <t>A 51206-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44893.31987268518</v>
+        <v>45947.6365625</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10820,7 +10810,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -10857,14 +10847,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 55667-2024</t>
+          <t>A 42038-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45622.64577546297</v>
+        <v>45561.79969907407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10877,7 +10867,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.5</v>
+        <v>7.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -10914,14 +10904,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 56164-2024</t>
+          <t>A 57759-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45624.54939814815</v>
+        <v>45246.8422337963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10934,7 +10924,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>15.7</v>
+        <v>0.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -10971,14 +10961,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 60483-2022</t>
+          <t>A 52131-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44911.4247800926</v>
+        <v>45952.75775462963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10991,7 +10981,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11028,14 +11018,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 962-2023</t>
+          <t>A 50709-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44934</v>
+        <v>44460.36636574074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11048,7 +11038,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11085,14 +11075,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 60543-2024</t>
+          <t>A 50712-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45643.79293981481</v>
+        <v>44460.36731481482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11105,7 +11095,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11142,14 +11132,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 50673-2024</t>
+          <t>A 53606-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45601.84043981481</v>
+        <v>45960.46693287037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11162,7 +11152,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11199,14 +11189,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 6974-2025</t>
+          <t>A 17542-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45701.54447916667</v>
+        <v>45757.60574074074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11219,7 +11209,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11256,14 +11246,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 60029-2025</t>
+          <t>A 53604-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45993.61226851852</v>
+        <v>45960.46254629629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11276,7 +11266,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11313,14 +11303,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 36630-2025</t>
+          <t>A 53802-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45870</v>
+        <v>45960.79004629629</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11333,7 +11323,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11370,14 +11360,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 36632-2025</t>
+          <t>A 50812-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45870</v>
+        <v>45217.75505787037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11390,7 +11380,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11427,14 +11417,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 7851-2023</t>
+          <t>A 73305-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44973.52238425926</v>
+        <v>44551.3184837963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11447,7 +11437,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11484,14 +11474,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 36627-2025</t>
+          <t>A 18224-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45870</v>
+        <v>44685</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11504,7 +11494,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11541,14 +11531,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 35042-2023</t>
+          <t>A 18244-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45142</v>
+        <v>44685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11561,7 +11551,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11598,14 +11588,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 33300-2023</t>
+          <t>A 54997-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45116</v>
+        <v>45967.5977199074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11618,7 +11608,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11655,14 +11645,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 33301-2023</t>
+          <t>A 12024-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45116</v>
+        <v>45377</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11675,7 +11665,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11712,14 +11702,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 61269-2024</t>
+          <t>A 51467-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45645.74246527778</v>
+        <v>45221.75239583333</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11732,7 +11722,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11769,14 +11759,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 2867-2026</t>
+          <t>A 55561-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46038.50097222222</v>
+        <v>45971.65128472223</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11789,7 +11779,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -11826,14 +11816,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 43615-2024</t>
+          <t>A 55667-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45569.47056712963</v>
+        <v>45622.64577546297</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11845,13 +11835,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -11888,14 +11873,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 44947-2024</t>
+          <t>A 55967-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45575.44268518518</v>
+        <v>45973.48353009259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11913,7 +11898,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -11950,14 +11935,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 31260-2022</t>
+          <t>A 9579-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44771.57344907407</v>
+        <v>44251</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11970,7 +11955,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12007,14 +11992,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 60575-2025</t>
+          <t>A 14690-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45996.3097337963</v>
+        <v>45397</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12026,13 +12011,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12069,14 +12049,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 12938-2022</t>
+          <t>A 56326-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44642</v>
+        <v>45974.6370949074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12089,7 +12069,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12126,14 +12106,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 37398-2025</t>
+          <t>A 57256-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45877</v>
+        <v>44895.78923611111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12146,7 +12126,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12183,14 +12163,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 62775-2023</t>
+          <t>A 57257-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45271</v>
+        <v>44895.79283564815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12203,7 +12183,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12240,14 +12220,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 6517-2022</t>
+          <t>A 57260-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44601.46166666667</v>
+        <v>45979.6544212963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12260,7 +12240,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12297,14 +12277,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 18842-2021</t>
+          <t>A 10180-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44307</v>
+        <v>45364.8280787037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12317,7 +12297,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12354,14 +12334,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 38920-2022</t>
+          <t>A 365-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44816</v>
+        <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12374,7 +12354,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.3</v>
+        <v>7.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12411,14 +12391,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 9380-2025</t>
+          <t>A 49678-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45715.34340277778</v>
+        <v>45212.33935185185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12430,13 +12410,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12473,14 +12448,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 31967-2024</t>
+          <t>A 12026-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45510</v>
+        <v>45377.37309027778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12493,7 +12468,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>9.1</v>
+        <v>1.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12530,14 +12505,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 4278-2026</t>
+          <t>A 57303-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46045.38021990741</v>
+        <v>45629</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12550,7 +12525,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12587,14 +12562,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 59314-2024</t>
+          <t>A 60029-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45637.68851851852</v>
+        <v>45993.61226851852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12607,7 +12582,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.5</v>
+        <v>19.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12644,14 +12619,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 4622-2025</t>
+          <t>A 6454-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45687.61902777778</v>
+        <v>45338.68309027778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12663,8 +12638,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>7.8</v>
+        <v>3.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12701,14 +12681,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 47332-2023</t>
+          <t>A 49820-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45202.53005787037</v>
+        <v>44862.70869212963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12721,7 +12701,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12758,14 +12738,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 4624-2025</t>
+          <t>A 33300-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45687.62030092593</v>
+        <v>45116</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12778,7 +12758,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>11.7</v>
+        <v>1.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -12815,14 +12795,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 40331-2022</t>
+          <t>A 33301-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44823.35134259259</v>
+        <v>45116</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12835,7 +12815,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -12872,14 +12852,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 2452-2022</t>
+          <t>A 60216-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44579</v>
+        <v>45994.54114583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12892,7 +12872,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -12929,14 +12909,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 41690-2023</t>
+          <t>A 60575-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45176.36280092593</v>
+        <v>45996.3097337963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12948,8 +12928,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -12986,14 +12971,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 19259-2025</t>
+          <t>A 36627-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45769.50775462963</v>
+        <v>45870</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13006,7 +12991,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13043,14 +13028,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 17542-2025</t>
+          <t>A 2867-2026</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45757.60574074074</v>
+        <v>46038.50097222222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13063,7 +13048,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13100,14 +13085,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 59335-2023</t>
+          <t>A 35042-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45253.64171296296</v>
+        <v>45142</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13120,7 +13105,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13157,14 +13142,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 54293-2023</t>
+          <t>A 10728-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45232.72627314815</v>
+        <v>44988.67260416667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13177,7 +13162,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13214,14 +13199,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 579-2024</t>
+          <t>A 63426-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45299</v>
+        <v>45274</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13271,14 +13256,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 27845-2023</t>
+          <t>A 57420-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45098.55438657408</v>
+        <v>45629</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13291,7 +13276,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13328,14 +13313,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 18224-2022</t>
+          <t>A 43754-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44685</v>
+        <v>44837</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13348,7 +13333,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13385,14 +13370,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 18244-2022</t>
+          <t>A 4278-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44685</v>
+        <v>46045.38021990741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13405,7 +13390,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13442,14 +13427,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 59786-2022</t>
+          <t>A 18843-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44900</v>
+        <v>44307</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13462,7 +13447,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13499,14 +13484,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 17911-2025</t>
+          <t>A 26631-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45758.74115740741</v>
+        <v>44348.67560185185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13519,7 +13504,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13556,14 +13541,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 42486-2021</t>
+          <t>A 62313-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44427</v>
+        <v>45267</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13576,7 +13561,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13613,14 +13598,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 37726-2024</t>
+          <t>A 50713-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45541.65391203704</v>
+        <v>44460.36797453704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13633,7 +13618,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13670,14 +13655,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 33099-2025</t>
+          <t>A 21291-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45840</v>
+        <v>45440.66341435185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13690,7 +13675,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13727,14 +13712,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 4701-2026</t>
+          <t>A 2781-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46048.44986111111</v>
+        <v>45677.54344907407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13746,13 +13731,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13789,14 +13769,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 63842-2025</t>
+          <t>A 4812-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46020.43096064815</v>
+        <v>45688.61510416667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13808,8 +13788,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -13846,14 +13831,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 14116-2025</t>
+          <t>A 37726-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45740</v>
+        <v>45541.65391203704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13866,7 +13851,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -13903,14 +13888,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 52778-2022</t>
+          <t>A 2452-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44875</v>
+        <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13923,7 +13908,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>8.4</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -13960,14 +13945,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 35056-2023</t>
+          <t>A 33099-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45142</v>
+        <v>45840</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -13980,7 +13965,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14017,14 +14002,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 8678-2026</t>
+          <t>A 50673-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46066.41101851852</v>
+        <v>45601.84043981481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14036,13 +14021,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14079,14 +14059,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 59946-2022</t>
+          <t>A 4701-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44909.38717592593</v>
+        <v>46048.44986111111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14098,8 +14078,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14136,14 +14121,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 73168-2021</t>
+          <t>A 47332-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44550</v>
+        <v>45202.53005787037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14156,7 +14141,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14193,14 +14178,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 45303-2024</t>
+          <t>A 63842-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45576.4172337963</v>
+        <v>46020.43096064815</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14213,7 +14198,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>8.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14250,14 +14235,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 61737-2023</t>
+          <t>A 61879-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45265.69740740741</v>
+        <v>45266.42527777778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14270,7 +14255,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14307,14 +14292,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 52879-2024</t>
+          <t>A 13481-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45610.63946759259</v>
+        <v>45005</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14327,7 +14312,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14364,14 +14349,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 8949-2026</t>
+          <t>A 8678-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46069.38609953703</v>
+        <v>46066.41101851852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14383,8 +14368,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14428,7 +14418,7 @@
         <v>45338.67915509259</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14483,14 +14473,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 56654-2023</t>
+          <t>A 20196-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45243.80131944444</v>
+        <v>45434.63688657407</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14503,7 +14493,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14540,14 +14530,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 7238-2024</t>
+          <t>A 8949-2026</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45344.66310185185</v>
+        <v>46069.38609953703</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14560,7 +14550,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14597,14 +14587,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 28851-2024</t>
+          <t>A 59786-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45478.78487268519</v>
+        <v>44900</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14617,7 +14607,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14654,14 +14644,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 34708-2023</t>
+          <t>A 35035-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45140.9924537037</v>
+        <v>45142</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14674,7 +14664,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -14711,14 +14701,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 42427-2023</t>
+          <t>A 49041-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45180</v>
+        <v>44858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14731,7 +14721,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -14768,14 +14758,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 21291-2024</t>
+          <t>A 37917-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45440.66341435185</v>
+        <v>45160.48486111111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14788,7 +14778,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -14825,14 +14815,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 13194-2022</t>
+          <t>A 20433-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44644</v>
+        <v>45435.61200231482</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14845,7 +14835,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -14889,7 +14879,7 @@
         <v>45435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14946,7 +14936,7 @@
         <v>45435.65636574074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14996,14 +14986,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 49736-2024</t>
+          <t>A 12668-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45596.86271990741</v>
+        <v>44270</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15053,14 +15043,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 55356-2024</t>
+          <t>A 42486-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45621.80996527777</v>
+        <v>44427</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15073,7 +15063,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15110,14 +15100,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 37917-2023</t>
+          <t>A 3522-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45160.48486111111</v>
+        <v>45320.53537037037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15130,7 +15120,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15167,14 +15157,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 46137-2023</t>
+          <t>A 50909-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45196.56315972222</v>
+        <v>45218.42068287037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15187,7 +15177,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15224,14 +15214,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 9218-2024</t>
+          <t>A 9928-2026</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45358.51653935185</v>
+        <v>46073.45140046296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15244,7 +15234,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.3</v>
+        <v>7.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15281,14 +15271,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 57266-2024</t>
+          <t>A 9919-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45629</v>
+        <v>46073.44083333333</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15301,7 +15291,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15338,14 +15328,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 365-2022</t>
+          <t>A 9923-2026</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44565</v>
+        <v>46073.44840277778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15358,7 +15348,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>7.8</v>
+        <v>3.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15395,14 +15385,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 50909-2023</t>
+          <t>A 9925-2026</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45218.42068287037</v>
+        <v>46073.44974537037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15415,7 +15405,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15452,14 +15442,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 57303-2024</t>
+          <t>A 9881-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45629</v>
+        <v>46073.34420138889</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15472,7 +15462,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15509,14 +15499,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 52918-2023</t>
+          <t>A 7238-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45226.52905092593</v>
+        <v>45344.66310185185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15529,7 +15519,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15566,14 +15556,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 57420-2024</t>
+          <t>A 52879-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45629</v>
+        <v>45610.63946759259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15586,7 +15576,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15623,14 +15613,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 12333-2022</t>
+          <t>A 6517-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44637.62513888889</v>
+        <v>44601.46166666667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15643,7 +15633,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15680,14 +15670,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 54201-2023</t>
+          <t>A 59272-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45232.55328703704</v>
+        <v>45253.55487268518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15700,7 +15690,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>7.6</v>
+        <v>0.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -15737,14 +15727,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 12016-2025</t>
+          <t>A 43620-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45728</v>
+        <v>45569.481875</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15756,8 +15746,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -15794,14 +15789,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 17536-2025</t>
+          <t>A 35608-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45757</v>
+        <v>45146</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15814,7 +15809,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -15851,14 +15846,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 17543-2025</t>
+          <t>A 12007-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45757.60640046297</v>
+        <v>45728</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15871,7 +15866,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -15908,14 +15903,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 35035-2023</t>
+          <t>A 53374-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45142</v>
+        <v>45229</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15928,7 +15923,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -15965,14 +15960,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 63426-2023</t>
+          <t>A 12938-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45274</v>
+        <v>44642</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -15985,7 +15980,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16029,7 +16024,7 @@
         <v>44615</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16079,14 +16074,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 61738-2023</t>
+          <t>A 23065-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45265.69861111111</v>
+        <v>45450.44878472222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16099,7 +16094,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16136,14 +16131,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 9579-2021</t>
+          <t>A 59266-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44251</v>
+        <v>45253.55190972222</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16156,7 +16151,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16193,14 +16188,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 3522-2024</t>
+          <t>A 34708-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45320.53537037037</v>
+        <v>45140.9924537037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16213,7 +16208,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16250,14 +16245,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 11270-2025</t>
+          <t>A 1980-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45726.40613425926</v>
+        <v>45308</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16270,7 +16265,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16307,14 +16302,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 61687-2023</t>
+          <t>A 56456-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45264</v>
+        <v>44893.31987268518</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16327,7 +16322,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16364,14 +16359,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 57256-2022</t>
+          <t>A 12333-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44895.78923611111</v>
+        <v>44637.62513888889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16384,7 +16379,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16421,14 +16416,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 57257-2022</t>
+          <t>A 71326-2021</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44895.79283564815</v>
+        <v>44539.75721064815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16441,7 +16436,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16478,14 +16473,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 59266-2023</t>
+          <t>A 33299-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45253.55190972222</v>
+        <v>45116</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16498,7 +16493,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16535,14 +16530,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 18691-2023</t>
+          <t>A 38160-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45043.61253472222</v>
+        <v>44812</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16555,7 +16550,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.8</v>
+        <v>7.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16592,14 +16587,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 15737-2025</t>
+          <t>A 38920-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45748.54488425926</v>
+        <v>44816</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16612,7 +16607,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16649,14 +16644,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 6977-2025</t>
+          <t>A 55296-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45701.54565972222</v>
+        <v>45237.81827546296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16669,7 +16664,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -16706,14 +16701,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 57253-2022</t>
+          <t>A 52778-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44895.77885416667</v>
+        <v>44875</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16726,7 +16721,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.6</v>
+        <v>8.4</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -16763,14 +16758,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 42038-2024</t>
+          <t>A 4036-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45561.79969907407</v>
+        <v>45323.41983796296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16783,7 +16778,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>7.2</v>
+        <v>2.4</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -16820,14 +16815,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 35059-2023</t>
+          <t>A 59946-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45142</v>
+        <v>44909.38717592593</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16840,7 +16835,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -16877,14 +16872,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 50712-2021</t>
+          <t>A 56164-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44460.36731481482</v>
+        <v>45624.54939814815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16897,7 +16892,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.7</v>
+        <v>15.7</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -16934,14 +16929,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 50713-2021</t>
+          <t>A 6977-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44460.36797453704</v>
+        <v>45701.54565972222</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16954,7 +16949,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -16998,7 +16993,7 @@
         <v>44900</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17048,14 +17043,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 1141-2023</t>
+          <t>A 52918-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44935</v>
+        <v>45226.52905092593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17068,7 +17063,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17105,14 +17100,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 1152-2023</t>
+          <t>A 13194-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44935.64951388889</v>
+        <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17125,7 +17120,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17162,14 +17157,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 71326-2021</t>
+          <t>A 61737-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44539.75721064815</v>
+        <v>45265.69740740741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17182,7 +17177,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17219,14 +17214,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 73305-2021</t>
+          <t>A 18842-2021</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44551.3184837963</v>
+        <v>44307</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17239,7 +17234,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17276,14 +17271,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 9013-2023</t>
+          <t>A 42427-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44979.60032407408</v>
+        <v>45180</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17296,7 +17291,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17333,14 +17328,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 35608-2023</t>
+          <t>A 61269-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45146</v>
+        <v>45645.74246527778</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17353,7 +17348,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17390,14 +17385,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 9012-2023</t>
+          <t>A 32771-2021</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44979.59778935185</v>
+        <v>44375</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17410,7 +17405,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17447,14 +17442,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 9413-2024</t>
+          <t>A 52237-2021</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45359.44399305555</v>
+        <v>44463.60166666667</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17467,7 +17462,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17504,14 +17499,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 9450-2024</t>
+          <t>A 9218-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45358</v>
+        <v>45358.51653935185</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17524,7 +17519,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17561,14 +17556,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 53719-2023</t>
+          <t>A 60819-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45230.72717592592</v>
+        <v>45260.73208333334</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17581,7 +17576,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17618,14 +17613,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 53374-2023</t>
+          <t>A 9380-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45229</v>
+        <v>45715.34340277778</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17637,8 +17632,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G298" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17675,14 +17675,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 32771-2021</t>
+          <t>A 18691-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44375</v>
+        <v>45043.61253472222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -17732,14 +17732,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 13481-2023</t>
+          <t>A 12675-2021</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45005</v>
+        <v>44270.53107638889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -17789,14 +17789,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 57759-2023</t>
+          <t>A 6336-2022</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45246.8422337963</v>
+        <v>44600.57196759259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -17846,14 +17846,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 51467-2023</t>
+          <t>A 10165-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45221.75239583333</v>
+        <v>45719.65021990741</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17865,8 +17865,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G302" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -17903,14 +17908,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 25764-2023</t>
+          <t>A 55356-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45090.45520833333</v>
+        <v>45621.80996527777</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17923,7 +17928,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -17960,14 +17965,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 20443-2024</t>
+          <t>A 43624-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45435.62212962963</v>
+        <v>45569.4868287037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -17979,8 +17984,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G304" t="n">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18017,14 +18027,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 21303-2024</t>
+          <t>A 17911-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45440.6750462963</v>
+        <v>45758.74115740741</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18037,7 +18047,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18074,14 +18084,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 55296-2023</t>
+          <t>A 13511-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45237.81827546296</v>
+        <v>45387</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18094,7 +18104,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18131,14 +18141,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 12026-2024</t>
+          <t>A 20240-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45377.37309027778</v>
+        <v>45055.68784722222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18151,7 +18161,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18188,14 +18198,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 22901-2024</t>
+          <t>A 12016-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45448.70333333333</v>
+        <v>45728</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18208,7 +18218,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18245,14 +18255,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 12024-2024</t>
+          <t>A 20536-2022</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45377</v>
+        <v>44700</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18265,7 +18275,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18302,14 +18312,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 20433-2024</t>
+          <t>A 57465-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45435.61200231482</v>
+        <v>45630.32784722222</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18322,7 +18332,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18359,14 +18369,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 9216-2024</t>
+          <t>A 579-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45358.50931712963</v>
+        <v>45299</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18379,7 +18389,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18416,14 +18426,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 11589-2022</t>
+          <t>A 20911-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44631</v>
+        <v>45777.40738425926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18436,7 +18446,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18473,14 +18483,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 2680-2025</t>
+          <t>A 20915-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45677.34737268519</v>
+        <v>45777.40862268519</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18493,7 +18503,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18530,14 +18540,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 56856-2024</t>
+          <t>A 725-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45628.54497685185</v>
+        <v>45665.391875</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18550,7 +18560,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18587,14 +18597,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 49678-2023</t>
+          <t>A 13513-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45212.33935185185</v>
+        <v>45387</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18607,7 +18617,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18644,14 +18654,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 2781-2025</t>
+          <t>A 10303-2024</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45677.54344907407</v>
+        <v>45365</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18664,7 +18674,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18701,14 +18711,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 61879-2023</t>
+          <t>A 9098-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45266.42527777778</v>
+        <v>45713.68337962963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18721,7 +18731,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -18758,14 +18768,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 58514-2024</t>
+          <t>A 14901-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45635.42575231481</v>
+        <v>45743.48797453703</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18777,8 +18787,13 @@
           <t>VARA</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G318" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -18815,14 +18830,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 13511-2024</t>
+          <t>A 23669-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45387</v>
+        <v>45792.93181712963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18835,7 +18850,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -18872,14 +18887,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 12668-2021</t>
+          <t>A 23668-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44270</v>
+        <v>45792.90586805555</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18892,7 +18907,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -18929,14 +18944,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 40224-2024</t>
+          <t>A 23865-2025</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45554.59815972222</v>
+        <v>45793.67059027778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -18948,13 +18963,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G321" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -18991,14 +19001,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 43620-2024</t>
+          <t>A 4303-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45569.481875</v>
+        <v>45685</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19010,13 +19020,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G322" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19053,14 +19058,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 10165-2025</t>
+          <t>A 48908-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45719.65021990741</v>
+        <v>45594.36315972222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19072,13 +19077,8 @@
           <t>VARA</t>
         </is>
       </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G323" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19115,14 +19115,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 52237-2021</t>
+          <t>A 24609-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>44463.60166666667</v>
+        <v>45798.58065972223</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19172,14 +19172,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 38160-2022</t>
+          <t>A 25128-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>44812</v>
+        <v>45800.37969907407</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19192,7 +19192,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19229,14 +19229,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 14593-2022</t>
+          <t>A 25359-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>44655.57246527778</v>
+        <v>45800.61756944445</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19286,14 +19286,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 6336-2022</t>
+          <t>A 27856-2024</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>44600.57196759259</v>
+        <v>45475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19340,17 +19340,17 @@
       </c>
       <c r="R327" s="2" t="inlineStr"/>
     </row>
-    <row r="328">
+    <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 43754-2022</t>
+          <t>A 51398-2024</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>44837</v>
+        <v>45604.4233912037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19396,6 +19396,291 @@
         <v>0</v>
       </c>
       <c r="R328" s="2" t="inlineStr"/>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>A 27819-2024</t>
+        </is>
+      </c>
+      <c r="B329" s="1" t="n">
+        <v>45475</v>
+      </c>
+      <c r="C329" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G329" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>0</v>
+      </c>
+      <c r="O329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R329" s="2" t="inlineStr"/>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>A 57313-2024</t>
+        </is>
+      </c>
+      <c r="B330" s="1" t="n">
+        <v>45629</v>
+      </c>
+      <c r="C330" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0</v>
+      </c>
+      <c r="O330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" s="2" t="inlineStr"/>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>A 57295-2024</t>
+        </is>
+      </c>
+      <c r="B331" s="1" t="n">
+        <v>45629</v>
+      </c>
+      <c r="C331" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>0</v>
+      </c>
+      <c r="O331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R331" s="2" t="inlineStr"/>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>A 26786-2025</t>
+        </is>
+      </c>
+      <c r="B332" s="1" t="n">
+        <v>45810.58515046296</v>
+      </c>
+      <c r="C332" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>0</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" s="2" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>A 27151-2025</t>
+        </is>
+      </c>
+      <c r="B333" s="1" t="n">
+        <v>45812.32086805555</v>
+      </c>
+      <c r="C333" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>VARA</t>
+        </is>
+      </c>
+      <c r="G333" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N333" t="n">
+        <v>0</v>
+      </c>
+      <c r="O333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R333" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VARA.xlsx
+++ b/Översikt VARA.xlsx
@@ -575,7 +575,7 @@
         <v>45695.66266203704</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45999</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>45950.23784722222</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>44875</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44264</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>44600.48700231482</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>44782.61696759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44420.38428240741</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>44356.42327546296</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>44305.59869212963</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>44796.56913194444</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>44620</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1352,7 +1352,7 @@
         <v>44432</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>44475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>44314.54328703704</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>44448.8524537037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>44461</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44627.56489583333</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>44503.61056712963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>44378</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>44831.4771412037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>44867.89589120371</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         <v>44851.3972337963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44851.74130787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>44342</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44378.41319444445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44587</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>44474</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>44504</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         <v>44267</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         <v>44746.7121412037</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44851.74324074074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2549,7 +2549,7 @@
         <v>44851.74546296296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44867</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>44376.6027662037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>44886.56302083333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>44704.53608796297</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44448</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         <v>44299</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44460.36069444445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
         <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         <v>44378</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>44858</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44270.36637731481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44867</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>44431.35026620371</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>44441</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>44343</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>44594</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>44867</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>44785.60559027778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         <v>44623</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>44704.53440972222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>44636.73104166667</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         <v>44636.73430555555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44616.30952546297</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>45554.59815972222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>45687.62030092593</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>45358</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>45435.62212962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>45628.54497685185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
         <v>45510</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>45643.79293981481</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>44979.5653125</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
         <v>44979.59778935185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>45440.6750462963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>45635.42575231481</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         <v>45386</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
         <v>44973.52238425926</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>45720</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45264</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45253.54922453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45253.64171296296</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45377.3702662037</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45569.47056712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5015,7 +5015,7 @@
         <v>45359.44399305555</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45358</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>45232.55328703704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>44935.64951388889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>44550</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5300,7 +5300,7 @@
         <v>45629</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
         <v>45448.70333333333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         <v>45435.66646990741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44655.57246527778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
         <v>45748.54488425926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         <v>45232.72627314815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44895.78674768518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
         <v>44771.57344907407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5756,7 +5756,7 @@
         <v>45142</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         <v>45740</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5870,7 +5870,7 @@
         <v>44823.35134259259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>45575.44268518518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>45327.47383101852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>45638.59061342593</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>45728</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>45230.72717592592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
         <v>45176.36280092593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>45713.64200231482</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45146</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6388,7 +6388,7 @@
         <v>45820.45300925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6450,7 +6450,7 @@
         <v>44539.75721064815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45685.65704861111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         <v>44895.77885416667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>45687.61902777778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45728</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         <v>45889.58263888889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>45889.58648148148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>45824.45894675926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>45823.35009259259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>45825.78996527778</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>44867.32679398148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>45757</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>45757.60640046297</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>45576.4172337963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>45832.65693287037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>45898.62895833333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>45090.45520833333</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>45899.35118055555</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>45898.63497685185</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>45898.63819444444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>45265.69861111111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45834.3266087963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45833.75311342593</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45905</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45904.56365740741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45359.44168981481</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45908.87545138889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>45786</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>45908.87262731481</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>45841</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8170,7 +8170,7 @@
         <v>45841.66825231481</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>45842.60122685185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45910.46533564815</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>45279</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         <v>45279</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>45915.67596064815</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>45348.69953703704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>45596.86387731481</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>45769.50775462963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>44935</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>45667.38278935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>44934</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>44911.4247800926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8911,7 +8911,7 @@
         <v>45701.54447916667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8968,7 +8968,7 @@
         <v>45726.40613425926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>45924.36851851852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9082,7 +9082,7 @@
         <v>45677.34737268519</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44616</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>45637.68851851852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>45870</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>45870</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9367,7 +9367,7 @@
         <v>45098.55438657408</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>44934</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         <v>45335.61695601852</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>45196.56315972222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>45595.6597337963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>45932</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44631</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>45877</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>45932.33591435185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9880,7 +9880,7 @@
         <v>44378.4540162037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>45932</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>45142</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10051,7 +10051,7 @@
         <v>45243.80131944444</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>45271</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>45596.86271990741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         <v>45478.78487268519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10279,7 +10279,7 @@
         <v>45943.55126157407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         <v>45265.70538194444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10398,7 +10398,7 @@
         <v>45940.51858796296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>44979.60032407408</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
         <v>45944</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>45359.4405787037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>45358.50931712963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>45947.64262731482</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>45947.64576388889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>45947.6365625</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>45561.79969907407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45246.8422337963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>45952.75775462963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11025,7 +11025,7 @@
         <v>44460.36636574074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>44460.36731481482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11139,7 +11139,7 @@
         <v>45960.46693287037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11196,7 +11196,7 @@
         <v>45757.60574074074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
         <v>45960.46254629629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
         <v>45960.79004629629</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>45217.75505787037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>44551.3184837963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44685</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>45967.5977199074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>45377</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>45221.75239583333</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>45971.65128472223</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>45622.64577546297</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>45973.48353009259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>44251</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>45397</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>45974.6370949074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44895.78923611111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44895.79283564815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>45979.6544212963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45364.8280787037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44565</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45212.33935185185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45377.37309027778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45629</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45993.61226851852</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45338.68309027778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12688,7 +12688,7 @@
         <v>44862.70869212963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>45116</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>45116</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>45994.54114583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>45996.3097337963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>45870</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>46038.50097222222</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>45142</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>44988.67260416667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         <v>45274</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45629</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>44837</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13377,7 +13377,7 @@
         <v>46045.38021990741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>44307</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>44348.67560185185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>45267</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>44460.36797453704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>45440.66341435185</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45677.54344907407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45688.61510416667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -13838,7 +13838,7 @@
         <v>45541.65391203704</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>44579</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>45840</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>45601.84043981481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>46048.44986111111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>45202.53005787037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>46020.43096064815</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>45266.42527777778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>45005</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>46066.41101851852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>45338.67915509259</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14480,7 +14480,7 @@
         <v>45434.63688657407</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>46069.38609953703</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14594,7 +14594,7 @@
         <v>44900</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>45142</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
         <v>44858</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>45160.48486111111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -14822,7 +14822,7 @@
         <v>45435.61200231482</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -14879,7 +14879,7 @@
         <v>45435</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>45435.65636574074</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>44270</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>44427</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>45320.53537037037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>45218.42068287037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15221,7 +15221,7 @@
         <v>46073.45140046296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15278,7 +15278,7 @@
         <v>46073.44083333333</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>46073.44840277778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15392,7 +15392,7 @@
         <v>46073.44974537037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>46073.34420138889</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>45344.66310185185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>45610.63946759259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601.46166666667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>45253.55487268518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>45569.481875</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>45146</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>45728</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45229</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44642</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44615</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>45450.44878472222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>45253.55190972222</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45140.9924537037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45308</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44893.31987268518</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44637.62513888889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44539.75721064815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>45116</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44812</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44816</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45237.81827546296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44875</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>45323.41983796296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44909.38717592593</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>45624.54939814815</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>45701.54565972222</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44900</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>45226.52905092593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44644</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>45265.69740740741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44307</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>45180</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>45645.74246527778</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44375</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44463.60166666667</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>45358.51653935185</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>45260.73208333334</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>45715.34340277778</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>45043.61253472222</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17739,7 +17739,7 @@
         <v>44270.53107638889</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -17796,7 +17796,7 @@
         <v>44600.57196759259</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -17853,7 +17853,7 @@
         <v>45719.65021990741</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>45621.80996527777</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>45569.4868287037</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45758.74115740741</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45387</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45055.68784722222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45728</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44700</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18319,7 +18319,7 @@
         <v>45630.32784722222</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         <v>45299</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45777.40738425926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>45777.40862268519</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18547,7 +18547,7 @@
         <v>45665.391875</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18604,7 +18604,7 @@
         <v>45387</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         <v>45365</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>45713.68337962963</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>45743.48797453703</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         <v>45792.93181712963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -18894,7 +18894,7 @@
         <v>45792.90586805555</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -18951,7 +18951,7 @@
         <v>45793.67059027778</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>45685</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>45594.36315972222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19122,7 +19122,7 @@
         <v>45798.58065972223</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>45800.37969907407</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45800.61756944445</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19293,7 +19293,7 @@
         <v>45475</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>45604.4233912037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>45475</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19464,7 +19464,7 @@
         <v>45629</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19521,7 +19521,7 @@
         <v>45629</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>45810.58515046296</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19635,7 +19635,7 @@
         <v>45812.32086805555</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
